--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2404397C-EA18-4E16-BAFA-65D64C78351A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE661E-7A9C-42FD-B1E8-C8B5E6B69D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
-    <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId2"/>
+    <sheet name="CMMNT" sheetId="3" r:id="rId2"/>
+    <sheet name="SC2_DealSetup" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
   <si>
     <t>rowid</t>
   </si>
@@ -396,18 +397,9 @@
     <t>1</t>
   </si>
   <si>
-    <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
-  </si>
-  <si>
-    <t>BNS2SYN_</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
-    <t>BNS2SYN_10082020000318AFD</t>
-  </si>
-  <si>
     <t>S210082020000320TJN</t>
   </si>
   <si>
@@ -609,10 +601,52 @@
     <t>Agency Australia</t>
   </si>
   <si>
-    <t>Extract_Path</t>
-  </si>
-  <si>
-    <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Extract_Files\</t>
+    <t>AHBCO_003</t>
+  </si>
+  <si>
+    <t>DNR2SYN_</t>
+  </si>
+  <si>
+    <t>DNR2SYN_10082020000318AFD</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>To_Date</t>
+  </si>
+  <si>
+    <t>Branch_Code</t>
+  </si>
+  <si>
+    <t>CG852</t>
+  </si>
+  <si>
+    <t>C:\\Git_Evergreen\\fms_cba\\DataSet\\Integration_DataSet\\Extracts\\DNR\\DNR_Reports\\</t>
+  </si>
+  <si>
+    <t>Report_Path</t>
+  </si>
+  <si>
+    <t>CMMNT_001</t>
+  </si>
+  <si>
+    <t>Sheet_Name</t>
+  </si>
+  <si>
+    <t>Report Prompt_1</t>
+  </si>
+  <si>
+    <t>Columns_To_Validate</t>
+  </si>
+  <si>
+    <t>Report Name:|Date Range:|To Date:</t>
+  </si>
+  <si>
+    <t>Delimiter</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -752,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -780,6 +814,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,36 +1135,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F202B85-76BE-4B84-A6D1-C0DFB1728BAE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>191</v>
       </c>
+      <c r="E1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="D2" s="17">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1132,6 +1197,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E9AE5-79E7-4891-96CA-846CB86368D1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1140,13 +1268,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1048576"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
@@ -1615,151 +1743,151 @@
         <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="E2" s="8">
         <v>30</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="AB2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AD2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AF2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AG2" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AH2" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AM2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AO2" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AP2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AR2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="AT2" s="15">
         <v>10</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AY2" s="15">
         <v>10</v>
@@ -1768,52 +1896,52 @@
         <v>10</v>
       </c>
       <c r="BA2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD2" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="BB2" s="10" t="s">
+      <c r="BE2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF2" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BG2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BH2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="BE2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BI2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BK2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BL2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP2" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="BQ2" s="15">
         <v>60</v>
@@ -1828,136 +1956,136 @@
         <v>100</v>
       </c>
       <c r="BU2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BW2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="CC2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="CD2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="BW2" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX2" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="BY2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="BZ2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="CA2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="CB2" s="12" t="s">
+      <c r="CE2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="CC2" s="9" t="s">
+      <c r="CG2" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="CD2" s="9" t="s">
+      <c r="CH2" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="CE2" s="9" t="s">
+      <c r="CI2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="CG2" s="16" t="s">
+      <c r="CK2" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="CH2" s="16" t="s">
+      <c r="CL2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM2" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="CI2" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="CJ2" s="16" t="s">
+      <c r="CN2" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="CK2" s="16" t="s">
+      <c r="CO2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="CP2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="CQ2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="CL2" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="CM2" s="16" t="s">
+      <c r="CR2" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="CN2" s="16" t="s">
+      <c r="CS2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="CT2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="CU2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV2" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="CO2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="CP2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="CQ2" s="16" t="s">
+      <c r="CW2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="CX2" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="CR2" s="16" t="s">
+      <c r="CY2" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="CS2" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="CT2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="CU2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="CV2" s="16" t="s">
+      <c r="CZ2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DA2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="CW2" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="CX2" s="16" t="s">
+      <c r="DB2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="CY2" s="16" t="s">
+      <c r="DC2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="DF2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="CZ2" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="DA2" s="16" t="s">
+      <c r="DH2" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="DJ2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="DK2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="DM2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO2" t="s">
         <v>187</v>
-      </c>
-      <c r="DB2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="DC2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="DF2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="DG2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="DH2" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="DI2" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="DJ2" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="DK2" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL2" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="DM2" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -3,38 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2404397C-EA18-4E16-BAFA-65D64C78351A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{641A9578-C623-4EC5-B705-3CC88D73D364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="555" yWindow="5325" windowWidth="27090" windowHeight="6990" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
-    <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId2"/>
+    <sheet name="CALND_001" sheetId="3" r:id="rId2"/>
+    <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:V20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="202">
   <si>
     <t>rowid</t>
   </si>
@@ -613,6 +602,33 @@
   </si>
   <si>
     <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Extract_Files\</t>
+  </si>
+  <si>
+    <t>CALND_001</t>
+  </si>
+  <si>
+    <t>Report_Path</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Processing_Area</t>
+  </si>
+  <si>
+    <t>Deal_Calender</t>
+  </si>
+  <si>
+    <t>Sheet_Name</t>
+  </si>
+  <si>
+    <t>AUSYD</t>
+  </si>
+  <si>
+    <t>Outstandings</t>
+  </si>
+  <si>
+    <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
   </si>
 </sst>
 </file>
@@ -752,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -780,6 +796,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,18 +1113,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F202B85-76BE-4B84-A6D1-C0DFB1728BAE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1135,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1132,6 +1149,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A6E14-65A1-430C-A9F8-D210FD78FFDC}">
+  <dimension ref="A1:DO2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:119" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E9AE5-79E7-4891-96CA-846CB86368D1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1140,118 +1222,118 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1048576"/>
+      <selection pane="topRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="8" customWidth="1"/>
     <col min="13" max="13" width="20" style="8" customWidth="1"/>
     <col min="14" max="14" width="22" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="8" customWidth="1"/>
-    <col min="26" max="27" width="29.6640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="18.5546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="8" customWidth="1"/>
+    <col min="26" max="27" width="29.7109375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="8" customWidth="1"/>
     <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="23.44140625" style="8" customWidth="1"/>
-    <col min="37" max="37" width="44.88671875" style="8" customWidth="1"/>
-    <col min="38" max="40" width="19.88671875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="44.85546875" style="8" customWidth="1"/>
+    <col min="38" max="40" width="19.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="25" style="8" customWidth="1"/>
-    <col min="42" max="42" width="24.44140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="28.88671875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" style="8" customWidth="1"/>
     <col min="44" max="44" width="36" style="8" customWidth="1"/>
-    <col min="45" max="45" width="34.44140625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="26.6640625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" style="8" customWidth="1"/>
-    <col min="49" max="49" width="35.109375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="29.44140625" style="8" customWidth="1"/>
-    <col min="51" max="52" width="25.88671875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="34.88671875" style="8" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="8" customWidth="1"/>
+    <col min="45" max="45" width="34.42578125" style="8" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" style="8" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" style="8" customWidth="1"/>
+    <col min="49" max="49" width="35.140625" style="8" customWidth="1"/>
+    <col min="50" max="50" width="29.42578125" style="8" customWidth="1"/>
+    <col min="51" max="52" width="25.85546875" style="8" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="8" customWidth="1"/>
     <col min="55" max="55" width="19" style="8" customWidth="1"/>
-    <col min="56" max="56" width="32.44140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="17.33203125" style="8" customWidth="1"/>
-    <col min="58" max="58" width="26.33203125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="23.5546875" style="8" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" style="8" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" style="8" customWidth="1"/>
+    <col min="58" max="58" width="26.28515625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" style="8" customWidth="1"/>
     <col min="60" max="60" width="28" style="8" customWidth="1"/>
-    <col min="61" max="61" width="34.88671875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="21.109375" style="8" customWidth="1"/>
+    <col min="61" max="61" width="34.85546875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="21.140625" style="8" customWidth="1"/>
     <col min="64" max="64" width="21" style="8" customWidth="1"/>
     <col min="65" max="66" width="22" style="8" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="24.5546875" style="8" customWidth="1"/>
-    <col min="69" max="71" width="19.44140625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" style="8" customWidth="1"/>
-    <col min="73" max="75" width="17.33203125" style="8" customWidth="1"/>
-    <col min="76" max="78" width="17.5546875" style="8" customWidth="1"/>
-    <col min="79" max="79" width="26.33203125" style="8" customWidth="1"/>
-    <col min="80" max="80" width="34.88671875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" style="8" customWidth="1"/>
-    <col min="82" max="82" width="27.33203125" style="8" customWidth="1"/>
+    <col min="67" max="67" width="17.7109375" style="8" customWidth="1"/>
+    <col min="68" max="68" width="24.5703125" style="8" customWidth="1"/>
+    <col min="69" max="71" width="19.42578125" style="8" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" style="8" customWidth="1"/>
+    <col min="73" max="75" width="17.28515625" style="8" customWidth="1"/>
+    <col min="76" max="78" width="17.5703125" style="8" customWidth="1"/>
+    <col min="79" max="79" width="26.28515625" style="8" customWidth="1"/>
+    <col min="80" max="80" width="34.85546875" style="8" customWidth="1"/>
+    <col min="81" max="81" width="26.5703125" style="8" customWidth="1"/>
+    <col min="82" max="82" width="27.28515625" style="8" customWidth="1"/>
     <col min="83" max="83" width="20" style="8" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.44140625" style="8" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.42578125" style="8" customWidth="1"/>
     <col min="86" max="86" width="19" style="8" customWidth="1"/>
-    <col min="87" max="87" width="36.6640625" style="16" customWidth="1"/>
-    <col min="88" max="88" width="18.109375" style="16" customWidth="1"/>
-    <col min="89" max="89" width="15.5546875" style="16" customWidth="1"/>
-    <col min="90" max="90" width="23.33203125" style="16" customWidth="1"/>
-    <col min="91" max="91" width="11.33203125" style="16" customWidth="1"/>
-    <col min="92" max="92" width="8.6640625" style="16" customWidth="1"/>
-    <col min="93" max="93" width="18.6640625" style="16" customWidth="1"/>
+    <col min="87" max="87" width="36.7109375" style="16" customWidth="1"/>
+    <col min="88" max="88" width="18.140625" style="16" customWidth="1"/>
+    <col min="89" max="89" width="15.5703125" style="16" customWidth="1"/>
+    <col min="90" max="90" width="23.28515625" style="16" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="16" customWidth="1"/>
+    <col min="92" max="92" width="8.7109375" style="16" customWidth="1"/>
+    <col min="93" max="93" width="18.7109375" style="16" customWidth="1"/>
     <col min="94" max="94" width="18" style="16" customWidth="1"/>
-    <col min="95" max="95" width="12.6640625" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11.44140625" style="16" customWidth="1"/>
-    <col min="97" max="97" width="23.44140625" style="8" customWidth="1"/>
-    <col min="98" max="98" width="42.109375" style="16" customWidth="1"/>
-    <col min="99" max="99" width="47.88671875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="12.7109375" style="16" customWidth="1"/>
+    <col min="96" max="96" width="11.42578125" style="16" customWidth="1"/>
+    <col min="97" max="97" width="23.42578125" style="8" customWidth="1"/>
+    <col min="98" max="98" width="42.140625" style="16" customWidth="1"/>
+    <col min="99" max="99" width="47.85546875" style="16" customWidth="1"/>
     <col min="100" max="100" width="29" style="16" customWidth="1"/>
-    <col min="101" max="101" width="28.33203125" style="16" customWidth="1"/>
-    <col min="102" max="102" width="24.5546875" style="16" customWidth="1"/>
-    <col min="103" max="103" width="8.88671875" style="16" customWidth="1"/>
+    <col min="101" max="101" width="28.28515625" style="16" customWidth="1"/>
+    <col min="102" max="102" width="24.5703125" style="16" customWidth="1"/>
+    <col min="103" max="103" width="8.85546875" style="16" customWidth="1"/>
     <col min="104" max="104" width="25" style="16" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" style="8" customWidth="1"/>
-    <col min="106" max="106" width="28.44140625" style="8" customWidth="1"/>
-    <col min="107" max="107" width="21.109375" style="8" customWidth="1"/>
+    <col min="105" max="105" width="19.28515625" style="8" customWidth="1"/>
+    <col min="106" max="106" width="28.42578125" style="8" customWidth="1"/>
+    <col min="107" max="107" width="21.140625" style="8" customWidth="1"/>
     <col min="108" max="108" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="20.44140625" style="8" customWidth="1"/>
+    <col min="109" max="109" width="20.42578125" style="8" customWidth="1"/>
     <col min="110" max="110" width="24" style="8" customWidth="1"/>
-    <col min="111" max="112" width="18.33203125" style="8" customWidth="1"/>
+    <col min="111" max="112" width="18.28515625" style="8" customWidth="1"/>
     <col min="113" max="113" width="35" style="8" customWidth="1"/>
-    <col min="114" max="114" width="19.33203125" style="8" customWidth="1"/>
-    <col min="115" max="115" width="32.33203125" style="8" customWidth="1"/>
-    <col min="116" max="116" width="21.109375" style="8" customWidth="1"/>
-    <col min="117" max="117" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.28515625" style="8" customWidth="1"/>
+    <col min="115" max="115" width="32.28515625" style="8" customWidth="1"/>
+    <col min="116" max="116" width="21.140625" style="8" customWidth="1"/>
+    <col min="117" max="117" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE661E-7A9C-42FD-B1E8-C8B5E6B69D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583741D-7069-442F-A410-6BC5CF435CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
     <sheet name="CMMNT" sheetId="3" r:id="rId2"/>
-    <sheet name="SC2_DealSetup" sheetId="1" r:id="rId3"/>
+    <sheet name="ALERT" sheetId="4" r:id="rId3"/>
+    <sheet name="SC2_DealSetup" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="208">
   <si>
     <t>rowid</t>
   </si>
@@ -640,13 +641,25 @@
     <t>Columns_To_Validate</t>
   </si>
   <si>
-    <t>Report Name:|Date Range:|To Date:</t>
-  </si>
-  <si>
     <t>Delimiter</t>
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>ALERT_001</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Name:|Date Range:|To Date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Name:|From Date:|To Date: </t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F202B85-76BE-4B84-A6D1-C0DFB1728BAE}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1204,23 @@
         <v>194</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1200,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1255,7 @@
         <v>196</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>198</v>
@@ -1245,13 +1275,13 @@
         <v>195</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1260,6 +1290,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB52E21-7788-49EE-AC26-7FEEA4EB18E0}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E9AE5-79E7-4891-96CA-846CB86368D1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE661E-7A9C-42FD-B1E8-C8B5E6B69D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB377E-CE00-43D4-918A-F9747BD60BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="30690" yWindow="4935" windowWidth="21285" windowHeight="10125" activeTab="2" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
     <sheet name="CMMNT" sheetId="3" r:id="rId2"/>
-    <sheet name="SC2_DealSetup" sheetId="1" r:id="rId3"/>
+    <sheet name="AHBCO" sheetId="4" r:id="rId3"/>
+    <sheet name="SC2_DealSetup" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="213">
   <si>
     <t>rowid</t>
   </si>
@@ -647,13 +648,45 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>Host_Bank_Share_Amount</t>
+  </si>
+  <si>
+    <t>AHBCO_000</t>
+  </si>
+  <si>
+    <t>AHBCO_001</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AHBCO_002</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>Cashflow_Status</t>
+  </si>
+  <si>
+    <t>Cashflow_ID</t>
+  </si>
+  <si>
+    <t>RQEASYUU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.########"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -701,8 +734,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,8 +760,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E5E5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -782,11 +826,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE2E2E2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE2E2E2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE2E2E2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE2E2E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -821,6 +893,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,17 +1234,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1264,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1200,21 +1293,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1260,6 +1353,128 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84BA0A5-5FF9-4593-A4E0-F78C1DAB8817}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="22">
+        <v>166.11</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="28">
+        <v>70000</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="28">
+        <v>80000</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E9AE5-79E7-4891-96CA-846CB86368D1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1271,115 +1486,115 @@
       <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="8" customWidth="1"/>
     <col min="13" max="13" width="20" style="8" customWidth="1"/>
     <col min="14" max="14" width="22" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="8" customWidth="1"/>
-    <col min="26" max="27" width="29.6640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="18.5546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="8" customWidth="1"/>
+    <col min="26" max="27" width="29.7109375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="8" customWidth="1"/>
     <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="23.44140625" style="8" customWidth="1"/>
-    <col min="37" max="37" width="44.88671875" style="8" customWidth="1"/>
-    <col min="38" max="40" width="19.88671875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="44.85546875" style="8" customWidth="1"/>
+    <col min="38" max="40" width="19.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="25" style="8" customWidth="1"/>
-    <col min="42" max="42" width="24.44140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="28.88671875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" style="8" customWidth="1"/>
     <col min="44" max="44" width="36" style="8" customWidth="1"/>
-    <col min="45" max="45" width="34.44140625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="26.6640625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" style="8" customWidth="1"/>
-    <col min="49" max="49" width="35.109375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="29.44140625" style="8" customWidth="1"/>
-    <col min="51" max="52" width="25.88671875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="34.88671875" style="8" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="8" customWidth="1"/>
+    <col min="45" max="45" width="34.42578125" style="8" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" style="8" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" style="8" customWidth="1"/>
+    <col min="49" max="49" width="35.140625" style="8" customWidth="1"/>
+    <col min="50" max="50" width="29.42578125" style="8" customWidth="1"/>
+    <col min="51" max="52" width="25.85546875" style="8" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="8" customWidth="1"/>
     <col min="55" max="55" width="19" style="8" customWidth="1"/>
-    <col min="56" max="56" width="32.44140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="17.33203125" style="8" customWidth="1"/>
-    <col min="58" max="58" width="26.33203125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="23.5546875" style="8" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" style="8" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" style="8" customWidth="1"/>
+    <col min="58" max="58" width="26.28515625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" style="8" customWidth="1"/>
     <col min="60" max="60" width="28" style="8" customWidth="1"/>
-    <col min="61" max="61" width="34.88671875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="21.109375" style="8" customWidth="1"/>
+    <col min="61" max="61" width="34.85546875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="21.140625" style="8" customWidth="1"/>
     <col min="64" max="64" width="21" style="8" customWidth="1"/>
     <col min="65" max="66" width="22" style="8" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="24.5546875" style="8" customWidth="1"/>
-    <col min="69" max="71" width="19.44140625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" style="8" customWidth="1"/>
-    <col min="73" max="75" width="17.33203125" style="8" customWidth="1"/>
-    <col min="76" max="78" width="17.5546875" style="8" customWidth="1"/>
-    <col min="79" max="79" width="26.33203125" style="8" customWidth="1"/>
-    <col min="80" max="80" width="34.88671875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" style="8" customWidth="1"/>
-    <col min="82" max="82" width="27.33203125" style="8" customWidth="1"/>
+    <col min="67" max="67" width="17.7109375" style="8" customWidth="1"/>
+    <col min="68" max="68" width="24.5703125" style="8" customWidth="1"/>
+    <col min="69" max="71" width="19.42578125" style="8" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" style="8" customWidth="1"/>
+    <col min="73" max="75" width="17.28515625" style="8" customWidth="1"/>
+    <col min="76" max="78" width="17.5703125" style="8" customWidth="1"/>
+    <col min="79" max="79" width="26.28515625" style="8" customWidth="1"/>
+    <col min="80" max="80" width="34.85546875" style="8" customWidth="1"/>
+    <col min="81" max="81" width="26.5703125" style="8" customWidth="1"/>
+    <col min="82" max="82" width="27.28515625" style="8" customWidth="1"/>
     <col min="83" max="83" width="20" style="8" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.44140625" style="8" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.42578125" style="8" customWidth="1"/>
     <col min="86" max="86" width="19" style="8" customWidth="1"/>
-    <col min="87" max="87" width="36.6640625" style="16" customWidth="1"/>
-    <col min="88" max="88" width="18.109375" style="16" customWidth="1"/>
-    <col min="89" max="89" width="15.5546875" style="16" customWidth="1"/>
-    <col min="90" max="90" width="23.33203125" style="16" customWidth="1"/>
-    <col min="91" max="91" width="11.33203125" style="16" customWidth="1"/>
-    <col min="92" max="92" width="8.6640625" style="16" customWidth="1"/>
-    <col min="93" max="93" width="18.6640625" style="16" customWidth="1"/>
+    <col min="87" max="87" width="36.7109375" style="16" customWidth="1"/>
+    <col min="88" max="88" width="18.140625" style="16" customWidth="1"/>
+    <col min="89" max="89" width="15.5703125" style="16" customWidth="1"/>
+    <col min="90" max="90" width="23.28515625" style="16" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="16" customWidth="1"/>
+    <col min="92" max="92" width="8.7109375" style="16" customWidth="1"/>
+    <col min="93" max="93" width="18.7109375" style="16" customWidth="1"/>
     <col min="94" max="94" width="18" style="16" customWidth="1"/>
-    <col min="95" max="95" width="12.6640625" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11.44140625" style="16" customWidth="1"/>
-    <col min="97" max="97" width="23.44140625" style="8" customWidth="1"/>
-    <col min="98" max="98" width="42.109375" style="16" customWidth="1"/>
-    <col min="99" max="99" width="47.88671875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="12.7109375" style="16" customWidth="1"/>
+    <col min="96" max="96" width="11.42578125" style="16" customWidth="1"/>
+    <col min="97" max="97" width="23.42578125" style="8" customWidth="1"/>
+    <col min="98" max="98" width="42.140625" style="16" customWidth="1"/>
+    <col min="99" max="99" width="47.85546875" style="16" customWidth="1"/>
     <col min="100" max="100" width="29" style="16" customWidth="1"/>
-    <col min="101" max="101" width="28.33203125" style="16" customWidth="1"/>
-    <col min="102" max="102" width="24.5546875" style="16" customWidth="1"/>
-    <col min="103" max="103" width="8.88671875" style="16" customWidth="1"/>
+    <col min="101" max="101" width="28.28515625" style="16" customWidth="1"/>
+    <col min="102" max="102" width="24.5703125" style="16" customWidth="1"/>
+    <col min="103" max="103" width="8.85546875" style="16" customWidth="1"/>
     <col min="104" max="104" width="25" style="16" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" style="8" customWidth="1"/>
-    <col min="106" max="106" width="28.44140625" style="8" customWidth="1"/>
-    <col min="107" max="107" width="21.109375" style="8" customWidth="1"/>
+    <col min="105" max="105" width="19.28515625" style="8" customWidth="1"/>
+    <col min="106" max="106" width="28.42578125" style="8" customWidth="1"/>
+    <col min="107" max="107" width="21.140625" style="8" customWidth="1"/>
     <col min="108" max="108" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="20.44140625" style="8" customWidth="1"/>
+    <col min="109" max="109" width="20.42578125" style="8" customWidth="1"/>
     <col min="110" max="110" width="24" style="8" customWidth="1"/>
-    <col min="111" max="112" width="18.33203125" style="8" customWidth="1"/>
+    <col min="111" max="112" width="18.28515625" style="8" customWidth="1"/>
     <col min="113" max="113" width="35" style="8" customWidth="1"/>
-    <col min="114" max="114" width="19.33203125" style="8" customWidth="1"/>
-    <col min="115" max="115" width="32.33203125" style="8" customWidth="1"/>
-    <col min="116" max="116" width="21.109375" style="8" customWidth="1"/>
-    <col min="117" max="117" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.28515625" style="8" customWidth="1"/>
+    <col min="115" max="115" width="32.28515625" style="8" customWidth="1"/>
+    <col min="116" max="116" width="21.140625" style="8" customWidth="1"/>
+    <col min="117" max="117" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,35 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB377E-CE00-43D4-918A-F9747BD60BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884F33B5-7B3B-4572-B7BD-3CCF5684C293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="4935" windowWidth="21285" windowHeight="10125" activeTab="2" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="870" yWindow="1080" windowWidth="24015" windowHeight="10125" activeTab="2" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
     <sheet name="CMMNT" sheetId="3" r:id="rId2"/>
-    <sheet name="AHBCO" sheetId="4" r:id="rId3"/>
-    <sheet name="SC2_DealSetup" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="ALERT" sheetId="5" r:id="rId4"/>
+    <sheet name="SC2_DealSetup" sheetId="1" r:id="rId5"/>
+    <sheet name="CALND" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="221">
   <si>
     <t>rowid</t>
   </si>
@@ -650,15 +644,48 @@
     <t>|</t>
   </si>
   <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Processing_Area</t>
+  </si>
+  <si>
+    <t>Deal_Calender</t>
+  </si>
+  <si>
+    <t>CALND_001</t>
+  </si>
+  <si>
+    <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
+  </si>
+  <si>
+    <t>AUSYD</t>
+  </si>
+  <si>
+    <t>Outstandings</t>
+  </si>
+  <si>
+    <t>ALERT_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Name:|From Date:|To Date: </t>
+  </si>
+  <si>
     <t>Host_Bank_Share_Amount</t>
   </si>
   <si>
-    <t>AHBCO_000</t>
+    <t>Cashflow_Status</t>
+  </si>
+  <si>
+    <t>Cashflow_ID</t>
   </si>
   <si>
     <t>AHBCO_001</t>
   </si>
   <si>
+    <t>RQEASYUU</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -666,23 +693,13 @@
   </si>
   <si>
     <t>Released</t>
-  </si>
-  <si>
-    <t>Cashflow_Status</t>
-  </si>
-  <si>
-    <t>Cashflow_ID</t>
-  </si>
-  <si>
-    <t>RQEASYUU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.########"/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -858,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -893,16 +910,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1294,7 +1306,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1353,11 +1365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84BA0A5-5FF9-4593-A4E0-F78C1DAB8817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE0674A-FAAF-4ACF-A3E7-02FE56142021}">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1378,8 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1380,13 +1393,13 @@
         <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1397,76 +1410,65 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="22">
-        <v>166.11</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="27"/>
+      <c r="D2" s="27">
+        <v>70000</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="28">
-        <v>70000</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="D3" s="27">
+        <v>80000</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="28">
-        <v>80000</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1475,6 +1477,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E9AE5-79E7-4891-96CA-846CB86368D1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2308,4 +2372,69 @@
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7EAE79-2766-4380-825C-8B1570690CFF}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884F33B5-7B3B-4572-B7BD-3CCF5684C293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D42D18-1678-45A1-846C-808B4E189CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1080" windowWidth="24015" windowHeight="10125" activeTab="2" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="26685" yWindow="930" windowWidth="24015" windowHeight="10125" activeTab="2" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
     <sheet name="CMMNT" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="AHBCO" sheetId="6" r:id="rId3"/>
     <sheet name="ALERT" sheetId="5" r:id="rId4"/>
     <sheet name="SC2_DealSetup" sheetId="1" r:id="rId5"/>
     <sheet name="CALND" sheetId="4" r:id="rId6"/>
@@ -700,8 +700,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -918,11 +918,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB4209-1F90-4940-947E-EDFC8094093F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B71A17B-255E-4657-9DFF-557DBE9BA38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="216">
   <si>
     <t>rowid</t>
   </si>
@@ -668,13 +668,22 @@
   </si>
   <si>
     <t xml:space="preserve">Report Name:|From Date:|To Date: </t>
+  </si>
+  <si>
+    <t>CMMNT_002</t>
+  </si>
+  <si>
+    <t>Deal_2</t>
+  </si>
+  <si>
+    <t>Deal Name|Deal Tracking Number|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -683,7 +692,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -720,6 +729,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -807,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -843,6 +857,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,17 +1178,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1208,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1220,23 +1235,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5546875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1276,7 +1291,28 @@
         <v>201</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1289,16 +1325,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1354,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1355,115 +1391,115 @@
       <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="16.88671875" style="8" customWidth="1"/>
     <col min="13" max="13" width="20" style="8" customWidth="1"/>
     <col min="14" max="14" width="22" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.7109375" style="8" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.85546875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="32.42578125" style="8" customWidth="1"/>
-    <col min="26" max="27" width="29.7109375" style="8" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="8" customWidth="1"/>
-    <col min="29" max="29" width="18.85546875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="26.88671875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.88671875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.44140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="20.5546875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.6640625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="27.88671875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="32.44140625" style="8" customWidth="1"/>
+    <col min="26" max="27" width="29.6640625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="18.5546875" style="8" customWidth="1"/>
+    <col min="29" max="29" width="18.88671875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" style="8" customWidth="1"/>
     <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
-    <col min="36" max="36" width="23.42578125" style="8" customWidth="1"/>
-    <col min="37" max="37" width="44.85546875" style="8" customWidth="1"/>
-    <col min="38" max="40" width="19.85546875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="20.44140625" style="8" customWidth="1"/>
+    <col min="33" max="33" width="27.109375" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.109375" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" style="8" customWidth="1"/>
+    <col min="36" max="36" width="23.44140625" style="8" customWidth="1"/>
+    <col min="37" max="37" width="44.88671875" style="8" customWidth="1"/>
+    <col min="38" max="40" width="19.88671875" style="8" customWidth="1"/>
     <col min="41" max="41" width="25" style="8" customWidth="1"/>
-    <col min="42" max="42" width="24.42578125" style="8" customWidth="1"/>
-    <col min="43" max="43" width="28.85546875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="24.44140625" style="8" customWidth="1"/>
+    <col min="43" max="43" width="28.88671875" style="8" customWidth="1"/>
     <col min="44" max="44" width="36" style="8" customWidth="1"/>
-    <col min="45" max="45" width="34.42578125" style="8" customWidth="1"/>
-    <col min="46" max="46" width="26.7109375" style="8" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" style="8" customWidth="1"/>
-    <col min="48" max="48" width="27.140625" style="8" customWidth="1"/>
-    <col min="49" max="49" width="35.140625" style="8" customWidth="1"/>
-    <col min="50" max="50" width="29.42578125" style="8" customWidth="1"/>
-    <col min="51" max="52" width="25.85546875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="34.85546875" style="8" customWidth="1"/>
-    <col min="54" max="54" width="18.140625" style="8" customWidth="1"/>
+    <col min="45" max="45" width="34.44140625" style="8" customWidth="1"/>
+    <col min="46" max="46" width="26.6640625" style="8" customWidth="1"/>
+    <col min="47" max="47" width="17.33203125" style="8" customWidth="1"/>
+    <col min="48" max="48" width="27.109375" style="8" customWidth="1"/>
+    <col min="49" max="49" width="35.109375" style="8" customWidth="1"/>
+    <col min="50" max="50" width="29.44140625" style="8" customWidth="1"/>
+    <col min="51" max="52" width="25.88671875" style="8" customWidth="1"/>
+    <col min="53" max="53" width="34.88671875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="18.109375" style="8" customWidth="1"/>
     <col min="55" max="55" width="19" style="8" customWidth="1"/>
-    <col min="56" max="56" width="32.42578125" style="8" customWidth="1"/>
-    <col min="57" max="57" width="17.28515625" style="8" customWidth="1"/>
-    <col min="58" max="58" width="26.28515625" style="8" customWidth="1"/>
-    <col min="59" max="59" width="23.5703125" style="8" customWidth="1"/>
+    <col min="56" max="56" width="32.44140625" style="8" customWidth="1"/>
+    <col min="57" max="57" width="17.33203125" style="8" customWidth="1"/>
+    <col min="58" max="58" width="26.33203125" style="8" customWidth="1"/>
+    <col min="59" max="59" width="23.5546875" style="8" customWidth="1"/>
     <col min="60" max="60" width="28" style="8" customWidth="1"/>
-    <col min="61" max="61" width="34.85546875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="21.140625" style="8" customWidth="1"/>
+    <col min="61" max="61" width="34.88671875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="21.109375" style="8" customWidth="1"/>
     <col min="64" max="64" width="21" style="8" customWidth="1"/>
     <col min="65" max="66" width="22" style="8" customWidth="1"/>
-    <col min="67" max="67" width="17.7109375" style="8" customWidth="1"/>
-    <col min="68" max="68" width="24.5703125" style="8" customWidth="1"/>
-    <col min="69" max="71" width="19.42578125" style="8" customWidth="1"/>
-    <col min="72" max="72" width="21.140625" style="8" customWidth="1"/>
-    <col min="73" max="75" width="17.28515625" style="8" customWidth="1"/>
-    <col min="76" max="78" width="17.5703125" style="8" customWidth="1"/>
-    <col min="79" max="79" width="26.28515625" style="8" customWidth="1"/>
-    <col min="80" max="80" width="34.85546875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="26.5703125" style="8" customWidth="1"/>
-    <col min="82" max="82" width="27.28515625" style="8" customWidth="1"/>
+    <col min="67" max="67" width="17.6640625" style="8" customWidth="1"/>
+    <col min="68" max="68" width="24.5546875" style="8" customWidth="1"/>
+    <col min="69" max="71" width="19.44140625" style="8" customWidth="1"/>
+    <col min="72" max="72" width="21.109375" style="8" customWidth="1"/>
+    <col min="73" max="75" width="17.33203125" style="8" customWidth="1"/>
+    <col min="76" max="78" width="17.5546875" style="8" customWidth="1"/>
+    <col min="79" max="79" width="26.33203125" style="8" customWidth="1"/>
+    <col min="80" max="80" width="34.88671875" style="8" customWidth="1"/>
+    <col min="81" max="81" width="26.5546875" style="8" customWidth="1"/>
+    <col min="82" max="82" width="27.33203125" style="8" customWidth="1"/>
     <col min="83" max="83" width="20" style="8" customWidth="1"/>
-    <col min="84" max="84" width="11.85546875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.42578125" style="8" customWidth="1"/>
+    <col min="84" max="84" width="11.88671875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.44140625" style="8" customWidth="1"/>
     <col min="86" max="86" width="19" style="8" customWidth="1"/>
-    <col min="87" max="87" width="36.7109375" style="16" customWidth="1"/>
-    <col min="88" max="88" width="18.140625" style="16" customWidth="1"/>
-    <col min="89" max="89" width="15.5703125" style="16" customWidth="1"/>
-    <col min="90" max="90" width="23.28515625" style="16" customWidth="1"/>
-    <col min="91" max="91" width="11.28515625" style="16" customWidth="1"/>
-    <col min="92" max="92" width="8.7109375" style="16" customWidth="1"/>
-    <col min="93" max="93" width="18.7109375" style="16" customWidth="1"/>
+    <col min="87" max="87" width="36.6640625" style="16" customWidth="1"/>
+    <col min="88" max="88" width="18.109375" style="16" customWidth="1"/>
+    <col min="89" max="89" width="15.5546875" style="16" customWidth="1"/>
+    <col min="90" max="90" width="23.33203125" style="16" customWidth="1"/>
+    <col min="91" max="91" width="11.33203125" style="16" customWidth="1"/>
+    <col min="92" max="92" width="8.6640625" style="16" customWidth="1"/>
+    <col min="93" max="93" width="18.6640625" style="16" customWidth="1"/>
     <col min="94" max="94" width="18" style="16" customWidth="1"/>
-    <col min="95" max="95" width="12.7109375" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11.42578125" style="16" customWidth="1"/>
-    <col min="97" max="97" width="23.42578125" style="8" customWidth="1"/>
-    <col min="98" max="98" width="42.140625" style="16" customWidth="1"/>
-    <col min="99" max="99" width="47.85546875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="12.6640625" style="16" customWidth="1"/>
+    <col min="96" max="96" width="11.44140625" style="16" customWidth="1"/>
+    <col min="97" max="97" width="23.44140625" style="8" customWidth="1"/>
+    <col min="98" max="98" width="42.109375" style="16" customWidth="1"/>
+    <col min="99" max="99" width="47.88671875" style="16" customWidth="1"/>
     <col min="100" max="100" width="29" style="16" customWidth="1"/>
-    <col min="101" max="101" width="28.28515625" style="16" customWidth="1"/>
-    <col min="102" max="102" width="24.5703125" style="16" customWidth="1"/>
-    <col min="103" max="103" width="8.85546875" style="16" customWidth="1"/>
+    <col min="101" max="101" width="28.33203125" style="16" customWidth="1"/>
+    <col min="102" max="102" width="24.5546875" style="16" customWidth="1"/>
+    <col min="103" max="103" width="8.88671875" style="16" customWidth="1"/>
     <col min="104" max="104" width="25" style="16" customWidth="1"/>
-    <col min="105" max="105" width="19.28515625" style="8" customWidth="1"/>
-    <col min="106" max="106" width="28.42578125" style="8" customWidth="1"/>
-    <col min="107" max="107" width="21.140625" style="8" customWidth="1"/>
+    <col min="105" max="105" width="19.33203125" style="8" customWidth="1"/>
+    <col min="106" max="106" width="28.44140625" style="8" customWidth="1"/>
+    <col min="107" max="107" width="21.109375" style="8" customWidth="1"/>
     <col min="108" max="108" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="20.42578125" style="8" customWidth="1"/>
+    <col min="109" max="109" width="20.44140625" style="8" customWidth="1"/>
     <col min="110" max="110" width="24" style="8" customWidth="1"/>
-    <col min="111" max="112" width="18.28515625" style="8" customWidth="1"/>
+    <col min="111" max="112" width="18.33203125" style="8" customWidth="1"/>
     <col min="113" max="113" width="35" style="8" customWidth="1"/>
-    <col min="114" max="114" width="19.28515625" style="8" customWidth="1"/>
-    <col min="115" max="115" width="32.28515625" style="8" customWidth="1"/>
-    <col min="116" max="116" width="21.140625" style="8" customWidth="1"/>
-    <col min="117" max="117" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.33203125" style="8" customWidth="1"/>
+    <col min="115" max="115" width="32.33203125" style="8" customWidth="1"/>
+    <col min="116" max="116" width="21.109375" style="8" customWidth="1"/>
+    <col min="117" max="117" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1858,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2187,13 +2223,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2252,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB4209-1F90-4940-947E-EDFC8094093F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D7F3F0-C07C-4433-B44E-1AA9330172B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="ALERT" sheetId="5" r:id="rId3"/>
     <sheet name="SC2_DealSetup" sheetId="1" r:id="rId4"/>
     <sheet name="CALND" sheetId="4" r:id="rId5"/>
+    <sheet name="LQDTY" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="220">
   <si>
     <t>rowid</t>
   </si>
@@ -668,6 +670,27 @@
   </si>
   <si>
     <t xml:space="preserve">Report Name:|From Date:|To Date: </t>
+  </si>
+  <si>
+    <t>LQDTY_001</t>
+  </si>
+  <si>
+    <t>Sheet_Name2</t>
+  </si>
+  <si>
+    <t>Columns_To_Validate2</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Effective Date|TRN Group Internal ID|Transaction Id|Customer ID|Customer Name|Currency|Net Cashflow|Transaction Description|Transaction Status</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Effective Date|New Drawdown|Increase|Total Drawdown|Payments|Interest|Total Repayment|NetFlow</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2242,4 +2265,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDAEC5-BFB4-48D7-A939-40C5B3488810}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D7F3F0-C07C-4433-B44E-1AA9330172B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B593913-9154-47CD-B540-8338D091D3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="LQDTY" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="219">
   <si>
     <t>rowid</t>
   </si>
@@ -672,15 +671,6 @@
     <t xml:space="preserve">Report Name:|From Date:|To Date: </t>
   </si>
   <si>
-    <t>LQDTY_001</t>
-  </si>
-  <si>
-    <t>Sheet_Name2</t>
-  </si>
-  <si>
-    <t>Columns_To_Validate2</t>
-  </si>
-  <si>
     <t>Details</t>
   </si>
   <si>
@@ -691,13 +681,19 @@
   </si>
   <si>
     <t>Effective Date|New Drawdown|Increase|Total Drawdown|Payments|Interest|Total Repayment|NetFlow</t>
+  </si>
+  <si>
+    <t>LQDTY_001_DetailsTab</t>
+  </si>
+  <si>
+    <t>LQDTY_001_SummaryTab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -744,6 +740,11 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2269,23 +2270,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDAEC5-BFB4-48D7-A939-40C5B3488810}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2304,19 +2305,13 @@
       <c r="F1" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>215</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>195</v>
@@ -2325,19 +2320,34 @@
         <v>203</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4937281C-A125-4854-BA13-48D56B7C6427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EADF8B-0F11-4035-BF68-E1CC5C4CBCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="227">
   <si>
     <t>rowid</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>CMMNT_003</t>
+  </si>
+  <si>
+    <t>Facility_3</t>
+  </si>
+  <si>
+    <t>Deal Name|Deal Tracking Number|Facility Name|Facility FCN|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
   </si>
 </sst>
 </file>
@@ -884,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -936,6 +945,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1387,6 +1399,26 @@
       </c>
       <c r="F3" s="28" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4937281C-A125-4854-BA13-48D56B7C6427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029F3A8-6AD7-4690-80A2-3AD81762C6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="226">
   <si>
     <t>rowid</t>
   </si>
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>ALERT_002</t>
+  </si>
+  <si>
+    <t>Deal Name|Deal Tracking Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1508,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1526,7 @@
     <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -1561,6 +1567,26 @@
       </c>
       <c r="F2" s="8" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029F3A8-6AD7-4690-80A2-3AD81762C6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECDFB2D-579D-44B5-95A7-48CD1E4477C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="233">
   <si>
     <t>rowid</t>
   </si>
@@ -708,6 +708,27 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>Deal Name|Deal Tracking Number|Alias Number|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>Outstanding_4</t>
+  </si>
+  <si>
+    <t>CMMNT_003</t>
+  </si>
+  <si>
+    <t>Facility_3</t>
+  </si>
+  <si>
+    <t>Deal Name|Deal Tracking Number|Facility Name|Facility FCN|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CMMNT_004</t>
   </si>
 </sst>
 </file>
@@ -890,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -942,6 +963,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1319,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1393,6 +1417,46 @@
       </c>
       <c r="F3" s="28" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1514,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1587,6 +1651,14 @@
       </c>
       <c r="F3" s="28" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2507,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029F3A8-6AD7-4690-80A2-3AD81762C6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA534645-5EC3-40D1-B909-D86DAF0BD7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="229">
   <si>
     <t>rowid</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>ALERT_003</t>
+  </si>
+  <si>
+    <t>Facility_3</t>
+  </si>
+  <si>
+    <t>Deal Name|Deal Tracking Number|Facility Name|Facility FCN|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
   </si>
 </sst>
 </file>
@@ -1514,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1587,6 +1596,26 @@
       </c>
       <c r="F3" s="28" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA534645-5EC3-40D1-B909-D86DAF0BD7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2869F08E-7720-4744-AE7D-33E17D063C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ALERT" sheetId="5" r:id="rId4"/>
     <sheet name="SC2_DealSetup" sheetId="1" r:id="rId5"/>
     <sheet name="CALND" sheetId="4" r:id="rId6"/>
+    <sheet name="FACPF" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="232">
   <si>
     <t>rowid</t>
   </si>
@@ -717,6 +718,15 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Facility Name|Facility FCN|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>FACPF_001</t>
+  </si>
+  <si>
+    <t>FacilityPerformancePage</t>
+  </si>
+  <si>
+    <t>Deal Processing Area|Total Utilization Amount|Facility Status</t>
   </si>
 </sst>
 </file>
@@ -899,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -951,6 +961,8 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,17 +1283,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1334,17 +1346,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1384,7 +1396,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>182</v>
       </c>
@@ -1417,17 +1429,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1472,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>119</v>
       </c>
@@ -1491,7 +1503,7 @@
       <c r="R2" s="23"/>
       <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>182</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>218</v>
       </c>
@@ -1525,20 +1537,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1578,7 +1590,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1635,115 +1647,115 @@
       <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="8" customWidth="1"/>
     <col min="13" max="13" width="20" style="8" customWidth="1"/>
     <col min="14" max="14" width="22" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="8" customWidth="1"/>
-    <col min="26" max="27" width="29.6640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="18.5546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="8" customWidth="1"/>
+    <col min="26" max="27" width="29.7109375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="8" customWidth="1"/>
     <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="23.44140625" style="8" customWidth="1"/>
-    <col min="37" max="37" width="44.88671875" style="8" customWidth="1"/>
-    <col min="38" max="40" width="19.88671875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="44.85546875" style="8" customWidth="1"/>
+    <col min="38" max="40" width="19.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="25" style="8" customWidth="1"/>
-    <col min="42" max="42" width="24.44140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="28.88671875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" style="8" customWidth="1"/>
     <col min="44" max="44" width="36" style="8" customWidth="1"/>
-    <col min="45" max="45" width="34.44140625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="26.6640625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" style="8" customWidth="1"/>
-    <col min="49" max="49" width="35.109375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="29.44140625" style="8" customWidth="1"/>
-    <col min="51" max="52" width="25.88671875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="34.88671875" style="8" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="8" customWidth="1"/>
+    <col min="45" max="45" width="34.42578125" style="8" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" style="8" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" style="8" customWidth="1"/>
+    <col min="49" max="49" width="35.140625" style="8" customWidth="1"/>
+    <col min="50" max="50" width="29.42578125" style="8" customWidth="1"/>
+    <col min="51" max="52" width="25.85546875" style="8" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="8" customWidth="1"/>
     <col min="55" max="55" width="19" style="8" customWidth="1"/>
-    <col min="56" max="56" width="32.44140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="17.33203125" style="8" customWidth="1"/>
-    <col min="58" max="58" width="26.33203125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="23.5546875" style="8" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" style="8" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" style="8" customWidth="1"/>
+    <col min="58" max="58" width="26.28515625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" style="8" customWidth="1"/>
     <col min="60" max="60" width="28" style="8" customWidth="1"/>
-    <col min="61" max="61" width="34.88671875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="21.109375" style="8" customWidth="1"/>
+    <col min="61" max="61" width="34.85546875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="21.140625" style="8" customWidth="1"/>
     <col min="64" max="64" width="21" style="8" customWidth="1"/>
     <col min="65" max="66" width="22" style="8" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="24.5546875" style="8" customWidth="1"/>
-    <col min="69" max="71" width="19.44140625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" style="8" customWidth="1"/>
-    <col min="73" max="75" width="17.33203125" style="8" customWidth="1"/>
-    <col min="76" max="78" width="17.5546875" style="8" customWidth="1"/>
-    <col min="79" max="79" width="26.33203125" style="8" customWidth="1"/>
-    <col min="80" max="80" width="34.88671875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" style="8" customWidth="1"/>
-    <col min="82" max="82" width="27.33203125" style="8" customWidth="1"/>
+    <col min="67" max="67" width="17.7109375" style="8" customWidth="1"/>
+    <col min="68" max="68" width="24.5703125" style="8" customWidth="1"/>
+    <col min="69" max="71" width="19.42578125" style="8" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" style="8" customWidth="1"/>
+    <col min="73" max="75" width="17.28515625" style="8" customWidth="1"/>
+    <col min="76" max="78" width="17.5703125" style="8" customWidth="1"/>
+    <col min="79" max="79" width="26.28515625" style="8" customWidth="1"/>
+    <col min="80" max="80" width="34.85546875" style="8" customWidth="1"/>
+    <col min="81" max="81" width="26.5703125" style="8" customWidth="1"/>
+    <col min="82" max="82" width="27.28515625" style="8" customWidth="1"/>
     <col min="83" max="83" width="20" style="8" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.44140625" style="8" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.42578125" style="8" customWidth="1"/>
     <col min="86" max="86" width="19" style="8" customWidth="1"/>
-    <col min="87" max="87" width="36.6640625" style="16" customWidth="1"/>
-    <col min="88" max="88" width="18.109375" style="16" customWidth="1"/>
-    <col min="89" max="89" width="15.5546875" style="16" customWidth="1"/>
-    <col min="90" max="90" width="23.33203125" style="16" customWidth="1"/>
-    <col min="91" max="91" width="11.33203125" style="16" customWidth="1"/>
-    <col min="92" max="92" width="8.6640625" style="16" customWidth="1"/>
-    <col min="93" max="93" width="18.6640625" style="16" customWidth="1"/>
+    <col min="87" max="87" width="36.7109375" style="16" customWidth="1"/>
+    <col min="88" max="88" width="18.140625" style="16" customWidth="1"/>
+    <col min="89" max="89" width="15.5703125" style="16" customWidth="1"/>
+    <col min="90" max="90" width="23.28515625" style="16" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="16" customWidth="1"/>
+    <col min="92" max="92" width="8.7109375" style="16" customWidth="1"/>
+    <col min="93" max="93" width="18.7109375" style="16" customWidth="1"/>
     <col min="94" max="94" width="18" style="16" customWidth="1"/>
-    <col min="95" max="95" width="12.6640625" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11.44140625" style="16" customWidth="1"/>
-    <col min="97" max="97" width="23.44140625" style="8" customWidth="1"/>
-    <col min="98" max="98" width="42.109375" style="16" customWidth="1"/>
-    <col min="99" max="99" width="47.88671875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="12.7109375" style="16" customWidth="1"/>
+    <col min="96" max="96" width="11.42578125" style="16" customWidth="1"/>
+    <col min="97" max="97" width="23.42578125" style="8" customWidth="1"/>
+    <col min="98" max="98" width="42.140625" style="16" customWidth="1"/>
+    <col min="99" max="99" width="47.85546875" style="16" customWidth="1"/>
     <col min="100" max="100" width="29" style="16" customWidth="1"/>
-    <col min="101" max="101" width="28.33203125" style="16" customWidth="1"/>
-    <col min="102" max="102" width="24.5546875" style="16" customWidth="1"/>
-    <col min="103" max="103" width="8.88671875" style="16" customWidth="1"/>
+    <col min="101" max="101" width="28.28515625" style="16" customWidth="1"/>
+    <col min="102" max="102" width="24.5703125" style="16" customWidth="1"/>
+    <col min="103" max="103" width="8.85546875" style="16" customWidth="1"/>
     <col min="104" max="104" width="25" style="16" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" style="8" customWidth="1"/>
-    <col min="106" max="106" width="28.44140625" style="8" customWidth="1"/>
-    <col min="107" max="107" width="21.109375" style="8" customWidth="1"/>
+    <col min="105" max="105" width="19.28515625" style="8" customWidth="1"/>
+    <col min="106" max="106" width="28.42578125" style="8" customWidth="1"/>
+    <col min="107" max="107" width="21.140625" style="8" customWidth="1"/>
     <col min="108" max="108" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="20.44140625" style="8" customWidth="1"/>
+    <col min="109" max="109" width="20.42578125" style="8" customWidth="1"/>
     <col min="110" max="110" width="24" style="8" customWidth="1"/>
-    <col min="111" max="112" width="18.33203125" style="8" customWidth="1"/>
+    <col min="111" max="112" width="18.28515625" style="8" customWidth="1"/>
     <col min="113" max="113" width="35" style="8" customWidth="1"/>
-    <col min="114" max="114" width="19.33203125" style="8" customWidth="1"/>
-    <col min="115" max="115" width="32.33203125" style="8" customWidth="1"/>
-    <col min="116" max="116" width="21.109375" style="8" customWidth="1"/>
-    <col min="117" max="117" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.28515625" style="8" customWidth="1"/>
+    <col min="115" max="115" width="32.28515625" style="8" customWidth="1"/>
+    <col min="116" max="116" width="21.140625" style="8" customWidth="1"/>
+    <col min="117" max="117" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2464,16 +2476,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2518,6 +2530,140 @@
       <c r="G2" t="s">
         <v>210</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3EB20B-8614-46B2-A574-9EAAA9937BCB}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA534645-5EC3-40D1-B909-D86DAF0BD7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27239E1E-B7FE-40A4-BD4A-B715F0C9AF03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="232">
   <si>
     <t>rowid</t>
   </si>
@@ -717,6 +717,15 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Facility Name|Facility FCN|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>ALERT_004</t>
+  </si>
+  <si>
+    <t>Outstanding_4</t>
+  </si>
+  <si>
+    <t>Deal Name|Deal Tracking Number|Alias Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
   </si>
 </sst>
 </file>
@@ -1523,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1616,6 +1625,26 @@
       </c>
       <c r="F4" s="28" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029F3A8-6AD7-4690-80A2-3AD81762C6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28E39CF-25DD-40F0-A721-B0E673188530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="735" yWindow="2655" windowWidth="27090" windowHeight="11100" activeTab="7" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="ALERT" sheetId="5" r:id="rId4"/>
     <sheet name="SC2_DealSetup" sheetId="1" r:id="rId5"/>
     <sheet name="CALND" sheetId="4" r:id="rId6"/>
+    <sheet name="LQDTY" sheetId="7" r:id="rId7"/>
+    <sheet name="AHBDE" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="235">
   <si>
     <t>rowid</t>
   </si>
@@ -708,6 +710,33 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>LQDTY_001_DetailsTab</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Effective Date|TRN Group Internal ID|Transaction Id|Customer ID|Customer Name|Currency|Net Cashflow|Transaction Description|Transaction Status</t>
+  </si>
+  <si>
+    <t>LQDTY_001_SummaryTab</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Effective Date|New Drawdown|Increase|Total Drawdown|Payments|Interest|Total Repayment|NetFlow</t>
+  </si>
+  <si>
+    <t>AHBDE_001</t>
+  </si>
+  <si>
+    <t>Agency_DE Extract</t>
+  </si>
+  <si>
+    <t>Customer Short Name|Host Bank Share Amount|Cashflow Currency|Cashflow Direction|Processing Date|Effective Date|DDA Transaction Description|Cashflow Description|Deal Tracking Number|Transaction Code|Expense Code|Cashflow ID|Processing Area Code|Cashflow Status|Payment Method|Cashflow Create Date/Time</t>
   </si>
 </sst>
 </file>
@@ -890,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -942,6 +971,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,17 +1294,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1324,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1325,17 +1357,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1375,7 +1407,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>182</v>
       </c>
@@ -1408,17 +1440,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1483,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>119</v>
       </c>
@@ -1482,7 +1514,7 @@
       <c r="R2" s="23"/>
       <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>182</v>
       </c>
@@ -1502,7 +1534,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>218</v>
       </c>
@@ -1516,20 +1548,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1569,7 +1601,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1606,115 +1638,115 @@
       <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="8" customWidth="1"/>
     <col min="13" max="13" width="20" style="8" customWidth="1"/>
     <col min="14" max="14" width="22" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="8" customWidth="1"/>
-    <col min="26" max="27" width="29.6640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="18.5546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="8" customWidth="1"/>
+    <col min="26" max="27" width="29.7109375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="8" customWidth="1"/>
     <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="23.44140625" style="8" customWidth="1"/>
-    <col min="37" max="37" width="44.88671875" style="8" customWidth="1"/>
-    <col min="38" max="40" width="19.88671875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="44.85546875" style="8" customWidth="1"/>
+    <col min="38" max="40" width="19.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="25" style="8" customWidth="1"/>
-    <col min="42" max="42" width="24.44140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="28.88671875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" style="8" customWidth="1"/>
     <col min="44" max="44" width="36" style="8" customWidth="1"/>
-    <col min="45" max="45" width="34.44140625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="26.6640625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" style="8" customWidth="1"/>
-    <col min="49" max="49" width="35.109375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="29.44140625" style="8" customWidth="1"/>
-    <col min="51" max="52" width="25.88671875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="34.88671875" style="8" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="8" customWidth="1"/>
+    <col min="45" max="45" width="34.42578125" style="8" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" style="8" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" style="8" customWidth="1"/>
+    <col min="49" max="49" width="35.140625" style="8" customWidth="1"/>
+    <col min="50" max="50" width="29.42578125" style="8" customWidth="1"/>
+    <col min="51" max="52" width="25.85546875" style="8" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="8" customWidth="1"/>
     <col min="55" max="55" width="19" style="8" customWidth="1"/>
-    <col min="56" max="56" width="32.44140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="17.33203125" style="8" customWidth="1"/>
-    <col min="58" max="58" width="26.33203125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="23.5546875" style="8" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" style="8" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" style="8" customWidth="1"/>
+    <col min="58" max="58" width="26.28515625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" style="8" customWidth="1"/>
     <col min="60" max="60" width="28" style="8" customWidth="1"/>
-    <col min="61" max="61" width="34.88671875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="21.109375" style="8" customWidth="1"/>
+    <col min="61" max="61" width="34.85546875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="21.140625" style="8" customWidth="1"/>
     <col min="64" max="64" width="21" style="8" customWidth="1"/>
     <col min="65" max="66" width="22" style="8" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="24.5546875" style="8" customWidth="1"/>
-    <col min="69" max="71" width="19.44140625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" style="8" customWidth="1"/>
-    <col min="73" max="75" width="17.33203125" style="8" customWidth="1"/>
-    <col min="76" max="78" width="17.5546875" style="8" customWidth="1"/>
-    <col min="79" max="79" width="26.33203125" style="8" customWidth="1"/>
-    <col min="80" max="80" width="34.88671875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" style="8" customWidth="1"/>
-    <col min="82" max="82" width="27.33203125" style="8" customWidth="1"/>
+    <col min="67" max="67" width="17.7109375" style="8" customWidth="1"/>
+    <col min="68" max="68" width="24.5703125" style="8" customWidth="1"/>
+    <col min="69" max="71" width="19.42578125" style="8" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" style="8" customWidth="1"/>
+    <col min="73" max="75" width="17.28515625" style="8" customWidth="1"/>
+    <col min="76" max="78" width="17.5703125" style="8" customWidth="1"/>
+    <col min="79" max="79" width="26.28515625" style="8" customWidth="1"/>
+    <col min="80" max="80" width="34.85546875" style="8" customWidth="1"/>
+    <col min="81" max="81" width="26.5703125" style="8" customWidth="1"/>
+    <col min="82" max="82" width="27.28515625" style="8" customWidth="1"/>
     <col min="83" max="83" width="20" style="8" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.44140625" style="8" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.42578125" style="8" customWidth="1"/>
     <col min="86" max="86" width="19" style="8" customWidth="1"/>
-    <col min="87" max="87" width="36.6640625" style="16" customWidth="1"/>
-    <col min="88" max="88" width="18.109375" style="16" customWidth="1"/>
-    <col min="89" max="89" width="15.5546875" style="16" customWidth="1"/>
-    <col min="90" max="90" width="23.33203125" style="16" customWidth="1"/>
-    <col min="91" max="91" width="11.33203125" style="16" customWidth="1"/>
-    <col min="92" max="92" width="8.6640625" style="16" customWidth="1"/>
-    <col min="93" max="93" width="18.6640625" style="16" customWidth="1"/>
+    <col min="87" max="87" width="36.7109375" style="16" customWidth="1"/>
+    <col min="88" max="88" width="18.140625" style="16" customWidth="1"/>
+    <col min="89" max="89" width="15.5703125" style="16" customWidth="1"/>
+    <col min="90" max="90" width="23.28515625" style="16" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="16" customWidth="1"/>
+    <col min="92" max="92" width="8.7109375" style="16" customWidth="1"/>
+    <col min="93" max="93" width="18.7109375" style="16" customWidth="1"/>
     <col min="94" max="94" width="18" style="16" customWidth="1"/>
-    <col min="95" max="95" width="12.6640625" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11.44140625" style="16" customWidth="1"/>
-    <col min="97" max="97" width="23.44140625" style="8" customWidth="1"/>
-    <col min="98" max="98" width="42.109375" style="16" customWidth="1"/>
-    <col min="99" max="99" width="47.88671875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="12.7109375" style="16" customWidth="1"/>
+    <col min="96" max="96" width="11.42578125" style="16" customWidth="1"/>
+    <col min="97" max="97" width="23.42578125" style="8" customWidth="1"/>
+    <col min="98" max="98" width="42.140625" style="16" customWidth="1"/>
+    <col min="99" max="99" width="47.85546875" style="16" customWidth="1"/>
     <col min="100" max="100" width="29" style="16" customWidth="1"/>
-    <col min="101" max="101" width="28.33203125" style="16" customWidth="1"/>
-    <col min="102" max="102" width="24.5546875" style="16" customWidth="1"/>
-    <col min="103" max="103" width="8.88671875" style="16" customWidth="1"/>
+    <col min="101" max="101" width="28.28515625" style="16" customWidth="1"/>
+    <col min="102" max="102" width="24.5703125" style="16" customWidth="1"/>
+    <col min="103" max="103" width="8.85546875" style="16" customWidth="1"/>
     <col min="104" max="104" width="25" style="16" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" style="8" customWidth="1"/>
-    <col min="106" max="106" width="28.44140625" style="8" customWidth="1"/>
-    <col min="107" max="107" width="21.109375" style="8" customWidth="1"/>
+    <col min="105" max="105" width="19.28515625" style="8" customWidth="1"/>
+    <col min="106" max="106" width="28.42578125" style="8" customWidth="1"/>
+    <col min="107" max="107" width="21.140625" style="8" customWidth="1"/>
     <col min="108" max="108" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="20.44140625" style="8" customWidth="1"/>
+    <col min="109" max="109" width="20.42578125" style="8" customWidth="1"/>
     <col min="110" max="110" width="24" style="8" customWidth="1"/>
-    <col min="111" max="112" width="18.33203125" style="8" customWidth="1"/>
+    <col min="111" max="112" width="18.28515625" style="8" customWidth="1"/>
     <col min="113" max="113" width="35" style="8" customWidth="1"/>
-    <col min="114" max="114" width="19.33203125" style="8" customWidth="1"/>
-    <col min="115" max="115" width="32.33203125" style="8" customWidth="1"/>
-    <col min="116" max="116" width="21.109375" style="8" customWidth="1"/>
-    <col min="117" max="117" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.28515625" style="8" customWidth="1"/>
+    <col min="115" max="115" width="32.28515625" style="8" customWidth="1"/>
+    <col min="116" max="116" width="21.140625" style="8" customWidth="1"/>
+    <col min="117" max="117" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2105,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2438,13 +2470,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2499,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2488,6 +2520,152 @@
       </c>
       <c r="G2" t="s">
         <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193EA367-A6F2-4ACD-8E35-665CC371781B}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD69C5FC-F8A2-4B61-89E8-DF36E119A0D4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27239E1E-B7FE-40A4-BD4A-B715F0C9AF03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5837F44F-6FD8-40D5-8165-798810A2259E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="235">
   <si>
     <t>rowid</t>
   </si>
@@ -726,6 +726,15 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Alias Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>ALERT_005</t>
+  </si>
+  <si>
+    <t>Customer_5</t>
+  </si>
+  <si>
+    <t>Customer Name|CIF Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1645,6 +1654,26 @@
       </c>
       <c r="F5" s="28" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723454\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2869F08E-7720-4744-AE7D-33E17D063C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB7B8C7-D09B-4B7D-AF18-21EAEC4F4468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="ALERT" sheetId="5" r:id="rId4"/>
     <sheet name="SC2_DealSetup" sheetId="1" r:id="rId5"/>
     <sheet name="CALND" sheetId="4" r:id="rId6"/>
-    <sheet name="FACPF" sheetId="7" r:id="rId7"/>
+    <sheet name="LQDTY" sheetId="7" r:id="rId7"/>
+    <sheet name="AHBDE" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="244">
   <si>
     <t>rowid</t>
   </si>
@@ -718,6 +720,42 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Facility Name|Facility FCN|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>ALERT_004</t>
+  </si>
+  <si>
+    <t>Outstanding_4</t>
+  </si>
+  <si>
+    <t>Deal Name|Deal Tracking Number|Alias Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>LQDTY_001_DetailsTab</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Effective Date|TRN Group Internal ID|Transaction Id|Customer ID|Customer Name|Currency|Net Cashflow|Transaction Description|Transaction Status</t>
+  </si>
+  <si>
+    <t>LQDTY_001_SummaryTab</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Effective Date|New Drawdown|Increase|Total Drawdown|Payments|Interest|Total Repayment|NetFlow</t>
+  </si>
+  <si>
+    <t>AHBDE_001</t>
+  </si>
+  <si>
+    <t>Agency_DE Extract</t>
+  </si>
+  <si>
+    <t>Customer Short Name|Host Bank Share Amount|Cashflow Currency|Cashflow Direction|Processing Date|Effective Date|DDA Transaction Description|Cashflow Description|Deal Tracking Number|Transaction Code|Expense Code|Cashflow ID|Processing Area Code|Cashflow Status|Payment Method|Cashflow Create Date/Time</t>
   </si>
   <si>
     <t>FACPF_001</t>
@@ -909,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -961,7 +999,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1628,6 +1671,26 @@
       </c>
       <c r="F4" s="28" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2539,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2537,133 +2600,264 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3EB20B-8614-46B2-A574-9EAAA9937BCB}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A726E3-6A41-47BC-8177-FCAE7FD066CF}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C016368-407E-42D4-B8AC-285BAED2DDB5}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30C5209-2AED-4323-BD85-6CFB6EE0DA65}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>231</v>
+      <c r="E2" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AA4A49-ED7B-44E3-B8A6-01631374CBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD20ABE-9781-4DE2-8026-0DC1722D1491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="CALND" sheetId="4" r:id="rId6"/>
     <sheet name="LQDTY" sheetId="7" r:id="rId7"/>
     <sheet name="AHBDE" sheetId="8" r:id="rId8"/>
+    <sheet name="PACPF" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="249">
   <si>
     <t>rowid</t>
   </si>
@@ -770,6 +771,15 @@
   </si>
   <si>
     <t>Deal Name|Deal Tracking Number|Alias Number|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>FACPF_001</t>
+  </si>
+  <si>
+    <t>FacilityPerformancePage</t>
+  </si>
+  <si>
+    <t>Deal Processing Area|Total Utilization Amount|Facility Status</t>
   </si>
 </sst>
 </file>
@@ -952,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1010,6 +1020,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,17 +1344,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1374,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1389,21 +1403,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1437,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1443,7 +1457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>182</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>218</v>
       </c>
@@ -1483,7 +1497,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>243</v>
       </c>
@@ -1516,17 +1530,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1573,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>119</v>
       </c>
@@ -1590,7 +1604,7 @@
       <c r="R2" s="23"/>
       <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>182</v>
       </c>
@@ -1610,7 +1624,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>218</v>
       </c>
@@ -1628,16 +1642,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1671,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1677,7 +1691,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1697,7 +1711,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1717,7 +1731,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1754,115 +1768,115 @@
       <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="8" customWidth="1"/>
     <col min="13" max="13" width="20" style="8" customWidth="1"/>
     <col min="14" max="14" width="22" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="8" customWidth="1"/>
-    <col min="26" max="27" width="29.6640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="18.5546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="8" customWidth="1"/>
+    <col min="26" max="27" width="29.7109375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="8" customWidth="1"/>
     <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="23.44140625" style="8" customWidth="1"/>
-    <col min="37" max="37" width="44.88671875" style="8" customWidth="1"/>
-    <col min="38" max="40" width="19.88671875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="44.85546875" style="8" customWidth="1"/>
+    <col min="38" max="40" width="19.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="25" style="8" customWidth="1"/>
-    <col min="42" max="42" width="24.44140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="28.88671875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" style="8" customWidth="1"/>
     <col min="44" max="44" width="36" style="8" customWidth="1"/>
-    <col min="45" max="45" width="34.44140625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="26.6640625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" style="8" customWidth="1"/>
-    <col min="49" max="49" width="35.109375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="29.44140625" style="8" customWidth="1"/>
-    <col min="51" max="52" width="25.88671875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="34.88671875" style="8" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="8" customWidth="1"/>
+    <col min="45" max="45" width="34.42578125" style="8" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" style="8" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" style="8" customWidth="1"/>
+    <col min="49" max="49" width="35.140625" style="8" customWidth="1"/>
+    <col min="50" max="50" width="29.42578125" style="8" customWidth="1"/>
+    <col min="51" max="52" width="25.85546875" style="8" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="8" customWidth="1"/>
     <col min="55" max="55" width="19" style="8" customWidth="1"/>
-    <col min="56" max="56" width="32.44140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="17.33203125" style="8" customWidth="1"/>
-    <col min="58" max="58" width="26.33203125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="23.5546875" style="8" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" style="8" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" style="8" customWidth="1"/>
+    <col min="58" max="58" width="26.28515625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" style="8" customWidth="1"/>
     <col min="60" max="60" width="28" style="8" customWidth="1"/>
-    <col min="61" max="61" width="34.88671875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="21.109375" style="8" customWidth="1"/>
+    <col min="61" max="61" width="34.85546875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="21.140625" style="8" customWidth="1"/>
     <col min="64" max="64" width="21" style="8" customWidth="1"/>
     <col min="65" max="66" width="22" style="8" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="24.5546875" style="8" customWidth="1"/>
-    <col min="69" max="71" width="19.44140625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" style="8" customWidth="1"/>
-    <col min="73" max="75" width="17.33203125" style="8" customWidth="1"/>
-    <col min="76" max="78" width="17.5546875" style="8" customWidth="1"/>
-    <col min="79" max="79" width="26.33203125" style="8" customWidth="1"/>
-    <col min="80" max="80" width="34.88671875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" style="8" customWidth="1"/>
-    <col min="82" max="82" width="27.33203125" style="8" customWidth="1"/>
+    <col min="67" max="67" width="17.7109375" style="8" customWidth="1"/>
+    <col min="68" max="68" width="24.5703125" style="8" customWidth="1"/>
+    <col min="69" max="71" width="19.42578125" style="8" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" style="8" customWidth="1"/>
+    <col min="73" max="75" width="17.28515625" style="8" customWidth="1"/>
+    <col min="76" max="78" width="17.5703125" style="8" customWidth="1"/>
+    <col min="79" max="79" width="26.28515625" style="8" customWidth="1"/>
+    <col min="80" max="80" width="34.85546875" style="8" customWidth="1"/>
+    <col min="81" max="81" width="26.5703125" style="8" customWidth="1"/>
+    <col min="82" max="82" width="27.28515625" style="8" customWidth="1"/>
     <col min="83" max="83" width="20" style="8" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.44140625" style="8" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.42578125" style="8" customWidth="1"/>
     <col min="86" max="86" width="19" style="8" customWidth="1"/>
-    <col min="87" max="87" width="36.6640625" style="16" customWidth="1"/>
-    <col min="88" max="88" width="18.109375" style="16" customWidth="1"/>
-    <col min="89" max="89" width="15.5546875" style="16" customWidth="1"/>
-    <col min="90" max="90" width="23.33203125" style="16" customWidth="1"/>
-    <col min="91" max="91" width="11.33203125" style="16" customWidth="1"/>
-    <col min="92" max="92" width="8.6640625" style="16" customWidth="1"/>
-    <col min="93" max="93" width="18.6640625" style="16" customWidth="1"/>
+    <col min="87" max="87" width="36.7109375" style="16" customWidth="1"/>
+    <col min="88" max="88" width="18.140625" style="16" customWidth="1"/>
+    <col min="89" max="89" width="15.5703125" style="16" customWidth="1"/>
+    <col min="90" max="90" width="23.28515625" style="16" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="16" customWidth="1"/>
+    <col min="92" max="92" width="8.7109375" style="16" customWidth="1"/>
+    <col min="93" max="93" width="18.7109375" style="16" customWidth="1"/>
     <col min="94" max="94" width="18" style="16" customWidth="1"/>
-    <col min="95" max="95" width="12.6640625" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11.44140625" style="16" customWidth="1"/>
-    <col min="97" max="97" width="23.44140625" style="8" customWidth="1"/>
-    <col min="98" max="98" width="42.109375" style="16" customWidth="1"/>
-    <col min="99" max="99" width="47.88671875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="12.7109375" style="16" customWidth="1"/>
+    <col min="96" max="96" width="11.42578125" style="16" customWidth="1"/>
+    <col min="97" max="97" width="23.42578125" style="8" customWidth="1"/>
+    <col min="98" max="98" width="42.140625" style="16" customWidth="1"/>
+    <col min="99" max="99" width="47.85546875" style="16" customWidth="1"/>
     <col min="100" max="100" width="29" style="16" customWidth="1"/>
-    <col min="101" max="101" width="28.33203125" style="16" customWidth="1"/>
-    <col min="102" max="102" width="24.5546875" style="16" customWidth="1"/>
-    <col min="103" max="103" width="8.88671875" style="16" customWidth="1"/>
+    <col min="101" max="101" width="28.28515625" style="16" customWidth="1"/>
+    <col min="102" max="102" width="24.5703125" style="16" customWidth="1"/>
+    <col min="103" max="103" width="8.85546875" style="16" customWidth="1"/>
     <col min="104" max="104" width="25" style="16" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" style="8" customWidth="1"/>
-    <col min="106" max="106" width="28.44140625" style="8" customWidth="1"/>
-    <col min="107" max="107" width="21.109375" style="8" customWidth="1"/>
+    <col min="105" max="105" width="19.28515625" style="8" customWidth="1"/>
+    <col min="106" max="106" width="28.42578125" style="8" customWidth="1"/>
+    <col min="107" max="107" width="21.140625" style="8" customWidth="1"/>
     <col min="108" max="108" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="20.44140625" style="8" customWidth="1"/>
+    <col min="109" max="109" width="20.42578125" style="8" customWidth="1"/>
     <col min="110" max="110" width="24" style="8" customWidth="1"/>
-    <col min="111" max="112" width="18.33203125" style="8" customWidth="1"/>
+    <col min="111" max="112" width="18.28515625" style="8" customWidth="1"/>
     <col min="113" max="113" width="35" style="8" customWidth="1"/>
-    <col min="114" max="114" width="19.33203125" style="8" customWidth="1"/>
-    <col min="115" max="115" width="32.33203125" style="8" customWidth="1"/>
-    <col min="116" max="116" width="21.109375" style="8" customWidth="1"/>
-    <col min="117" max="117" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.28515625" style="8" customWidth="1"/>
+    <col min="115" max="115" width="32.28515625" style="8" customWidth="1"/>
+    <col min="116" max="116" width="21.140625" style="8" customWidth="1"/>
+    <col min="117" max="117" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2586,13 +2600,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +2629,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2651,17 +2665,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2695,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>119</v>
       </c>
@@ -2701,7 +2715,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>182</v>
       </c>
@@ -2734,17 +2748,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>119</v>
       </c>
@@ -2782,6 +2796,68 @@
       </c>
       <c r="F2" s="28" t="s">
         <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AAC0C9-E4D3-47B6-B964-668D0C74A7E8}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723925\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C5A246-B270-417C-9E47-18197BBC9B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081490D7-EF26-4CFD-8AC0-150F21BE329E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="CALND" sheetId="4" r:id="rId6"/>
     <sheet name="LQDTY" sheetId="7" r:id="rId7"/>
     <sheet name="AHBDE" sheetId="8" r:id="rId8"/>
+    <sheet name="FACPF" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="252">
   <si>
     <t>rowid</t>
   </si>
@@ -779,6 +780,15 @@
   </si>
   <si>
     <t>Customer Name|CIF Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
+  </si>
+  <si>
+    <t>FACPF_001</t>
+  </si>
+  <si>
+    <t>FacilityPerformancePage</t>
+  </si>
+  <si>
+    <t>Deal Processing Area|Total Utilization Amount|Facility Status</t>
   </si>
 </sst>
 </file>
@@ -961,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1019,6 +1029,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,17 +1353,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1383,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1402,17 +1416,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1452,7 +1466,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>182</v>
       </c>
@@ -1472,7 +1486,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>218</v>
       </c>
@@ -1492,7 +1506,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>243</v>
       </c>
@@ -1525,17 +1539,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1582,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>119</v>
       </c>
@@ -1599,7 +1613,7 @@
       <c r="R2" s="23"/>
       <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>182</v>
       </c>
@@ -1619,7 +1633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>218</v>
       </c>
@@ -1633,20 +1647,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2ADF88-2E0D-46DB-834F-029AEE142C3D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1680,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -1686,7 +1700,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1706,7 +1720,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1726,7 +1740,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1746,7 +1760,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1783,115 +1797,115 @@
       <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="8" customWidth="1"/>
     <col min="13" max="13" width="20" style="8" customWidth="1"/>
     <col min="14" max="14" width="22" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="8" customWidth="1"/>
-    <col min="26" max="27" width="29.6640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="18.5546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="8" customWidth="1"/>
+    <col min="26" max="27" width="29.7109375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="8" customWidth="1"/>
     <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="23.44140625" style="8" customWidth="1"/>
-    <col min="37" max="37" width="44.88671875" style="8" customWidth="1"/>
-    <col min="38" max="40" width="19.88671875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="44.85546875" style="8" customWidth="1"/>
+    <col min="38" max="40" width="19.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="25" style="8" customWidth="1"/>
-    <col min="42" max="42" width="24.44140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="28.88671875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" style="8" customWidth="1"/>
     <col min="44" max="44" width="36" style="8" customWidth="1"/>
-    <col min="45" max="45" width="34.44140625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="26.6640625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" style="8" customWidth="1"/>
-    <col min="49" max="49" width="35.109375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="29.44140625" style="8" customWidth="1"/>
-    <col min="51" max="52" width="25.88671875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="34.88671875" style="8" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="8" customWidth="1"/>
+    <col min="45" max="45" width="34.42578125" style="8" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" style="8" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" style="8" customWidth="1"/>
+    <col min="49" max="49" width="35.140625" style="8" customWidth="1"/>
+    <col min="50" max="50" width="29.42578125" style="8" customWidth="1"/>
+    <col min="51" max="52" width="25.85546875" style="8" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="8" customWidth="1"/>
     <col min="55" max="55" width="19" style="8" customWidth="1"/>
-    <col min="56" max="56" width="32.44140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="17.33203125" style="8" customWidth="1"/>
-    <col min="58" max="58" width="26.33203125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="23.5546875" style="8" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" style="8" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" style="8" customWidth="1"/>
+    <col min="58" max="58" width="26.28515625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" style="8" customWidth="1"/>
     <col min="60" max="60" width="28" style="8" customWidth="1"/>
-    <col min="61" max="61" width="34.88671875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="21.109375" style="8" customWidth="1"/>
+    <col min="61" max="61" width="34.85546875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="21.140625" style="8" customWidth="1"/>
     <col min="64" max="64" width="21" style="8" customWidth="1"/>
     <col min="65" max="66" width="22" style="8" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="24.5546875" style="8" customWidth="1"/>
-    <col min="69" max="71" width="19.44140625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" style="8" customWidth="1"/>
-    <col min="73" max="75" width="17.33203125" style="8" customWidth="1"/>
-    <col min="76" max="78" width="17.5546875" style="8" customWidth="1"/>
-    <col min="79" max="79" width="26.33203125" style="8" customWidth="1"/>
-    <col min="80" max="80" width="34.88671875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" style="8" customWidth="1"/>
-    <col min="82" max="82" width="27.33203125" style="8" customWidth="1"/>
+    <col min="67" max="67" width="17.7109375" style="8" customWidth="1"/>
+    <col min="68" max="68" width="24.5703125" style="8" customWidth="1"/>
+    <col min="69" max="71" width="19.42578125" style="8" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" style="8" customWidth="1"/>
+    <col min="73" max="75" width="17.28515625" style="8" customWidth="1"/>
+    <col min="76" max="78" width="17.5703125" style="8" customWidth="1"/>
+    <col min="79" max="79" width="26.28515625" style="8" customWidth="1"/>
+    <col min="80" max="80" width="34.85546875" style="8" customWidth="1"/>
+    <col min="81" max="81" width="26.5703125" style="8" customWidth="1"/>
+    <col min="82" max="82" width="27.28515625" style="8" customWidth="1"/>
     <col min="83" max="83" width="20" style="8" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.44140625" style="8" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.42578125" style="8" customWidth="1"/>
     <col min="86" max="86" width="19" style="8" customWidth="1"/>
-    <col min="87" max="87" width="36.6640625" style="16" customWidth="1"/>
-    <col min="88" max="88" width="18.109375" style="16" customWidth="1"/>
-    <col min="89" max="89" width="15.5546875" style="16" customWidth="1"/>
-    <col min="90" max="90" width="23.33203125" style="16" customWidth="1"/>
-    <col min="91" max="91" width="11.33203125" style="16" customWidth="1"/>
-    <col min="92" max="92" width="8.6640625" style="16" customWidth="1"/>
-    <col min="93" max="93" width="18.6640625" style="16" customWidth="1"/>
+    <col min="87" max="87" width="36.7109375" style="16" customWidth="1"/>
+    <col min="88" max="88" width="18.140625" style="16" customWidth="1"/>
+    <col min="89" max="89" width="15.5703125" style="16" customWidth="1"/>
+    <col min="90" max="90" width="23.28515625" style="16" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="16" customWidth="1"/>
+    <col min="92" max="92" width="8.7109375" style="16" customWidth="1"/>
+    <col min="93" max="93" width="18.7109375" style="16" customWidth="1"/>
     <col min="94" max="94" width="18" style="16" customWidth="1"/>
-    <col min="95" max="95" width="12.6640625" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11.44140625" style="16" customWidth="1"/>
-    <col min="97" max="97" width="23.44140625" style="8" customWidth="1"/>
-    <col min="98" max="98" width="42.109375" style="16" customWidth="1"/>
-    <col min="99" max="99" width="47.88671875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="12.7109375" style="16" customWidth="1"/>
+    <col min="96" max="96" width="11.42578125" style="16" customWidth="1"/>
+    <col min="97" max="97" width="23.42578125" style="8" customWidth="1"/>
+    <col min="98" max="98" width="42.140625" style="16" customWidth="1"/>
+    <col min="99" max="99" width="47.85546875" style="16" customWidth="1"/>
     <col min="100" max="100" width="29" style="16" customWidth="1"/>
-    <col min="101" max="101" width="28.33203125" style="16" customWidth="1"/>
-    <col min="102" max="102" width="24.5546875" style="16" customWidth="1"/>
-    <col min="103" max="103" width="8.88671875" style="16" customWidth="1"/>
+    <col min="101" max="101" width="28.28515625" style="16" customWidth="1"/>
+    <col min="102" max="102" width="24.5703125" style="16" customWidth="1"/>
+    <col min="103" max="103" width="8.85546875" style="16" customWidth="1"/>
     <col min="104" max="104" width="25" style="16" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" style="8" customWidth="1"/>
-    <col min="106" max="106" width="28.44140625" style="8" customWidth="1"/>
-    <col min="107" max="107" width="21.109375" style="8" customWidth="1"/>
+    <col min="105" max="105" width="19.28515625" style="8" customWidth="1"/>
+    <col min="106" max="106" width="28.42578125" style="8" customWidth="1"/>
+    <col min="107" max="107" width="21.140625" style="8" customWidth="1"/>
     <col min="108" max="108" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="20.44140625" style="8" customWidth="1"/>
+    <col min="109" max="109" width="20.42578125" style="8" customWidth="1"/>
     <col min="110" max="110" width="24" style="8" customWidth="1"/>
-    <col min="111" max="112" width="18.33203125" style="8" customWidth="1"/>
+    <col min="111" max="112" width="18.28515625" style="8" customWidth="1"/>
     <col min="113" max="113" width="35" style="8" customWidth="1"/>
-    <col min="114" max="114" width="19.33203125" style="8" customWidth="1"/>
-    <col min="115" max="115" width="32.33203125" style="8" customWidth="1"/>
-    <col min="116" max="116" width="21.109375" style="8" customWidth="1"/>
-    <col min="117" max="117" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.28515625" style="8" customWidth="1"/>
+    <col min="115" max="115" width="32.28515625" style="8" customWidth="1"/>
+    <col min="116" max="116" width="21.140625" style="8" customWidth="1"/>
+    <col min="117" max="117" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2264,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2615,13 +2629,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2658,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2680,17 +2694,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2724,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>119</v>
       </c>
@@ -2730,7 +2744,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>182</v>
       </c>
@@ -2763,17 +2777,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +2807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>119</v>
       </c>
@@ -2811,6 +2825,69 @@
       </c>
       <c r="F2" s="28" t="s">
         <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B07B3A2-8FC1-4A47-B24E-FC3B5845E7C7}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081490D7-EF26-4CFD-8AC0-150F21BE329E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D66BAAF-A738-4118-889B-2748A32FDC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="LQDTY" sheetId="7" r:id="rId7"/>
     <sheet name="AHBDE" sheetId="8" r:id="rId8"/>
     <sheet name="FACPF" sheetId="9" r:id="rId9"/>
+    <sheet name="LOACC" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="257">
   <si>
     <t>rowid</t>
   </si>
@@ -789,6 +790,21 @@
   </si>
   <si>
     <t>Deal Processing Area|Total Utilization Amount|Facility Status</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>LOACC_001_FACILITIES</t>
+  </si>
+  <si>
+    <t>LOACC_001_OUTSTANDINGS</t>
+  </si>
+  <si>
+    <t>Data Type|Branch Code|Business Date|Risk Book|Portfolio|Expense Code|Deal Number|Facility Number|Facility Start Date|Facility Maturity Date|Facility Currency Code|Lender Commitment</t>
+  </si>
+  <si>
+    <t>Data Type|Outstanding Cycle Start Date|Outstanding Cycle End Date|Outstanding Cycle Due Date|Current Cycle|Outstanding Global Cycle Due|Outstanding Global Paid to Date|Outstanding Global projected EOC Accrual|Outstanding Global Projected EOC Due|Outstanding Global Accrued to Date|Branch Code|Business Date|Risk Book|Portfolio|Expense Code|Deal Number|Facility Number|Facility Start Date|Facility Maturity Date|Facility Currency Code|Lender Commitment|Outstanding Alias|Outstanding Borrower CIF|Outstanding Type|Pricing Option|Rate Basis|OST Currency Code|OST Host Bank Net|OST All-In Rate|OST Base Rate Percentage|OST Spread Percentage|OST Rate Basis|OST Effective Date|OST Repricing Frequency|OST Repricing Date</t>
   </si>
 </sst>
 </file>
@@ -879,7 +895,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -967,11 +983,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1033,6 +1058,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,12 +1437,95 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5BB90-7F29-4775-9458-F523EB169F3A}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="188.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2836,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B07B3A2-8FC1-4A47-B24E-FC3B5845E7C7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081490D7-EF26-4CFD-8AC0-150F21BE329E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45064B-8DBB-421F-B197-4CEAA6E0B98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="1395" yWindow="1365" windowWidth="27090" windowHeight="11100" activeTab="1" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="255">
   <si>
     <t>rowid</t>
   </si>
@@ -789,6 +789,15 @@
   </si>
   <si>
     <t>Deal Processing Area|Total Utilization Amount|Facility Status</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CMMNT_005</t>
+  </si>
+  <si>
+    <t>Customer Name|CIF Number|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
   </si>
 </sst>
 </file>
@@ -1410,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1524,6 +1533,26 @@
       </c>
       <c r="F5" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B07B3A2-8FC1-4A47-B24E-FC3B5845E7C7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D66BAAF-A738-4118-889B-2748A32FDC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDDA8A6-7401-4574-8F7D-616E226C6E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BE8D4E12-2DF3-41AE-8555-AE2A983F86C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="LQDTY" sheetId="7" r:id="rId7"/>
     <sheet name="AHBDE" sheetId="8" r:id="rId8"/>
     <sheet name="FACPF" sheetId="9" r:id="rId9"/>
-    <sheet name="LOACC" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="258">
   <si>
     <t>rowid</t>
   </si>
@@ -783,28 +782,31 @@
     <t>Customer Name|CIF Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
   </si>
   <si>
-    <t>FACPF_001</t>
-  </si>
-  <si>
-    <t>FacilityPerformancePage</t>
-  </si>
-  <si>
-    <t>Deal Processing Area|Total Utilization Amount|Facility Status</t>
+    <t>LOACC_001_FACILITIES</t>
   </si>
   <si>
     <t>Facilities</t>
   </si>
   <si>
-    <t>LOACC_001_FACILITIES</t>
+    <t>Data Type|Branch Code|Business Date|Risk Book|Portfolio|Expense Code|Deal Number|Facility Number|Facility Start Date|Facility Maturity Date|Facility Currency Code|Lender Commitment</t>
   </si>
   <si>
     <t>LOACC_001_OUTSTANDINGS</t>
   </si>
   <si>
-    <t>Data Type|Branch Code|Business Date|Risk Book|Portfolio|Expense Code|Deal Number|Facility Number|Facility Start Date|Facility Maturity Date|Facility Currency Code|Lender Commitment</t>
-  </si>
-  <si>
     <t>Data Type|Outstanding Cycle Start Date|Outstanding Cycle End Date|Outstanding Cycle Due Date|Current Cycle|Outstanding Global Cycle Due|Outstanding Global Paid to Date|Outstanding Global projected EOC Accrual|Outstanding Global Projected EOC Due|Outstanding Global Accrued to Date|Branch Code|Business Date|Risk Book|Portfolio|Expense Code|Deal Number|Facility Number|Facility Start Date|Facility Maturity Date|Facility Currency Code|Lender Commitment|Outstanding Alias|Outstanding Borrower CIF|Outstanding Type|Pricing Option|Rate Basis|OST Currency Code|OST Host Bank Net|OST All-In Rate|OST Base Rate Percentage|OST Spread Percentage|OST Rate Basis|OST Effective Date|OST Repricing Frequency|OST Repricing Date</t>
+  </si>
+  <si>
+    <t>LOACC_003_FACILITIES</t>
+  </si>
+  <si>
+    <t>Business Date|Facility Start Date|Facility Maturity Date</t>
+  </si>
+  <si>
+    <t>LOACC_003_OUTSTANDINGS</t>
+  </si>
+  <si>
+    <t>Business Date|Effective date of the Facility|Facility Maturity Date|Outstanding Start Date|Repricing Date|Outstanding Cycle Start Date|Outstanding Cycle End Date|Outstanding Cycle Due Date</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1060,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,95 +1439,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5BB90-7F29-4775-9458-F523EB169F3A}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="188.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79DBE8-E477-44B4-9F09-92E3B85F8781}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2946,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B07B3A2-8FC1-4A47-B24E-FC3B5845E7C7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2959,7 +2878,7 @@
     <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="161.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2983,7 +2902,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="32">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -2998,8 +2917,68 @@
       <c r="E2" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="495" yWindow="3915" windowWidth="27090" windowHeight="11100" tabRatio="600" firstSheet="9" activeTab="10" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="9" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNR" sheetId="1" state="visible" r:id="rId1"/>
@@ -1232,8 +1232,8 @@
   </sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="G2" s="33" t="inlineStr">
         <is>
-          <t>60001506</t>
+          <t>60001658</t>
         </is>
       </c>
       <c r="H2" s="64" t="inlineStr">
@@ -1731,10 +1731,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1746,33 +1746,33 @@
     <col width="21.5703125" customWidth="1" style="75" min="5" max="5"/>
     <col width="9.140625" bestFit="1" customWidth="1" style="75" min="6" max="6"/>
     <col width="12.7109375" customWidth="1" style="75" min="7" max="8"/>
-    <col width="18.7109375" customWidth="1" style="75" min="9" max="9"/>
-    <col width="24.28515625" customWidth="1" style="75" min="10" max="10"/>
-    <col width="12.42578125" customWidth="1" style="75" min="11" max="11"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="64" min="12" max="12"/>
-    <col width="18.7109375" customWidth="1" style="64" min="13" max="13"/>
-    <col width="13.42578125" bestFit="1" customWidth="1" style="64" min="14" max="14"/>
-    <col width="17.7109375" customWidth="1" style="64" min="15" max="15"/>
-    <col width="9" customWidth="1" style="75" min="16" max="16"/>
-    <col width="17.42578125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="13.7109375" customWidth="1" style="75" min="18" max="18"/>
-    <col width="11.42578125" customWidth="1" style="75" min="19" max="19"/>
-    <col width="20.42578125" customWidth="1" style="75" min="20" max="20"/>
-    <col width="16" customWidth="1" style="75" min="21" max="21"/>
-    <col width="13.140625" customWidth="1" style="75" min="22" max="23"/>
-    <col width="9" customWidth="1" style="75" min="24" max="25"/>
-    <col width="8" customWidth="1" style="75" min="26" max="26"/>
-    <col width="16" customWidth="1" style="67" min="27" max="27"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="28" max="28"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="29" max="29"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" min="30" max="31"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" min="32" max="32"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" min="33" max="34"/>
-    <col width="21.140625" bestFit="1" customWidth="1" min="35" max="35"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="36" max="37"/>
+    <col width="18.7109375" customWidth="1" style="75" min="9" max="10"/>
+    <col width="24.28515625" customWidth="1" style="75" min="11" max="11"/>
+    <col width="12.42578125" customWidth="1" style="75" min="12" max="12"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="64" min="13" max="13"/>
+    <col width="18.7109375" customWidth="1" style="64" min="14" max="14"/>
+    <col width="13.42578125" bestFit="1" customWidth="1" style="64" min="15" max="15"/>
+    <col width="17.7109375" customWidth="1" style="64" min="16" max="16"/>
+    <col width="9" customWidth="1" style="75" min="17" max="17"/>
+    <col width="17.42578125" customWidth="1" style="75" min="18" max="18"/>
+    <col width="13.7109375" customWidth="1" style="75" min="19" max="19"/>
+    <col width="11.42578125" customWidth="1" style="75" min="20" max="20"/>
+    <col width="20.42578125" customWidth="1" style="75" min="21" max="21"/>
+    <col width="16" customWidth="1" style="75" min="22" max="22"/>
+    <col width="13.140625" customWidth="1" style="75" min="23" max="24"/>
+    <col width="9" customWidth="1" style="75" min="25" max="26"/>
+    <col width="8" customWidth="1" style="75" min="27" max="27"/>
+    <col width="16" customWidth="1" style="67" min="28" max="28"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="29" max="29"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="30" max="30"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" min="31" max="32"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" min="33" max="33"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" min="34" max="35"/>
+    <col width="21.140625" bestFit="1" customWidth="1" min="36" max="36"/>
+    <col width="20.140625" bestFit="1" customWidth="1" min="37" max="38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="70">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="70" thickBot="1">
       <c r="A1" s="69" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -1783,7 +1783,7 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="70" t="inlineStr">
+      <c r="C1" s="53" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
@@ -1793,7 +1793,7 @@
           <t>OutstandingSelect_Type</t>
         </is>
       </c>
-      <c r="E1" s="70" t="inlineStr">
+      <c r="E1" s="53" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
@@ -1823,139 +1823,184 @@
           <t>Repricing_Add_Option_Setup</t>
         </is>
       </c>
-      <c r="K1" s="71" t="inlineStr">
+      <c r="K1" s="70" t="inlineStr">
+        <is>
+          <t>Repricing_Add_Option_Setup_2</t>
+        </is>
+      </c>
+      <c r="L1" s="71" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="L1" s="72" t="inlineStr">
+      <c r="M1" s="72" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="M1" s="72" t="inlineStr">
+      <c r="N1" s="72" t="inlineStr">
         <is>
           <t>Notice_ContactPerson</t>
         </is>
       </c>
-      <c r="N1" s="72" t="inlineStr">
+      <c r="O1" s="72" t="inlineStr">
         <is>
           <t>Notice_Method</t>
         </is>
       </c>
-      <c r="O1" s="72" t="inlineStr">
+      <c r="P1" s="72" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="P1" s="71" t="inlineStr">
+      <c r="Q1" s="71" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
       </c>
-      <c r="Q1" s="73" t="inlineStr">
+      <c r="R1" s="73" t="inlineStr">
         <is>
           <t>Repricing_Frequency</t>
         </is>
       </c>
-      <c r="R1" s="70" t="inlineStr">
+      <c r="S1" s="70" t="inlineStr">
         <is>
           <t>HostBank_Share</t>
         </is>
       </c>
-      <c r="S1" s="70" t="inlineStr">
+      <c r="T1" s="70" t="inlineStr">
         <is>
           <t>FX_Rate</t>
         </is>
       </c>
-      <c r="T1" s="70" t="inlineStr">
+      <c r="U1" s="70" t="inlineStr">
         <is>
           <t>Remaining_LoanAmount</t>
         </is>
       </c>
-      <c r="U1" s="70" t="inlineStr">
+      <c r="V1" s="70" t="inlineStr">
         <is>
           <t>Total_LoanAmount</t>
         </is>
       </c>
-      <c r="V1" s="70" t="inlineStr">
+      <c r="W1" s="70" t="inlineStr">
         <is>
           <t>LoanAmount_1</t>
         </is>
       </c>
-      <c r="W1" s="70" t="inlineStr">
+      <c r="X1" s="70" t="inlineStr">
         <is>
           <t>LoanAmount_2</t>
         </is>
       </c>
-      <c r="X1" s="70" t="inlineStr">
+      <c r="Y1" s="70" t="inlineStr">
         <is>
           <t>Currency1</t>
         </is>
       </c>
-      <c r="Y1" s="70" t="inlineStr">
+      <c r="Z1" s="70" t="inlineStr">
         <is>
           <t>Currency2</t>
         </is>
       </c>
-      <c r="Z1" s="70" t="inlineStr">
+      <c r="AA1" s="70" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="AA1" s="74" t="inlineStr">
+      <c r="AB1" s="74" t="inlineStr">
         <is>
           <t>RateSetting_Status</t>
         </is>
       </c>
-      <c r="AB1" s="70" t="inlineStr">
+      <c r="AC1" s="70" t="inlineStr">
         <is>
           <t>Borrower_Name</t>
         </is>
       </c>
-      <c r="AC1" s="74" t="inlineStr">
+      <c r="AD1" s="74" t="inlineStr">
         <is>
           <t>BorrowerContact_Email</t>
         </is>
       </c>
-      <c r="AD1" s="74" t="inlineStr">
+      <c r="AE1" s="74" t="inlineStr">
         <is>
           <t>Lender1Contact_Email</t>
         </is>
       </c>
-      <c r="AE1" s="74" t="inlineStr">
+      <c r="AF1" s="74" t="inlineStr">
         <is>
           <t>Lender2Contact_Email</t>
         </is>
       </c>
-      <c r="AF1" s="74" t="inlineStr">
+      <c r="AG1" s="74" t="inlineStr">
         <is>
           <t>Notice_BorrowerContactPerson</t>
         </is>
       </c>
-      <c r="AG1" s="74" t="inlineStr">
+      <c r="AH1" s="74" t="inlineStr">
         <is>
           <t>Notice_Lender1ContactPerson</t>
         </is>
       </c>
-      <c r="AH1" s="74" t="inlineStr">
+      <c r="AI1" s="74" t="inlineStr">
         <is>
           <t>Notice_Lender2ContactPerson</t>
         </is>
       </c>
-      <c r="AI1" s="74" t="inlineStr">
+      <c r="AJ1" s="74" t="inlineStr">
         <is>
           <t>Notice_BorrowerMethod</t>
         </is>
       </c>
-      <c r="AJ1" s="74" t="inlineStr">
+      <c r="AK1" s="74" t="inlineStr">
         <is>
           <t>Notice_Lender1Method</t>
         </is>
       </c>
-      <c r="AK1" s="74" t="inlineStr">
+      <c r="AL1" s="74" t="inlineStr">
         <is>
           <t>Notice_Lender2Method</t>
+        </is>
+      </c>
+      <c r="AM1" s="53" t="inlineStr">
+        <is>
+          <t>Lender1_ShortName</t>
+        </is>
+      </c>
+      <c r="AN1" s="53" t="inlineStr">
+        <is>
+          <t>Lender2_ShortName</t>
+        </is>
+      </c>
+      <c r="AO1" s="52" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction</t>
+        </is>
+      </c>
+      <c r="AP1" s="52" t="inlineStr">
+        <is>
+          <t>Remittance2_Instruction</t>
+        </is>
+      </c>
+      <c r="AQ1" s="52" t="inlineStr">
+        <is>
+          <t>Remittance3_Instruction</t>
+        </is>
+      </c>
+      <c r="AR1" s="53" t="inlineStr">
+        <is>
+          <t>Remittance_Description</t>
+        </is>
+      </c>
+      <c r="AS1" s="53" t="inlineStr">
+        <is>
+          <t>Remittance2_Description</t>
+        </is>
+      </c>
+      <c r="AT1" s="53" t="inlineStr">
+        <is>
+          <t>Remittance3_Description</t>
         </is>
       </c>
     </row>
@@ -1970,9 +2015,9 @@
           <t>Expanded_Scenario2_LoanSplit</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t>S8SYN_14092020161649</t>
+      <c r="C2" s="33" t="inlineStr">
+        <is>
+          <t>BNS2SYN_25112020204237YFQ</t>
         </is>
       </c>
       <c r="D2" s="75" t="inlineStr">
@@ -1980,14 +2025,14 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>S8REV14092020171233</t>
+      <c r="E2" s="33" t="inlineStr">
+        <is>
+          <t>S2TERM25112020210521XBF</t>
         </is>
       </c>
       <c r="F2" s="33" t="inlineStr">
         <is>
-          <t>60001506</t>
+          <t>60001658</t>
         </is>
       </c>
       <c r="J2" s="75" t="inlineStr">
@@ -1997,154 +2042,191 @@
       </c>
       <c r="K2" s="75" t="inlineStr">
         <is>
+          <t>Auto Generate Interest Payment</t>
+        </is>
+      </c>
+      <c r="L2" s="75" t="inlineStr">
+        <is>
           <t>BBSW - Bid</t>
         </is>
       </c>
-      <c r="L2" s="76" t="inlineStr">
+      <c r="M2" s="76" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="M2" s="64" t="inlineStr">
+      <c r="N2" s="64" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="N2" s="64" t="inlineStr">
+      <c r="O2" s="64" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="P2" s="75" t="inlineStr">
         <is>
           <t>BDOLEND44121</t>
         </is>
       </c>
-      <c r="P2" s="75" t="inlineStr">
+      <c r="Q2" s="75" t="inlineStr">
         <is>
           <t>2.35%</t>
         </is>
       </c>
-      <c r="Q2" s="75" t="inlineStr">
-        <is>
-          <t>2 Days</t>
-        </is>
-      </c>
       <c r="R2" s="75" t="inlineStr">
         <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="S2" s="75" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="S2" s="75" t="inlineStr">
+      <c r="T2" s="75" t="inlineStr">
         <is>
           <t>0.750187547</t>
         </is>
       </c>
-      <c r="T2" s="75" t="inlineStr">
+      <c r="U2" s="75" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="U2" s="64" t="inlineStr">
-        <is>
-          <t>15000000.00</t>
-        </is>
-      </c>
-      <c r="V2" s="64" t="inlineStr">
-        <is>
-          <t>10000000.00</t>
-        </is>
-      </c>
-      <c r="W2" s="64" t="inlineStr">
-        <is>
-          <t>5000000.00</t>
-        </is>
-      </c>
-      <c r="X2" s="75" t="inlineStr">
+      <c r="V2" s="64" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="W2" s="64" t="n">
+        <v>500000</v>
+      </c>
+      <c r="X2" s="64" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Y2" s="75" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="Y2" s="75" t="inlineStr">
+      <c r="Z2" s="75" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="Z2" s="75" t="inlineStr">
+      <c r="AA2" s="75" t="inlineStr">
         <is>
           <t>Released</t>
         </is>
       </c>
-      <c r="AA2" s="67" t="inlineStr">
+      <c r="AB2" s="67" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="AB2" s="9" t="inlineStr">
+      <c r="AC2" s="9" t="inlineStr">
         <is>
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="AC2" s="76" t="inlineStr">
+      <c r="AD2" s="76" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AD2" s="67" t="inlineStr">
+      <c r="AE2" s="67" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AE2" s="67" t="inlineStr">
+      <c r="AF2" s="67" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AF2" s="64" t="inlineStr">
+      <c r="AG2" s="64" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="AG2" s="64" t="inlineStr">
+      <c r="AH2" s="64" t="inlineStr">
         <is>
           <t>Darlon Hijara</t>
         </is>
       </c>
-      <c r="AH2" s="64" t="inlineStr">
+      <c r="AI2" s="64" t="inlineStr">
         <is>
           <t>DarlonJeremiah Hijaratwo</t>
         </is>
       </c>
-      <c r="AI2" s="64" t="inlineStr">
+      <c r="AJ2" s="64" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AJ2" s="64" t="inlineStr">
+      <c r="AK2" s="64" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AK2" s="64" t="inlineStr">
+      <c r="AL2" s="64" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AL2" s="9" t="n"/>
+      <c r="AM2" s="28" t="inlineStr">
+        <is>
+          <t>LEND01292020</t>
+        </is>
+      </c>
+      <c r="AN2" s="28" t="inlineStr">
+        <is>
+          <t>LENDSHORT0414</t>
+        </is>
+      </c>
+      <c r="AO2" s="67" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="AP2" s="67" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="AQ2" s="67" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="AR2" s="67" t="inlineStr">
+        <is>
+          <t>DDA2</t>
+        </is>
+      </c>
+      <c r="AS2" s="67" t="inlineStr">
+        <is>
+          <t>DDA2</t>
+        </is>
+      </c>
+      <c r="AT2" s="67" t="inlineStr">
+        <is>
+          <t>DDA4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="D3" s="77" t="n"/>
       <c r="E3" s="77" t="n"/>
       <c r="F3" s="77" t="n"/>
-      <c r="J3" s="77" t="n"/>
-      <c r="Q3" s="77" t="n"/>
-      <c r="T3" s="77" t="n"/>
-      <c r="V3" s="77" t="n"/>
+      <c r="K3" s="77" t="n"/>
+      <c r="R3" s="77" t="n"/>
+      <c r="U3" s="77" t="n"/>
       <c r="W3" s="77" t="n"/>
       <c r="X3" s="77" t="n"/>
       <c r="Y3" s="77" t="n"/>
       <c r="Z3" s="77" t="n"/>
-      <c r="AC3" s="78" t="n"/>
+      <c r="AA3" s="77" t="n"/>
       <c r="AD3" s="78" t="n"/>
       <c r="AE3" s="78" t="n"/>
       <c r="AF3" s="78" t="n"/>
@@ -2153,6 +2235,7 @@
       <c r="AI3" s="78" t="n"/>
       <c r="AJ3" s="78" t="n"/>
       <c r="AK3" s="78" t="n"/>
+      <c r="AL3" s="78" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2169,8 +2252,8 @@
   </sheetPr>
   <dimension ref="A1:AU18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="709" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="709" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNR" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -113,6 +113,11 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="8">
@@ -716,13 +721,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -826,13 +831,21 @@
       </c>
       <c r="D2" s="27" t="n"/>
       <c r="E2" s="27" t="n"/>
-      <c r="F2" s="55" t="n"/>
+      <c r="F2" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="H2" s="27" t="n"/>
+      <c r="H2" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
       <c r="I2" s="27" t="inlineStr">
         <is>
           <t>26</t>
@@ -1382,6 +1395,116 @@
           <t>AUSYD</t>
         </is>
       </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>ALERT_006</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
+        </is>
+      </c>
+      <c r="D15" s="27" t="inlineStr">
+        <is>
+          <t>AddedInDeal_</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AddedInDeal_Alerts_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
+      <c r="F15" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="G15" s="27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H15" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="I15" s="27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>CB001</t>
+        </is>
+      </c>
+      <c r="K15" s="55" t="n"/>
+      <c r="L15" s="55" t="n"/>
+      <c r="M15" s="55" t="n"/>
+    </row>
+    <row r="16" s="63">
+      <c r="A16" s="65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="27" t="inlineStr">
+        <is>
+          <t>ALERT_007</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
+        </is>
+      </c>
+      <c r="D16" s="27" t="inlineStr">
+        <is>
+          <t>AddedInFac_</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AddedInFac_Alerts_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
+      <c r="F16" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="G16" s="27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="I16" s="27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>CB001</t>
+        </is>
+      </c>
+      <c r="K16" s="55" t="n"/>
+      <c r="L16" s="55" t="n"/>
+      <c r="M16" s="55" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1486,8 +1609,8 @@
     <col width="34.88671875" bestFit="1" customWidth="1" style="39" min="86" max="86"/>
     <col width="15.33203125" bestFit="1" customWidth="1" style="39" min="87" max="87"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="88" max="88"/>
-    <col width="8.88671875" customWidth="1" style="39" min="89" max="140"/>
-    <col width="8.88671875" customWidth="1" style="39" min="141" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="89" max="142"/>
+    <col width="8.88671875" customWidth="1" style="39" min="143" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="38">
@@ -2414,8 +2537,8 @@
     <col width="31.77734375" bestFit="1" customWidth="1" style="39" min="40" max="40"/>
     <col width="31.77734375" customWidth="1" style="39" min="41" max="41"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="42" max="42"/>
-    <col width="8.88671875" customWidth="1" style="39" min="43" max="93"/>
-    <col width="8.88671875" customWidth="1" style="39" min="94" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="43" max="95"/>
+    <col width="8.88671875" customWidth="1" style="39" min="96" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="38" thickBot="1">
@@ -3117,8 +3240,8 @@
     <col width="22" customWidth="1" style="39" min="20" max="20"/>
     <col width="25.44140625" customWidth="1" style="39" min="21" max="21"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="22" max="22"/>
-    <col width="8.88671875" customWidth="1" style="39" min="23" max="69"/>
-    <col width="8.88671875" customWidth="1" style="39" min="70" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="23" max="71"/>
+    <col width="8.88671875" customWidth="1" style="39" min="72" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="35">
@@ -3510,8 +3633,8 @@
     <col width="24.44140625" customWidth="1" style="39" min="32" max="35"/>
     <col width="29.5546875" bestFit="1" customWidth="1" style="39" min="36" max="36"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="37" max="37"/>
-    <col width="8.88671875" customWidth="1" style="39" min="38" max="83"/>
-    <col width="8.88671875" customWidth="1" style="39" min="84" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="38" max="85"/>
+    <col width="8.88671875" customWidth="1" style="39" min="86" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="38">
@@ -3954,8 +4077,8 @@
     <col width="24.44140625" customWidth="1" style="39" min="53" max="56"/>
     <col width="29.5546875" bestFit="1" customWidth="1" style="39" min="57" max="57"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="58" max="58"/>
-    <col width="8.88671875" customWidth="1" style="39" min="59" max="84"/>
-    <col width="8.88671875" customWidth="1" style="39" min="85" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="59" max="86"/>
+    <col width="8.88671875" customWidth="1" style="39" min="87" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="38">
@@ -5160,8 +5283,8 @@
     <col width="14" bestFit="1" customWidth="1" style="39" min="43" max="43"/>
     <col width="16.21875" bestFit="1" customWidth="1" style="39" min="44" max="44"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="45" max="45"/>
-    <col width="8.88671875" customWidth="1" style="39" min="46" max="57"/>
-    <col width="8.88671875" customWidth="1" style="39" min="58" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="46" max="59"/>
+    <col width="8.88671875" customWidth="1" style="39" min="60" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="38">
@@ -5799,8 +5922,8 @@
     <col width="34.88671875" customWidth="1" style="9" min="133" max="133"/>
     <col width="9.109375" customWidth="1" style="9" min="134" max="134"/>
     <col width="15.88671875" customWidth="1" style="9" min="135" max="135"/>
-    <col width="8.88671875" customWidth="1" style="63" min="136" max="140"/>
-    <col width="8.88671875" customWidth="1" style="63" min="141" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="63" min="136" max="142"/>
+    <col width="8.88671875" customWidth="1" style="63" min="143" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="78" thickBot="1">
@@ -6346,11 +6469,11 @@
   </sheetPr>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.44140625" defaultRowHeight="13.2"/>
@@ -7014,13 +7137,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -7028,18 +7151,19 @@
     <col width="5.88671875" bestFit="1" customWidth="1" style="63" min="1" max="1"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="63" min="2" max="2"/>
     <col width="75.6640625" bestFit="1" customWidth="1" style="63" min="3" max="3"/>
-    <col width="8.6640625" bestFit="1" customWidth="1" style="63" min="4" max="4"/>
-    <col width="14.77734375" bestFit="1" customWidth="1" style="63" min="5" max="5"/>
-    <col width="104.6640625" bestFit="1" customWidth="1" style="63" min="6" max="6"/>
-    <col width="25" bestFit="1" customWidth="1" style="63" min="7" max="7"/>
-    <col width="21.5546875" bestFit="1" customWidth="1" style="63" min="8" max="8"/>
-    <col width="13.109375" bestFit="1" customWidth="1" style="63" min="9" max="9"/>
-    <col width="11.88671875" bestFit="1" customWidth="1" style="63" min="10" max="10"/>
-    <col width="13.109375" bestFit="1" customWidth="1" style="63" min="11" max="11"/>
-    <col width="13.33203125" bestFit="1" customWidth="1" style="63" min="12" max="12"/>
-    <col width="31.77734375" bestFit="1" customWidth="1" style="63" min="13" max="13"/>
-    <col width="11" bestFit="1" customWidth="1" style="63" min="14" max="14"/>
-    <col width="20.88671875" bestFit="1" customWidth="1" style="17" min="15" max="15"/>
+    <col width="75.6640625" customWidth="1" style="63" min="4" max="4"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" style="63" min="5" max="5"/>
+    <col width="14.77734375" bestFit="1" customWidth="1" style="63" min="6" max="6"/>
+    <col width="104.6640625" bestFit="1" customWidth="1" style="63" min="7" max="7"/>
+    <col width="25" bestFit="1" customWidth="1" style="63" min="8" max="8"/>
+    <col width="21.5546875" bestFit="1" customWidth="1" style="63" min="9" max="9"/>
+    <col width="13.109375" bestFit="1" customWidth="1" style="63" min="10" max="10"/>
+    <col width="11.88671875" bestFit="1" customWidth="1" style="63" min="11" max="11"/>
+    <col width="13.109375" bestFit="1" customWidth="1" style="63" min="12" max="12"/>
+    <col width="13.33203125" bestFit="1" customWidth="1" style="63" min="13" max="13"/>
+    <col width="31.77734375" bestFit="1" customWidth="1" style="63" min="14" max="14"/>
+    <col width="11" bestFit="1" customWidth="1" style="63" min="15" max="15"/>
+    <col width="20.88671875" bestFit="1" customWidth="1" style="17" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customFormat="1" customHeight="1" s="19" thickBot="1">
@@ -7060,60 +7184,65 @@
       </c>
       <c r="D1" s="18" t="inlineStr">
         <is>
+          <t>Report_File_Name</t>
+        </is>
+      </c>
+      <c r="E1" s="18" t="inlineStr">
+        <is>
           <t>Delimiter</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="F1" s="18" t="inlineStr">
         <is>
           <t>Sheet_Name</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="G1" s="18" t="inlineStr">
         <is>
           <t>Columns_To_Validate</t>
         </is>
       </c>
-      <c r="G1" s="53" t="inlineStr">
+      <c r="H1" s="53" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="H1" s="53" t="inlineStr">
+      <c r="I1" s="53" t="inlineStr">
         <is>
           <t>Deal_Tracking_Number</t>
         </is>
       </c>
-      <c r="I1" s="53" t="inlineStr">
+      <c r="J1" s="53" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="J1" s="53" t="inlineStr">
+      <c r="K1" s="53" t="inlineStr">
         <is>
           <t>Facility_FCN</t>
         </is>
       </c>
-      <c r="K1" s="53" t="inlineStr">
+      <c r="L1" s="53" t="inlineStr">
         <is>
           <t>Alias_Number</t>
         </is>
       </c>
-      <c r="L1" s="53" t="inlineStr">
+      <c r="M1" s="53" t="inlineStr">
         <is>
           <t>Alert_Heading</t>
         </is>
       </c>
-      <c r="M1" s="53" t="inlineStr">
+      <c r="N1" s="53" t="inlineStr">
         <is>
           <t>Alert_Content</t>
         </is>
       </c>
-      <c r="N1" s="53" t="inlineStr">
+      <c r="O1" s="53" t="inlineStr">
         <is>
           <t>User_Name</t>
         </is>
       </c>
-      <c r="O1" s="88" t="inlineStr">
+      <c r="P1" s="88" t="inlineStr">
         <is>
           <t>Date_Added_Amended</t>
         </is>
@@ -7135,22 +7264,22 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>|</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>Report Prompt_1</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Report Name:|From Date:|To Date: </t>
         </is>
       </c>
-      <c r="G2" s="55" t="n"/>
       <c r="H2" s="55" t="n"/>
       <c r="I2" s="55" t="n"/>
       <c r="J2" s="55" t="n"/>
@@ -7158,7 +7287,8 @@
       <c r="L2" s="55" t="n"/>
       <c r="M2" s="55" t="n"/>
       <c r="N2" s="55" t="n"/>
-      <c r="O2" s="89" t="n"/>
+      <c r="O2" s="55" t="n"/>
+      <c r="P2" s="89" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -7174,22 +7304,22 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>|</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Deal_2</t>
         </is>
       </c>
-      <c r="F3" s="27" t="inlineStr">
+      <c r="G3" s="27" t="inlineStr">
         <is>
           <t>Deal Name|Deal Tracking Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
         </is>
       </c>
-      <c r="G3" s="55" t="n"/>
       <c r="H3" s="55" t="n"/>
       <c r="I3" s="55" t="n"/>
       <c r="J3" s="55" t="n"/>
@@ -7197,7 +7327,8 @@
       <c r="L3" s="55" t="n"/>
       <c r="M3" s="55" t="n"/>
       <c r="N3" s="55" t="n"/>
-      <c r="O3" s="89" t="n"/>
+      <c r="O3" s="55" t="n"/>
+      <c r="P3" s="89" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -7213,22 +7344,22 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>|</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Facility_3</t>
         </is>
       </c>
-      <c r="F4" s="27" t="inlineStr">
+      <c r="G4" s="27" t="inlineStr">
         <is>
           <t>Deal Name|Deal Tracking Number|Facility Name|Facility FCN|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
         </is>
       </c>
-      <c r="G4" s="55" t="n"/>
       <c r="H4" s="55" t="n"/>
       <c r="I4" s="55" t="n"/>
       <c r="J4" s="55" t="n"/>
@@ -7236,7 +7367,8 @@
       <c r="L4" s="55" t="n"/>
       <c r="M4" s="55" t="n"/>
       <c r="N4" s="55" t="n"/>
-      <c r="O4" s="89" t="n"/>
+      <c r="O4" s="55" t="n"/>
+      <c r="P4" s="89" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -7252,22 +7384,22 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="8" t="n"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>|</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Outstanding_4</t>
         </is>
       </c>
-      <c r="F5" s="27" t="inlineStr">
+      <c r="G5" s="27" t="inlineStr">
         <is>
           <t>Deal Name|Deal Tracking Number|Alias Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
         </is>
       </c>
-      <c r="G5" s="55" t="n"/>
       <c r="H5" s="55" t="n"/>
       <c r="I5" s="55" t="n"/>
       <c r="J5" s="55" t="n"/>
@@ -7275,7 +7407,8 @@
       <c r="L5" s="55" t="n"/>
       <c r="M5" s="55" t="n"/>
       <c r="N5" s="55" t="n"/>
-      <c r="O5" s="89" t="n"/>
+      <c r="O5" s="55" t="n"/>
+      <c r="P5" s="89" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -7291,22 +7424,22 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>|</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Customer_5</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Customer Name|CIF Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
         </is>
       </c>
-      <c r="G6" s="55" t="n"/>
       <c r="H6" s="55" t="n"/>
       <c r="I6" s="55" t="n"/>
       <c r="J6" s="55" t="n"/>
@@ -7314,7 +7447,8 @@
       <c r="L6" s="55" t="n"/>
       <c r="M6" s="55" t="n"/>
       <c r="N6" s="55" t="n"/>
-      <c r="O6" s="89" t="n"/>
+      <c r="O6" s="55" t="n"/>
+      <c r="P6" s="89" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -7330,40 +7464,45 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Deal_2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>AddedInDeal_Alerts_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>Deal</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>DNR1_30112020171528JCH</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>1001575</t>
         </is>
       </c>
-      <c r="I7" s="55" t="n"/>
       <c r="J7" s="55" t="n"/>
       <c r="K7" s="55" t="n"/>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="55" t="n"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>ALERT_006</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Alerts for DNR 30-Nov-2020 18:07:43</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>CHER MANAGERAU</t>
         </is>
       </c>
-      <c r="O7" s="17" t="inlineStr">
+      <c r="P7" s="17" t="inlineStr">
         <is>
           <t>30-Nov-2020 18:08:11</t>
         </is>
@@ -7383,48 +7522,53 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Facility_3</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>AddedInFac_Alerts_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>Facility</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>DNR1_30112020171528JCH</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>1001575</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>S130112020172720SVI</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>3001280</t>
         </is>
       </c>
-      <c r="K8" s="55" t="n"/>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="55" t="n"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>ALERT_007</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Alerts for DNR 30-Nov-2020 17:33:06</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>CHER INPUTTERAU</t>
         </is>
       </c>
-      <c r="O8" s="17" t="inlineStr">
+      <c r="P8" s="17" t="inlineStr">
         <is>
           <t>30-Nov-2020 17:33:06</t>
         </is>
@@ -7444,8 +7588,9 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="I9" s="55" t="n"/>
+      <c r="D9" s="9" t="n"/>
       <c r="J9" s="55" t="n"/>
+      <c r="K9" s="55" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -7461,39 +7606,40 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="D10" s="9" t="n"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>DNR1_30112020171528JCH</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>1001575</t>
         </is>
       </c>
-      <c r="I10" s="55" t="n"/>
       <c r="J10" s="55" t="n"/>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="55" t="n"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>60001551</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>ALERT_009</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Alerts for DNR 30-Nov-2020 19:20:25</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>CHER INPUTTERAU</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>30-Nov-2020 19:20:25</t>
         </is>
@@ -7513,6 +7659,7 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
+      <c r="D11" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="709" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNR" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -113,11 +113,6 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <sz val="8"/>
     </font>
   </fonts>
   <fills count="8">
@@ -721,13 +716,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -1451,7 +1446,7 @@
       <c r="L15" s="55" t="n"/>
       <c r="M15" s="55" t="n"/>
     </row>
-    <row r="16" s="63">
+    <row r="16">
       <c r="A16" s="65" t="inlineStr">
         <is>
           <t>15</t>
@@ -1505,6 +1500,78 @@
       <c r="K16" s="55" t="n"/>
       <c r="L16" s="55" t="n"/>
       <c r="M16" s="55" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="65" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>ALERT_008</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="27" t="inlineStr">
+        <is>
+          <t>ALERT_009</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
+        </is>
+      </c>
+      <c r="D18" s="27" t="inlineStr">
+        <is>
+          <t>Loan_</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Loan_Alerts_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
+      <c r="F18" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="G18" s="27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H18" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="I18" s="27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>CB001</t>
+        </is>
+      </c>
+      <c r="K18" s="55" t="n"/>
+      <c r="L18" s="55" t="n"/>
+      <c r="M18" s="55" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,8 +1676,8 @@
     <col width="34.88671875" bestFit="1" customWidth="1" style="39" min="86" max="86"/>
     <col width="15.33203125" bestFit="1" customWidth="1" style="39" min="87" max="87"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="88" max="88"/>
-    <col width="8.88671875" customWidth="1" style="39" min="89" max="142"/>
-    <col width="8.88671875" customWidth="1" style="39" min="143" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="89" max="144"/>
+    <col width="8.88671875" customWidth="1" style="39" min="145" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="38">
@@ -2537,8 +2604,8 @@
     <col width="31.77734375" bestFit="1" customWidth="1" style="39" min="40" max="40"/>
     <col width="31.77734375" customWidth="1" style="39" min="41" max="41"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="42" max="42"/>
-    <col width="8.88671875" customWidth="1" style="39" min="43" max="95"/>
-    <col width="8.88671875" customWidth="1" style="39" min="96" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="43" max="97"/>
+    <col width="8.88671875" customWidth="1" style="39" min="98" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="38" thickBot="1">
@@ -3240,8 +3307,8 @@
     <col width="22" customWidth="1" style="39" min="20" max="20"/>
     <col width="25.44140625" customWidth="1" style="39" min="21" max="21"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="22" max="22"/>
-    <col width="8.88671875" customWidth="1" style="39" min="23" max="71"/>
-    <col width="8.88671875" customWidth="1" style="39" min="72" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="23" max="73"/>
+    <col width="8.88671875" customWidth="1" style="39" min="74" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="35">
@@ -3633,8 +3700,8 @@
     <col width="24.44140625" customWidth="1" style="39" min="32" max="35"/>
     <col width="29.5546875" bestFit="1" customWidth="1" style="39" min="36" max="36"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="37" max="37"/>
-    <col width="8.88671875" customWidth="1" style="39" min="38" max="85"/>
-    <col width="8.88671875" customWidth="1" style="39" min="86" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="38" max="87"/>
+    <col width="8.88671875" customWidth="1" style="39" min="88" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="38">
@@ -4077,8 +4144,8 @@
     <col width="24.44140625" customWidth="1" style="39" min="53" max="56"/>
     <col width="29.5546875" bestFit="1" customWidth="1" style="39" min="57" max="57"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="58" max="58"/>
-    <col width="8.88671875" customWidth="1" style="39" min="59" max="86"/>
-    <col width="8.88671875" customWidth="1" style="39" min="87" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="59" max="88"/>
+    <col width="8.88671875" customWidth="1" style="39" min="89" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="38">
@@ -5283,8 +5350,8 @@
     <col width="14" bestFit="1" customWidth="1" style="39" min="43" max="43"/>
     <col width="16.21875" bestFit="1" customWidth="1" style="39" min="44" max="44"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="45" max="45"/>
-    <col width="8.88671875" customWidth="1" style="39" min="46" max="59"/>
-    <col width="8.88671875" customWidth="1" style="39" min="60" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="46" max="61"/>
+    <col width="8.88671875" customWidth="1" style="39" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="38">
@@ -5922,8 +5989,8 @@
     <col width="34.88671875" customWidth="1" style="9" min="133" max="133"/>
     <col width="9.109375" customWidth="1" style="9" min="134" max="134"/>
     <col width="15.88671875" customWidth="1" style="9" min="135" max="135"/>
-    <col width="8.88671875" customWidth="1" style="63" min="136" max="142"/>
-    <col width="8.88671875" customWidth="1" style="63" min="143" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="63" min="136" max="144"/>
+    <col width="8.88671875" customWidth="1" style="63" min="145" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="78" thickBot="1">
@@ -7139,11 +7206,11 @@
   </sheetPr>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -7151,7 +7218,7 @@
     <col width="5.88671875" bestFit="1" customWidth="1" style="63" min="1" max="1"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="63" min="2" max="2"/>
     <col width="75.6640625" bestFit="1" customWidth="1" style="63" min="3" max="3"/>
-    <col width="75.6640625" customWidth="1" style="63" min="4" max="4"/>
+    <col width="33.6640625" bestFit="1" customWidth="1" style="63" min="4" max="4"/>
     <col width="8.6640625" bestFit="1" customWidth="1" style="63" min="5" max="5"/>
     <col width="14.77734375" bestFit="1" customWidth="1" style="63" min="6" max="6"/>
     <col width="104.6640625" bestFit="1" customWidth="1" style="63" min="7" max="7"/>
@@ -7270,9 +7337,9 @@
           <t>|</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>Report Prompt_1</t>
+      <c r="F2" s="27" t="inlineStr">
+        <is>
+          <t>Report Prompt</t>
         </is>
       </c>
       <c r="G2" s="8" t="inlineStr">
@@ -7310,9 +7377,9 @@
           <t>|</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Deal_2</t>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Deal</t>
         </is>
       </c>
       <c r="G3" s="27" t="inlineStr">
@@ -7350,9 +7417,9 @@
           <t>|</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Facility_3</t>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>Facility</t>
         </is>
       </c>
       <c r="G4" s="27" t="inlineStr">
@@ -7390,9 +7457,9 @@
           <t>|</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Outstanding_4</t>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>Outstanding</t>
         </is>
       </c>
       <c r="G5" s="27" t="inlineStr">
@@ -7430,9 +7497,9 @@
           <t>|</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Customer_5</t>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Customer</t>
         </is>
       </c>
       <c r="G6" s="9" t="inlineStr">
@@ -7474,6 +7541,7 @@
           <t>Deal</t>
         </is>
       </c>
+      <c r="G7" s="55" t="n"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>DNR1_30112020171528JCH</t>
@@ -7532,6 +7600,7 @@
           <t>Facility</t>
         </is>
       </c>
+      <c r="G8" s="55" t="n"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>DNR1_30112020171528JCH</t>
@@ -7589,6 +7658,7 @@
         </is>
       </c>
       <c r="D9" s="9" t="n"/>
+      <c r="G9" s="55" t="n"/>
       <c r="J9" s="55" t="n"/>
       <c r="K9" s="55" t="n"/>
     </row>
@@ -7606,7 +7676,17 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="D10" s="9" t="n"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Loan_Alerts_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Outstanding</t>
+        </is>
+      </c>
+      <c r="G10" s="55" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>DNR1_30112020171528JCH</t>
@@ -7660,6 +7740,7 @@
         </is>
       </c>
       <c r="D11" s="9" t="n"/>
+      <c r="G11" s="55" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="9" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="4500" windowWidth="27090" windowHeight="11100" tabRatio="600" firstSheet="9" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNR" sheetId="1" state="visible" r:id="rId1"/>
@@ -1232,8 +1232,8 @@
   </sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AE2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="G2" s="33" t="inlineStr">
         <is>
-          <t>60001658</t>
+          <t>60001682</t>
         </is>
       </c>
       <c r="H2" s="64" t="inlineStr">
         <is>
-          <t>USD LIBOR Option</t>
+          <t>BBSY - Bid</t>
         </is>
       </c>
       <c r="I2" s="54" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="J2" s="54" t="inlineStr">
         <is>
-          <t>1,000,000.00</t>
+          <t>2,000,000.00</t>
         </is>
       </c>
       <c r="K2" s="28" t="inlineStr">
@@ -1635,17 +1635,17 @@
       </c>
       <c r="AC2" s="67" t="inlineStr">
         <is>
-          <t>DDA2</t>
+          <t>DDA1</t>
         </is>
       </c>
       <c r="AD2" s="67" t="inlineStr">
         <is>
-          <t>DDA2</t>
+          <t>DDA1</t>
         </is>
       </c>
       <c r="AE2" s="67" t="inlineStr">
         <is>
-          <t>DDA4</t>
+          <t>DDA1</t>
         </is>
       </c>
       <c r="AF2" s="67" t="n"/>
@@ -1733,8 +1733,8 @@
   </sheetPr>
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="F2" s="33" t="inlineStr">
         <is>
-          <t>60001658</t>
+          <t>60001682</t>
         </is>
       </c>
       <c r="J2" s="75" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="Y2" s="75" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Z2" s="75" t="inlineStr">
@@ -2252,8 +2252,8 @@
   </sheetPr>
   <dimension ref="A1:AU18"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CA750C-CFDF-42DC-8F05-DB44FCE90F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CDC42-3753-4C28-A6C3-87874FD0B9A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="27090" windowHeight="11100" tabRatio="709" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="614">
   <si>
     <t>rowid</t>
   </si>
@@ -58,12 +58,18 @@
     <t>From_Date</t>
   </si>
   <si>
+    <t>From_Year</t>
+  </si>
+  <si>
     <t>To_Month</t>
   </si>
   <si>
     <t>To_Date</t>
   </si>
   <si>
+    <t>To_Year</t>
+  </si>
+  <si>
     <t>Branch_Code</t>
   </si>
   <si>
@@ -208,6 +214,15 @@
     <t>ReleasedLoan_Calendar Report_v1.0.xlsx</t>
   </si>
   <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Commonwealth Bank of Australia - DBU</t>
   </si>
   <si>
@@ -316,6 +331,12 @@
     <t>CMMNT_005</t>
   </si>
   <si>
+    <t>Customer_5</t>
+  </si>
+  <si>
+    <t>Customer Name|CIF Number|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
+  </si>
+  <si>
     <t>DNR1_30112020171528JCH</t>
   </si>
   <si>
@@ -400,9 +421,6 @@
     <t>ALERT_005</t>
   </si>
   <si>
-    <t>Customer_5</t>
-  </si>
-  <si>
     <t>Customer Name|CIF Number|Alert Heading|Alert Content|User Name|Date Added / Amended</t>
   </si>
   <si>
@@ -1858,7 +1876,7 @@
     <t>default</t>
   </si>
   <si>
-    <t>Customer Name|CIF Number|Comment Heading|Comment Detail|User ID|Date Added / Amended</t>
+    <t>Outstanding_Alias</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2241,6 +2259,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2556,32 +2576,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.77734375" style="63" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.5546875" style="63" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5703125" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2612,201 +2633,219 @@
       <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="66" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="27"/>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="D3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
-      <c r="J4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
-      <c r="J5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
-      <c r="J6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
-      <c r="J7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
@@ -2815,22 +2854,24 @@
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
@@ -2839,22 +2880,24 @@
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
@@ -2863,107 +2906,124 @@
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="27"/>
+        <v>60</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="I11" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="55"/>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" t="s">
-        <v>59</v>
+      <c r="D12" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="55"/>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="27" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="55"/>
+      <c r="M13" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="N13" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="O13" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="55"/>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2981,98 +3041,98 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="39" customWidth="1"/>
     <col min="3" max="3" width="17" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="39" customWidth="1"/>
-    <col min="6" max="7" width="21.109375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="39" customWidth="1"/>
-    <col min="10" max="11" width="16.88671875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="39" customWidth="1"/>
+    <col min="6" max="7" width="21.140625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="39" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" style="39" customWidth="1"/>
     <col min="12" max="13" width="22" style="39" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" style="39" customWidth="1"/>
-    <col min="15" max="16" width="26.88671875" style="39" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="39" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="39" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" style="39" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="39" customWidth="1"/>
+    <col min="15" max="16" width="26.85546875" style="39" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="39" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" style="39" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="39" customWidth="1"/>
     <col min="21" max="21" width="24" style="39" customWidth="1"/>
-    <col min="22" max="22" width="32.44140625" style="39" customWidth="1"/>
-    <col min="23" max="23" width="27.88671875" style="39" customWidth="1"/>
-    <col min="24" max="24" width="29.6640625" style="39" customWidth="1"/>
-    <col min="25" max="25" width="25.109375" style="39" customWidth="1"/>
-    <col min="26" max="26" width="18.5546875" style="39" customWidth="1"/>
-    <col min="27" max="27" width="18.88671875" style="39" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="39" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" style="39" customWidth="1"/>
+    <col min="23" max="23" width="27.85546875" style="39" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" style="39" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" style="39" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="39" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" style="39" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="39" customWidth="1"/>
     <col min="29" max="29" width="32" style="39" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" style="39" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="39" customWidth="1"/>
     <col min="31" max="31" width="23" style="39" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="39" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="39" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="39" customWidth="1"/>
-    <col min="35" max="36" width="19.33203125" style="39" customWidth="1"/>
-    <col min="37" max="37" width="23.44140625" style="39" customWidth="1"/>
-    <col min="38" max="38" width="19.88671875" style="39" customWidth="1"/>
-    <col min="39" max="39" width="24.6640625" style="39" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="39" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="39" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="39" customWidth="1"/>
+    <col min="35" max="36" width="19.28515625" style="39" customWidth="1"/>
+    <col min="37" max="37" width="23.42578125" style="39" customWidth="1"/>
+    <col min="38" max="38" width="19.85546875" style="39" customWidth="1"/>
+    <col min="39" max="39" width="24.7109375" style="39" customWidth="1"/>
     <col min="40" max="40" width="25" style="39" customWidth="1"/>
-    <col min="41" max="41" width="24.44140625" style="39" customWidth="1"/>
-    <col min="42" max="42" width="20.33203125" style="39" customWidth="1"/>
+    <col min="41" max="41" width="24.42578125" style="39" customWidth="1"/>
+    <col min="42" max="42" width="20.28515625" style="39" customWidth="1"/>
     <col min="43" max="43" width="36" style="39" customWidth="1"/>
-    <col min="44" max="44" width="34.44140625" style="39" customWidth="1"/>
-    <col min="45" max="45" width="26.6640625" style="39" customWidth="1"/>
-    <col min="46" max="46" width="17.33203125" style="39" customWidth="1"/>
-    <col min="47" max="47" width="35.109375" style="39" customWidth="1"/>
-    <col min="48" max="48" width="29.44140625" style="39" customWidth="1"/>
-    <col min="49" max="49" width="25.88671875" style="39" customWidth="1"/>
-    <col min="50" max="50" width="31.33203125" style="39" customWidth="1"/>
-    <col min="51" max="51" width="17.5546875" style="39" customWidth="1"/>
-    <col min="52" max="52" width="20.33203125" style="39" customWidth="1"/>
-    <col min="53" max="53" width="21.44140625" style="39" customWidth="1"/>
-    <col min="54" max="54" width="24.109375" style="39" customWidth="1"/>
+    <col min="44" max="44" width="34.42578125" style="39" customWidth="1"/>
+    <col min="45" max="45" width="26.7109375" style="39" customWidth="1"/>
+    <col min="46" max="46" width="17.28515625" style="39" customWidth="1"/>
+    <col min="47" max="47" width="35.140625" style="39" customWidth="1"/>
+    <col min="48" max="48" width="29.42578125" style="39" customWidth="1"/>
+    <col min="49" max="49" width="25.85546875" style="39" customWidth="1"/>
+    <col min="50" max="50" width="31.28515625" style="39" customWidth="1"/>
+    <col min="51" max="51" width="17.5703125" style="39" customWidth="1"/>
+    <col min="52" max="52" width="20.28515625" style="39" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="39" customWidth="1"/>
+    <col min="54" max="54" width="24.140625" style="39" customWidth="1"/>
     <col min="55" max="55" width="14" style="39" customWidth="1"/>
-    <col min="56" max="56" width="16.6640625" style="39" customWidth="1"/>
-    <col min="57" max="57" width="36.109375" style="39" customWidth="1"/>
-    <col min="58" max="58" width="18.109375" style="39" customWidth="1"/>
-    <col min="59" max="59" width="15.6640625" style="39" customWidth="1"/>
+    <col min="56" max="56" width="16.7109375" style="39" customWidth="1"/>
+    <col min="57" max="57" width="36.140625" style="39" customWidth="1"/>
+    <col min="58" max="58" width="18.140625" style="39" customWidth="1"/>
+    <col min="59" max="59" width="15.7109375" style="39" customWidth="1"/>
     <col min="60" max="60" width="24" style="39" customWidth="1"/>
-    <col min="61" max="61" width="11.5546875" style="39" customWidth="1"/>
-    <col min="62" max="62" width="8.33203125" style="39" customWidth="1"/>
-    <col min="63" max="63" width="16.5546875" style="39" customWidth="1"/>
-    <col min="64" max="64" width="34.33203125" style="39" customWidth="1"/>
-    <col min="65" max="65" width="12.6640625" style="42" customWidth="1"/>
-    <col min="66" max="66" width="11.109375" style="42" customWidth="1"/>
-    <col min="67" max="67" width="23.33203125" style="44" customWidth="1"/>
-    <col min="68" max="68" width="41.88671875" style="44" customWidth="1"/>
-    <col min="69" max="69" width="47.88671875" style="44" customWidth="1"/>
-    <col min="70" max="70" width="30.109375" style="39" customWidth="1"/>
-    <col min="71" max="71" width="29.44140625" style="44" customWidth="1"/>
-    <col min="72" max="72" width="25.33203125" style="39" customWidth="1"/>
-    <col min="73" max="73" width="9.5546875" style="42" customWidth="1"/>
-    <col min="74" max="74" width="25.6640625" style="42" customWidth="1"/>
-    <col min="75" max="75" width="19.6640625" style="39" customWidth="1"/>
-    <col min="76" max="76" width="28.5546875" style="42" customWidth="1"/>
-    <col min="77" max="77" width="21.109375" style="42" customWidth="1"/>
-    <col min="78" max="78" width="14.5546875" style="42" customWidth="1"/>
-    <col min="79" max="79" width="20.5546875" style="42" customWidth="1"/>
-    <col min="80" max="80" width="24.44140625" style="42" customWidth="1"/>
-    <col min="81" max="81" width="18.33203125" style="42" customWidth="1"/>
-    <col min="82" max="82" width="18.88671875" style="42" customWidth="1"/>
-    <col min="83" max="83" width="26.33203125" style="39" customWidth="1"/>
-    <col min="84" max="85" width="31.109375" style="39" customWidth="1"/>
-    <col min="86" max="86" width="34.88671875" style="39" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.5703125" style="39" customWidth="1"/>
+    <col min="62" max="62" width="8.28515625" style="39" customWidth="1"/>
+    <col min="63" max="63" width="16.5703125" style="39" customWidth="1"/>
+    <col min="64" max="64" width="34.28515625" style="39" customWidth="1"/>
+    <col min="65" max="65" width="12.7109375" style="42" customWidth="1"/>
+    <col min="66" max="66" width="11.140625" style="42" customWidth="1"/>
+    <col min="67" max="67" width="23.28515625" style="44" customWidth="1"/>
+    <col min="68" max="68" width="41.85546875" style="44" customWidth="1"/>
+    <col min="69" max="69" width="47.85546875" style="44" customWidth="1"/>
+    <col min="70" max="70" width="30.140625" style="39" customWidth="1"/>
+    <col min="71" max="71" width="29.42578125" style="44" customWidth="1"/>
+    <col min="72" max="72" width="25.28515625" style="39" customWidth="1"/>
+    <col min="73" max="73" width="9.5703125" style="42" customWidth="1"/>
+    <col min="74" max="74" width="25.7109375" style="42" customWidth="1"/>
+    <col min="75" max="75" width="19.7109375" style="39" customWidth="1"/>
+    <col min="76" max="76" width="28.5703125" style="42" customWidth="1"/>
+    <col min="77" max="77" width="21.140625" style="42" customWidth="1"/>
+    <col min="78" max="78" width="14.5703125" style="42" customWidth="1"/>
+    <col min="79" max="79" width="20.5703125" style="42" customWidth="1"/>
+    <col min="80" max="80" width="24.42578125" style="42" customWidth="1"/>
+    <col min="81" max="81" width="18.28515625" style="42" customWidth="1"/>
+    <col min="82" max="82" width="18.85546875" style="42" customWidth="1"/>
+    <col min="83" max="83" width="26.28515625" style="39" customWidth="1"/>
+    <col min="84" max="85" width="31.140625" style="39" customWidth="1"/>
+    <col min="86" max="86" width="34.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="89" max="137" width="8.88671875" style="39" customWidth="1"/>
-    <col min="138" max="16384" width="8.88671875" style="39"/>
+    <col min="89" max="140" width="8.85546875" style="39" customWidth="1"/>
+    <col min="141" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -3080,521 +3140,521 @@
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC1" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF1" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG1" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH1" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI1" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ1" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK1" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL1" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM1" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN1" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO1" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP1" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR1" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS1" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW1" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX1" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY1" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ1" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA1" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="BB1" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC1" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD1" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="BF1" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH1" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI1" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="BJ1" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="BK1" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="BL1" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM1" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="BN1" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="BO1" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="BP1" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="BQ1" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="BR1" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="BS1" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="BT1" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="BU1" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV1" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW1" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="BX1" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY1" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ1" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA1" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="CC1" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="CD1" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="CE1" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="CF1" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="CG1" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="CH1" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="CI1" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="CJ1" s="37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="AD1" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE1" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF1" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG1" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH1" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI1" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ1" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="AK1" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL1" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM1" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="AN1" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO1" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP1" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="AQ1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR1" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS1" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="AT1" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU1" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV1" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW1" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="AX1" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="AY1" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="AZ1" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="BA1" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BB1" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="BC1" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="BD1" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="BE1" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="BF1" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BG1" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="BH1" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="BI1" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="BJ1" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="BK1" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="BL1" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="BM1" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="BN1" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="BO1" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="BP1" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="BQ1" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="BR1" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="BS1" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="BT1" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU1" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BV1" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW1" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="BX1" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="BY1" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="BZ1" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA1" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="CB1" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="CC1" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="CD1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="CE1" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="CF1" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="CG1" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="CH1" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI1" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ1" s="37" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>334</v>
-      </c>
       <c r="P2" s="40" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="U2" s="40" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="W2" s="40" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="X2" s="40" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Y2" s="40" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Z2" s="40" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AA2" s="40" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AB2" s="40" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AC2" s="40" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AD2" s="40" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF2" s="40" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AG2" s="40" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AH2" s="40" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AJ2" s="41">
         <v>10</v>
       </c>
       <c r="AK2" s="40"/>
       <c r="AL2" s="41" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AM2" s="40" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AN2" s="40" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AO2" s="40" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AP2" s="40" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AQ2" s="40" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AR2" s="39" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AS2" s="39">
         <v>2</v>
       </c>
       <c r="AT2" s="40" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AU2" s="40" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AV2" s="40" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AW2" s="39">
         <v>2</v>
       </c>
       <c r="AX2" s="39" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AY2" s="39" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AZ2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="BA2" s="39" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="BB2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="BC2" s="39" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="BD2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="BE2" s="42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="BF2" s="42" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="BG2" s="42" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="BH2" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="BI2" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="BJ2" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="BK2" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="BL2" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="BM2" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="BN2" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="BO2" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="BP2" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="BQ2" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="BR2" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="BS2" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT2" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="BU2" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="BV2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW2" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="BX2" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="BI2" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="BJ2" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK2" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL2" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="BM2" s="39" t="s">
+      <c r="BY2" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="BZ2" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="BN2" s="39" t="s">
+      <c r="CA2" s="39" t="s">
         <v>369</v>
-      </c>
-      <c r="BO2" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="BP2" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="BQ2" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="BR2" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="BS2" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="BT2" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="BU2" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW2" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="BX2" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="BY2" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="BZ2" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="CA2" s="39" t="s">
-        <v>363</v>
       </c>
       <c r="CB2" s="43"/>
       <c r="CC2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="CD2" s="42" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="CE2" s="42" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="CF2" s="42" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="CG2" s="42" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="CH2" s="39" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="CI2" s="39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="CJ2" s="39" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3612,54 +3672,54 @@
   <dimension ref="A1:CH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="39" customWidth="1"/>
     <col min="5" max="5" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.88671875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="39" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="32.88671875" style="39" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" style="39" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" style="39" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="39" customWidth="1"/>
-    <col min="19" max="19" width="34.88671875" style="39" customWidth="1"/>
-    <col min="20" max="21" width="21.5546875" style="39" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="39" customWidth="1"/>
-    <col min="23" max="23" width="25.5546875" style="39" customWidth="1"/>
+    <col min="6" max="7" width="22.85546875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="39" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="39" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="39" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="39" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="39" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="39" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" style="39" customWidth="1"/>
+    <col min="20" max="21" width="21.5703125" style="39" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="39" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" style="39" customWidth="1"/>
     <col min="24" max="25" width="18" style="39" customWidth="1"/>
-    <col min="26" max="26" width="19.44140625" style="39" customWidth="1"/>
-    <col min="27" max="27" width="33.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="39" customWidth="1"/>
+    <col min="27" max="27" width="33.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21" style="39" customWidth="1"/>
-    <col min="29" max="29" width="17.33203125" style="39" customWidth="1"/>
-    <col min="30" max="30" width="24.6640625" style="39" customWidth="1"/>
-    <col min="31" max="31" width="25.5546875" style="39" customWidth="1"/>
-    <col min="32" max="32" width="24.44140625" style="39" customWidth="1"/>
-    <col min="33" max="33" width="26.77734375" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="39" width="24.44140625" style="39" customWidth="1"/>
-    <col min="40" max="40" width="31.77734375" style="39" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.77734375" style="39" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="39" customWidth="1"/>
+    <col min="30" max="30" width="24.7109375" style="39" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" style="39" customWidth="1"/>
+    <col min="32" max="32" width="24.42578125" style="39" customWidth="1"/>
+    <col min="33" max="33" width="26.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="39" width="24.42578125" style="39" customWidth="1"/>
+    <col min="40" max="40" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.7109375" style="39" customWidth="1"/>
     <col min="42" max="42" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="43" max="90" width="8.88671875" style="39" customWidth="1"/>
-    <col min="91" max="16384" width="8.88671875" style="39"/>
+    <col min="43" max="93" width="8.85546875" style="39" customWidth="1"/>
+    <col min="94" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="38" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:86" s="38" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3667,250 +3727,250 @@
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P1" s="47" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="T1" s="48" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="U1" s="48" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="V1" s="48" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="W1" s="48" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="X1" s="48" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Y1" s="48" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Z1" s="48" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AA1" s="48" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AB1" s="48" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AC1" s="47" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AD1" s="48" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AE1" s="48" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AF1" s="48" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AG1" s="50" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AH1" s="50" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AI1" s="50" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="AJ1" s="50" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AK1" s="50" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AL1" s="50" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AM1" s="50" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AN1" s="50" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AO1" s="50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AP1" s="37" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:86" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="U2" s="40" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="W2" s="40" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="X2" s="40" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Y2" s="40" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Z2" s="40" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AA2" s="40" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AB2" s="40" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AC2" s="40" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AD2" s="40" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AE2" s="39" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AF2" s="43" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG2" s="40" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AH2" s="40" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AI2" s="39" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AJ2" s="41" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AK2" s="40" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AL2" s="41" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AM2" s="40" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AN2" s="40" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AO2" s="40" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AP2" s="40" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AQ2" s="40"/>
       <c r="AR2" s="40"/>
@@ -3942,129 +4002,129 @@
       <c r="CG2" s="42"/>
       <c r="CH2" s="42"/>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="T3" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="V3" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="W3" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="X3" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y3" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>412</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="Z3" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB3" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD3" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE3" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF3" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI3" s="43" t="s">
         <v>426</v>
       </c>
-      <c r="L3" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="O3" s="39" t="s">
+      <c r="AJ3" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="AK3" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL3" s="43" t="s">
         <v>428</v>
       </c>
-      <c r="Q3" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="R3" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="T3" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="U3" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="V3" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="W3" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="X3" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y3" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z3" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA3" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB3" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC3" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD3" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE3" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF3" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG3" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH3" s="43" t="s">
+      <c r="AM3" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="AN3" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="AO3" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="AI3" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="AJ3" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="AK3" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL3" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="AM3" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="AN3" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="AO3" s="43" t="s">
-        <v>423</v>
-      </c>
       <c r="AP3" s="39" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4088,32 +4148,32 @@
       <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="39" customWidth="1"/>
-    <col min="9" max="10" width="23.5546875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" style="39" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="39" customWidth="1"/>
-    <col min="13" max="14" width="24.6640625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="39" customWidth="1"/>
-    <col min="16" max="16" width="21.44140625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="39" customWidth="1"/>
+    <col min="9" max="10" width="23.5703125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="39" customWidth="1"/>
+    <col min="13" max="14" width="24.7109375" style="39" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="39" customWidth="1"/>
     <col min="18" max="19" width="21" style="39" customWidth="1"/>
     <col min="20" max="20" width="22" style="39" customWidth="1"/>
-    <col min="21" max="21" width="25.44140625" style="39" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" style="39" customWidth="1"/>
     <col min="22" max="22" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="66" width="8.88671875" style="39" customWidth="1"/>
-    <col min="67" max="16384" width="8.88671875" style="39"/>
+    <col min="23" max="69" width="8.85546875" style="39" customWidth="1"/>
+    <col min="70" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -4121,200 +4181,200 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L2" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="E3" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="N2" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>451</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q2" s="41" t="s">
-        <v>456</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="39" t="s">
+      <c r="G3" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>450</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>452</v>
-      </c>
       <c r="H3" s="49" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M3" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="N3" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="P3" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T3" s="39" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="U3" s="39" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4336,44 +4396,44 @@
       <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="39.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="39" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="39" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="39" customWidth="1"/>
-    <col min="12" max="12" width="29.109375" style="39" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="39" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" style="39" customWidth="1"/>
-    <col min="15" max="15" width="34.88671875" style="39" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" style="39" customWidth="1"/>
-    <col min="17" max="17" width="26.44140625" style="39" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="34.85546875" style="39" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" style="39" customWidth="1"/>
     <col min="19" max="19" width="20" style="39" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="39" customWidth="1"/>
-    <col min="21" max="21" width="36.109375" style="39" customWidth="1"/>
-    <col min="22" max="22" width="18.109375" style="39" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" style="42" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" style="42" customWidth="1"/>
-    <col min="25" max="26" width="31.109375" style="39" customWidth="1"/>
-    <col min="27" max="27" width="31.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="24.44140625" style="39" customWidth="1"/>
-    <col min="31" max="31" width="25.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="24.44140625" style="39" customWidth="1"/>
-    <col min="36" max="36" width="29.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="39" customWidth="1"/>
+    <col min="21" max="21" width="36.140625" style="39" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="39" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="42" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="42" customWidth="1"/>
+    <col min="25" max="26" width="31.140625" style="39" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="24.42578125" style="39" customWidth="1"/>
+    <col min="31" max="31" width="25.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="24.42578125" style="39" customWidth="1"/>
+    <col min="36" max="36" width="29.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="80" width="8.88671875" style="39" customWidth="1"/>
-    <col min="81" max="16384" width="8.88671875" style="39"/>
+    <col min="38" max="83" width="8.85546875" style="39" customWidth="1"/>
+    <col min="84" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4381,135 +4441,135 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="R1" s="51" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="S1" s="51" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Y1" s="52" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Z1" s="33" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AA1" s="33" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AB1" s="50" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AC1" s="50" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AD1" s="50" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AE1" s="50" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AF1" s="50" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="AG1" s="50" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="AH1" s="50" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AI1" s="50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ1" s="50" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AK1" s="37" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="I2" s="39">
         <v>100</v>
@@ -4518,82 +4578,82 @@
         <v>100</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="R2" s="43" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="U2" s="42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="V2" s="42" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="X2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Y2" s="42" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Z2" s="42" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AA2" s="42" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AB2" s="43" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="43" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AD2" s="43" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AE2" s="43" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AF2" s="43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="43" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AH2" s="43" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AI2" s="43" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="43" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="39" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4611,70 +4671,70 @@
   <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="44" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" style="44" customWidth="1"/>
-    <col min="10" max="11" width="21.6640625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" style="44" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="44" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="44" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="44" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" style="44" customWidth="1"/>
-    <col min="19" max="19" width="18.44140625" style="44" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" style="44" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="44" customWidth="1"/>
+    <col min="10" max="11" width="21.7109375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" style="44" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="44" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="44" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="44" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="44" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="44" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="44" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" style="44" customWidth="1"/>
     <col min="22" max="22" width="23" style="44" customWidth="1"/>
-    <col min="23" max="23" width="20.5546875" style="44" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" style="44" customWidth="1"/>
-    <col min="25" max="25" width="30.33203125" style="44" customWidth="1"/>
-    <col min="26" max="26" width="27.6640625" style="44" customWidth="1"/>
-    <col min="27" max="27" width="22.88671875" style="44" customWidth="1"/>
-    <col min="28" max="28" width="26.88671875" style="44" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" style="44" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" style="44" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="44" customWidth="1"/>
+    <col min="26" max="26" width="27.7109375" style="44" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" style="44" customWidth="1"/>
+    <col min="28" max="28" width="26.85546875" style="44" customWidth="1"/>
     <col min="29" max="29" width="21" style="44" customWidth="1"/>
     <col min="30" max="30" width="28" style="44" customWidth="1"/>
-    <col min="31" max="31" width="21.44140625" style="44" customWidth="1"/>
-    <col min="32" max="32" width="32.33203125" style="44" customWidth="1"/>
-    <col min="33" max="33" width="36.5546875" style="44" customWidth="1"/>
-    <col min="34" max="34" width="16.5546875" style="44" customWidth="1"/>
-    <col min="35" max="35" width="24.33203125" style="44" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" style="44" customWidth="1"/>
-    <col min="37" max="37" width="22.109375" style="44" customWidth="1"/>
-    <col min="38" max="38" width="18.109375" style="44" customWidth="1"/>
-    <col min="39" max="39" width="14.88671875" style="44" customWidth="1"/>
-    <col min="40" max="40" width="22.88671875" style="44" customWidth="1"/>
-    <col min="41" max="42" width="20.5546875" style="44" customWidth="1"/>
-    <col min="43" max="43" width="40.88671875" style="39" customWidth="1"/>
-    <col min="44" max="44" width="14.6640625" style="39" customWidth="1"/>
-    <col min="45" max="45" width="8.88671875" style="39" customWidth="1"/>
-    <col min="46" max="46" width="9.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.42578125" style="44" customWidth="1"/>
+    <col min="32" max="32" width="32.28515625" style="44" customWidth="1"/>
+    <col min="33" max="33" width="36.5703125" style="44" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" style="44" customWidth="1"/>
+    <col min="35" max="35" width="24.28515625" style="44" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" style="44" customWidth="1"/>
+    <col min="37" max="37" width="22.140625" style="44" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" style="44" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" style="44" customWidth="1"/>
+    <col min="40" max="40" width="22.85546875" style="44" customWidth="1"/>
+    <col min="41" max="42" width="20.5703125" style="44" customWidth="1"/>
+    <col min="43" max="43" width="40.85546875" style="39" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" style="39" customWidth="1"/>
+    <col min="45" max="45" width="8.85546875" style="39" customWidth="1"/>
+    <col min="46" max="46" width="9.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14" style="39" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.21875" style="39" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="24.44140625" style="39" customWidth="1"/>
-    <col min="52" max="52" width="25.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="24.44140625" style="39" customWidth="1"/>
-    <col min="57" max="57" width="29.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="24.42578125" style="39" customWidth="1"/>
+    <col min="52" max="52" width="25.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="24.42578125" style="39" customWidth="1"/>
+    <col min="57" max="57" width="29.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="59" max="81" width="8.88671875" style="39" customWidth="1"/>
-    <col min="82" max="16384" width="8.88671875" style="39"/>
+    <col min="59" max="84" width="8.85546875" style="39" customWidth="1"/>
+    <col min="85" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -4682,685 +4742,685 @@
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>487</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y1" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA1" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB1" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF1" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG1" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="AH1" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="AJ1" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="AK1" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="AL1" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="AM1" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="AN1" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO1" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="AQ1" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR1" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="AS1" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="AT1" s="72" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU1" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV1" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="AW1" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="AX1" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="AY1" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="AZ1" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA1" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="BB1" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="BC1" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="BD1" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="R2" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="H1" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>477</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="K1" s="57" t="s">
+      <c r="S2" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB2" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC2" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD2" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE2" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF2" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG2" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH2" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ2" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="AK2" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL2" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="AM2" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN2" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="AO2" s="60" t="s">
+        <v>536</v>
+      </c>
+      <c r="AP2" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="AQ2" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="AR2" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="AS2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>540</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AW2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX2" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="L1" s="56" t="s">
-        <v>479</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>480</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="P1" s="56" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q1" s="56" t="s">
-        <v>484</v>
-      </c>
-      <c r="R1" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="S1" s="57" t="s">
-        <v>486</v>
-      </c>
-      <c r="T1" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="U1" s="56" t="s">
-        <v>488</v>
-      </c>
-      <c r="V1" s="56" t="s">
-        <v>489</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>490</v>
-      </c>
-      <c r="X1" s="56" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y1" s="56" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z1" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA1" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB1" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD1" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE1" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF1" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="AG1" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="AH1" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="AI1" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="AJ1" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="AK1" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="AL1" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="AM1" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="AN1" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="AO1" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="AP1" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="AQ1" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="AR1" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="AS1" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="AT1" s="72" t="s">
-        <v>512</v>
-      </c>
-      <c r="AU1" s="72" t="s">
-        <v>255</v>
-      </c>
-      <c r="AV1" s="72" t="s">
-        <v>513</v>
-      </c>
-      <c r="AW1" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="AX1" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="AY1" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="AZ1" s="72" t="s">
-        <v>409</v>
-      </c>
-      <c r="BA1" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="BB1" s="50" t="s">
-        <v>461</v>
-      </c>
-      <c r="BC1" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="BD1" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE1" s="72" t="s">
-        <v>462</v>
-      </c>
-      <c r="BF1" s="37" t="s">
-        <v>353</v>
+      <c r="AY2" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="AZ2" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="BA2" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB2" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="BC2" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="BD2" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="BE2" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="BF2" s="39" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>514</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="O2" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q2" s="42" t="s">
-        <v>517</v>
-      </c>
-      <c r="R2" s="44" t="s">
-        <v>469</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="T2" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="U2" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="V2" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="W2" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="X2" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="Z2" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC2" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD2" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="AE2" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF2" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="AG2" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="AH2" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI2" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ2" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="AK2" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="AL2" s="39" t="s">
-        <v>528</v>
-      </c>
-      <c r="AM2" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN2" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="AO2" s="60" t="s">
-        <v>530</v>
-      </c>
-      <c r="AP2" s="60" t="s">
-        <v>531</v>
-      </c>
-      <c r="AQ2" s="39" t="s">
-        <v>532</v>
-      </c>
-      <c r="AR2" s="39" t="s">
-        <v>533</v>
-      </c>
-      <c r="AS2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>534</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>535</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AW2" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>537</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB2" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="BC2" s="43" t="s">
-        <v>539</v>
-      </c>
-      <c r="BD2" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="BE2" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="BF2" s="39" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L3" s="44" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="O3" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="U3" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="V3" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="W3" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="X3" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z3" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB3" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE3" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF3" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG3" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH3" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="AI3" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="P3" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>541</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>469</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="T3" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="V3" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="W3" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="X3" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="Z3" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB3" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC3" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD3" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="AE3" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF3" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="AG3" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="AH3" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI3" s="39" t="s">
-        <v>358</v>
-      </c>
       <c r="AJ3" s="39" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AK3" s="39" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AL3" s="39" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AM3" s="39" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AN3" s="39" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="AO3" s="60" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AP3" s="60" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AQ3" s="39" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AR3" s="39" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AS3" s="39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW3" s="39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AX3" s="43" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AY3" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AZ3" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="BA3" s="39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BB3" s="39" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="BC3" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="BD3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="BE3" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="BF3" s="39" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N4" s="59" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="O4" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="U4" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="V4" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="W4" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="X4" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB4" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC4" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE4" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF4" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG4" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH4" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="AI4" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="P4" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>548</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>469</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="U4" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="V4" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="W4" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="X4" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y4" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="Z4" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB4" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC4" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD4" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="AE4" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF4" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="AG4" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="AH4" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI4" s="39" t="s">
-        <v>358</v>
-      </c>
       <c r="AJ4" s="39" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AK4" s="39" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AL4" s="39" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AM4" s="39" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AN4" s="39" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="AO4" s="60" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AP4" s="60" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AQ4" s="39" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AR4" s="39" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AS4" s="39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW4" s="43" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AX4" s="43" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AY4" s="43" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AZ4" s="43" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="BA4" s="43" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="BB4" s="43" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="BC4" s="43" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="BD4" s="43" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="BE4" s="43" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="BF4" s="39" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AQ7" s="61"/>
     </row>
   </sheetData>
@@ -5382,56 +5442,56 @@
       <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" style="39" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" style="39" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="39" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="43.140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="39" customWidth="1"/>
     <col min="14" max="14" width="40" style="39" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="39" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" style="39" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="39" customWidth="1"/>
-    <col min="19" max="19" width="23.5546875" style="39" customWidth="1"/>
-    <col min="20" max="20" width="17.44140625" style="39" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="39" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" style="39" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="39" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="39" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="39" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" style="39" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" style="39" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="39" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="39" customWidth="1"/>
     <col min="23" max="23" width="23" style="39" customWidth="1"/>
-    <col min="24" max="24" width="25.88671875" style="39" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" style="39" customWidth="1"/>
-    <col min="26" max="27" width="29.109375" style="39" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="39" customWidth="1"/>
-    <col min="29" max="29" width="17.44140625" style="39" customWidth="1"/>
-    <col min="30" max="30" width="9.88671875" style="39" customWidth="1"/>
-    <col min="31" max="31" width="10.88671875" style="39" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" style="39" customWidth="1"/>
-    <col min="33" max="33" width="31.44140625" style="39" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" style="39" customWidth="1"/>
+    <col min="24" max="24" width="25.85546875" style="39" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="39" customWidth="1"/>
+    <col min="26" max="27" width="29.140625" style="39" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="39" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" style="39" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" style="39" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" style="39" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="39" customWidth="1"/>
+    <col min="33" max="33" width="31.42578125" style="39" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" style="39" customWidth="1"/>
     <col min="35" max="36" width="29" style="39" customWidth="1"/>
-    <col min="37" max="37" width="17.5546875" style="39" customWidth="1"/>
-    <col min="38" max="38" width="14.6640625" style="39" customWidth="1"/>
-    <col min="39" max="39" width="20.88671875" style="39" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.88671875" style="39" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="39" customWidth="1"/>
-    <col min="42" max="42" width="9.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5703125" style="39" customWidth="1"/>
+    <col min="38" max="38" width="14.7109375" style="39" customWidth="1"/>
+    <col min="39" max="39" width="20.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.85546875" style="39" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="39" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14" style="39" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="8.88671875" style="39" customWidth="1"/>
-    <col min="55" max="16384" width="8.88671875" style="39"/>
+    <col min="46" max="57" width="8.85546875" style="39" customWidth="1"/>
+    <col min="58" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -5439,292 +5499,292 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N1" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="P1" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="O1" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>503</v>
-      </c>
       <c r="Q1" s="35" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="R1" s="68" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S1" s="68" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T1" s="68" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="V1" s="68" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="W1" s="68" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="X1" s="68" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="Y1" s="32" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AD1" s="35" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="AE1" s="35" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AF1" s="35" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AG1" s="35" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="AH1" s="35" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AI1" s="35" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AK1" s="35" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AL1" s="35" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AM1" s="35" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="AN1" s="51" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AO1" s="35" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="AP1" s="72" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AQ1" s="72" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AR1" s="72" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="AS1" s="37" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N2" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q2" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="O2" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>526</v>
-      </c>
       <c r="R2" s="39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="T2" s="39" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="V2" s="43" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="W2" s="43" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="X2" s="43" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Y2" s="39" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="Z2" s="39">
         <v>9.86</v>
       </c>
       <c r="AA2" s="43" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="AB2" s="69" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="AC2" s="69" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AD2" s="39" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AE2" s="39" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AF2" s="39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="39" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="AH2" s="58" t="s">
+        <v>591</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="AJ2" s="39" t="s">
         <v>585</v>
       </c>
-      <c r="AI2" s="39" t="s">
-        <v>586</v>
-      </c>
-      <c r="AJ2" s="39" t="s">
-        <v>579</v>
-      </c>
       <c r="AK2" s="39" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AM2" s="39">
         <v>3</v>
       </c>
       <c r="AN2" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="AO2" s="39">
         <v>30</v>
       </c>
       <c r="AP2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AQ2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AR2" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="AS2" s="39" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C3" s="70"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="J3" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AB3" s="69"/>
       <c r="AC3" s="69"/>
       <c r="AH3" s="58"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="43">
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="X4" s="71"/>
       <c r="Z4" s="70"/>
@@ -5732,7 +5792,7 @@
       <c r="AB4" s="70"/>
       <c r="AC4" s="70"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="X5" s="71"/>
       <c r="Z5" s="70"/>
       <c r="AA5" s="70"/>
@@ -5758,140 +5818,140 @@
       <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="9" customWidth="1"/>
     <col min="9" max="9" width="34" style="9" customWidth="1"/>
-    <col min="10" max="10" width="31.5546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="35.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="9" customWidth="1"/>
     <col min="16" max="16" width="17" style="9" customWidth="1"/>
-    <col min="17" max="17" width="28.88671875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="28.88671875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="9" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" style="9" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="9" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="9" customWidth="1"/>
     <col min="24" max="24" width="18" style="9" customWidth="1"/>
-    <col min="25" max="25" width="21.88671875" style="9" customWidth="1"/>
-    <col min="26" max="26" width="25.109375" style="9" customWidth="1"/>
-    <col min="27" max="27" width="22.44140625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="27.5546875" style="9" customWidth="1"/>
-    <col min="29" max="29" width="23.44140625" style="9" customWidth="1"/>
-    <col min="30" max="30" width="27.109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" style="9" customWidth="1"/>
+    <col min="26" max="26" width="25.140625" style="9" customWidth="1"/>
+    <col min="27" max="27" width="22.42578125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="27.5703125" style="9" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" style="9" customWidth="1"/>
+    <col min="30" max="30" width="27.140625" style="9" customWidth="1"/>
     <col min="31" max="31" width="29" style="9" customWidth="1"/>
-    <col min="32" max="34" width="20.109375" style="9" customWidth="1"/>
-    <col min="35" max="36" width="24.109375" style="9" customWidth="1"/>
-    <col min="37" max="37" width="9.44140625" style="9" customWidth="1"/>
-    <col min="38" max="39" width="17.6640625" style="9" customWidth="1"/>
-    <col min="40" max="40" width="20.44140625" style="9" customWidth="1"/>
-    <col min="41" max="41" width="17.5546875" style="9" customWidth="1"/>
-    <col min="42" max="42" width="21.109375" style="9" customWidth="1"/>
-    <col min="43" max="44" width="19.33203125" style="9" customWidth="1"/>
-    <col min="45" max="45" width="19.6640625" style="9" customWidth="1"/>
+    <col min="32" max="34" width="20.140625" style="9" customWidth="1"/>
+    <col min="35" max="36" width="24.140625" style="9" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" style="9" customWidth="1"/>
+    <col min="38" max="39" width="17.7109375" style="9" customWidth="1"/>
+    <col min="40" max="40" width="20.42578125" style="9" customWidth="1"/>
+    <col min="41" max="41" width="17.5703125" style="9" customWidth="1"/>
+    <col min="42" max="42" width="21.140625" style="9" customWidth="1"/>
+    <col min="43" max="44" width="19.28515625" style="9" customWidth="1"/>
+    <col min="45" max="45" width="19.7109375" style="9" customWidth="1"/>
     <col min="46" max="46" width="35" style="9" customWidth="1"/>
-    <col min="47" max="47" width="18.109375" style="9" customWidth="1"/>
+    <col min="47" max="47" width="18.140625" style="9" customWidth="1"/>
     <col min="48" max="48" width="19" style="9" customWidth="1"/>
-    <col min="49" max="49" width="32.44140625" style="9" customWidth="1"/>
-    <col min="50" max="50" width="17.33203125" style="9" customWidth="1"/>
-    <col min="51" max="51" width="28.6640625" style="9" customWidth="1"/>
-    <col min="52" max="52" width="23.5546875" style="9" customWidth="1"/>
-    <col min="53" max="53" width="45.33203125" style="9" customWidth="1"/>
-    <col min="54" max="54" width="29.88671875" style="9" customWidth="1"/>
-    <col min="55" max="55" width="23.88671875" style="9" customWidth="1"/>
-    <col min="56" max="57" width="20.5546875" style="85" customWidth="1"/>
-    <col min="58" max="58" width="18.5546875" style="85" customWidth="1"/>
+    <col min="49" max="49" width="32.42578125" style="9" customWidth="1"/>
+    <col min="50" max="50" width="17.28515625" style="9" customWidth="1"/>
+    <col min="51" max="51" width="28.7109375" style="9" customWidth="1"/>
+    <col min="52" max="52" width="23.5703125" style="9" customWidth="1"/>
+    <col min="53" max="53" width="45.28515625" style="9" customWidth="1"/>
+    <col min="54" max="54" width="29.85546875" style="9" customWidth="1"/>
+    <col min="55" max="55" width="23.85546875" style="9" customWidth="1"/>
+    <col min="56" max="57" width="20.5703125" style="85" customWidth="1"/>
+    <col min="58" max="58" width="18.5703125" style="85" customWidth="1"/>
     <col min="59" max="59" width="18" style="85" customWidth="1"/>
-    <col min="60" max="60" width="18.5546875" style="85" customWidth="1"/>
-    <col min="61" max="61" width="17.6640625" style="9" customWidth="1"/>
-    <col min="62" max="62" width="18.5546875" style="85" customWidth="1"/>
-    <col min="63" max="63" width="18.33203125" style="9" customWidth="1"/>
-    <col min="64" max="64" width="24.44140625" style="9" customWidth="1"/>
-    <col min="65" max="65" width="30.44140625" style="9" customWidth="1"/>
+    <col min="60" max="60" width="18.5703125" style="85" customWidth="1"/>
+    <col min="61" max="61" width="17.7109375" style="9" customWidth="1"/>
+    <col min="62" max="62" width="18.5703125" style="85" customWidth="1"/>
+    <col min="63" max="63" width="18.28515625" style="9" customWidth="1"/>
+    <col min="64" max="64" width="24.42578125" style="9" customWidth="1"/>
+    <col min="65" max="65" width="30.42578125" style="9" customWidth="1"/>
     <col min="66" max="66" width="36" style="9" customWidth="1"/>
-    <col min="67" max="67" width="34.44140625" style="9" customWidth="1"/>
-    <col min="68" max="68" width="26.6640625" style="9" customWidth="1"/>
-    <col min="69" max="70" width="17.33203125" style="9" customWidth="1"/>
-    <col min="71" max="71" width="34.109375" style="9" customWidth="1"/>
-    <col min="72" max="72" width="28.44140625" style="9" customWidth="1"/>
-    <col min="73" max="73" width="24.6640625" style="9" customWidth="1"/>
-    <col min="74" max="74" width="30.33203125" style="9" customWidth="1"/>
-    <col min="75" max="75" width="17.5546875" style="9" customWidth="1"/>
-    <col min="76" max="76" width="20.33203125" style="9" customWidth="1"/>
-    <col min="77" max="77" width="12.109375" style="9" customWidth="1"/>
-    <col min="78" max="78" width="21.44140625" style="9" customWidth="1"/>
-    <col min="79" max="79" width="24.109375" style="9" customWidth="1"/>
+    <col min="67" max="67" width="34.42578125" style="9" customWidth="1"/>
+    <col min="68" max="68" width="26.7109375" style="9" customWidth="1"/>
+    <col min="69" max="70" width="17.28515625" style="9" customWidth="1"/>
+    <col min="71" max="71" width="34.140625" style="9" customWidth="1"/>
+    <col min="72" max="72" width="28.42578125" style="9" customWidth="1"/>
+    <col min="73" max="73" width="24.7109375" style="9" customWidth="1"/>
+    <col min="74" max="74" width="30.28515625" style="9" customWidth="1"/>
+    <col min="75" max="75" width="17.5703125" style="9" customWidth="1"/>
+    <col min="76" max="76" width="20.28515625" style="9" customWidth="1"/>
+    <col min="77" max="77" width="12.140625" style="9" customWidth="1"/>
+    <col min="78" max="78" width="21.42578125" style="9" customWidth="1"/>
+    <col min="79" max="79" width="24.140625" style="9" customWidth="1"/>
     <col min="80" max="80" width="16" style="9" customWidth="1"/>
     <col min="81" max="81" width="14" style="9" customWidth="1"/>
-    <col min="82" max="82" width="16.6640625" style="9" customWidth="1"/>
+    <col min="82" max="82" width="16.7109375" style="9" customWidth="1"/>
     <col min="83" max="83" width="10" style="9" customWidth="1"/>
-    <col min="84" max="84" width="8.5546875" style="9" customWidth="1"/>
-    <col min="85" max="85" width="19.109375" style="9" customWidth="1"/>
-    <col min="86" max="86" width="37.6640625" style="9" customWidth="1"/>
-    <col min="87" max="87" width="15.88671875" style="9" customWidth="1"/>
-    <col min="88" max="88" width="9.33203125" style="9" customWidth="1"/>
-    <col min="89" max="90" width="16.6640625" style="9" customWidth="1"/>
-    <col min="91" max="91" width="12.88671875" style="9" customWidth="1"/>
-    <col min="92" max="92" width="32.44140625" style="9" customWidth="1"/>
-    <col min="93" max="93" width="11.6640625" style="9" customWidth="1"/>
+    <col min="84" max="84" width="8.5703125" style="9" customWidth="1"/>
+    <col min="85" max="85" width="19.140625" style="9" customWidth="1"/>
+    <col min="86" max="86" width="37.7109375" style="9" customWidth="1"/>
+    <col min="87" max="87" width="15.85546875" style="9" customWidth="1"/>
+    <col min="88" max="88" width="9.28515625" style="9" customWidth="1"/>
+    <col min="89" max="90" width="16.7109375" style="9" customWidth="1"/>
+    <col min="91" max="91" width="12.85546875" style="9" customWidth="1"/>
+    <col min="92" max="92" width="32.42578125" style="9" customWidth="1"/>
+    <col min="93" max="93" width="11.7109375" style="9" customWidth="1"/>
     <col min="94" max="94" width="35" style="9" customWidth="1"/>
-    <col min="95" max="95" width="18.109375" style="9" customWidth="1"/>
-    <col min="96" max="96" width="15.6640625" style="9" customWidth="1"/>
+    <col min="95" max="95" width="18.140625" style="9" customWidth="1"/>
+    <col min="96" max="96" width="15.7109375" style="9" customWidth="1"/>
     <col min="97" max="97" width="24" style="9" customWidth="1"/>
-    <col min="98" max="98" width="11.5546875" style="9" customWidth="1"/>
-    <col min="99" max="99" width="8.33203125" style="9" customWidth="1"/>
-    <col min="100" max="100" width="16.5546875" style="9" customWidth="1"/>
-    <col min="101" max="101" width="32.88671875" style="9" customWidth="1"/>
-    <col min="102" max="102" width="18.6640625" style="9" customWidth="1"/>
-    <col min="103" max="103" width="18.33203125" style="9" customWidth="1"/>
-    <col min="104" max="104" width="10.44140625" style="9" customWidth="1"/>
-    <col min="105" max="105" width="9.6640625" style="9" customWidth="1"/>
-    <col min="106" max="106" width="12.6640625" style="9" customWidth="1"/>
-    <col min="107" max="107" width="11.6640625" style="9" customWidth="1"/>
+    <col min="98" max="98" width="11.5703125" style="9" customWidth="1"/>
+    <col min="99" max="99" width="8.28515625" style="9" customWidth="1"/>
+    <col min="100" max="100" width="16.5703125" style="9" customWidth="1"/>
+    <col min="101" max="101" width="32.85546875" style="9" customWidth="1"/>
+    <col min="102" max="102" width="18.7109375" style="9" customWidth="1"/>
+    <col min="103" max="103" width="18.28515625" style="9" customWidth="1"/>
+    <col min="104" max="104" width="10.42578125" style="9" customWidth="1"/>
+    <col min="105" max="105" width="9.7109375" style="9" customWidth="1"/>
+    <col min="106" max="106" width="12.7109375" style="9" customWidth="1"/>
+    <col min="107" max="107" width="11.7109375" style="9" customWidth="1"/>
     <col min="108" max="108" width="24" style="9" customWidth="1"/>
-    <col min="109" max="109" width="43.6640625" style="9" customWidth="1"/>
-    <col min="110" max="110" width="44.88671875" style="9" customWidth="1"/>
-    <col min="111" max="111" width="30.109375" style="9" customWidth="1"/>
-    <col min="112" max="112" width="29.44140625" style="9" customWidth="1"/>
-    <col min="113" max="113" width="25.33203125" style="9" customWidth="1"/>
-    <col min="114" max="114" width="9.5546875" style="9" customWidth="1"/>
-    <col min="115" max="115" width="25.6640625" style="9" customWidth="1"/>
-    <col min="116" max="116" width="19.6640625" style="9" customWidth="1"/>
-    <col min="117" max="117" width="28.5546875" style="9" customWidth="1"/>
-    <col min="118" max="118" width="21.109375" style="9" customWidth="1"/>
-    <col min="119" max="119" width="14.5546875" style="9" customWidth="1"/>
-    <col min="120" max="120" width="20.5546875" style="9" customWidth="1"/>
-    <col min="121" max="121" width="18.33203125" style="9" customWidth="1"/>
-    <col min="122" max="122" width="18.88671875" style="9" customWidth="1"/>
+    <col min="109" max="109" width="43.7109375" style="9" customWidth="1"/>
+    <col min="110" max="110" width="44.85546875" style="9" customWidth="1"/>
+    <col min="111" max="111" width="30.140625" style="9" customWidth="1"/>
+    <col min="112" max="112" width="29.42578125" style="9" customWidth="1"/>
+    <col min="113" max="113" width="25.28515625" style="9" customWidth="1"/>
+    <col min="114" max="114" width="9.5703125" style="9" customWidth="1"/>
+    <col min="115" max="115" width="25.7109375" style="9" customWidth="1"/>
+    <col min="116" max="116" width="19.7109375" style="9" customWidth="1"/>
+    <col min="117" max="117" width="28.5703125" style="9" customWidth="1"/>
+    <col min="118" max="118" width="21.140625" style="9" customWidth="1"/>
+    <col min="119" max="119" width="14.5703125" style="9" customWidth="1"/>
+    <col min="120" max="120" width="20.5703125" style="9" customWidth="1"/>
+    <col min="121" max="121" width="18.28515625" style="9" customWidth="1"/>
+    <col min="122" max="122" width="18.85546875" style="9" customWidth="1"/>
     <col min="123" max="123" width="35" style="9" customWidth="1"/>
     <col min="124" max="124" width="20" style="9" customWidth="1"/>
-    <col min="125" max="125" width="32.44140625" style="9" customWidth="1"/>
-    <col min="126" max="126" width="21.5546875" style="9" customWidth="1"/>
-    <col min="127" max="127" width="13.5546875" style="9" customWidth="1"/>
-    <col min="128" max="128" width="26.33203125" style="9" customWidth="1"/>
-    <col min="129" max="129" width="19.109375" style="9" customWidth="1"/>
+    <col min="125" max="125" width="32.42578125" style="9" customWidth="1"/>
+    <col min="126" max="126" width="21.5703125" style="9" customWidth="1"/>
+    <col min="127" max="127" width="13.5703125" style="9" customWidth="1"/>
+    <col min="128" max="128" width="26.28515625" style="9" customWidth="1"/>
+    <col min="129" max="129" width="19.140625" style="9" customWidth="1"/>
     <col min="130" max="130" width="44" style="9" customWidth="1"/>
-    <col min="131" max="131" width="23.5546875" style="9" customWidth="1"/>
-    <col min="132" max="132" width="26.33203125" style="9" customWidth="1"/>
-    <col min="133" max="133" width="34.88671875" style="9" customWidth="1"/>
-    <col min="134" max="134" width="9.109375" style="9" customWidth="1"/>
-    <col min="135" max="135" width="15.88671875" style="9" customWidth="1"/>
-    <col min="136" max="137" width="8.88671875" style="63" customWidth="1"/>
-    <col min="138" max="16384" width="8.88671875" style="63"/>
+    <col min="131" max="131" width="23.5703125" style="9" customWidth="1"/>
+    <col min="132" max="132" width="26.28515625" style="9" customWidth="1"/>
+    <col min="133" max="133" width="34.85546875" style="9" customWidth="1"/>
+    <col min="134" max="134" width="9.140625" style="9" customWidth="1"/>
+    <col min="135" max="135" width="15.85546875" style="9" customWidth="1"/>
+    <col min="136" max="140" width="8.85546875" style="63" customWidth="1"/>
+    <col min="141" max="16384" width="8.85546875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="78" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:101" s="78" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -5899,94 +5959,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="H1" s="75" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M1" s="76" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q1" s="73" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="S1" s="76" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="W1" s="76" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AB1" s="76" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AC1" s="76" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="AF1" s="77" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AX1" s="79"/>
       <c r="AY1" s="79"/>
@@ -6041,202 +6101,202 @@
       <c r="CV1" s="79"/>
       <c r="CW1" s="79"/>
     </row>
-    <row r="2" spans="1:101" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G2" s="81" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="I2" s="86" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="U2" s="82" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="V2" s="82" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="X2" s="83" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AA2" s="84" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="AB2" s="82">
         <v>100</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AE2" s="83">
         <v>10000</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G4" s="81" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="I4" s="86" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="U4" s="82" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="V4" s="82" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="X4" s="83" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AA4" s="84" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="AB4" s="82">
         <v>100</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AE4" s="83">
         <v>10000</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -6250,34 +6310,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="63" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.88671875" style="63" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="19" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -6291,60 +6351,60 @@
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P1" s="88" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
@@ -6356,25 +6416,25 @@
       <c r="O2" s="55"/>
       <c r="P2" s="89"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
@@ -6386,25 +6446,25 @@
       <c r="O3" s="55"/>
       <c r="P3" s="89"/>
     </row>
-    <row r="4" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
@@ -6416,25 +6476,25 @@
       <c r="O4" s="55"/>
       <c r="P4" s="89"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
@@ -6446,25 +6506,25 @@
       <c r="O5" s="55"/>
       <c r="P5" s="89"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>607</v>
+        <v>99</v>
       </c>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
@@ -6476,96 +6536,96 @@
       <c r="O6" s="55"/>
       <c r="P6" s="89"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
       <c r="L7" s="55"/>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="54"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="54"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="54"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="54"/>
@@ -6584,17 +6644,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="63" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6605,13 +6665,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -6627,22 +6687,22 @@
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
     </row>
-    <row r="2" spans="1:19" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="26">
         <v>70000</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
@@ -6658,29 +6718,29 @@
       <c r="R2" s="22"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="26">
         <v>80000</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6699,26 +6759,26 @@
       <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="104.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="104.7109375" style="63" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.77734375" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" style="63" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -6729,60 +6789,60 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O1" s="88" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
@@ -6794,24 +6854,24 @@
       <c r="N2" s="55"/>
       <c r="O2" s="89"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
@@ -6823,24 +6883,24 @@
       <c r="N3" s="55"/>
       <c r="O3" s="89"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
@@ -6852,24 +6912,24 @@
       <c r="N4" s="55"/>
       <c r="O4" s="89"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
@@ -6881,24 +6941,24 @@
       <c r="N5" s="55"/>
       <c r="O5" s="89"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -6910,113 +6970,113 @@
       <c r="N6" s="55"/>
       <c r="O6" s="89"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="N7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K8" s="55"/>
       <c r="L8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7026,24 +7086,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="63" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7057,40 +7118,75 @@
         <v>4</v>
       </c>
       <c r="E1" s="87" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F1" s="87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H1" s="87" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>613</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="91">
+        <v>60001551</v>
       </c>
     </row>
   </sheetData>
@@ -7106,18 +7202,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7131,53 +7227,53 @@
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -7193,17 +7289,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7214,33 +7310,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7259,23 +7355,23 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" style="63" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="63" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="63" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50" style="63" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" style="63" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="63" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="63" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -7289,142 +7385,142 @@
         <v>4</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9"/>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9"/>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9"/>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9"/>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -7444,115 +7540,115 @@
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="8" customWidth="1"/>
     <col min="13" max="13" width="20" style="8" customWidth="1"/>
     <col min="14" max="14" width="22" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="8" customWidth="1"/>
-    <col min="26" max="27" width="29.6640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="18.5546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="8" customWidth="1"/>
+    <col min="26" max="27" width="29.7109375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="8" customWidth="1"/>
     <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="23.44140625" style="8" customWidth="1"/>
-    <col min="37" max="37" width="44.88671875" style="8" customWidth="1"/>
-    <col min="38" max="40" width="19.88671875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="44.85546875" style="8" customWidth="1"/>
+    <col min="38" max="40" width="19.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="25" style="8" customWidth="1"/>
-    <col min="42" max="42" width="24.44140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="28.88671875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" style="8" customWidth="1"/>
     <col min="44" max="44" width="36" style="8" customWidth="1"/>
-    <col min="45" max="45" width="34.44140625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="26.6640625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" style="8" customWidth="1"/>
-    <col min="49" max="49" width="35.109375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="29.44140625" style="8" customWidth="1"/>
-    <col min="51" max="52" width="25.88671875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="34.88671875" style="8" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="8" customWidth="1"/>
+    <col min="45" max="45" width="34.42578125" style="8" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" style="8" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" style="8" customWidth="1"/>
+    <col min="49" max="49" width="35.140625" style="8" customWidth="1"/>
+    <col min="50" max="50" width="29.42578125" style="8" customWidth="1"/>
+    <col min="51" max="52" width="25.85546875" style="8" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="8" customWidth="1"/>
     <col min="55" max="55" width="19" style="8" customWidth="1"/>
-    <col min="56" max="56" width="32.44140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="17.33203125" style="8" customWidth="1"/>
-    <col min="58" max="58" width="26.33203125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="23.5546875" style="8" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" style="8" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" style="8" customWidth="1"/>
+    <col min="58" max="58" width="26.28515625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" style="8" customWidth="1"/>
     <col min="60" max="60" width="28" style="8" customWidth="1"/>
-    <col min="61" max="61" width="34.88671875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="21.109375" style="8" customWidth="1"/>
+    <col min="61" max="61" width="34.85546875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="21.140625" style="8" customWidth="1"/>
     <col min="64" max="64" width="21" style="8" customWidth="1"/>
     <col min="65" max="66" width="22" style="8" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="24.5546875" style="8" customWidth="1"/>
-    <col min="69" max="71" width="19.44140625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" style="8" customWidth="1"/>
-    <col min="73" max="75" width="17.33203125" style="8" customWidth="1"/>
-    <col min="76" max="78" width="17.5546875" style="8" customWidth="1"/>
-    <col min="79" max="79" width="26.33203125" style="8" customWidth="1"/>
-    <col min="80" max="80" width="34.88671875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" style="8" customWidth="1"/>
-    <col min="82" max="82" width="27.33203125" style="8" customWidth="1"/>
+    <col min="67" max="67" width="17.7109375" style="8" customWidth="1"/>
+    <col min="68" max="68" width="24.5703125" style="8" customWidth="1"/>
+    <col min="69" max="71" width="19.42578125" style="8" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" style="8" customWidth="1"/>
+    <col min="73" max="75" width="17.28515625" style="8" customWidth="1"/>
+    <col min="76" max="78" width="17.5703125" style="8" customWidth="1"/>
+    <col min="79" max="79" width="26.28515625" style="8" customWidth="1"/>
+    <col min="80" max="80" width="34.85546875" style="8" customWidth="1"/>
+    <col min="81" max="81" width="26.5703125" style="8" customWidth="1"/>
+    <col min="82" max="82" width="27.28515625" style="8" customWidth="1"/>
     <col min="83" max="83" width="20" style="8" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.44140625" style="8" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.42578125" style="8" customWidth="1"/>
     <col min="86" max="86" width="19" style="8" customWidth="1"/>
-    <col min="87" max="87" width="36.6640625" style="16" customWidth="1"/>
-    <col min="88" max="88" width="18.109375" style="16" customWidth="1"/>
-    <col min="89" max="89" width="15.5546875" style="16" customWidth="1"/>
-    <col min="90" max="90" width="23.33203125" style="16" customWidth="1"/>
-    <col min="91" max="91" width="11.33203125" style="16" customWidth="1"/>
-    <col min="92" max="92" width="8.6640625" style="16" customWidth="1"/>
-    <col min="93" max="93" width="18.6640625" style="16" customWidth="1"/>
+    <col min="87" max="87" width="36.7109375" style="16" customWidth="1"/>
+    <col min="88" max="88" width="18.140625" style="16" customWidth="1"/>
+    <col min="89" max="89" width="15.5703125" style="16" customWidth="1"/>
+    <col min="90" max="90" width="23.28515625" style="16" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="16" customWidth="1"/>
+    <col min="92" max="92" width="8.7109375" style="16" customWidth="1"/>
+    <col min="93" max="93" width="18.7109375" style="16" customWidth="1"/>
     <col min="94" max="94" width="18" style="16" customWidth="1"/>
-    <col min="95" max="95" width="12.6640625" style="16" customWidth="1"/>
-    <col min="96" max="96" width="11.44140625" style="16" customWidth="1"/>
-    <col min="97" max="97" width="23.44140625" style="8" customWidth="1"/>
-    <col min="98" max="98" width="42.109375" style="16" customWidth="1"/>
-    <col min="99" max="99" width="47.88671875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="12.7109375" style="16" customWidth="1"/>
+    <col min="96" max="96" width="11.42578125" style="16" customWidth="1"/>
+    <col min="97" max="97" width="23.42578125" style="8" customWidth="1"/>
+    <col min="98" max="98" width="42.140625" style="16" customWidth="1"/>
+    <col min="99" max="99" width="47.85546875" style="16" customWidth="1"/>
     <col min="100" max="100" width="29" style="16" customWidth="1"/>
-    <col min="101" max="101" width="28.33203125" style="16" customWidth="1"/>
-    <col min="102" max="102" width="24.5546875" style="16" customWidth="1"/>
-    <col min="103" max="103" width="8.88671875" style="16" customWidth="1"/>
+    <col min="101" max="101" width="28.28515625" style="16" customWidth="1"/>
+    <col min="102" max="102" width="24.5703125" style="16" customWidth="1"/>
+    <col min="103" max="103" width="8.85546875" style="16" customWidth="1"/>
     <col min="104" max="104" width="25" style="16" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" style="8" customWidth="1"/>
-    <col min="106" max="106" width="28.44140625" style="8" customWidth="1"/>
-    <col min="107" max="107" width="21.109375" style="8" customWidth="1"/>
+    <col min="105" max="105" width="19.28515625" style="8" customWidth="1"/>
+    <col min="106" max="106" width="28.42578125" style="8" customWidth="1"/>
+    <col min="107" max="107" width="21.140625" style="8" customWidth="1"/>
     <col min="108" max="108" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="20.44140625" style="8" customWidth="1"/>
+    <col min="109" max="109" width="20.42578125" style="8" customWidth="1"/>
     <col min="110" max="110" width="24" style="8" customWidth="1"/>
-    <col min="111" max="112" width="18.33203125" style="8" customWidth="1"/>
+    <col min="111" max="112" width="18.28515625" style="8" customWidth="1"/>
     <col min="113" max="113" width="35" style="8" customWidth="1"/>
-    <col min="114" max="114" width="19.33203125" style="8" customWidth="1"/>
-    <col min="115" max="115" width="32.33203125" style="8" customWidth="1"/>
-    <col min="116" max="116" width="21.109375" style="8" customWidth="1"/>
-    <col min="117" max="117" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.28515625" style="8" customWidth="1"/>
+    <col min="115" max="115" width="32.28515625" style="8" customWidth="1"/>
+    <col min="116" max="116" width="21.140625" style="8" customWidth="1"/>
+    <col min="117" max="117" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.85546875" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7560,507 +7656,507 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="BP1" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="BQ1" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="BR1" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="BS1" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="BT1" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="CA1" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CB1" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="CC1" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CE1" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CF1" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CG1" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="CH1" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CI1" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ1" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="CK1" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CL1" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="CM1" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="CN1" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CO1" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CP1" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="CQ1" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="CR1" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="CS1" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="CT1" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="CU1" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="CV1" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="CW1" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="CX1" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="CY1" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="CZ1" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="DA1" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="DB1" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="DC1" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="DD1" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="DE1" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="DF1" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="DG1" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="DH1" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="DI1" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="DJ1" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="DK1" s="6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="DL1" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="DM1" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="DO1" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E2" s="8">
         <v>30</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="S2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="U2" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>281</v>
-      </c>
       <c r="W2" s="10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Y2" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z2" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>282</v>
-      </c>
       <c r="AA2" s="12" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL2" s="12" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AN2" s="12" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AS2" s="10" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AT2" s="15">
         <v>10</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AY2" s="15">
         <v>10</v>
@@ -8069,52 +8165,52 @@
         <v>10</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="BB2" s="10" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="BD2" s="12" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="BE2" s="12" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="BF2" s="10" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="BG2" s="8" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="BH2" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="BI2" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="BI2" s="8" t="s">
-        <v>309</v>
-      </c>
       <c r="BJ2" s="8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="BK2" s="8" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="BL2" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM2" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="BM2" s="12" t="s">
-        <v>280</v>
-      </c>
       <c r="BN2" s="12" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="BO2" s="8" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="BP2" s="10" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="BQ2" s="15">
         <v>60</v>
@@ -8129,136 +8225,136 @@
         <v>100</v>
       </c>
       <c r="BU2" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="BV2" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="BW2" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="BX2" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="BY2" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="BZ2" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="CA2" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="BV2" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="BW2" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX2" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="BY2" s="12" t="s">
+      <c r="CB2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="CD2" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="CE2" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG2" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="CH2" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="CI2" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="BZ2" s="12" t="s">
+      <c r="CJ2" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="CK2" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="CM2" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="CO2" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="CP2" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="CQ2" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="CR2" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="CS2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="CT2" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="CU2" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="CV2" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW2" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="CA2" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="CB2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="CC2" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="CD2" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="CE2" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="CG2" s="16" t="s">
+      <c r="CX2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="CY2" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="CZ2" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="DA2" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="DB2" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="DC2" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="DF2" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="DG2" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="DH2" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="DI2" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="DJ2" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="DK2" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="DL2" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="DM2" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="CH2" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="CI2" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="CJ2" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="CK2" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="CL2" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="CM2" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="CN2" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CO2" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="CP2" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="CQ2" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="CR2" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="CS2" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="CT2" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="CU2" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="CV2" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="CW2" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="CX2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="CY2" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="CZ2" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="DA2" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="DB2" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="DC2" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="DF2" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="DG2" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="DH2" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="DI2" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="DJ2" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="DK2" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="DL2" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="DM2" s="16" t="s">
-        <v>318</v>
-      </c>
       <c r="DN2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="DO2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CDC42-3753-4C28-A6C3-87874FD0B9A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82886A82-5E3E-4D97-82EF-1A640261162A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="27090" windowHeight="11100" tabRatio="709" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="1545" windowWidth="27090" windowHeight="11100" tabRatio="709" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="616">
   <si>
     <t>rowid</t>
   </si>
@@ -1877,6 +1877,12 @@
   </si>
   <si>
     <t>Outstanding_Alias</t>
+  </si>
+  <si>
+    <t>LRELS</t>
+  </si>
+  <si>
+    <t>Outstanding_Status</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2588,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2938,7 +2944,7 @@
         <v>59</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>61</v>
@@ -7086,10 +7092,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7104,7 +7110,7 @@
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7135,8 +7141,11 @@
       <c r="J1" s="90" t="s">
         <v>76</v>
       </c>
+      <c r="K1" s="87" t="s">
+        <v>615</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
@@ -7187,6 +7196,9 @@
       </c>
       <c r="I3" s="91">
         <v>60001551</v>
+      </c>
+      <c r="K3" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="709" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="709" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNR" sheetId="1" state="visible" r:id="rId1"/>
@@ -718,13 +718,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -935,7 +935,7 @@
       </c>
       <c r="B4" s="27" t="inlineStr">
         <is>
-          <t>CMMNT_008</t>
+          <t>CMMNT_007</t>
         </is>
       </c>
       <c r="C4" s="27" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="D4" s="27" t="inlineStr">
         <is>
-          <t>Update_</t>
+          <t>Delete_</t>
         </is>
       </c>
       <c r="E4" s="27" t="inlineStr">
         <is>
-          <t>Update_Comments_Report_V1.3.4.xlsx</t>
+          <t>Delete_Comments_Report_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F4" s="27" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="B5" s="27" t="inlineStr">
         <is>
-          <t>CMMNT_009</t>
+          <t>CMMNT_008</t>
         </is>
       </c>
       <c r="C5" s="27" t="inlineStr">
@@ -1002,34 +1002,34 @@
       </c>
       <c r="D5" s="27" t="inlineStr">
         <is>
-          <t>Loan_</t>
+          <t>Update_</t>
         </is>
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
-          <t>Loan_Comments_Report_V1.3.4.xlsx</t>
+          <t>Update_Comments_Report_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F5" s="27" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="G5" s="27" t="n"/>
       <c r="H5" s="27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I5" s="27" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="J5" s="27" t="n"/>
       <c r="K5" s="27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L5" s="9" t="inlineStr">
@@ -1049,30 +1049,46 @@
       </c>
       <c r="B6" s="27" t="inlineStr">
         <is>
-          <t>FACPF_002</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
+          <t>CMMNT_009</t>
+        </is>
+      </c>
+      <c r="C6" s="27" t="inlineStr">
         <is>
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
       <c r="D6" s="27" t="inlineStr">
         <is>
-          <t>ActiveFacActiveOutstanding_</t>
+          <t>Loan_</t>
         </is>
       </c>
       <c r="E6" s="27" t="inlineStr">
         <is>
-          <t>ActiveFacActiveOutstanding_LIQFacilityPerformance_V1.3.4.xlsx</t>
-        </is>
-      </c>
-      <c r="F6" s="55" t="n"/>
-      <c r="G6" s="55" t="n"/>
-      <c r="H6" s="55" t="n"/>
-      <c r="I6" s="55" t="n"/>
-      <c r="J6" s="55" t="n"/>
-      <c r="K6" s="55" t="n"/>
+          <t>Loan_Comments_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
+      <c r="F6" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="G6" s="27" t="n"/>
+      <c r="H6" s="27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I6" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="L6" s="9" t="inlineStr">
         <is>
           <t>CB001</t>
@@ -1090,7 +1106,7 @@
       </c>
       <c r="B7" s="27" t="inlineStr">
         <is>
-          <t>FACPF_003</t>
+          <t>FACPF_002</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -1100,12 +1116,12 @@
       </c>
       <c r="D7" s="27" t="inlineStr">
         <is>
-          <t>ActiveFacPendingOutstanding_</t>
+          <t>ActiveFacActiveOutstanding_</t>
         </is>
       </c>
       <c r="E7" s="27" t="inlineStr">
         <is>
-          <t>ActiveFac_LIQFacilityPerformance_V1.3.4.xlsx</t>
+          <t>ActiveFacActiveOutstanding_LIQFacilityPerformance_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F7" s="55" t="n"/>
@@ -1131,7 +1147,7 @@
       </c>
       <c r="B8" s="27" t="inlineStr">
         <is>
-          <t>FACPF_004</t>
+          <t>FACPF_003</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -1141,12 +1157,12 @@
       </c>
       <c r="D8" s="27" t="inlineStr">
         <is>
-          <t>ExpiredFacActiveLoan_</t>
+          <t>ActiveFacPendingOutstanding_</t>
         </is>
       </c>
       <c r="E8" s="27" t="inlineStr">
         <is>
-          <t>ExpiredFacActiveLoan_LIQFacilityPerformance_V1.3.4.xlsx</t>
+          <t>ActiveFac_LIQFacilityPerformance_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F8" s="55" t="n"/>
@@ -1172,7 +1188,7 @@
       </c>
       <c r="B9" s="27" t="inlineStr">
         <is>
-          <t>FACPF_005</t>
+          <t>FACPF_004</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1182,12 +1198,12 @@
       </c>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>PendingFac_</t>
+          <t>ExpiredFacActiveLoan_</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>PendingFac_LIQFacilityPerformance_V1.3.4.xlsx</t>
+          <t>ExpiredFacActiveLoan_LIQFacilityPerformance_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F9" s="55" t="n"/>
@@ -1213,7 +1229,7 @@
       </c>
       <c r="B10" s="27" t="inlineStr">
         <is>
-          <t>LQDTY_002</t>
+          <t>FACPF_005</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -1223,12 +1239,12 @@
       </c>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ActiveLoan_</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ActiveLoan_CBA Liquidity Report.xlsx</t>
+          <t>PendingFac_</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>PendingFac_LIQFacilityPerformance_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F10" s="55" t="n"/>
@@ -1237,10 +1253,14 @@
       <c r="I10" s="55" t="n"/>
       <c r="J10" s="55" t="n"/>
       <c r="K10" s="55" t="n"/>
-      <c r="L10" s="55" t="n"/>
-      <c r="M10" s="55" t="n"/>
-      <c r="N10" s="55" t="n"/>
-      <c r="O10" s="55" t="n"/>
+      <c r="L10" s="9" t="inlineStr">
+        <is>
+          <t>CB001</t>
+        </is>
+      </c>
+      <c r="M10" s="67" t="n"/>
+      <c r="N10" s="67" t="n"/>
+      <c r="O10" s="67" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="65" t="inlineStr">
@@ -1250,7 +1270,7 @@
       </c>
       <c r="B11" s="27" t="inlineStr">
         <is>
-          <t>LQDTY_003</t>
+          <t>LQDTY_002</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
@@ -1260,12 +1280,12 @@
       </c>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>PendingLoan_</t>
+          <t>ActiveLoan_</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PendingLoan_CBA Liquidity Report.xlsx</t>
+          <t>ActiveLoan_CBA Liquidity Report.xlsx</t>
         </is>
       </c>
       <c r="F11" s="55" t="n"/>
@@ -1287,7 +1307,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>LQDTY_004</t>
+          <t>LQDTY_003</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -1297,12 +1317,12 @@
       </c>
       <c r="D12" s="27" t="inlineStr">
         <is>
-          <t>PayCommitmentFee_</t>
+          <t>PendingLoan_</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PayCommitmentFee_CBA Liquidity Report.xlsx</t>
+          <t>PendingLoan_CBA Liquidity Report.xlsx</t>
         </is>
       </c>
       <c r="F12" s="55" t="n"/>
@@ -1324,7 +1344,7 @@
       </c>
       <c r="B13" s="27" t="inlineStr">
         <is>
-          <t>LQDTY_005</t>
+          <t>LQDTY_004</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
@@ -1334,12 +1354,12 @@
       </c>
       <c r="D13" s="27" t="inlineStr">
         <is>
-          <t>NoRepayment_</t>
+          <t>PayCommitmentFee_</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NoRepayment_CBA Liquidity Report.xlsx</t>
+          <t>PayCommitmentFee_CBA Liquidity Report.xlsx</t>
         </is>
       </c>
       <c r="F13" s="55" t="n"/>
@@ -1361,7 +1381,7 @@
       </c>
       <c r="B14" s="27" t="inlineStr">
         <is>
-          <t>CALND_002</t>
+          <t>LQDTY_005</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
@@ -1371,60 +1391,24 @@
       </c>
       <c r="D14" s="27" t="inlineStr">
         <is>
-          <t>ReleasedLoan_</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>ReleasedLoan_Calendar Report_v1.0.xlsx</t>
-        </is>
-      </c>
-      <c r="F14" s="27" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="H14" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I14" s="27" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-      <c r="J14" s="17" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="K14" s="27" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>NoRepayment_</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NoRepayment_CBA Liquidity Report.xlsx</t>
+        </is>
+      </c>
+      <c r="F14" s="55" t="n"/>
+      <c r="G14" s="55" t="n"/>
+      <c r="H14" s="55" t="n"/>
+      <c r="I14" s="55" t="n"/>
+      <c r="J14" s="55" t="n"/>
+      <c r="K14" s="55" t="n"/>
       <c r="L14" s="55" t="n"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Agency Australia</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>AUSYD</t>
-        </is>
-      </c>
+      <c r="M14" s="55" t="n"/>
+      <c r="N14" s="55" t="n"/>
+      <c r="O14" s="55" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="65" t="inlineStr">
@@ -1434,7 +1418,7 @@
       </c>
       <c r="B15" s="27" t="inlineStr">
         <is>
-          <t>CALND_003_EqualFeeDate</t>
+          <t>CALND_002</t>
         </is>
       </c>
       <c r="C15" s="8" t="inlineStr">
@@ -1444,26 +1428,42 @@
       </c>
       <c r="D15" s="27" t="inlineStr">
         <is>
-          <t>EqualFee_</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>EqualFee_Calendar Report_v1.0.xlsx</t>
-        </is>
-      </c>
-      <c r="F15" s="55" t="n"/>
-      <c r="G15" s="55" t="n"/>
+          <t>ReleasedLoan_</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>ReleasedLoan_Calendar Report_v1.0.xlsx</t>
+        </is>
+      </c>
+      <c r="F15" s="27" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="G15" s="27" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
       <c r="H15" s="27" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I15" s="27" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="J15" s="17" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="K15" s="27" t="inlineStr">
+        <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="n"/>
-      <c r="K15" s="27" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
       <c r="L15" s="55" t="n"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B16" s="27" t="inlineStr">
         <is>
-          <t>CALND_003_UpdateFeeDate</t>
+          <t>CALND_003_EqualFeeDate</t>
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="D16" s="27" t="inlineStr">
         <is>
-          <t>UpdateFeeDate_</t>
+          <t>EqualFee_</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UpdateFeeDate_Calendar Report_v1.0.xlsx</t>
+          <t>EqualFee_Calendar Report_v1.0.xlsx</t>
         </is>
       </c>
       <c r="F16" s="55" t="n"/>
@@ -1546,9 +1546,9 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>ALERT_006</t>
+      <c r="B17" s="27" t="inlineStr">
+        <is>
+          <t>CALND_003_UpdateFeeDate</t>
         </is>
       </c>
       <c r="C17" s="8" t="inlineStr">
@@ -1558,44 +1558,44 @@
       </c>
       <c r="D17" s="27" t="inlineStr">
         <is>
-          <t>AddedInDeal_</t>
+          <t>UpdateFeeDate_</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AddedInDeal_Alerts_Report_V1.3.4.xlsx</t>
-        </is>
-      </c>
-      <c r="F17" s="27" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-      <c r="G17" s="27" t="n"/>
+          <t>UpdateFeeDate_Calendar Report_v1.0.xlsx</t>
+        </is>
+      </c>
+      <c r="F17" s="55" t="n"/>
+      <c r="G17" s="55" t="n"/>
       <c r="H17" s="27" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="I17" s="27" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
+      <c r="I17" s="27" t="n"/>
       <c r="J17" s="27" t="n"/>
       <c r="K17" s="27" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L17" s="9" t="inlineStr">
-        <is>
-          <t>CB001</t>
-        </is>
-      </c>
-      <c r="M17" s="55" t="n"/>
-      <c r="N17" s="55" t="n"/>
-      <c r="O17" s="55" t="n"/>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L17" s="55" t="n"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - DBU</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Agency Australia</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>AUSYD</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="65" t="inlineStr">
@@ -1603,9 +1603,9 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" s="27" t="inlineStr">
-        <is>
-          <t>ALERT_007</t>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>ALERT_006</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>AddedInFac_</t>
+          <t>AddedInDeal_</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AddedInFac_Alerts_Report_V1.3.4.xlsx</t>
+          <t>AddedInDeal_Alerts_Report_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
@@ -1660,9 +1660,9 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>ALERT_008</t>
+      <c r="B19" s="27" t="inlineStr">
+        <is>
+          <t>ALERT_007</t>
         </is>
       </c>
       <c r="C19" s="8" t="inlineStr">
@@ -1672,34 +1672,34 @@
       </c>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>UpdateAlert_</t>
+          <t>AddedInFac_</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>UpdateAlert_Alerts_Report_V1.3.4.xlsx</t>
+          <t>AddedInFac_Alerts_Report_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>Dec</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I19" s="27" t="inlineStr">
         <is>
-          <t>Dec</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="J19" s="27" t="n"/>
       <c r="K19" s="27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L19" s="9" t="inlineStr">
@@ -1717,9 +1717,9 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" s="27" t="inlineStr">
-        <is>
-          <t>ALERT_009</t>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>ALERT_008</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
@@ -1729,34 +1729,34 @@
       </c>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>Loan_</t>
+          <t>UpdateAlert_</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Loan_Alerts_Report_V1.3.4.xlsx</t>
+          <t>UpdateAlert_Alerts_Report_V1.3.4.xlsx</t>
         </is>
       </c>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I20" s="27" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="J20" s="27" t="n"/>
       <c r="K20" s="27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L20" s="9" t="inlineStr">
@@ -1767,6 +1767,63 @@
       <c r="M20" s="55" t="n"/>
       <c r="N20" s="55" t="n"/>
       <c r="O20" s="55" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" s="27" t="inlineStr">
+        <is>
+          <t>ALERT_009</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
+        </is>
+      </c>
+      <c r="D21" s="27" t="inlineStr">
+        <is>
+          <t>Loan_</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Loan_Alerts_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
+      <c r="F21" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I21" s="27" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L21" s="9" t="inlineStr">
+        <is>
+          <t>CB001</t>
+        </is>
+      </c>
+      <c r="M21" s="55" t="n"/>
+      <c r="N21" s="55" t="n"/>
+      <c r="O21" s="55" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1871,8 +1928,8 @@
     <col width="34.88671875" bestFit="1" customWidth="1" style="39" min="86" max="86"/>
     <col width="15.33203125" bestFit="1" customWidth="1" style="39" min="87" max="87"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="88" max="88"/>
-    <col width="8.88671875" customWidth="1" style="39" min="89" max="153"/>
-    <col width="8.88671875" customWidth="1" style="39" min="154" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="89" max="156"/>
+    <col width="8.88671875" customWidth="1" style="39" min="157" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="38">
@@ -2799,8 +2856,8 @@
     <col width="31.77734375" bestFit="1" customWidth="1" style="39" min="40" max="40"/>
     <col width="31.77734375" customWidth="1" style="39" min="41" max="41"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="42" max="42"/>
-    <col width="8.88671875" customWidth="1" style="39" min="43" max="106"/>
-    <col width="8.88671875" customWidth="1" style="39" min="107" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="43" max="109"/>
+    <col width="8.88671875" customWidth="1" style="39" min="110" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="38" thickBot="1">
@@ -3502,8 +3559,8 @@
     <col width="22" customWidth="1" style="39" min="20" max="20"/>
     <col width="25.44140625" customWidth="1" style="39" min="21" max="21"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="22" max="22"/>
-    <col width="8.88671875" customWidth="1" style="39" min="23" max="82"/>
-    <col width="8.88671875" customWidth="1" style="39" min="83" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="23" max="85"/>
+    <col width="8.88671875" customWidth="1" style="39" min="86" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="35">
@@ -3895,8 +3952,8 @@
     <col width="24.44140625" customWidth="1" style="39" min="32" max="35"/>
     <col width="29.5546875" bestFit="1" customWidth="1" style="39" min="36" max="36"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="37" max="37"/>
-    <col width="8.88671875" customWidth="1" style="39" min="38" max="96"/>
-    <col width="8.88671875" customWidth="1" style="39" min="97" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="38" max="99"/>
+    <col width="8.88671875" customWidth="1" style="39" min="100" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="38">
@@ -4339,8 +4396,8 @@
     <col width="24.44140625" customWidth="1" style="39" min="53" max="56"/>
     <col width="29.5546875" bestFit="1" customWidth="1" style="39" min="57" max="57"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="58" max="58"/>
-    <col width="8.88671875" customWidth="1" style="39" min="59" max="97"/>
-    <col width="8.88671875" customWidth="1" style="39" min="98" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="59" max="100"/>
+    <col width="8.88671875" customWidth="1" style="39" min="101" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="38">
@@ -5545,8 +5602,8 @@
     <col width="14" bestFit="1" customWidth="1" style="39" min="43" max="43"/>
     <col width="16.21875" bestFit="1" customWidth="1" style="39" min="44" max="44"/>
     <col width="6" bestFit="1" customWidth="1" style="39" min="45" max="45"/>
-    <col width="8.88671875" customWidth="1" style="39" min="46" max="70"/>
-    <col width="8.88671875" customWidth="1" style="39" min="71" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="39" min="46" max="73"/>
+    <col width="8.88671875" customWidth="1" style="39" min="74" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="38">
@@ -6184,8 +6241,8 @@
     <col width="34.88671875" customWidth="1" style="9" min="133" max="133"/>
     <col width="9.109375" customWidth="1" style="9" min="134" max="134"/>
     <col width="15.88671875" customWidth="1" style="9" min="135" max="135"/>
-    <col width="8.88671875" customWidth="1" style="63" min="136" max="153"/>
-    <col width="8.88671875" customWidth="1" style="63" min="154" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="63" min="136" max="156"/>
+    <col width="8.88671875" customWidth="1" style="63" min="157" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="78" thickBot="1">
@@ -6731,11 +6788,11 @@
   </sheetPr>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.44140625" defaultRowHeight="13.2"/>
@@ -7131,8 +7188,32 @@
           <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\</t>
         </is>
       </c>
-      <c r="D8" s="27" t="n"/>
+      <c r="D8" s="27" t="inlineStr">
+        <is>
+          <t>Delete_Comments_Report_V1.3.4.xlsx</t>
+        </is>
+      </c>
       <c r="E8" s="54" t="n"/>
+      <c r="F8" s="27" t="inlineStr">
+        <is>
+          <t>Deal</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DNR1_30112020171528JCH</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CMMNT_008</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>CMMNT_008 03-Dec-2020 20:32:26</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr">
@@ -8051,8 +8132,8 @@
     <col width="15.88671875" bestFit="1" customWidth="1" style="63" min="6" max="6"/>
     <col width="13.6640625" bestFit="1" customWidth="1" style="63" min="7" max="7"/>
     <col width="11.88671875" bestFit="1" customWidth="1" style="63" min="8" max="8"/>
-    <col width="8.88671875" customWidth="1" style="63" min="9" max="10"/>
-    <col width="8.88671875" customWidth="1" style="63" min="11" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="63" min="9" max="13"/>
+    <col width="8.88671875" customWidth="1" style="63" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="63" thickBot="1">

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5C2A57-5C60-436C-8B7E-12A6EEF6F481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72DB842-E2C1-488F-9D6D-9A538DF4871C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="753" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="753" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="551">
   <si>
     <t>rowid</t>
   </si>
@@ -1686,6 +1686,9 @@
   </si>
   <si>
     <t>PTSER22</t>
+  </si>
+  <si>
+    <t>NumberOfDays_ToBackdate</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2012,6 +2015,7 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3487,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BC15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1:AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3532,6 +3536,7 @@
     <col min="41" max="41" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="44.42578125" customWidth="1"/>
+    <col min="44" max="44" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="51" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3664,6 +3669,9 @@
       <c r="AQ1" s="51" t="s">
         <v>416</v>
       </c>
+      <c r="AR1" s="51" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="2" spans="1:55" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -3795,7 +3803,9 @@
       <c r="AQ2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="37"/>
+      <c r="AR2" s="69" t="s">
+        <v>16</v>
+      </c>
       <c r="AS2" s="37"/>
       <c r="AT2" s="37"/>
       <c r="AU2" s="37"/>
@@ -5335,7 +5345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="DF1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4369ABE-B440-49F5-9DC1-EABF0065AA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04040536-B48C-4FB3-8016-5611097157D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25635" yWindow="-705" windowWidth="21345" windowHeight="9360" tabRatio="709" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="840">
   <si>
     <t>rowid</t>
   </si>
@@ -2552,6 +2552,18 @@
   </si>
   <si>
     <t>PTSER22</t>
+  </si>
+  <si>
+    <t>Add_To_Facility_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Add_To_Facility_MaturityDate</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>Backdated_Days</t>
   </si>
 </sst>
 </file>
@@ -9022,10 +9034,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B034F2-5F6A-4CFD-B6D9-0912023370B1}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9053,9 +9065,12 @@
     <col min="30" max="31" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="100" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="100" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
@@ -9155,8 +9170,17 @@
       <c r="AG1" s="100" t="s">
         <v>723</v>
       </c>
+      <c r="AH1" s="100" t="s">
+        <v>836</v>
+      </c>
+      <c r="AI1" s="100" t="s">
+        <v>837</v>
+      </c>
+      <c r="AJ1" s="100" t="s">
+        <v>839</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>15</v>
       </c>
@@ -9252,9 +9276,19 @@
       <c r="AG2" s="9" t="s">
         <v>338</v>
       </c>
+      <c r="AH2" s="106" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI2" s="106" t="s">
+        <v>838</v>
+      </c>
+      <c r="AJ2" s="106" t="s">
+        <v>456</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10819,7 +10853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC6405F-11A7-4C49-B0D2-5E6376ADCEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E1E18F-7009-4C14-92AF-E23009BE1BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="2910" windowWidth="27090" windowHeight="11100" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="6195" windowWidth="27090" windowHeight="10530" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="617">
   <si>
     <t>rowid</t>
   </si>
@@ -1226,9 +1226,6 @@
     <t>Commonwealth Bank of Australia -DBU</t>
   </si>
   <si>
-    <t>Loan,  Operations</t>
-  </si>
-  <si>
     <t>OngoingFee_Category1</t>
   </si>
   <si>
@@ -1881,6 +1878,15 @@
   </si>
   <si>
     <t xml:space="preserve">Interest      </t>
+  </si>
+  <si>
+    <t>FundingRate_Alias</t>
+  </si>
+  <si>
+    <t>NumberOfDaysToAdd</t>
+  </si>
+  <si>
+    <t>Total_Share</t>
   </si>
 </sst>
 </file>
@@ -3084,11 +3090,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE2" sqref="BE2"/>
+      <pane xSplit="2" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,7 +3151,7 @@
     <col min="57" max="58" width="31.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="49" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="49" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -3320,8 +3326,11 @@
       <c r="BF1" s="45" t="s">
         <v>382</v>
       </c>
+      <c r="BG1" s="45" t="s">
+        <v>615</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
@@ -3487,7 +3496,10 @@
         <v>253</v>
       </c>
       <c r="BF2" s="16" t="s">
-        <v>396</v>
+        <v>483</v>
+      </c>
+      <c r="BG2" s="9">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3550,103 +3562,103 @@
         <v>124</v>
       </c>
       <c r="D1" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="J1" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="K1" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="L1" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="U1" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="V1" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="W1" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="X1" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="Y1" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Z1" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="AA1" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AB1" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AC1" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AD1" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AE1" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="AE1" s="42" t="s">
+      <c r="AF1" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AG1" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AH1" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AI1" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="AI1" s="42" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>428</v>
-      </c>
-      <c r="AJ1" s="42" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -3660,10 +3672,10 @@
         <v>309</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>431</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>276</v>
@@ -3672,22 +3684,22 @@
         <v>275</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>437</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>347</v>
@@ -3696,13 +3708,13 @@
         <v>266</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>268</v>
@@ -3714,7 +3726,7 @@
         <v>270</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>266</v>
@@ -3727,13 +3739,13 @@
         <v>28</v>
       </c>
       <c r="AA2" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB2" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>442</v>
       </c>
       <c r="AD2" s="12"/>
       <c r="AE2" s="10" t="s">
@@ -3769,8 +3781,8 @@
   </sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1:AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3829,118 +3841,121 @@
         <v>124</v>
       </c>
       <c r="F1" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="K1" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="L1" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>450</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="Q1" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="52" t="s">
         <v>454</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="S1" s="52" t="s">
         <v>455</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="T1" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="U1" s="52" t="s">
         <v>457</v>
-      </c>
-      <c r="U1" s="52" t="s">
-        <v>458</v>
       </c>
       <c r="V1" s="53" t="s">
         <v>129</v>
       </c>
       <c r="W1" s="53" t="s">
+        <v>458</v>
+      </c>
+      <c r="X1" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="Y1" s="53" t="s">
         <v>460</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Z1" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="Z1" s="52" t="s">
+      <c r="AA1" s="52" t="s">
         <v>462</v>
       </c>
-      <c r="AA1" s="52" t="s">
+      <c r="AB1" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="AB1" s="52" t="s">
+      <c r="AC1" s="53" t="s">
         <v>464</v>
       </c>
-      <c r="AC1" s="53" t="s">
+      <c r="AD1" s="53" t="s">
         <v>465</v>
       </c>
-      <c r="AD1" s="53" t="s">
+      <c r="AE1" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="AE1" s="53" t="s">
+      <c r="AF1" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="AF1" s="53" t="s">
+      <c r="AG1" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="AG1" s="53" t="s">
+      <c r="AH1" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="AH1" s="53" t="s">
+      <c r="AI1" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="AI1" s="53" t="s">
+      <c r="AJ1" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="AJ1" s="53" t="s">
+      <c r="AK1" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="AK1" s="52" t="s">
+      <c r="AL1" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="AL1" s="53" t="s">
+      <c r="AM1" s="74" t="s">
         <v>474</v>
       </c>
-      <c r="AM1" s="74" t="s">
+      <c r="AN1" s="74" t="s">
         <v>475</v>
       </c>
-      <c r="AN1" s="74" t="s">
+      <c r="AO1" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="AO1" s="74" t="s">
+      <c r="AP1" s="74" t="s">
         <v>477</v>
       </c>
-      <c r="AP1" s="74" t="s">
+      <c r="AQ1" s="74" t="s">
         <v>478</v>
       </c>
-      <c r="AQ1" s="74" t="s">
-        <v>479</v>
+      <c r="AR1" s="52" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3963,7 +3978,7 @@
         <v>373</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H2" s="64" t="s">
         <v>269</v>
@@ -3972,46 +3987,46 @@
         <v>243</v>
       </c>
       <c r="J2" s="54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>291</v>
       </c>
       <c r="L2" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="M2" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="N2" s="54" t="s">
         <v>483</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>484</v>
       </c>
       <c r="O2" s="54" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q2" s="54" t="s">
         <v>56</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="S2" s="54" t="s">
         <v>300</v>
       </c>
       <c r="T2" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="U2" s="34" t="s">
         <v>487</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>488</v>
       </c>
       <c r="V2" s="33" t="s">
         <v>247</v>
       </c>
       <c r="W2" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="X2" s="28" t="s">
         <v>299</v>
@@ -4029,13 +4044,13 @@
         <v>302</v>
       </c>
       <c r="AC2" s="67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AD2" s="67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AE2" s="67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF2" s="67"/>
       <c r="AG2" s="64">
@@ -4051,27 +4066,29 @@
         <v>312</v>
       </c>
       <c r="AK2" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL2" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AM2" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="AM2" s="64" t="s">
+      <c r="AN2" s="64" t="s">
         <v>493</v>
-      </c>
-      <c r="AN2" s="64" t="s">
-        <v>494</v>
       </c>
       <c r="AO2" s="79">
         <v>41389</v>
       </c>
       <c r="AP2" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="AQ2" s="67" t="s">
         <v>495</v>
       </c>
-      <c r="AQ2" s="67" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR2" s="33"/>
+      <c r="AR2" s="64" t="s">
+        <v>440</v>
+      </c>
       <c r="AS2" s="33"/>
       <c r="AT2" s="33"/>
       <c r="AU2" s="33"/>
@@ -4105,10 +4122,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:AW3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4147,7 +4164,7 @@
     <col min="39" max="39" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="70" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="70" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -4158,139 +4175,145 @@
         <v>122</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>124</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G1" s="71" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="I1" s="71" t="s">
         <v>499</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="J1" s="70" t="s">
         <v>500</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="K1" s="70" t="s">
         <v>501</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="L1" s="71" t="s">
         <v>502</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="M1" s="72" t="s">
+        <v>473</v>
+      </c>
+      <c r="N1" s="72" t="s">
         <v>503</v>
       </c>
-      <c r="M1" s="72" t="s">
-        <v>474</v>
-      </c>
-      <c r="N1" s="72" t="s">
+      <c r="O1" s="72" t="s">
         <v>504</v>
       </c>
-      <c r="O1" s="72" t="s">
+      <c r="P1" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q1" s="71" t="s">
         <v>505</v>
       </c>
-      <c r="P1" s="72" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q1" s="71" t="s">
+      <c r="R1" s="73" t="s">
         <v>506</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="S1" s="81" t="s">
         <v>507</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="T1" s="70" t="s">
         <v>508</v>
       </c>
-      <c r="T1" s="70" t="s">
+      <c r="U1" s="70" t="s">
         <v>509</v>
       </c>
-      <c r="U1" s="70" t="s">
+      <c r="V1" s="70" t="s">
         <v>510</v>
       </c>
-      <c r="V1" s="70" t="s">
+      <c r="W1" s="70" t="s">
         <v>511</v>
       </c>
-      <c r="W1" s="70" t="s">
+      <c r="X1" s="70" t="s">
         <v>512</v>
       </c>
-      <c r="X1" s="70" t="s">
+      <c r="Y1" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="Y1" s="70" t="s">
+      <c r="Z1" s="70" t="s">
         <v>514</v>
       </c>
-      <c r="Z1" s="70" t="s">
+      <c r="AA1" s="70" t="s">
         <v>515</v>
       </c>
-      <c r="AA1" s="70" t="s">
+      <c r="AB1" s="74" t="s">
         <v>516</v>
-      </c>
-      <c r="AB1" s="74" t="s">
-        <v>517</v>
       </c>
       <c r="AC1" s="70" t="s">
         <v>334</v>
       </c>
       <c r="AD1" s="74" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE1" s="74" t="s">
         <v>518</v>
       </c>
-      <c r="AE1" s="74" t="s">
+      <c r="AF1" s="74" t="s">
         <v>519</v>
       </c>
-      <c r="AF1" s="74" t="s">
+      <c r="AG1" s="74" t="s">
         <v>520</v>
       </c>
-      <c r="AG1" s="74" t="s">
+      <c r="AH1" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="AH1" s="74" t="s">
+      <c r="AI1" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="AI1" s="74" t="s">
+      <c r="AJ1" s="74" t="s">
         <v>523</v>
       </c>
-      <c r="AJ1" s="74" t="s">
+      <c r="AK1" s="74" t="s">
         <v>524</v>
       </c>
-      <c r="AK1" s="74" t="s">
+      <c r="AL1" s="74" t="s">
         <v>525</v>
       </c>
-      <c r="AL1" s="74" t="s">
+      <c r="AM1" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN1" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="AO1" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="AP1" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ1" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="AR1" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="AS1" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="AT1" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="AU1" s="53" t="s">
         <v>526</v>
       </c>
-      <c r="AM1" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="AN1" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="AO1" s="52" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP1" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="AQ1" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="AR1" s="53" t="s">
-        <v>465</v>
-      </c>
-      <c r="AS1" s="53" t="s">
-        <v>466</v>
-      </c>
-      <c r="AT1" s="53" t="s">
-        <v>467</v>
-      </c>
-      <c r="AU1" s="53" t="s">
-        <v>527</v>
+      <c r="AV1" s="52" t="s">
+        <v>614</v>
+      </c>
+      <c r="AW1" s="52" t="s">
+        <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
@@ -4307,43 +4330,43 @@
         <v>309</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J2" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="K2" s="75" t="s">
         <v>528</v>
-      </c>
-      <c r="K2" s="75" t="s">
-        <v>529</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>269</v>
       </c>
       <c r="M2" s="76" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N2" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="O2" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="P2" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="Q2" s="75" t="s">
         <v>532</v>
       </c>
-      <c r="Q2" s="75" t="s">
+      <c r="R2" s="75" t="s">
+        <v>482</v>
+      </c>
+      <c r="S2" s="75" t="s">
         <v>533</v>
       </c>
-      <c r="R2" s="75" t="s">
-        <v>483</v>
-      </c>
-      <c r="S2" s="75" t="s">
+      <c r="T2" s="75" t="s">
         <v>534</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="U2" s="75" t="s">
         <v>535</v>
-      </c>
-      <c r="U2" s="75" t="s">
-        <v>536</v>
       </c>
       <c r="V2" s="64">
         <v>1000000</v>
@@ -4364,37 +4387,37 @@
         <v>101</v>
       </c>
       <c r="AB2" s="67" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>247</v>
       </c>
       <c r="AD2" s="76" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AE2" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF2" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG2" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="AH2" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="AF2" s="67" t="s">
-        <v>537</v>
-      </c>
-      <c r="AG2" s="64" t="s">
+      <c r="AI2" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="AJ2" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="AH2" s="64" t="s">
-        <v>538</v>
-      </c>
-      <c r="AI2" s="64" t="s">
-        <v>539</v>
-      </c>
-      <c r="AJ2" s="64" t="s">
-        <v>531</v>
-      </c>
       <c r="AK2" s="64" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AL2" s="64" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM2" s="28" t="s">
         <v>383</v>
@@ -4412,19 +4435,25 @@
         <v>302</v>
       </c>
       <c r="AR2" s="67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AS2" s="67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AT2" s="67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AU2" t="s">
-        <v>540</v>
+        <v>539</v>
+      </c>
+      <c r="AV2" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="AW2">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -4523,136 +4552,136 @@
         <v>122</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="H1" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="I1" s="56" t="s">
         <v>545</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>546</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>548</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="M1" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="N1" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="O1" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="P1" s="59" t="s">
         <v>552</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="Q1" s="59" t="s">
         <v>553</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="R1" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="S1" s="59" t="s">
         <v>555</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="T1" s="59" t="s">
         <v>556</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="U1" s="59" t="s">
         <v>557</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="V1" s="59" t="s">
         <v>558</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="W1" s="59" t="s">
         <v>559</v>
       </c>
-      <c r="W1" s="59" t="s">
+      <c r="X1" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="Y1" s="61" t="s">
         <v>561</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Z1" s="58" t="s">
         <v>562</v>
       </c>
-      <c r="Z1" s="58" t="s">
+      <c r="AA1" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="AA1" s="58" t="s">
+      <c r="AB1" s="58" t="s">
         <v>564</v>
       </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AC1" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="AC1" s="58" t="s">
+      <c r="AD1" s="58" t="s">
         <v>566</v>
       </c>
-      <c r="AD1" s="58" t="s">
+      <c r="AE1" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="AE1" s="58" t="s">
+      <c r="AF1" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="AF1" s="58" t="s">
+      <c r="AG1" s="58" t="s">
         <v>569</v>
       </c>
-      <c r="AG1" s="58" t="s">
+      <c r="AH1" s="62" t="s">
         <v>570</v>
       </c>
-      <c r="AH1" s="62" t="s">
+      <c r="AI1" s="62" t="s">
         <v>571</v>
       </c>
-      <c r="AI1" s="62" t="s">
+      <c r="AJ1" s="58" t="s">
         <v>572</v>
       </c>
-      <c r="AJ1" s="58" t="s">
+      <c r="AK1" s="58" t="s">
         <v>573</v>
       </c>
-      <c r="AK1" s="58" t="s">
+      <c r="AL1" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="AL1" s="58" t="s">
+      <c r="AM1" s="58" t="s">
         <v>575</v>
       </c>
-      <c r="AM1" s="58" t="s">
+      <c r="AN1" s="60" t="s">
         <v>576</v>
       </c>
-      <c r="AN1" s="60" t="s">
+      <c r="AO1" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="AO1" s="60" t="s">
+      <c r="AP1" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="AQ1" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR1" s="61" t="s">
+        <v>457</v>
+      </c>
+      <c r="AS1" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="AT1" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="AP1" s="61" t="s">
-        <v>462</v>
-      </c>
-      <c r="AQ1" s="61" t="s">
-        <v>465</v>
-      </c>
-      <c r="AR1" s="61" t="s">
-        <v>458</v>
-      </c>
-      <c r="AS1" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="AT1" s="60" t="s">
+      <c r="AU1" s="63" t="s">
         <v>579</v>
-      </c>
-      <c r="AU1" s="63" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="64" customFormat="1" x14ac:dyDescent="0.2">
@@ -4663,19 +4692,19 @@
         <v>305</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>585</v>
       </c>
       <c r="H2" s="64">
         <v>0.25</v>
@@ -4684,13 +4713,13 @@
         <v>0.2</v>
       </c>
       <c r="L2" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="M2" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="N2" s="64" t="s">
         <v>587</v>
-      </c>
-      <c r="N2" s="64" t="s">
-        <v>588</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>383</v>
@@ -4699,7 +4728,7 @@
         <v>254</v>
       </c>
       <c r="Q2" s="64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>384</v>
@@ -4708,7 +4737,7 @@
         <v>254</v>
       </c>
       <c r="T2" s="64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="U2" s="64" t="s">
         <v>253</v>
@@ -4720,13 +4749,13 @@
         <v>259</v>
       </c>
       <c r="X2" s="65" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z2" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA2" s="64" t="s">
         <v>591</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>587</v>
-      </c>
-      <c r="AA2" s="64" t="s">
-        <v>592</v>
       </c>
       <c r="AB2" s="64">
         <v>30</v>
@@ -4738,34 +4767,34 @@
         <v>0</v>
       </c>
       <c r="AE2" s="64" t="s">
+        <v>592</v>
+      </c>
+      <c r="AF2" s="64" t="s">
         <v>593</v>
-      </c>
-      <c r="AF2" s="64" t="s">
-        <v>594</v>
       </c>
       <c r="AG2" s="64">
         <v>100</v>
       </c>
       <c r="AH2" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="AJ2" s="64" t="s">
         <v>595</v>
       </c>
-      <c r="AI2" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AJ2" s="64" t="s">
+      <c r="AK2" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="AK2" s="64" t="s">
+      <c r="AL2" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="AM2" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="AL2" s="64" t="s">
-        <v>588</v>
-      </c>
-      <c r="AM2" s="64" t="s">
+      <c r="AT2" s="64" t="s">
         <v>598</v>
-      </c>
-      <c r="AT2" s="64" t="s">
-        <v>599</v>
       </c>
       <c r="AU2" s="64" t="s">
         <v>243</v>
@@ -4812,13 +4841,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>80</v>
@@ -4829,7 +4858,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>18</v>
@@ -4844,7 +4873,7 @@
         <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -4895,7 +4924,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>82</v>
@@ -4904,10 +4933,10 @@
         <v>83</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>605</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4915,7 +4944,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>82</v>
@@ -4924,10 +4953,10 @@
         <v>83</v>
       </c>
       <c r="E3" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>608</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -4978,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>18</v>
@@ -4987,10 +5016,10 @@
         <v>83</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>611</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5237,8 +5266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5313,7 +5342,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>83</v>
@@ -5325,7 +5354,7 @@
         <v>107</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABD556-CD08-4FA6-8A51-9145E309E651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE33065-823B-400F-8720-C214A2C87C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="29" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="1009">
   <si>
     <t>rowid</t>
   </si>
@@ -3064,6 +3064,15 @@
   </si>
   <si>
     <t>05-Dec-2020 12:45:37</t>
+  </si>
+  <si>
+    <t>Customer_</t>
+  </si>
+  <si>
+    <t>UpdCustomer_</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -3939,13 +3948,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820513D7-58E3-4FAE-8156-556902915797}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4198,74 +4207,90 @@
         <v>40</v>
       </c>
       <c r="B7" s="136" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C7" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>42</v>
+        <v>1006</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+        <v>973</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="136" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136" t="s">
+        <v>32</v>
+      </c>
       <c r="L7" s="137" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="147"/>
       <c r="N7" s="147"/>
       <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="145" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="136" t="s">
-        <v>45</v>
+        <v>974</v>
       </c>
       <c r="C8" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="136" t="s">
-        <v>46</v>
+        <v>1007</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
+        <v>975</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136" t="s">
+        <v>36</v>
+      </c>
       <c r="L8" s="137" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="147"/>
       <c r="N8" s="147"/>
       <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="145" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C9" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9" s="136" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F9" s="144"/>
       <c r="G9" s="144"/>
@@ -4285,16 +4310,16 @@
         <v>52</v>
       </c>
       <c r="B10" s="136" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="136" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E10" s="136" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" s="144"/>
       <c r="G10" s="144"/>
@@ -4314,16 +4339,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C11" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="134" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="E11" s="136" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="144"/>
       <c r="G11" s="144"/>
@@ -4331,26 +4356,28 @@
       <c r="I11" s="144"/>
       <c r="J11" s="144"/>
       <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
+      <c r="L11" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="145" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C12" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="134" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="E12" s="136" t="s">
+        <v>55</v>
       </c>
       <c r="F12" s="144"/>
       <c r="G12" s="144"/>
@@ -4358,26 +4385,28 @@
       <c r="I12" s="144"/>
       <c r="J12" s="144"/>
       <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
+      <c r="L12" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="145" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="136" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C13" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="136" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F13" s="144"/>
       <c r="G13" s="144"/>
@@ -4395,16 +4424,16 @@
         <v>68</v>
       </c>
       <c r="B14" s="136" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C14" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="136" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E14" s="134" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F14" s="144"/>
       <c r="G14" s="144"/>
@@ -4422,108 +4451,88 @@
         <v>72</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C15" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="136" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="136" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="136" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="136" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="138" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="136" t="s">
-        <v>19</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
       <c r="L15" s="144"/>
-      <c r="M15" s="134" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" s="134" t="s">
-        <v>81</v>
-      </c>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="145" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="136" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C16" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="136" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E16" s="134" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F16" s="144"/>
       <c r="G16" s="144"/>
-      <c r="H16" s="136" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136" t="s">
-        <v>20</v>
-      </c>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
       <c r="L16" s="144"/>
-      <c r="M16" s="134" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" s="134" t="s">
-        <v>81</v>
-      </c>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="145" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="136" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C17" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
+        <v>74</v>
+      </c>
+      <c r="E17" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="136" t="s">
+        <v>77</v>
+      </c>
       <c r="H17" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="136" t="s">
         <v>19</v>
-      </c>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136" t="s">
-        <v>20</v>
       </c>
       <c r="L17" s="144"/>
       <c r="M17" s="134" t="s">
@@ -4541,101 +4550,103 @@
         <v>90</v>
       </c>
       <c r="B18" s="136" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C18" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="136" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E18" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="136" t="s">
-        <v>18</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="136" t="s">
-        <v>18</v>
-      </c>
+      <c r="I18" s="136"/>
       <c r="J18" s="136"/>
       <c r="K18" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="137" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
+        <v>20</v>
+      </c>
+      <c r="L18" s="144"/>
+      <c r="M18" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="134" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="145" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="136" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C19" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E19" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="136" t="s">
-        <v>18</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
       <c r="H19" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="136" t="s">
-        <v>18</v>
-      </c>
+      <c r="I19" s="136"/>
       <c r="J19" s="136"/>
       <c r="K19" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="137" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
+        <v>20</v>
+      </c>
+      <c r="L19" s="144"/>
+      <c r="M19" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="134" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="145" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="136" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C20" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="136" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E20" s="134" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F20" s="136" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H20" s="136" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I20" s="136" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J20" s="136"/>
       <c r="K20" s="136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20" s="137" t="s">
         <v>21</v>
@@ -4649,16 +4660,16 @@
         <v>102</v>
       </c>
       <c r="B21" s="136" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C21" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="136" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E21" s="134" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F21" s="136" t="s">
         <v>18</v>
@@ -4680,155 +4691,225 @@
       <c r="N21" s="144"/>
       <c r="O21" s="144"/>
     </row>
-    <row r="22" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="145" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="136" t="s">
-        <v>977</v>
+        <v>99</v>
       </c>
       <c r="C22" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="136" t="s">
-        <v>978</v>
+        <v>100</v>
       </c>
       <c r="E22" s="134" t="s">
-        <v>979</v>
-      </c>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+        <v>101</v>
+      </c>
+      <c r="F22" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="136" t="s">
+        <v>31</v>
+      </c>
       <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
+      <c r="K22" s="136" t="s">
+        <v>27</v>
+      </c>
       <c r="L22" s="137" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="144"/>
       <c r="N22" s="144"/>
       <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
     </row>
-    <row r="23" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="145" t="s">
         <v>980</v>
       </c>
       <c r="B23" s="136" t="s">
-        <v>981</v>
+        <v>103</v>
       </c>
       <c r="C23" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>982</v>
+        <v>38</v>
       </c>
       <c r="E23" s="134" t="s">
-        <v>983</v>
-      </c>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
+        <v>104</v>
+      </c>
+      <c r="F23" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="136" t="s">
+        <v>18</v>
+      </c>
       <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
+      <c r="K23" s="136" t="s">
+        <v>26</v>
+      </c>
       <c r="L23" s="137" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="144"/>
       <c r="N23" s="144"/>
       <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
     </row>
-    <row r="24" spans="1:17" s="134" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="145" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="136" t="s">
-        <v>311</v>
+        <v>977</v>
       </c>
       <c r="C24" s="136" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="136" t="s">
-        <v>984</v>
-      </c>
-      <c r="F24" s="136" t="s">
-        <v>985</v>
-      </c>
-      <c r="G24" s="136" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="136" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
+        <v>978</v>
+      </c>
+      <c r="E24" s="134" t="s">
+        <v>979</v>
+      </c>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="137" t="s">
+        <v>21</v>
+      </c>
       <c r="M24" s="144"/>
       <c r="N24" s="144"/>
       <c r="O24" s="144"/>
-      <c r="P24" s="134" t="s">
-        <v>986</v>
-      </c>
+      <c r="P24" s="144"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="145" t="s">
         <v>987</v>
       </c>
       <c r="B25" s="136" t="s">
+        <v>981</v>
+      </c>
+      <c r="C25" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="136" t="s">
+        <v>982</v>
+      </c>
+      <c r="E25" s="134" t="s">
+        <v>983</v>
+      </c>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="145" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B26" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="136" t="s">
+        <v>984</v>
+      </c>
+      <c r="E26" s="134"/>
+      <c r="F26" s="136" t="s">
+        <v>985</v>
+      </c>
+      <c r="G26" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="136" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="134" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="136" t="s">
         <v>840</v>
       </c>
-      <c r="F25" s="134" t="s">
+      <c r="F27" s="134" t="s">
         <v>841</v>
       </c>
-      <c r="G25" s="134" t="s">
+      <c r="G27" s="134" t="s">
         <v>842</v>
       </c>
-      <c r="H25" s="134" t="s">
+      <c r="H27" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="134" t="s">
+      <c r="Q27" s="134" t="s">
         <v>843</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="151" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="150" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="150" t="s">
-        <v>990</v>
+      <c r="B33" s="151" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="150" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="150" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="150" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="150" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="150" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="150" t="s">
         <v>994</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -9695,7 +9776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D650624-3222-4CF0-AF25-F4C6F86F984C}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE33065-823B-400F-8720-C214A2C87C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D675F3-8B92-4537-B8A3-A3D927247C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="29" r:id="rId1"/>
@@ -28,25 +28,26 @@
     <sheet name="SC1_PrimaryAllocation" sheetId="13" r:id="rId13"/>
     <sheet name="SC1_LoanDrawdown" sheetId="14" r:id="rId14"/>
     <sheet name="SC1_PaymentFees" sheetId="15" r:id="rId15"/>
-    <sheet name="SC1_UnscheduledPayments" sheetId="16" r:id="rId16"/>
-    <sheet name="SC2_DealSetup" sheetId="9" r:id="rId17"/>
-    <sheet name="SC2_AdminFee" sheetId="18" r:id="rId18"/>
-    <sheet name="SC2_EventFee" sheetId="19" r:id="rId19"/>
-    <sheet name="SC2_FacilitySetup" sheetId="20" r:id="rId20"/>
-    <sheet name="SC2_OngoingFeeSetup" sheetId="21" r:id="rId21"/>
-    <sheet name="SC2_PrimaryAllocation" sheetId="22" r:id="rId22"/>
-    <sheet name="SC2_LoanDrawdown" sheetId="23" r:id="rId23"/>
-    <sheet name="SC2_PaymentFees" sheetId="24" r:id="rId24"/>
-    <sheet name="SC2_CycleShareAdjustment" sheetId="25" r:id="rId25"/>
-    <sheet name="SC2_LoanSplit" sheetId="27" r:id="rId26"/>
-    <sheet name="SC2_SecondarySale" sheetId="28" r:id="rId27"/>
+    <sheet name="SC1_Customer" sheetId="32" r:id="rId16"/>
+    <sheet name="SC1_UnscheduledPayments" sheetId="16" r:id="rId17"/>
+    <sheet name="SC2_DealSetup" sheetId="9" r:id="rId18"/>
+    <sheet name="SC2_AdminFee" sheetId="18" r:id="rId19"/>
+    <sheet name="SC2_EventFee" sheetId="19" r:id="rId20"/>
+    <sheet name="SC2_FacilitySetup" sheetId="20" r:id="rId21"/>
+    <sheet name="SC2_OngoingFeeSetup" sheetId="21" r:id="rId22"/>
+    <sheet name="SC2_PrimaryAllocation" sheetId="22" r:id="rId23"/>
+    <sheet name="SC2_LoanDrawdown" sheetId="23" r:id="rId24"/>
+    <sheet name="SC2_PaymentFees" sheetId="24" r:id="rId25"/>
+    <sheet name="SC2_CycleShareAdjustment" sheetId="25" r:id="rId26"/>
+    <sheet name="SC2_LoanSplit" sheetId="27" r:id="rId27"/>
+    <sheet name="SC2_SecondarySale" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="1229">
   <si>
     <t>rowid</t>
   </si>
@@ -3073,6 +3074,669 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>LIQCustomerShortName_Prefix</t>
+  </si>
+  <si>
+    <t>LIQCustomerLegalName_Prefix</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDADescriptionAUDPrefix</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDADescriptionAUDPrefix2</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_IMTDescriptionUSDPrefix</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_IMTDescriptionUSDPrefix2</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_RTGSDescriptionAUDPrefix</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_RTGSDescriptionAUDPrefix2</t>
+  </si>
+  <si>
+    <t>Customer_Search</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDADescriptionAUD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDADescriptionAUD2</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDADescriptionUSD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_RTGSMethod</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_RTGSDescriptionAUD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_RTGSDescriptionAUD2</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_RTGSCurrencyAUD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_SIMTDescriptionAUD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_SIMTDescriptionUSD</t>
+  </si>
+  <si>
+    <t>Address_Line1</t>
+  </si>
+  <si>
+    <t>Address_Line2</t>
+  </si>
+  <si>
+    <t>Address_City</t>
+  </si>
+  <si>
+    <t>Address_Country</t>
+  </si>
+  <si>
+    <t>Address_TRA</t>
+  </si>
+  <si>
+    <t>Address_DefaultPhone</t>
+  </si>
+  <si>
+    <t>Address_State</t>
+  </si>
+  <si>
+    <t>Address_ZipPostalCode</t>
+  </si>
+  <si>
+    <t>Primary_SICCode</t>
+  </si>
+  <si>
+    <t>PrimarySICCode_Description</t>
+  </si>
+  <si>
+    <t>Profile_Type</t>
+  </si>
+  <si>
+    <t>ExpenseCode_Description</t>
+  </si>
+  <si>
+    <t>Deparment_Code</t>
+  </si>
+  <si>
+    <t>DepartmentCode_Description</t>
+  </si>
+  <si>
+    <t>Classification_Code</t>
+  </si>
+  <si>
+    <t>ClassificationCode_Description</t>
+  </si>
+  <si>
+    <t>Taxpayer_ID</t>
+  </si>
+  <si>
+    <t>CreditReview_Date</t>
+  </si>
+  <si>
+    <t>Customer_Location</t>
+  </si>
+  <si>
+    <t>Customer_Location2</t>
+  </si>
+  <si>
+    <t>External_ID</t>
+  </si>
+  <si>
+    <t>Preferred_Language</t>
+  </si>
+  <si>
+    <t>MEI_Code</t>
+  </si>
+  <si>
+    <t>Address_Code</t>
+  </si>
+  <si>
+    <t>Fax_Number</t>
+  </si>
+  <si>
+    <t>Fax_Number2</t>
+  </si>
+  <si>
+    <t>Fax_Description</t>
+  </si>
+  <si>
+    <t>Fax_Description2</t>
+  </si>
+  <si>
+    <t>Contact_FirstName</t>
+  </si>
+  <si>
+    <t>Contact_FirstName2</t>
+  </si>
+  <si>
+    <t>Contact_LastName</t>
+  </si>
+  <si>
+    <t>Contact_LastName2</t>
+  </si>
+  <si>
+    <t>Contact_PreferredLanguage</t>
+  </si>
+  <si>
+    <t>Contact_PrimaryPhone</t>
+  </si>
+  <si>
+    <t>Contact_PrimaryPhone2</t>
+  </si>
+  <si>
+    <t>Contact_ProductSelected</t>
+  </si>
+  <si>
+    <t>Contact_BalanceTypeSelected</t>
+  </si>
+  <si>
+    <t>Contact_PurposeType</t>
+  </si>
+  <si>
+    <t>Contact_PurposeTypeArea</t>
+  </si>
+  <si>
+    <t>ContactNotice_Method</t>
+  </si>
+  <si>
+    <t>Contact_Email2</t>
+  </si>
+  <si>
+    <t>Group_Contact</t>
+  </si>
+  <si>
+    <t>Group_Contact2</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_MethodType</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDAMethod</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDAAccountName</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDAAccountNumber</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDACurrencyAUD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DDACurrencyUSD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_DirectionSelected</t>
+  </si>
+  <si>
+    <t>RemittanceInstructionDDA_AutoDoIt</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_SIMTMethodType</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_IMTMethod</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_IMTDescriptionUSD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_IMTDescriptionUSD2</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_IMTCurrencyUSD</t>
+  </si>
+  <si>
+    <t>IMT_MessageCode</t>
+  </si>
+  <si>
+    <t>BOC_Level</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_SIMTCurrencyAUD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_SIMTCurrencyUSD</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_SIMTSwiftID</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_SIMTSwiftIDBank</t>
+  </si>
+  <si>
+    <t>RemittanceInstructionSIMT_
+ProductSelected</t>
+  </si>
+  <si>
+    <t>RemittanceInstructionSIMT_
+BalanceTypeSelected</t>
+  </si>
+  <si>
+    <t>RemittanceInstructionSIMT_AutoDoIt</t>
+  </si>
+  <si>
+    <t>GST_ID</t>
+  </si>
+  <si>
+    <t>InternalRiskRating_Type</t>
+  </si>
+  <si>
+    <t>InternalRisk_Rating</t>
+  </si>
+  <si>
+    <t>InternalRisk_Percent</t>
+  </si>
+  <si>
+    <t>ExternalRiskRating_Type1</t>
+  </si>
+  <si>
+    <t>ExternalRisk_Rating1</t>
+  </si>
+  <si>
+    <t>ExternalRiskRating_Type2</t>
+  </si>
+  <si>
+    <t>ExternalRisk_Rating2</t>
+  </si>
+  <si>
+    <t>ExternalRiskRating_Type3</t>
+  </si>
+  <si>
+    <t>ExternalRisk_Rating3</t>
+  </si>
+  <si>
+    <t>MailingAddress_Code</t>
+  </si>
+  <si>
+    <t>MailingAddress_Line1</t>
+  </si>
+  <si>
+    <t>MailingAddress_Line2</t>
+  </si>
+  <si>
+    <t>MailingAddress_DefaultPhone</t>
+  </si>
+  <si>
+    <t>BorrowerContact_Phone</t>
+  </si>
+  <si>
+    <t>SwiftRole_BC</t>
+  </si>
+  <si>
+    <t>SwiftRole_OC</t>
+  </si>
+  <si>
+    <t>SwiftRole_AWI</t>
+  </si>
+  <si>
+    <t>AWI_SwiftID</t>
+  </si>
+  <si>
+    <t>AWI_Description</t>
+  </si>
+  <si>
+    <t>AWI_AccountNumber</t>
+  </si>
+  <si>
+    <t>DOC_Type</t>
+  </si>
+  <si>
+    <t>IMT_MessageCode2</t>
+  </si>
+  <si>
+    <t>SwiftRole_BI</t>
+  </si>
+  <si>
+    <t>BC_Description</t>
+  </si>
+  <si>
+    <t>BC_AccountNumber</t>
+  </si>
+  <si>
+    <t>OC_Description</t>
+  </si>
+  <si>
+    <t>OC_AccountNumber</t>
+  </si>
+  <si>
+    <t>InternalRiskRating_EffectiveDate</t>
+  </si>
+  <si>
+    <t>InternalRiskRating_ExpiryDate</t>
+  </si>
+  <si>
+    <t>ExternalRiskRating_StartDate</t>
+  </si>
+  <si>
+    <t>ProductSBLC_Checkbox</t>
+  </si>
+  <si>
+    <t>ProductLoan_Checkbox</t>
+  </si>
+  <si>
+    <t>BalanceType_Principal_Checkbox</t>
+  </si>
+  <si>
+    <t>BalanceType_Interest_Checkbox</t>
+  </si>
+  <si>
+    <t>BalanceType_Fees_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_ProductLoan_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_ProductSBLC_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_FromCust_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_ToCust_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_BalanceType_Principal_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_BalanceType_Interest_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_BalanceType_Fees_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_AutoDoIt_Checkbox</t>
+  </si>
+  <si>
+    <t>RI_SendersCorrespondent_Checkbox</t>
+  </si>
+  <si>
+    <t>CustomerNotice_TypeMethod</t>
+  </si>
+  <si>
+    <t>CustomerSourceApp</t>
+  </si>
+  <si>
+    <t>CUSTSHORT</t>
+  </si>
+  <si>
+    <t>CUSTLEGAL</t>
+  </si>
+  <si>
+    <t>DDAAUD1-</t>
+  </si>
+  <si>
+    <t>DDAAUD2-</t>
+  </si>
+  <si>
+    <t>IMTUSD1-</t>
+  </si>
+  <si>
+    <t>IMTUSD2-</t>
+  </si>
+  <si>
+    <t>RTGSAUD1-</t>
+  </si>
+  <si>
+    <t>RTGSAUD2-</t>
+  </si>
+  <si>
+    <t>Search by Customer ID</t>
+  </si>
+  <si>
+    <t>CUSTSHORT27123</t>
+  </si>
+  <si>
+    <t>DDAAUD1-2846</t>
+  </si>
+  <si>
+    <t>DDA-AUD2518</t>
+  </si>
+  <si>
+    <t>DDA2-USD3750</t>
+  </si>
+  <si>
+    <t>High Value Local RTGS (AUD)</t>
+  </si>
+  <si>
+    <t>RTGSAUD1-2848</t>
+  </si>
+  <si>
+    <t>RTGS-AUD2525</t>
+  </si>
+  <si>
+    <t>SIMT1-AUD3750</t>
+  </si>
+  <si>
+    <t>SIMT2-USD4504</t>
+  </si>
+  <si>
+    <t>George St.</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412345678
+ </t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>4061</t>
+  </si>
+  <si>
+    <t>3620</t>
+  </si>
+  <si>
+    <t>AU / Gas Supply</t>
+  </si>
+  <si>
+    <t>003346</t>
+  </si>
+  <si>
+    <t>CFS QLD Brisbane Corporate (Dept 003346)</t>
+  </si>
+  <si>
+    <t>FORG</t>
+  </si>
+  <si>
+    <t>Foreign Government, Foreign Government</t>
+  </si>
+  <si>
+    <t>&lt;This is randomly generated in the script&gt;</t>
+  </si>
+  <si>
+    <t>16-Feb-2017</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>CBA</t>
+  </si>
+  <si>
+    <t>LEGAL ADDRESS</t>
+  </si>
+  <si>
+    <t>1917472</t>
+  </si>
+  <si>
+    <t>Work Fax</t>
+  </si>
+  <si>
+    <t>Work Fax 2</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Bloggs</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>1928727188</t>
+  </si>
+  <si>
+    <t>1928143143</t>
+  </si>
+  <si>
+    <t>SBLC, Loan</t>
+  </si>
+  <si>
+    <t>Principal, Interest, Fees</t>
+  </si>
+  <si>
+    <t>Servicing</t>
+  </si>
+  <si>
+    <t>SERV</t>
+  </si>
+  <si>
+    <t>james.baker@abc.com</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>DDA (Demand Deposit Acct)</t>
+  </si>
+  <si>
+    <t>CBA Domestic Account</t>
+  </si>
+  <si>
+    <t>1020188515</t>
+  </si>
+  <si>
+    <t>From Cust</t>
+  </si>
+  <si>
+    <t>&lt;Selected&gt;</t>
+  </si>
+  <si>
+    <t>Simplified</t>
+  </si>
+  <si>
+    <t>International Money Transfer</t>
+  </si>
+  <si>
+    <t>IMTUSD1-2847</t>
+  </si>
+  <si>
+    <t>IMT-USD2519</t>
+  </si>
+  <si>
+    <t>MT103</t>
+  </si>
+  <si>
+    <t>Credit transfer - Service Level: None</t>
+  </si>
+  <si>
+    <t>CTBAAU2S600</t>
+  </si>
+  <si>
+    <t>COMMONWEALTH BANK OF AUSTRALIA SYDNEY</t>
+  </si>
+  <si>
+    <t>All Loan Types, SBLC/BA</t>
+  </si>
+  <si>
+    <t>02568049389</t>
+  </si>
+  <si>
+    <t>Internal Rating</t>
+  </si>
+  <si>
+    <t>D1 Good</t>
+  </si>
+  <si>
+    <t>Standard &amp; Poors</t>
+  </si>
+  <si>
+    <t>BBB+</t>
+  </si>
+  <si>
+    <t>Moody's Investor Services Inc</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Fitch</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>PO Box 861</t>
+  </si>
+  <si>
+    <t>Almond, Victoria 3211</t>
+  </si>
+  <si>
+    <t>03 5029 9445</t>
+  </si>
+  <si>
+    <t>Beneficiary Customer</t>
+  </si>
+  <si>
+    <t>Ordering Customer</t>
+  </si>
+  <si>
+    <t>Account With Institution</t>
+  </si>
+  <si>
+    <t>CITIUS33XXX</t>
+  </si>
+  <si>
+    <t>MT202</t>
+  </si>
+  <si>
+    <t>Beneficiary Institution</t>
+  </si>
+  <si>
+    <t>XYZ 1234</t>
+  </si>
+  <si>
+    <t>4561234789</t>
+  </si>
+  <si>
+    <t>XYZ 1234 PARTNERS</t>
+  </si>
+  <si>
+    <t>5558882223</t>
+  </si>
+  <si>
+    <t>03-Jan-2019</t>
+  </si>
+  <si>
+    <t>External Message</t>
+  </si>
+  <si>
+    <t>LIQ</t>
   </si>
 </sst>
 </file>
@@ -3213,7 +3877,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3282,6 +3946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3412,7 +4082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3633,6 +4303,14 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3950,7 +4628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820513D7-58E3-4FAE-8156-556902915797}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7690,6 +8368,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE4973-7EA0-42B9-8EA8-DFA14581B208}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:ER2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="EH2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="EL22" sqref="EL22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="30" style="34" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="45.5703125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="47.5703125" style="34" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="34" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="34" customWidth="1"/>
+    <col min="16" max="16" width="40.5703125" style="34" customWidth="1"/>
+    <col min="17" max="17" width="41.5703125" style="34" customWidth="1"/>
+    <col min="18" max="18" width="40.5703125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="34.42578125" style="34" customWidth="1"/>
+    <col min="20" max="20" width="41.85546875" style="34" customWidth="1"/>
+    <col min="21" max="21" width="43" style="34" customWidth="1"/>
+    <col min="22" max="22" width="39.85546875" style="34" customWidth="1"/>
+    <col min="23" max="24" width="41.28515625" style="34" customWidth="1"/>
+    <col min="25" max="26" width="14.28515625" style="34" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="34" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="34" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="34" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" style="34" customWidth="1"/>
+    <col min="31" max="31" width="14" style="34" customWidth="1"/>
+    <col min="32" max="32" width="22.5703125" style="34" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" style="34" customWidth="1"/>
+    <col min="34" max="34" width="27.7109375" style="34" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" style="34" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" style="34" customWidth="1"/>
+    <col min="37" max="37" width="38.5703125" style="34" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" style="34" customWidth="1"/>
+    <col min="39" max="39" width="28" style="34" customWidth="1"/>
+    <col min="40" max="40" width="19" style="34" customWidth="1"/>
+    <col min="41" max="41" width="36.140625" style="34" customWidth="1"/>
+    <col min="42" max="42" width="36.7109375" style="34" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" style="34" customWidth="1"/>
+    <col min="44" max="44" width="22" style="34" customWidth="1"/>
+    <col min="45" max="45" width="21" style="34" customWidth="1"/>
+    <col min="46" max="46" width="36.7109375" style="34" customWidth="1"/>
+    <col min="47" max="47" width="20" style="34" customWidth="1"/>
+    <col min="48" max="48" width="10" style="34" customWidth="1"/>
+    <col min="49" max="49" width="16.7109375" style="34" customWidth="1"/>
+    <col min="50" max="50" width="12.5703125" style="34" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" style="34" customWidth="1"/>
+    <col min="52" max="52" width="15.7109375" style="34" customWidth="1"/>
+    <col min="53" max="53" width="16.7109375" style="34" customWidth="1"/>
+    <col min="54" max="54" width="18.28515625" style="34" customWidth="1"/>
+    <col min="55" max="55" width="19.28515625" style="34" customWidth="1"/>
+    <col min="56" max="56" width="18.140625" style="34" customWidth="1"/>
+    <col min="57" max="57" width="19.140625" style="34" customWidth="1"/>
+    <col min="58" max="58" width="27.140625" style="34" customWidth="1"/>
+    <col min="59" max="59" width="22.28515625" style="34" customWidth="1"/>
+    <col min="60" max="60" width="23.28515625" style="34" customWidth="1"/>
+    <col min="61" max="61" width="24.28515625" style="34" customWidth="1"/>
+    <col min="62" max="62" width="29.28515625" style="34" customWidth="1"/>
+    <col min="63" max="63" width="21" style="34" customWidth="1"/>
+    <col min="64" max="64" width="25.5703125" style="34" customWidth="1"/>
+    <col min="65" max="65" width="29" style="34" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.7109375" style="34" customWidth="1"/>
+    <col min="67" max="67" width="20.42578125" style="34" customWidth="1"/>
+    <col min="68" max="68" width="14.5703125" style="34" customWidth="1"/>
+    <col min="69" max="69" width="15.5703125" style="34" customWidth="1"/>
+    <col min="70" max="70" width="33.5703125" style="34" customWidth="1"/>
+    <col min="71" max="71" width="33" style="34" customWidth="1"/>
+    <col min="72" max="72" width="39.140625" style="34" customWidth="1"/>
+    <col min="73" max="73" width="41" style="34" customWidth="1"/>
+    <col min="74" max="75" width="38.5703125" style="34" customWidth="1"/>
+    <col min="76" max="76" width="38.85546875" style="34" customWidth="1"/>
+    <col min="77" max="77" width="34.140625" style="34" customWidth="1"/>
+    <col min="78" max="78" width="38.42578125" style="34" customWidth="1"/>
+    <col min="79" max="79" width="32.42578125" style="34" customWidth="1"/>
+    <col min="80" max="80" width="40" style="34" customWidth="1"/>
+    <col min="81" max="81" width="41" style="34" customWidth="1"/>
+    <col min="82" max="82" width="38" style="34" customWidth="1"/>
+    <col min="83" max="83" width="18.140625" style="34" customWidth="1"/>
+    <col min="84" max="84" width="31.140625" style="34" customWidth="1"/>
+    <col min="85" max="86" width="39.28515625" style="34" customWidth="1"/>
+    <col min="87" max="87" width="33.42578125" style="34" customWidth="1"/>
+    <col min="88" max="88" width="46.42578125" style="34" customWidth="1"/>
+    <col min="89" max="89" width="43.85546875" style="34" customWidth="1"/>
+    <col min="90" max="90" width="48.85546875" style="34" customWidth="1"/>
+    <col min="91" max="91" width="34.85546875" style="34" customWidth="1"/>
+    <col min="92" max="92" width="12" style="34" customWidth="1"/>
+    <col min="93" max="93" width="23.42578125" style="34" customWidth="1"/>
+    <col min="94" max="94" width="18.85546875" style="34" customWidth="1"/>
+    <col min="95" max="95" width="20" style="34" customWidth="1"/>
+    <col min="96" max="96" width="25" style="34" customWidth="1"/>
+    <col min="97" max="97" width="20.42578125" style="34" customWidth="1"/>
+    <col min="98" max="98" width="25.85546875" style="34" customWidth="1"/>
+    <col min="99" max="99" width="20.42578125" style="34" customWidth="1"/>
+    <col min="100" max="100" width="25" style="34" customWidth="1"/>
+    <col min="101" max="101" width="20.42578125" style="34" customWidth="1"/>
+    <col min="102" max="102" width="20.85546875" style="34" customWidth="1"/>
+    <col min="103" max="104" width="21.140625" style="34" customWidth="1"/>
+    <col min="105" max="105" width="28.7109375" style="34" customWidth="1"/>
+    <col min="106" max="106" width="23.5703125" style="34" customWidth="1"/>
+    <col min="107" max="107" width="19" style="34" customWidth="1"/>
+    <col min="108" max="108" width="16.7109375" style="34" customWidth="1"/>
+    <col min="109" max="109" width="21.140625" style="34" customWidth="1"/>
+    <col min="110" max="110" width="12.140625" style="34" customWidth="1"/>
+    <col min="111" max="111" width="16" style="34" customWidth="1"/>
+    <col min="112" max="112" width="20.42578125" style="34" customWidth="1"/>
+    <col min="113" max="113" width="19" style="34" customWidth="1"/>
+    <col min="114" max="114" width="19.140625" style="34" customWidth="1"/>
+    <col min="115" max="115" width="19" style="34" customWidth="1"/>
+    <col min="116" max="116" width="14.85546875" style="34" customWidth="1"/>
+    <col min="117" max="117" width="19.28515625" style="34" customWidth="1"/>
+    <col min="118" max="118" width="19.7109375" style="34" customWidth="1"/>
+    <col min="119" max="119" width="19.42578125" style="34" customWidth="1"/>
+    <col min="120" max="120" width="31.140625" style="34" customWidth="1"/>
+    <col min="121" max="121" width="29" style="34" customWidth="1"/>
+    <col min="122" max="122" width="28.140625" style="34" customWidth="1"/>
+    <col min="123" max="123" width="23.42578125" style="34" customWidth="1"/>
+    <col min="124" max="124" width="23" style="34" customWidth="1"/>
+    <col min="125" max="125" width="32.7109375" style="34" customWidth="1"/>
+    <col min="126" max="126" width="31.28515625" style="34" customWidth="1"/>
+    <col min="127" max="127" width="28.7109375" style="34" customWidth="1"/>
+    <col min="128" max="128" width="26" style="34" customWidth="1"/>
+    <col min="129" max="129" width="26.42578125" style="34" customWidth="1"/>
+    <col min="130" max="130" width="22.85546875" style="34" customWidth="1"/>
+    <col min="131" max="131" width="20.28515625" style="34" customWidth="1"/>
+    <col min="132" max="132" width="35.7109375" style="34" customWidth="1"/>
+    <col min="133" max="133" width="34.28515625" style="34" customWidth="1"/>
+    <col min="134" max="134" width="31.7109375" style="34" customWidth="1"/>
+    <col min="135" max="135" width="22" style="34" customWidth="1"/>
+    <col min="136" max="136" width="35.42578125" style="34" customWidth="1"/>
+    <col min="137" max="137" width="28" style="34" customWidth="1"/>
+    <col min="138" max="140" width="24.42578125" style="34" customWidth="1"/>
+    <col min="141" max="141" width="25.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="142" max="145" width="24.42578125" style="34" customWidth="1"/>
+    <col min="146" max="146" width="29.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="147" max="161" width="8.85546875" style="34" customWidth="1"/>
+    <col min="162" max="16384" width="8.85546875" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:148" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>1020</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AS1" s="28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AT1" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AU1" s="28" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AV1" s="28" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AW1" s="28" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AX1" s="28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AZ1" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="BA1" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="BB1" s="28" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BC1" s="28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="BD1" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="BE1" s="28" t="s">
+        <v>1058</v>
+      </c>
+      <c r="BF1" s="28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BG1" s="28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="BH1" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="BI1" s="152" t="s">
+        <v>1062</v>
+      </c>
+      <c r="BJ1" s="28" t="s">
+        <v>1063</v>
+      </c>
+      <c r="BK1" s="28" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BL1" s="28" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BM1" s="28" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BN1" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="BO1" s="28" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BP1" s="28" t="s">
+        <v>1068</v>
+      </c>
+      <c r="BQ1" s="28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BR1" s="28" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BS1" s="28" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BT1" s="28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BU1" s="28" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BV1" s="28" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BW1" s="28" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BX1" s="28" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BY1" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BZ1" s="28" t="s">
+        <v>1078</v>
+      </c>
+      <c r="CA1" s="28" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CB1" s="31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="CC1" s="31" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CD1" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CE1" s="28" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CF1" s="28" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CG1" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH1" s="28" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CI1" s="31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CJ1" s="28" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CK1" s="28" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CL1" s="28" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CM1" s="28" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CN1" s="28" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CO1" s="28" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CP1" s="28" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CQ1" s="28" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CR1" s="28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CS1" s="28" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CT1" s="28" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CU1" s="28" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CV1" s="28" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CW1" s="28" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CX1" s="28" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CY1" s="28" t="s">
+        <v>1103</v>
+      </c>
+      <c r="CZ1" s="28" t="s">
+        <v>1104</v>
+      </c>
+      <c r="DA1" s="28" t="s">
+        <v>1105</v>
+      </c>
+      <c r="DB1" s="28" t="s">
+        <v>1106</v>
+      </c>
+      <c r="DC1" s="28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="DD1" s="28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="DE1" s="28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="DF1" s="28" t="s">
+        <v>1110</v>
+      </c>
+      <c r="DG1" s="28" t="s">
+        <v>1111</v>
+      </c>
+      <c r="DH1" s="28" t="s">
+        <v>1112</v>
+      </c>
+      <c r="DI1" s="153" t="s">
+        <v>1113</v>
+      </c>
+      <c r="DJ1" s="28" t="s">
+        <v>1114</v>
+      </c>
+      <c r="DK1" s="28" t="s">
+        <v>1115</v>
+      </c>
+      <c r="DL1" s="28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="DM1" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="DN1" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="DO1" s="28" t="s">
+        <v>1119</v>
+      </c>
+      <c r="DP1" s="28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="DQ1" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="DR1" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="DS1" s="28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="DT1" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="DU1" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="DV1" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="DW1" s="28" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DX1" s="28" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DY1" s="28" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DZ1" s="28" t="s">
+        <v>1130</v>
+      </c>
+      <c r="EA1" s="28" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EB1" s="28" t="s">
+        <v>1132</v>
+      </c>
+      <c r="EC1" s="28" t="s">
+        <v>1133</v>
+      </c>
+      <c r="ED1" s="28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="EE1" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EF1" s="28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EG1" s="28" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EH1" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="EI1" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="EJ1" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="EK1" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="EL1" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM1" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="EN1" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="EO1" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="EP1" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="EQ1" s="154" t="s">
+        <v>390</v>
+      </c>
+      <c r="ER1" s="154" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>996</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>1150</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>1152</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>1153</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>1157</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AA2" s="35" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AB2" s="35" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AC2" s="35" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AD2" s="35" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AE2" s="35" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AF2" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AG2" s="35" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AH2" s="35" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AI2" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AK2" s="35" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AL2" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM2" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN2" s="35" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AO2" s="35" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AP2" s="35" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AQ2" s="35" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AS2" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AU2" s="35" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AV2" s="35" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AW2" s="35" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AX2" s="35" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AY2" s="35" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AZ2" s="35" t="s">
+        <v>1176</v>
+      </c>
+      <c r="BA2" s="35" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BB2" s="35" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BC2" s="35" t="s">
+        <v>1179</v>
+      </c>
+      <c r="BD2" s="35" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BE2" s="35" t="s">
+        <v>1181</v>
+      </c>
+      <c r="BF2" s="35" t="s">
+        <v>1172</v>
+      </c>
+      <c r="BG2" s="35" t="s">
+        <v>1182</v>
+      </c>
+      <c r="BH2" s="35" t="s">
+        <v>1183</v>
+      </c>
+      <c r="BI2" s="35" t="s">
+        <v>1184</v>
+      </c>
+      <c r="BJ2" s="35" t="s">
+        <v>1185</v>
+      </c>
+      <c r="BK2" s="35" t="s">
+        <v>1186</v>
+      </c>
+      <c r="BL2" s="35" t="s">
+        <v>1187</v>
+      </c>
+      <c r="BM2" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="BN2" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="BO2" s="38" t="s">
+        <v>1188</v>
+      </c>
+      <c r="BP2" s="35" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BQ2" s="35" t="s">
+        <v>1181</v>
+      </c>
+      <c r="BR2" s="35" t="s">
+        <v>1189</v>
+      </c>
+      <c r="BS2" s="35" t="s">
+        <v>1190</v>
+      </c>
+      <c r="BT2" s="35" t="s">
+        <v>1191</v>
+      </c>
+      <c r="BU2" s="38" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BV2" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="BW2" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="BX2" s="35" t="s">
+        <v>1193</v>
+      </c>
+      <c r="BY2" s="35" t="s">
+        <v>1194</v>
+      </c>
+      <c r="BZ2" s="35" t="s">
+        <v>1195</v>
+      </c>
+      <c r="CA2" s="35" t="s">
+        <v>1196</v>
+      </c>
+      <c r="CB2" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="CC2" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="CD2" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE2" s="38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="CF2" s="38" t="s">
+        <v>1200</v>
+      </c>
+      <c r="CG2" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="CH2" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="CI2" s="35" t="s">
+        <v>1201</v>
+      </c>
+      <c r="CJ2" s="35" t="s">
+        <v>1202</v>
+      </c>
+      <c r="CK2" s="35" t="s">
+        <v>1203</v>
+      </c>
+      <c r="CL2" s="35" t="s">
+        <v>1185</v>
+      </c>
+      <c r="CM2" s="35" t="s">
+        <v>1194</v>
+      </c>
+      <c r="CN2" s="35" t="s">
+        <v>1204</v>
+      </c>
+      <c r="CO2" s="35" t="s">
+        <v>1205</v>
+      </c>
+      <c r="CP2" s="35" t="s">
+        <v>1206</v>
+      </c>
+      <c r="CQ2" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="CR2" s="35" t="s">
+        <v>1207</v>
+      </c>
+      <c r="CS2" s="35" t="s">
+        <v>1208</v>
+      </c>
+      <c r="CT2" s="35" t="s">
+        <v>1209</v>
+      </c>
+      <c r="CU2" s="35" t="s">
+        <v>1210</v>
+      </c>
+      <c r="CV2" s="35" t="s">
+        <v>1211</v>
+      </c>
+      <c r="CW2" s="35" t="s">
+        <v>1212</v>
+      </c>
+      <c r="CX2" s="35" t="s">
+        <v>1174</v>
+      </c>
+      <c r="CY2" s="35" t="s">
+        <v>1213</v>
+      </c>
+      <c r="CZ2" s="35" t="s">
+        <v>1214</v>
+      </c>
+      <c r="DA2" s="155" t="s">
+        <v>1215</v>
+      </c>
+      <c r="DB2" s="35" t="s">
+        <v>1215</v>
+      </c>
+      <c r="DC2" s="38" t="s">
+        <v>1216</v>
+      </c>
+      <c r="DD2" s="38" t="s">
+        <v>1217</v>
+      </c>
+      <c r="DE2" s="38" t="s">
+        <v>1218</v>
+      </c>
+      <c r="DF2" s="38" t="s">
+        <v>1219</v>
+      </c>
+      <c r="DG2" s="38"/>
+      <c r="DH2" s="38"/>
+      <c r="DI2" s="38" t="s">
+        <v>1216</v>
+      </c>
+      <c r="DJ2" s="38" t="s">
+        <v>1220</v>
+      </c>
+      <c r="DK2" s="38" t="s">
+        <v>1221</v>
+      </c>
+      <c r="DL2" s="38" t="s">
+        <v>1222</v>
+      </c>
+      <c r="DM2" s="38" t="s">
+        <v>1223</v>
+      </c>
+      <c r="DN2" s="38" t="s">
+        <v>1224</v>
+      </c>
+      <c r="DO2" s="38" t="s">
+        <v>1225</v>
+      </c>
+      <c r="DP2" s="38" t="s">
+        <v>1226</v>
+      </c>
+      <c r="DQ2" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="DR2" s="38" t="s">
+        <v>1226</v>
+      </c>
+      <c r="DS2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="DT2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="DU2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="DV2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="DW2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="DX2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="DY2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="DZ2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="EA2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="EB2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="EC2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="ED2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="EE2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="EF2" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="EG2" s="38" t="s">
+        <v>1227</v>
+      </c>
+      <c r="EH2" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="EI2" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="EJ2" s="38" t="s">
+        <v>998</v>
+      </c>
+      <c r="EK2" s="38" t="s">
+        <v>999</v>
+      </c>
+      <c r="EL2" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="EM2" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="EN2" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="EO2" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="EP2" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="EQ2" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="ER2" s="34" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8189,7 +9918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9391,7 +11120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0E9E88-AD9F-4FC1-A945-9561BBFCC4D7}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -9572,199 +11301,6 @@
       </c>
       <c r="Q3" s="87" t="s">
         <v>860</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD0013-18B1-4EA9-AD99-231F05A07764}">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>683</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>656</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>658</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>698</v>
-      </c>
-      <c r="I2" s="10">
-        <v>100</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>661</v>
-      </c>
-      <c r="K2" s="10">
-        <v>2</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="M2" s="87" t="s">
-        <v>660</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>850</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>852</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>854</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>698</v>
-      </c>
-      <c r="I3" s="10">
-        <v>100</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>856</v>
-      </c>
-      <c r="K3" s="10">
-        <v>2</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="M3" s="87" t="s">
-        <v>855</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -10256,6 +11792,199 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD0013-18B1-4EA9-AD99-231F05A07764}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>683</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>658</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>698</v>
+      </c>
+      <c r="I2" s="10">
+        <v>100</v>
+      </c>
+      <c r="J2" s="87" t="s">
+        <v>661</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>660</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>852</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>854</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>698</v>
+      </c>
+      <c r="I3" s="10">
+        <v>100</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>856</v>
+      </c>
+      <c r="K3" s="10">
+        <v>2</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="M3" s="87" t="s">
+        <v>855</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF8617A-D7AE-417B-8FCB-B4B406078F45}">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -10515,7 +12244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B034F2-5F6A-4CFD-B6D9-0912023370B1}">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
@@ -10881,7 +12610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAEF509-E8AC-4380-A450-6B38D46018E5}">
   <dimension ref="A1:BG3"/>
   <sheetViews>
@@ -11469,7 +13198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF0296B-22EF-4B4C-BC71-E15AB9951915}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
@@ -11950,7 +13679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C1DA6B-0E11-4984-BA7E-748BC4B5F581}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
@@ -12539,7 +14268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68992D3B-D184-4DA6-A943-34BABB40D3D6}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
@@ -12758,7 +14487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64550131-A3ED-4A07-A76B-5A8C08713518}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13124,7 +14853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A0F1C3-D8FB-42E5-BF17-72FD0B750D73}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F258229-4E80-4E1F-A81D-688306A3CCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C53084-06A5-4462-9C0A-89BBEED42C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="709" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13790,8 +13790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA84BE9-7D3B-4F86-A032-2FAB650C912C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97EB5C4-3CC5-4981-8423-29FED0DA5129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="709" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4895" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4896" uniqueCount="1376">
   <si>
     <t>rowid</t>
   </si>
@@ -4175,6 +4175,12 @@
   </si>
   <si>
     <t>Transaction_Date</t>
+  </si>
+  <si>
+    <t>ExpiredFac_LIQFacilityPerformance_V1.3.4.xlsx</t>
+  </si>
+  <si>
+    <t>3001345</t>
   </si>
 </sst>
 </file>
@@ -4281,7 +4287,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4297,7 +4303,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -5170,28 +5176,28 @@
       <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.88671875" style="68" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="68" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="68" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" style="70" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="70" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.5703125" style="66" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" style="66" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="66"/>
+    <col min="8" max="8" width="10.5546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5546875" style="70" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="70" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5546875" style="66" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.109375" style="66" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="72" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="72" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -5244,7 +5250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>17</v>
       </c>
@@ -5276,7 +5282,7 @@
       <c r="P2" s="79"/>
       <c r="Q2" s="79"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>24</v>
       </c>
@@ -5314,7 +5320,7 @@
       <c r="P3" s="79"/>
       <c r="Q3" s="79"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>29</v>
       </c>
@@ -5352,7 +5358,7 @@
       <c r="P4" s="79"/>
       <c r="Q4" s="79"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>34</v>
       </c>
@@ -5390,7 +5396,7 @@
       <c r="P5" s="79"/>
       <c r="Q5" s="79"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>38</v>
       </c>
@@ -5428,7 +5434,7 @@
       <c r="P6" s="79"/>
       <c r="Q6" s="79"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -5466,7 +5472,7 @@
       <c r="P7" s="79"/>
       <c r="Q7" s="79"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>46</v>
       </c>
@@ -5504,7 +5510,7 @@
       <c r="P8" s="79"/>
       <c r="Q8" s="79"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>50</v>
       </c>
@@ -5535,7 +5541,7 @@
       <c r="P9" s="79"/>
       <c r="Q9" s="79"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>54</v>
       </c>
@@ -5566,7 +5572,7 @@
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>58</v>
       </c>
@@ -5597,7 +5603,7 @@
       <c r="P11" s="79"/>
       <c r="Q11" s="79"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>62</v>
       </c>
@@ -5628,7 +5634,7 @@
       <c r="P12" s="79"/>
       <c r="Q12" s="79"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>66</v>
       </c>
@@ -5659,7 +5665,7 @@
       <c r="P13" s="79"/>
       <c r="Q13" s="79"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>70</v>
       </c>
@@ -5690,7 +5696,7 @@
       <c r="P14" s="79"/>
       <c r="Q14" s="79"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>74</v>
       </c>
@@ -5721,7 +5727,7 @@
       <c r="P15" s="79"/>
       <c r="Q15" s="79"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>78</v>
       </c>
@@ -5752,7 +5758,7 @@
       <c r="P16" s="79"/>
       <c r="Q16" s="79"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>82</v>
       </c>
@@ -5799,7 +5805,7 @@
       <c r="P17" s="79"/>
       <c r="Q17" s="79"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>92</v>
       </c>
@@ -5846,7 +5852,7 @@
       <c r="P18" s="79"/>
       <c r="Q18" s="79"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>96</v>
       </c>
@@ -5893,7 +5899,7 @@
       <c r="P19" s="79"/>
       <c r="Q19" s="79"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>100</v>
       </c>
@@ -5940,7 +5946,7 @@
       <c r="P20" s="79"/>
       <c r="Q20" s="79"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>104</v>
       </c>
@@ -5978,7 +5984,7 @@
       <c r="P21" s="79"/>
       <c r="Q21" s="79"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
         <v>88</v>
       </c>
@@ -6016,7 +6022,7 @@
       <c r="P22" s="79"/>
       <c r="Q22" s="79"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>111</v>
       </c>
@@ -6054,7 +6060,7 @@
       <c r="P23" s="79"/>
       <c r="Q23" s="79"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>21</v>
       </c>
@@ -6092,7 +6098,7 @@
       <c r="P24" s="79"/>
       <c r="Q24" s="79"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>117</v>
       </c>
@@ -6121,7 +6127,7 @@
       <c r="P25" s="79"/>
       <c r="Q25" s="79"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>121</v>
       </c>
@@ -6150,7 +6156,7 @@
       <c r="P26" s="79"/>
       <c r="Q26" s="79"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>22</v>
       </c>
@@ -6189,7 +6195,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>131</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="s">
         <v>134</v>
       </c>
@@ -6264,7 +6270,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="77" t="s">
         <v>140</v>
       </c>
@@ -6295,7 +6301,7 @@
       <c r="P30" s="76"/>
       <c r="Q30" s="79"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="77" t="s">
         <v>28</v>
       </c>
@@ -6326,7 +6332,7 @@
       <c r="P31" s="76"/>
       <c r="Q31" s="79"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="s">
         <v>147</v>
       </c>
@@ -6357,7 +6363,7 @@
       <c r="P32" s="76"/>
       <c r="Q32" s="79"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
         <v>150</v>
       </c>
@@ -6388,7 +6394,7 @@
       <c r="P33" s="79"/>
       <c r="Q33" s="79"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>153</v>
       </c>
@@ -6419,7 +6425,7 @@
       <c r="P34" s="79"/>
       <c r="Q34" s="79"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>1341</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>1346</v>
       </c>
@@ -6489,37 +6495,37 @@
       </c>
       <c r="Q36" s="76"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="83" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="82" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="82" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="82" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="82" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" s="82" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" s="82" t="s">
         <v>164</v>
       </c>
@@ -6542,21 +6548,21 @@
       <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.33203125" style="70" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="27" width="10.42578125" style="66" customWidth="1"/>
-    <col min="28" max="16384" width="10.42578125" style="66"/>
+    <col min="9" max="27" width="10.44140625" style="66" customWidth="1"/>
+    <col min="28" max="16384" width="10.44140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="72" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="72" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>17</v>
       </c>
@@ -6603,7 +6609,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>24</v>
       </c>
@@ -6645,95 +6651,95 @@
       <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="17" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="18" customWidth="1"/>
-    <col min="6" max="7" width="21.140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="18" customWidth="1"/>
-    <col min="10" max="11" width="16.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="18" customWidth="1"/>
+    <col min="6" max="7" width="21.109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="18" customWidth="1"/>
+    <col min="10" max="11" width="16.88671875" style="18" customWidth="1"/>
     <col min="12" max="13" width="22" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="18" customWidth="1"/>
-    <col min="15" max="16" width="26.85546875" style="18" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="18" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="18" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" style="18" customWidth="1"/>
+    <col min="15" max="16" width="26.88671875" style="18" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="22.88671875" style="18" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="21.44140625" style="18" customWidth="1"/>
     <col min="21" max="21" width="24" style="18" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" style="18" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" style="18" customWidth="1"/>
-    <col min="24" max="24" width="29.7109375" style="18" customWidth="1"/>
-    <col min="25" max="25" width="25.140625" style="18" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" style="18" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" style="18" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" style="18" customWidth="1"/>
+    <col min="22" max="22" width="32.44140625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="27.88671875" style="18" customWidth="1"/>
+    <col min="24" max="24" width="29.6640625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="25.109375" style="18" customWidth="1"/>
+    <col min="26" max="26" width="18.5546875" style="18" customWidth="1"/>
+    <col min="27" max="27" width="18.88671875" style="18" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="18" customWidth="1"/>
     <col min="29" max="29" width="32" style="18" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="18" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" style="18" customWidth="1"/>
     <col min="31" max="31" width="23" style="18" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="18" customWidth="1"/>
-    <col min="33" max="33" width="27.140625" style="18" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="18" customWidth="1"/>
-    <col min="35" max="36" width="19.28515625" style="18" customWidth="1"/>
-    <col min="37" max="37" width="23.42578125" style="18" customWidth="1"/>
-    <col min="38" max="38" width="19.85546875" style="18" customWidth="1"/>
-    <col min="39" max="39" width="24.7109375" style="18" customWidth="1"/>
+    <col min="32" max="32" width="20.44140625" style="18" customWidth="1"/>
+    <col min="33" max="33" width="27.109375" style="18" customWidth="1"/>
+    <col min="34" max="34" width="21.109375" style="18" customWidth="1"/>
+    <col min="35" max="36" width="19.33203125" style="18" customWidth="1"/>
+    <col min="37" max="37" width="23.44140625" style="18" customWidth="1"/>
+    <col min="38" max="38" width="19.88671875" style="18" customWidth="1"/>
+    <col min="39" max="39" width="24.6640625" style="18" customWidth="1"/>
     <col min="40" max="40" width="25" style="18" customWidth="1"/>
-    <col min="41" max="41" width="24.42578125" style="18" customWidth="1"/>
-    <col min="42" max="42" width="20.28515625" style="18" customWidth="1"/>
+    <col min="41" max="41" width="24.44140625" style="18" customWidth="1"/>
+    <col min="42" max="42" width="20.33203125" style="18" customWidth="1"/>
     <col min="43" max="43" width="36" style="18" customWidth="1"/>
-    <col min="44" max="44" width="34.42578125" style="18" customWidth="1"/>
-    <col min="45" max="45" width="26.7109375" style="18" customWidth="1"/>
-    <col min="46" max="46" width="17.28515625" style="18" customWidth="1"/>
-    <col min="47" max="47" width="35.140625" style="18" customWidth="1"/>
-    <col min="48" max="48" width="29.42578125" style="18" customWidth="1"/>
-    <col min="49" max="49" width="25.85546875" style="18" customWidth="1"/>
-    <col min="50" max="50" width="31.28515625" style="18" customWidth="1"/>
-    <col min="51" max="51" width="17.5703125" style="18" customWidth="1"/>
-    <col min="52" max="52" width="20.28515625" style="18" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="18" customWidth="1"/>
-    <col min="54" max="54" width="24.140625" style="18" customWidth="1"/>
+    <col min="44" max="44" width="34.44140625" style="18" customWidth="1"/>
+    <col min="45" max="45" width="26.6640625" style="18" customWidth="1"/>
+    <col min="46" max="46" width="17.33203125" style="18" customWidth="1"/>
+    <col min="47" max="47" width="35.109375" style="18" customWidth="1"/>
+    <col min="48" max="48" width="29.44140625" style="18" customWidth="1"/>
+    <col min="49" max="49" width="25.88671875" style="18" customWidth="1"/>
+    <col min="50" max="50" width="31.33203125" style="18" customWidth="1"/>
+    <col min="51" max="51" width="17.5546875" style="18" customWidth="1"/>
+    <col min="52" max="52" width="20.33203125" style="18" customWidth="1"/>
+    <col min="53" max="53" width="21.44140625" style="18" customWidth="1"/>
+    <col min="54" max="54" width="24.109375" style="18" customWidth="1"/>
     <col min="55" max="55" width="14" style="18" customWidth="1"/>
-    <col min="56" max="56" width="16.7109375" style="18" customWidth="1"/>
-    <col min="57" max="57" width="36.140625" style="18" customWidth="1"/>
-    <col min="58" max="58" width="18.140625" style="18" customWidth="1"/>
-    <col min="59" max="59" width="15.7109375" style="18" customWidth="1"/>
+    <col min="56" max="56" width="16.6640625" style="18" customWidth="1"/>
+    <col min="57" max="57" width="36.109375" style="18" customWidth="1"/>
+    <col min="58" max="58" width="18.109375" style="18" customWidth="1"/>
+    <col min="59" max="59" width="15.6640625" style="18" customWidth="1"/>
     <col min="60" max="60" width="24" style="18" customWidth="1"/>
-    <col min="61" max="61" width="11.5703125" style="18" customWidth="1"/>
-    <col min="62" max="62" width="8.28515625" style="18" customWidth="1"/>
-    <col min="63" max="63" width="16.5703125" style="18" customWidth="1"/>
-    <col min="64" max="64" width="34.28515625" style="18" customWidth="1"/>
-    <col min="65" max="65" width="12.7109375" style="21" customWidth="1"/>
-    <col min="66" max="66" width="11.140625" style="21" customWidth="1"/>
-    <col min="67" max="67" width="23.28515625" style="23" customWidth="1"/>
-    <col min="68" max="68" width="41.85546875" style="23" customWidth="1"/>
-    <col min="69" max="69" width="47.85546875" style="23" customWidth="1"/>
-    <col min="70" max="70" width="30.140625" style="18" customWidth="1"/>
-    <col min="71" max="71" width="29.42578125" style="23" customWidth="1"/>
-    <col min="72" max="72" width="25.28515625" style="18" customWidth="1"/>
-    <col min="73" max="73" width="9.5703125" style="21" customWidth="1"/>
-    <col min="74" max="74" width="25.7109375" style="21" customWidth="1"/>
-    <col min="75" max="75" width="19.7109375" style="18" customWidth="1"/>
-    <col min="76" max="76" width="28.5703125" style="21" customWidth="1"/>
-    <col min="77" max="77" width="21.140625" style="21" customWidth="1"/>
-    <col min="78" max="78" width="14.5703125" style="21" customWidth="1"/>
-    <col min="79" max="79" width="20.5703125" style="21" customWidth="1"/>
-    <col min="80" max="80" width="24.42578125" style="21" customWidth="1"/>
-    <col min="81" max="81" width="18.28515625" style="21" customWidth="1"/>
-    <col min="82" max="82" width="18.85546875" style="21" customWidth="1"/>
-    <col min="83" max="83" width="26.28515625" style="18" customWidth="1"/>
-    <col min="84" max="85" width="31.140625" style="18" customWidth="1"/>
-    <col min="86" max="86" width="34.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.5546875" style="18" customWidth="1"/>
+    <col min="62" max="62" width="8.33203125" style="18" customWidth="1"/>
+    <col min="63" max="63" width="16.5546875" style="18" customWidth="1"/>
+    <col min="64" max="64" width="34.33203125" style="18" customWidth="1"/>
+    <col min="65" max="65" width="12.6640625" style="21" customWidth="1"/>
+    <col min="66" max="66" width="11.109375" style="21" customWidth="1"/>
+    <col min="67" max="67" width="23.33203125" style="23" customWidth="1"/>
+    <col min="68" max="68" width="41.88671875" style="23" customWidth="1"/>
+    <col min="69" max="69" width="47.88671875" style="23" customWidth="1"/>
+    <col min="70" max="70" width="30.109375" style="18" customWidth="1"/>
+    <col min="71" max="71" width="29.44140625" style="23" customWidth="1"/>
+    <col min="72" max="72" width="25.33203125" style="18" customWidth="1"/>
+    <col min="73" max="73" width="9.5546875" style="21" customWidth="1"/>
+    <col min="74" max="74" width="25.6640625" style="21" customWidth="1"/>
+    <col min="75" max="75" width="19.6640625" style="18" customWidth="1"/>
+    <col min="76" max="76" width="28.5546875" style="21" customWidth="1"/>
+    <col min="77" max="77" width="21.109375" style="21" customWidth="1"/>
+    <col min="78" max="78" width="14.5546875" style="21" customWidth="1"/>
+    <col min="79" max="79" width="20.5546875" style="21" customWidth="1"/>
+    <col min="80" max="80" width="24.44140625" style="21" customWidth="1"/>
+    <col min="81" max="81" width="18.33203125" style="21" customWidth="1"/>
+    <col min="82" max="82" width="18.88671875" style="21" customWidth="1"/>
+    <col min="83" max="83" width="26.33203125" style="18" customWidth="1"/>
+    <col min="84" max="85" width="31.109375" style="18" customWidth="1"/>
+    <col min="86" max="86" width="34.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="6" style="18" bestFit="1" customWidth="1"/>
-    <col min="89" max="161" width="8.85546875" style="18" customWidth="1"/>
-    <col min="162" max="16384" width="8.85546875" style="18"/>
+    <col min="89" max="161" width="8.88671875" style="18" customWidth="1"/>
+    <col min="162" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -6999,7 +7005,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
@@ -7258,7 +7264,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>34</v>
       </c>
@@ -7538,48 +7544,48 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="18" customWidth="1"/>
     <col min="5" max="5" width="25" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.85546875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="18" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="18" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="34.85546875" style="18" customWidth="1"/>
-    <col min="20" max="21" width="21.5703125" style="18" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" style="18" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" style="18" customWidth="1"/>
+    <col min="6" max="7" width="22.88671875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="32.88671875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="34.88671875" style="18" customWidth="1"/>
+    <col min="20" max="21" width="21.5546875" style="18" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="25.5546875" style="18" customWidth="1"/>
     <col min="24" max="25" width="18" style="18" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="18" customWidth="1"/>
-    <col min="27" max="27" width="33.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" style="18" customWidth="1"/>
+    <col min="27" max="27" width="33.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21" style="18" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="18" customWidth="1"/>
-    <col min="30" max="30" width="24.7109375" style="18" customWidth="1"/>
-    <col min="31" max="31" width="25.5703125" style="18" customWidth="1"/>
-    <col min="32" max="32" width="24.42578125" style="18" customWidth="1"/>
-    <col min="33" max="33" width="26.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="39" width="24.42578125" style="18" customWidth="1"/>
-    <col min="40" max="40" width="31.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.7109375" style="18" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" style="18" customWidth="1"/>
+    <col min="30" max="30" width="24.6640625" style="18" customWidth="1"/>
+    <col min="31" max="31" width="25.5546875" style="18" customWidth="1"/>
+    <col min="32" max="32" width="24.44140625" style="18" customWidth="1"/>
+    <col min="33" max="33" width="26.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="39" width="24.44140625" style="18" customWidth="1"/>
+    <col min="40" max="40" width="31.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.6640625" style="18" customWidth="1"/>
     <col min="42" max="42" width="6" style="18" bestFit="1" customWidth="1"/>
-    <col min="43" max="114" width="8.85546875" style="18" customWidth="1"/>
-    <col min="115" max="16384" width="8.85546875" style="18"/>
+    <col min="43" max="114" width="8.88671875" style="18" customWidth="1"/>
+    <col min="115" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="17" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="17" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
@@ -7862,7 +7868,7 @@
       <c r="CG2" s="21"/>
       <c r="CH2" s="21"/>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>24</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -8253,32 +8259,32 @@
       <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="18" customWidth="1"/>
-    <col min="9" max="10" width="23.5703125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="18" customWidth="1"/>
-    <col min="13" max="14" width="24.7109375" style="18" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="18" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="18" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="18" customWidth="1"/>
+    <col min="9" max="10" width="23.5546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="18" customWidth="1"/>
+    <col min="13" max="14" width="24.6640625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" style="18" customWidth="1"/>
     <col min="18" max="19" width="21" style="18" customWidth="1"/>
     <col min="20" max="20" width="22" style="18" customWidth="1"/>
-    <col min="21" max="21" width="25.42578125" style="18" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" style="18" customWidth="1"/>
     <col min="22" max="22" width="6" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="90" width="8.85546875" style="18" customWidth="1"/>
-    <col min="91" max="16384" width="8.85546875" style="18"/>
+    <col min="23" max="90" width="8.88671875" style="18" customWidth="1"/>
+    <col min="91" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8346,7 +8352,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
@@ -8414,7 +8420,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>24</v>
       </c>
@@ -8482,7 +8488,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
@@ -8569,44 +8575,44 @@
       <selection pane="topRight" activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="18" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="18" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="34.85546875" style="18" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" style="18" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="18" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="34.88671875" style="18" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" style="18" customWidth="1"/>
+    <col min="17" max="17" width="26.44140625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" style="18" customWidth="1"/>
     <col min="19" max="19" width="20" style="18" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="18" customWidth="1"/>
-    <col min="21" max="21" width="36.140625" style="18" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" style="18" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="21" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="21" customWidth="1"/>
-    <col min="25" max="26" width="31.140625" style="18" customWidth="1"/>
-    <col min="27" max="27" width="31.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="24.42578125" style="18" customWidth="1"/>
-    <col min="31" max="31" width="25.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="24.42578125" style="18" customWidth="1"/>
-    <col min="36" max="36" width="29.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="18" customWidth="1"/>
+    <col min="21" max="21" width="36.109375" style="18" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" style="18" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="21" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="21" customWidth="1"/>
+    <col min="25" max="26" width="31.109375" style="18" customWidth="1"/>
+    <col min="27" max="27" width="31.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="24.44140625" style="18" customWidth="1"/>
+    <col min="31" max="31" width="25.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="24.44140625" style="18" customWidth="1"/>
+    <col min="36" max="36" width="29.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6" style="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="104" width="8.85546875" style="18" customWidth="1"/>
-    <col min="105" max="16384" width="8.85546875" style="18"/>
+    <col min="38" max="104" width="8.88671875" style="18" customWidth="1"/>
+    <col min="105" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
@@ -8829,7 +8835,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>34</v>
       </c>
@@ -8950,71 +8956,71 @@
   </sheetPr>
   <dimension ref="A1:BN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="BL7" sqref="BL7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="23" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="23" customWidth="1"/>
-    <col min="10" max="11" width="21.7109375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="23" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="23" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="23" customWidth="1"/>
+    <col min="10" max="11" width="21.6640625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="23" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" style="23" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" style="23" customWidth="1"/>
     <col min="22" max="22" width="23" style="23" customWidth="1"/>
-    <col min="23" max="23" width="20.5703125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" style="23" customWidth="1"/>
-    <col min="25" max="25" width="30.28515625" style="23" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" style="23" customWidth="1"/>
-    <col min="27" max="27" width="22.85546875" style="23" customWidth="1"/>
-    <col min="28" max="28" width="26.85546875" style="23" customWidth="1"/>
+    <col min="23" max="23" width="20.5546875" style="23" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" style="23" customWidth="1"/>
+    <col min="25" max="25" width="30.33203125" style="23" customWidth="1"/>
+    <col min="26" max="26" width="27.6640625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="22.88671875" style="23" customWidth="1"/>
+    <col min="28" max="28" width="26.88671875" style="23" customWidth="1"/>
     <col min="29" max="29" width="21" style="23" customWidth="1"/>
     <col min="30" max="30" width="28" style="23" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" style="23" customWidth="1"/>
-    <col min="32" max="32" width="32.28515625" style="23" customWidth="1"/>
-    <col min="33" max="33" width="36.5703125" style="23" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" style="23" customWidth="1"/>
-    <col min="35" max="35" width="24.28515625" style="23" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" style="23" customWidth="1"/>
-    <col min="37" max="37" width="22.140625" style="23" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" style="23" customWidth="1"/>
-    <col min="39" max="39" width="14.85546875" style="23" customWidth="1"/>
-    <col min="40" max="40" width="22.85546875" style="23" customWidth="1"/>
-    <col min="41" max="42" width="20.5703125" style="23" customWidth="1"/>
-    <col min="43" max="43" width="40.85546875" style="18" customWidth="1"/>
-    <col min="44" max="44" width="14.7109375" style="18" customWidth="1"/>
-    <col min="45" max="45" width="8.85546875" style="18" customWidth="1"/>
+    <col min="31" max="31" width="21.44140625" style="23" customWidth="1"/>
+    <col min="32" max="32" width="32.33203125" style="23" customWidth="1"/>
+    <col min="33" max="33" width="36.5546875" style="23" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" style="23" customWidth="1"/>
+    <col min="35" max="35" width="24.33203125" style="23" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="23" customWidth="1"/>
+    <col min="37" max="37" width="22.109375" style="23" customWidth="1"/>
+    <col min="38" max="38" width="18.109375" style="23" customWidth="1"/>
+    <col min="39" max="39" width="14.88671875" style="23" customWidth="1"/>
+    <col min="40" max="40" width="22.88671875" style="23" customWidth="1"/>
+    <col min="41" max="42" width="20.5546875" style="23" customWidth="1"/>
+    <col min="43" max="43" width="40.88671875" style="18" customWidth="1"/>
+    <col min="44" max="44" width="14.6640625" style="18" customWidth="1"/>
+    <col min="45" max="45" width="8.88671875" style="18" customWidth="1"/>
     <col min="46" max="46" width="17" style="18" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="24.42578125" style="18" customWidth="1"/>
-    <col min="52" max="52" width="25.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="24.42578125" style="18" customWidth="1"/>
-    <col min="57" max="57" width="29.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="24.44140625" style="18" customWidth="1"/>
+    <col min="52" max="52" width="25.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="24.44140625" style="18" customWidth="1"/>
+    <col min="57" max="57" width="29.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="6" style="18" bestFit="1" customWidth="1"/>
-    <col min="59" max="105" width="8.85546875" style="18" customWidth="1"/>
-    <col min="106" max="16384" width="8.85546875" style="18"/>
+    <col min="59" max="105" width="8.88671875" style="18" customWidth="1"/>
+    <col min="106" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -9214,7 +9220,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
@@ -9390,7 +9396,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -9557,7 +9563,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -9724,7 +9730,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -9888,7 +9894,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="AQ7" s="37"/>
     </row>
   </sheetData>
@@ -9910,56 +9916,56 @@
       <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="43.140625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="43.109375" style="18" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" style="18" customWidth="1"/>
     <col min="14" max="14" width="40" style="18" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="18" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="18" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="18" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" style="18" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="18" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="18" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="22.88671875" style="18" customWidth="1"/>
+    <col min="19" max="19" width="23.5546875" style="18" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="18" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" style="18" customWidth="1"/>
     <col min="23" max="23" width="23" style="18" customWidth="1"/>
-    <col min="24" max="24" width="25.85546875" style="18" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="18" customWidth="1"/>
-    <col min="26" max="27" width="29.140625" style="18" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" style="18" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" style="18" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" style="18" customWidth="1"/>
-    <col min="31" max="31" width="10.85546875" style="18" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" style="18" customWidth="1"/>
-    <col min="33" max="33" width="31.42578125" style="18" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="18" customWidth="1"/>
+    <col min="24" max="24" width="25.88671875" style="18" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" style="18" customWidth="1"/>
+    <col min="26" max="27" width="29.109375" style="18" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="18" customWidth="1"/>
+    <col min="29" max="29" width="17.44140625" style="18" customWidth="1"/>
+    <col min="30" max="30" width="9.88671875" style="18" customWidth="1"/>
+    <col min="31" max="31" width="10.88671875" style="18" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" style="18" customWidth="1"/>
+    <col min="33" max="33" width="31.44140625" style="18" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="18" customWidth="1"/>
     <col min="35" max="36" width="29" style="18" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" style="18" customWidth="1"/>
-    <col min="38" max="38" width="14.7109375" style="18" customWidth="1"/>
-    <col min="39" max="39" width="20.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.85546875" style="18" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" style="18" customWidth="1"/>
+    <col min="37" max="37" width="17.5546875" style="18" customWidth="1"/>
+    <col min="38" max="38" width="14.6640625" style="18" customWidth="1"/>
+    <col min="39" max="39" width="20.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.88671875" style="18" customWidth="1"/>
+    <col min="41" max="41" width="8.88671875" style="18" customWidth="1"/>
     <col min="42" max="42" width="17" style="18" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="6" style="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="78" width="8.85546875" style="18" customWidth="1"/>
-    <col min="79" max="16384" width="8.85546875" style="18"/>
+    <col min="46" max="78" width="8.88671875" style="18" customWidth="1"/>
+    <col min="79" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -10096,7 +10102,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
@@ -10230,7 +10236,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -10247,7 +10253,7 @@
       <c r="AC3" s="41"/>
       <c r="AH3" s="34"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -10260,7 +10266,7 @@
       <c r="AB4" s="42"/>
       <c r="AC4" s="42"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="X5" s="43"/>
       <c r="Z5" s="42"/>
       <c r="AA5" s="42"/>
@@ -10288,149 +10294,149 @@
       <selection pane="bottomRight" activeCell="EI8" sqref="EI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="30" style="18" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="46.7109375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="47.5703125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="48.5703125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" style="18" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="40.5703125" style="18" customWidth="1"/>
-    <col min="17" max="17" width="41.5703125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="40.5703125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="34.42578125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="41.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="45.5546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="46.6640625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="47.5546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="48.5546875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="40.5546875" style="18" customWidth="1"/>
+    <col min="17" max="17" width="41.5546875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="40.5546875" style="18" customWidth="1"/>
+    <col min="19" max="19" width="34.44140625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="41.88671875" style="18" customWidth="1"/>
     <col min="21" max="21" width="43" style="18" customWidth="1"/>
-    <col min="22" max="22" width="39.85546875" style="18" customWidth="1"/>
-    <col min="23" max="24" width="41.28515625" style="18" customWidth="1"/>
-    <col min="25" max="26" width="14.28515625" style="18" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="18" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" style="18" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" style="18" customWidth="1"/>
-    <col min="30" max="30" width="21.85546875" style="18" customWidth="1"/>
+    <col min="22" max="22" width="39.88671875" style="18" customWidth="1"/>
+    <col min="23" max="24" width="41.33203125" style="18" customWidth="1"/>
+    <col min="25" max="26" width="14.33203125" style="18" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" style="18" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="18" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" style="18" customWidth="1"/>
+    <col min="30" max="30" width="21.88671875" style="18" customWidth="1"/>
     <col min="31" max="31" width="14" style="18" customWidth="1"/>
-    <col min="32" max="32" width="22.5703125" style="18" customWidth="1"/>
-    <col min="33" max="33" width="17.28515625" style="18" customWidth="1"/>
-    <col min="34" max="34" width="27.7109375" style="18" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" style="18" customWidth="1"/>
-    <col min="36" max="36" width="14.5703125" style="18" customWidth="1"/>
-    <col min="37" max="37" width="38.5703125" style="18" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" style="18" customWidth="1"/>
+    <col min="32" max="32" width="22.5546875" style="18" customWidth="1"/>
+    <col min="33" max="33" width="17.33203125" style="18" customWidth="1"/>
+    <col min="34" max="34" width="27.6640625" style="18" customWidth="1"/>
+    <col min="35" max="35" width="12.44140625" style="18" customWidth="1"/>
+    <col min="36" max="36" width="14.5546875" style="18" customWidth="1"/>
+    <col min="37" max="37" width="38.5546875" style="18" customWidth="1"/>
+    <col min="38" max="38" width="16.88671875" style="18" customWidth="1"/>
     <col min="39" max="39" width="28" style="18" customWidth="1"/>
     <col min="40" max="40" width="19" style="18" customWidth="1"/>
-    <col min="41" max="41" width="36.140625" style="18" customWidth="1"/>
-    <col min="42" max="42" width="36.7109375" style="18" customWidth="1"/>
-    <col min="43" max="43" width="18.5703125" style="18" customWidth="1"/>
+    <col min="41" max="41" width="36.109375" style="18" customWidth="1"/>
+    <col min="42" max="42" width="36.6640625" style="18" customWidth="1"/>
+    <col min="43" max="43" width="18.5546875" style="18" customWidth="1"/>
     <col min="44" max="44" width="22" style="18" customWidth="1"/>
     <col min="45" max="45" width="21" style="18" customWidth="1"/>
-    <col min="46" max="46" width="36.7109375" style="18" customWidth="1"/>
+    <col min="46" max="46" width="36.6640625" style="18" customWidth="1"/>
     <col min="47" max="47" width="20" style="18" customWidth="1"/>
     <col min="48" max="48" width="10" style="18" customWidth="1"/>
-    <col min="49" max="49" width="16.7109375" style="18" customWidth="1"/>
-    <col min="50" max="50" width="12.5703125" style="18" customWidth="1"/>
-    <col min="51" max="51" width="13.7109375" style="18" customWidth="1"/>
-    <col min="52" max="52" width="15.7109375" style="18" customWidth="1"/>
-    <col min="53" max="53" width="16.7109375" style="18" customWidth="1"/>
-    <col min="54" max="54" width="18.28515625" style="18" customWidth="1"/>
-    <col min="55" max="55" width="19.28515625" style="18" customWidth="1"/>
-    <col min="56" max="56" width="18.140625" style="18" customWidth="1"/>
-    <col min="57" max="57" width="19.140625" style="18" customWidth="1"/>
-    <col min="58" max="58" width="27.140625" style="18" customWidth="1"/>
-    <col min="59" max="59" width="22.28515625" style="18" customWidth="1"/>
-    <col min="60" max="60" width="23.28515625" style="18" customWidth="1"/>
-    <col min="61" max="61" width="24.28515625" style="18" customWidth="1"/>
-    <col min="62" max="62" width="29.28515625" style="18" customWidth="1"/>
+    <col min="49" max="49" width="16.6640625" style="18" customWidth="1"/>
+    <col min="50" max="50" width="12.5546875" style="18" customWidth="1"/>
+    <col min="51" max="51" width="13.6640625" style="18" customWidth="1"/>
+    <col min="52" max="52" width="15.6640625" style="18" customWidth="1"/>
+    <col min="53" max="53" width="16.6640625" style="18" customWidth="1"/>
+    <col min="54" max="54" width="18.33203125" style="18" customWidth="1"/>
+    <col min="55" max="55" width="19.33203125" style="18" customWidth="1"/>
+    <col min="56" max="56" width="18.109375" style="18" customWidth="1"/>
+    <col min="57" max="57" width="19.109375" style="18" customWidth="1"/>
+    <col min="58" max="58" width="27.109375" style="18" customWidth="1"/>
+    <col min="59" max="59" width="22.33203125" style="18" customWidth="1"/>
+    <col min="60" max="60" width="23.33203125" style="18" customWidth="1"/>
+    <col min="61" max="61" width="24.33203125" style="18" customWidth="1"/>
+    <col min="62" max="62" width="29.33203125" style="18" customWidth="1"/>
     <col min="63" max="63" width="21" style="18" customWidth="1"/>
-    <col min="64" max="64" width="25.5703125" style="18" customWidth="1"/>
+    <col min="64" max="64" width="25.5546875" style="18" customWidth="1"/>
     <col min="65" max="65" width="29" style="18" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.7109375" style="18" customWidth="1"/>
-    <col min="67" max="67" width="20.42578125" style="18" customWidth="1"/>
-    <col min="68" max="68" width="14.5703125" style="18" customWidth="1"/>
-    <col min="69" max="69" width="15.5703125" style="18" customWidth="1"/>
-    <col min="70" max="70" width="33.5703125" style="18" customWidth="1"/>
+    <col min="66" max="66" width="18.6640625" style="18" customWidth="1"/>
+    <col min="67" max="67" width="20.44140625" style="18" customWidth="1"/>
+    <col min="68" max="68" width="14.5546875" style="18" customWidth="1"/>
+    <col min="69" max="69" width="15.5546875" style="18" customWidth="1"/>
+    <col min="70" max="70" width="33.5546875" style="18" customWidth="1"/>
     <col min="71" max="71" width="33" style="18" customWidth="1"/>
-    <col min="72" max="72" width="39.140625" style="18" customWidth="1"/>
+    <col min="72" max="72" width="39.109375" style="18" customWidth="1"/>
     <col min="73" max="73" width="41" style="18" customWidth="1"/>
-    <col min="74" max="75" width="38.5703125" style="18" customWidth="1"/>
-    <col min="76" max="76" width="38.85546875" style="18" customWidth="1"/>
-    <col min="77" max="77" width="34.140625" style="18" customWidth="1"/>
-    <col min="78" max="78" width="38.42578125" style="18" customWidth="1"/>
-    <col min="79" max="79" width="32.42578125" style="18" customWidth="1"/>
+    <col min="74" max="75" width="38.5546875" style="18" customWidth="1"/>
+    <col min="76" max="76" width="38.88671875" style="18" customWidth="1"/>
+    <col min="77" max="77" width="34.109375" style="18" customWidth="1"/>
+    <col min="78" max="78" width="38.44140625" style="18" customWidth="1"/>
+    <col min="79" max="79" width="32.44140625" style="18" customWidth="1"/>
     <col min="80" max="80" width="40" style="18" customWidth="1"/>
     <col min="81" max="81" width="41" style="18" customWidth="1"/>
     <col min="82" max="82" width="38" style="18" customWidth="1"/>
-    <col min="83" max="83" width="18.140625" style="18" customWidth="1"/>
-    <col min="84" max="84" width="31.140625" style="18" customWidth="1"/>
-    <col min="85" max="86" width="39.28515625" style="18" customWidth="1"/>
-    <col min="87" max="87" width="33.42578125" style="18" customWidth="1"/>
-    <col min="88" max="88" width="46.42578125" style="18" customWidth="1"/>
-    <col min="89" max="89" width="43.85546875" style="18" customWidth="1"/>
-    <col min="90" max="90" width="48.85546875" style="18" customWidth="1"/>
-    <col min="91" max="91" width="34.85546875" style="18" customWidth="1"/>
+    <col min="83" max="83" width="18.109375" style="18" customWidth="1"/>
+    <col min="84" max="84" width="31.109375" style="18" customWidth="1"/>
+    <col min="85" max="86" width="39.33203125" style="18" customWidth="1"/>
+    <col min="87" max="87" width="33.44140625" style="18" customWidth="1"/>
+    <col min="88" max="88" width="46.44140625" style="18" customWidth="1"/>
+    <col min="89" max="89" width="43.88671875" style="18" customWidth="1"/>
+    <col min="90" max="90" width="48.88671875" style="18" customWidth="1"/>
+    <col min="91" max="91" width="34.88671875" style="18" customWidth="1"/>
     <col min="92" max="92" width="12" style="18" customWidth="1"/>
-    <col min="93" max="93" width="23.42578125" style="18" customWidth="1"/>
-    <col min="94" max="94" width="18.85546875" style="18" customWidth="1"/>
+    <col min="93" max="93" width="23.44140625" style="18" customWidth="1"/>
+    <col min="94" max="94" width="18.88671875" style="18" customWidth="1"/>
     <col min="95" max="95" width="20" style="18" customWidth="1"/>
     <col min="96" max="96" width="25" style="18" customWidth="1"/>
-    <col min="97" max="97" width="20.42578125" style="18" customWidth="1"/>
-    <col min="98" max="98" width="25.85546875" style="18" customWidth="1"/>
-    <col min="99" max="99" width="20.42578125" style="18" customWidth="1"/>
+    <col min="97" max="97" width="20.44140625" style="18" customWidth="1"/>
+    <col min="98" max="98" width="25.88671875" style="18" customWidth="1"/>
+    <col min="99" max="99" width="20.44140625" style="18" customWidth="1"/>
     <col min="100" max="100" width="25" style="18" customWidth="1"/>
-    <col min="101" max="101" width="20.42578125" style="18" customWidth="1"/>
-    <col min="102" max="102" width="20.85546875" style="18" customWidth="1"/>
-    <col min="103" max="104" width="21.140625" style="18" customWidth="1"/>
-    <col min="105" max="105" width="28.7109375" style="18" customWidth="1"/>
-    <col min="106" max="106" width="23.5703125" style="18" customWidth="1"/>
+    <col min="101" max="101" width="20.44140625" style="18" customWidth="1"/>
+    <col min="102" max="102" width="20.88671875" style="18" customWidth="1"/>
+    <col min="103" max="104" width="21.109375" style="18" customWidth="1"/>
+    <col min="105" max="105" width="28.6640625" style="18" customWidth="1"/>
+    <col min="106" max="106" width="23.5546875" style="18" customWidth="1"/>
     <col min="107" max="107" width="19" style="18" customWidth="1"/>
-    <col min="108" max="108" width="16.7109375" style="18" customWidth="1"/>
-    <col min="109" max="109" width="21.140625" style="18" customWidth="1"/>
-    <col min="110" max="110" width="12.140625" style="18" customWidth="1"/>
+    <col min="108" max="108" width="16.6640625" style="18" customWidth="1"/>
+    <col min="109" max="109" width="21.109375" style="18" customWidth="1"/>
+    <col min="110" max="110" width="12.109375" style="18" customWidth="1"/>
     <col min="111" max="111" width="16" style="18" customWidth="1"/>
-    <col min="112" max="112" width="20.42578125" style="18" customWidth="1"/>
+    <col min="112" max="112" width="20.44140625" style="18" customWidth="1"/>
     <col min="113" max="113" width="19" style="18" customWidth="1"/>
-    <col min="114" max="114" width="19.140625" style="18" customWidth="1"/>
+    <col min="114" max="114" width="19.109375" style="18" customWidth="1"/>
     <col min="115" max="115" width="19" style="18" customWidth="1"/>
-    <col min="116" max="116" width="14.85546875" style="18" customWidth="1"/>
-    <col min="117" max="117" width="19.28515625" style="18" customWidth="1"/>
-    <col min="118" max="118" width="19.7109375" style="18" customWidth="1"/>
-    <col min="119" max="119" width="19.42578125" style="18" customWidth="1"/>
-    <col min="120" max="120" width="31.140625" style="18" customWidth="1"/>
+    <col min="116" max="116" width="14.88671875" style="18" customWidth="1"/>
+    <col min="117" max="117" width="19.33203125" style="18" customWidth="1"/>
+    <col min="118" max="118" width="19.6640625" style="18" customWidth="1"/>
+    <col min="119" max="119" width="19.44140625" style="18" customWidth="1"/>
+    <col min="120" max="120" width="31.109375" style="18" customWidth="1"/>
     <col min="121" max="121" width="29" style="18" customWidth="1"/>
-    <col min="122" max="122" width="28.140625" style="18" customWidth="1"/>
-    <col min="123" max="123" width="23.42578125" style="18" customWidth="1"/>
+    <col min="122" max="122" width="28.109375" style="18" customWidth="1"/>
+    <col min="123" max="123" width="23.44140625" style="18" customWidth="1"/>
     <col min="124" max="124" width="23" style="18" customWidth="1"/>
-    <col min="125" max="125" width="32.7109375" style="18" customWidth="1"/>
-    <col min="126" max="126" width="31.28515625" style="18" customWidth="1"/>
-    <col min="127" max="127" width="28.7109375" style="18" customWidth="1"/>
+    <col min="125" max="125" width="32.6640625" style="18" customWidth="1"/>
+    <col min="126" max="126" width="31.33203125" style="18" customWidth="1"/>
+    <col min="127" max="127" width="28.6640625" style="18" customWidth="1"/>
     <col min="128" max="128" width="26" style="18" customWidth="1"/>
-    <col min="129" max="129" width="26.42578125" style="18" customWidth="1"/>
-    <col min="130" max="130" width="22.85546875" style="18" customWidth="1"/>
-    <col min="131" max="131" width="20.28515625" style="18" customWidth="1"/>
-    <col min="132" max="132" width="35.7109375" style="18" customWidth="1"/>
-    <col min="133" max="133" width="34.28515625" style="18" customWidth="1"/>
-    <col min="134" max="134" width="31.7109375" style="18" customWidth="1"/>
+    <col min="129" max="129" width="26.44140625" style="18" customWidth="1"/>
+    <col min="130" max="130" width="22.88671875" style="18" customWidth="1"/>
+    <col min="131" max="131" width="20.33203125" style="18" customWidth="1"/>
+    <col min="132" max="132" width="35.6640625" style="18" customWidth="1"/>
+    <col min="133" max="133" width="34.33203125" style="18" customWidth="1"/>
+    <col min="134" max="134" width="31.6640625" style="18" customWidth="1"/>
     <col min="135" max="135" width="22" style="18" customWidth="1"/>
-    <col min="136" max="136" width="35.42578125" style="18" customWidth="1"/>
+    <col min="136" max="136" width="35.44140625" style="18" customWidth="1"/>
     <col min="137" max="137" width="28" style="18" customWidth="1"/>
-    <col min="138" max="140" width="24.42578125" style="18" customWidth="1"/>
-    <col min="141" max="141" width="25.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="142" max="145" width="24.42578125" style="18" customWidth="1"/>
-    <col min="146" max="146" width="29.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="147" max="165" width="8.85546875" style="18" customWidth="1"/>
-    <col min="166" max="16384" width="8.85546875" style="18"/>
+    <col min="138" max="140" width="24.44140625" style="18" customWidth="1"/>
+    <col min="141" max="141" width="25.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="142" max="145" width="24.44140625" style="18" customWidth="1"/>
+    <col min="146" max="146" width="29.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="147" max="165" width="8.88671875" style="18" customWidth="1"/>
+    <col min="166" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -10876,7 +10882,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="2" spans="1:148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>17</v>
       </c>
@@ -11337,140 +11343,140 @@
       <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="69" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="69" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="69" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="69" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="69" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="69" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="69" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="69" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" style="69" customWidth="1"/>
     <col min="9" max="9" width="34" style="69" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="69" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="69" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="69" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="69" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" style="69" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="31.5546875" style="69" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="69" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="69" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="69" customWidth="1"/>
+    <col min="14" max="14" width="35.6640625" style="69" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" style="69" customWidth="1"/>
     <col min="16" max="16" width="17" style="69" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" style="69" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="69" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" style="69" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="69" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="69" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="69" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" style="69" customWidth="1"/>
+    <col min="17" max="17" width="28.88671875" style="69" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="69" customWidth="1"/>
+    <col min="19" max="19" width="28.88671875" style="69" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="69" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="69" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="69" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" style="69" customWidth="1"/>
     <col min="24" max="24" width="18" style="69" customWidth="1"/>
-    <col min="25" max="25" width="21.85546875" style="69" customWidth="1"/>
-    <col min="26" max="26" width="25.140625" style="69" customWidth="1"/>
-    <col min="27" max="27" width="22.42578125" style="69" customWidth="1"/>
-    <col min="28" max="28" width="27.5703125" style="69" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="69" customWidth="1"/>
-    <col min="30" max="30" width="27.140625" style="69" customWidth="1"/>
+    <col min="25" max="25" width="21.88671875" style="69" customWidth="1"/>
+    <col min="26" max="26" width="25.109375" style="69" customWidth="1"/>
+    <col min="27" max="27" width="22.44140625" style="69" customWidth="1"/>
+    <col min="28" max="28" width="27.5546875" style="69" customWidth="1"/>
+    <col min="29" max="29" width="23.44140625" style="69" customWidth="1"/>
+    <col min="30" max="30" width="27.109375" style="69" customWidth="1"/>
     <col min="31" max="31" width="29" style="69" customWidth="1"/>
-    <col min="32" max="34" width="20.140625" style="69" customWidth="1"/>
-    <col min="35" max="36" width="24.140625" style="69" customWidth="1"/>
-    <col min="37" max="37" width="9.42578125" style="69" customWidth="1"/>
-    <col min="38" max="39" width="17.7109375" style="69" customWidth="1"/>
-    <col min="40" max="40" width="20.42578125" style="69" customWidth="1"/>
-    <col min="41" max="41" width="17.5703125" style="69" customWidth="1"/>
-    <col min="42" max="42" width="21.140625" style="69" customWidth="1"/>
-    <col min="43" max="44" width="19.28515625" style="69" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" style="69" customWidth="1"/>
+    <col min="32" max="34" width="20.109375" style="69" customWidth="1"/>
+    <col min="35" max="36" width="24.109375" style="69" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" style="69" customWidth="1"/>
+    <col min="38" max="39" width="17.6640625" style="69" customWidth="1"/>
+    <col min="40" max="40" width="20.44140625" style="69" customWidth="1"/>
+    <col min="41" max="41" width="17.5546875" style="69" customWidth="1"/>
+    <col min="42" max="42" width="21.109375" style="69" customWidth="1"/>
+    <col min="43" max="44" width="19.33203125" style="69" customWidth="1"/>
+    <col min="45" max="45" width="19.6640625" style="69" customWidth="1"/>
     <col min="46" max="46" width="35" style="69" customWidth="1"/>
-    <col min="47" max="47" width="18.140625" style="69" customWidth="1"/>
+    <col min="47" max="47" width="18.109375" style="69" customWidth="1"/>
     <col min="48" max="48" width="19" style="69" customWidth="1"/>
-    <col min="49" max="49" width="32.42578125" style="69" customWidth="1"/>
-    <col min="50" max="50" width="17.28515625" style="69" customWidth="1"/>
-    <col min="51" max="51" width="28.7109375" style="69" customWidth="1"/>
-    <col min="52" max="52" width="23.5703125" style="69" customWidth="1"/>
-    <col min="53" max="53" width="45.28515625" style="69" customWidth="1"/>
-    <col min="54" max="54" width="29.85546875" style="69" customWidth="1"/>
-    <col min="55" max="55" width="23.85546875" style="69" customWidth="1"/>
-    <col min="56" max="57" width="20.5703125" style="57" customWidth="1"/>
-    <col min="58" max="58" width="18.5703125" style="57" customWidth="1"/>
+    <col min="49" max="49" width="32.44140625" style="69" customWidth="1"/>
+    <col min="50" max="50" width="17.33203125" style="69" customWidth="1"/>
+    <col min="51" max="51" width="28.6640625" style="69" customWidth="1"/>
+    <col min="52" max="52" width="23.5546875" style="69" customWidth="1"/>
+    <col min="53" max="53" width="45.33203125" style="69" customWidth="1"/>
+    <col min="54" max="54" width="29.88671875" style="69" customWidth="1"/>
+    <col min="55" max="55" width="23.88671875" style="69" customWidth="1"/>
+    <col min="56" max="57" width="20.5546875" style="57" customWidth="1"/>
+    <col min="58" max="58" width="18.5546875" style="57" customWidth="1"/>
     <col min="59" max="59" width="18" style="57" customWidth="1"/>
-    <col min="60" max="60" width="18.5703125" style="57" customWidth="1"/>
-    <col min="61" max="61" width="17.7109375" style="69" customWidth="1"/>
-    <col min="62" max="62" width="18.5703125" style="57" customWidth="1"/>
-    <col min="63" max="63" width="18.28515625" style="69" customWidth="1"/>
-    <col min="64" max="64" width="24.42578125" style="69" customWidth="1"/>
-    <col min="65" max="65" width="30.42578125" style="69" customWidth="1"/>
+    <col min="60" max="60" width="18.5546875" style="57" customWidth="1"/>
+    <col min="61" max="61" width="17.6640625" style="69" customWidth="1"/>
+    <col min="62" max="62" width="18.5546875" style="57" customWidth="1"/>
+    <col min="63" max="63" width="18.33203125" style="69" customWidth="1"/>
+    <col min="64" max="64" width="24.44140625" style="69" customWidth="1"/>
+    <col min="65" max="65" width="30.44140625" style="69" customWidth="1"/>
     <col min="66" max="66" width="36" style="69" customWidth="1"/>
-    <col min="67" max="67" width="34.42578125" style="69" customWidth="1"/>
-    <col min="68" max="68" width="26.7109375" style="69" customWidth="1"/>
-    <col min="69" max="70" width="17.28515625" style="69" customWidth="1"/>
-    <col min="71" max="71" width="34.140625" style="69" customWidth="1"/>
-    <col min="72" max="72" width="28.42578125" style="69" customWidth="1"/>
-    <col min="73" max="73" width="24.7109375" style="69" customWidth="1"/>
-    <col min="74" max="74" width="30.28515625" style="69" customWidth="1"/>
-    <col min="75" max="75" width="17.5703125" style="69" customWidth="1"/>
-    <col min="76" max="76" width="20.28515625" style="69" customWidth="1"/>
-    <col min="77" max="77" width="12.140625" style="69" customWidth="1"/>
-    <col min="78" max="78" width="21.42578125" style="69" customWidth="1"/>
-    <col min="79" max="79" width="24.140625" style="69" customWidth="1"/>
+    <col min="67" max="67" width="34.44140625" style="69" customWidth="1"/>
+    <col min="68" max="68" width="26.6640625" style="69" customWidth="1"/>
+    <col min="69" max="70" width="17.33203125" style="69" customWidth="1"/>
+    <col min="71" max="71" width="34.109375" style="69" customWidth="1"/>
+    <col min="72" max="72" width="28.44140625" style="69" customWidth="1"/>
+    <col min="73" max="73" width="24.6640625" style="69" customWidth="1"/>
+    <col min="74" max="74" width="30.33203125" style="69" customWidth="1"/>
+    <col min="75" max="75" width="17.5546875" style="69" customWidth="1"/>
+    <col min="76" max="76" width="20.33203125" style="69" customWidth="1"/>
+    <col min="77" max="77" width="12.109375" style="69" customWidth="1"/>
+    <col min="78" max="78" width="21.44140625" style="69" customWidth="1"/>
+    <col min="79" max="79" width="24.109375" style="69" customWidth="1"/>
     <col min="80" max="80" width="16" style="69" customWidth="1"/>
     <col min="81" max="81" width="14" style="69" customWidth="1"/>
-    <col min="82" max="82" width="16.7109375" style="69" customWidth="1"/>
+    <col min="82" max="82" width="16.6640625" style="69" customWidth="1"/>
     <col min="83" max="83" width="10" style="69" customWidth="1"/>
-    <col min="84" max="84" width="8.5703125" style="69" customWidth="1"/>
-    <col min="85" max="85" width="19.140625" style="69" customWidth="1"/>
-    <col min="86" max="86" width="37.7109375" style="69" customWidth="1"/>
-    <col min="87" max="87" width="15.85546875" style="69" customWidth="1"/>
-    <col min="88" max="88" width="9.28515625" style="69" customWidth="1"/>
-    <col min="89" max="90" width="16.7109375" style="69" customWidth="1"/>
-    <col min="91" max="91" width="12.85546875" style="69" customWidth="1"/>
-    <col min="92" max="92" width="32.42578125" style="69" customWidth="1"/>
-    <col min="93" max="93" width="11.7109375" style="69" customWidth="1"/>
+    <col min="84" max="84" width="8.5546875" style="69" customWidth="1"/>
+    <col min="85" max="85" width="19.109375" style="69" customWidth="1"/>
+    <col min="86" max="86" width="37.6640625" style="69" customWidth="1"/>
+    <col min="87" max="87" width="15.88671875" style="69" customWidth="1"/>
+    <col min="88" max="88" width="9.33203125" style="69" customWidth="1"/>
+    <col min="89" max="90" width="16.6640625" style="69" customWidth="1"/>
+    <col min="91" max="91" width="12.88671875" style="69" customWidth="1"/>
+    <col min="92" max="92" width="32.44140625" style="69" customWidth="1"/>
+    <col min="93" max="93" width="11.6640625" style="69" customWidth="1"/>
     <col min="94" max="94" width="35" style="69" customWidth="1"/>
-    <col min="95" max="95" width="18.140625" style="69" customWidth="1"/>
-    <col min="96" max="96" width="15.7109375" style="69" customWidth="1"/>
+    <col min="95" max="95" width="18.109375" style="69" customWidth="1"/>
+    <col min="96" max="96" width="15.6640625" style="69" customWidth="1"/>
     <col min="97" max="97" width="24" style="69" customWidth="1"/>
-    <col min="98" max="98" width="11.5703125" style="69" customWidth="1"/>
-    <col min="99" max="99" width="8.28515625" style="69" customWidth="1"/>
-    <col min="100" max="100" width="16.5703125" style="69" customWidth="1"/>
-    <col min="101" max="101" width="32.85546875" style="69" customWidth="1"/>
-    <col min="102" max="102" width="18.7109375" style="69" customWidth="1"/>
-    <col min="103" max="103" width="18.28515625" style="69" customWidth="1"/>
-    <col min="104" max="104" width="10.42578125" style="69" customWidth="1"/>
-    <col min="105" max="105" width="9.7109375" style="69" customWidth="1"/>
-    <col min="106" max="106" width="12.7109375" style="69" customWidth="1"/>
-    <col min="107" max="107" width="11.7109375" style="69" customWidth="1"/>
+    <col min="98" max="98" width="11.5546875" style="69" customWidth="1"/>
+    <col min="99" max="99" width="8.33203125" style="69" customWidth="1"/>
+    <col min="100" max="100" width="16.5546875" style="69" customWidth="1"/>
+    <col min="101" max="101" width="32.88671875" style="69" customWidth="1"/>
+    <col min="102" max="102" width="18.6640625" style="69" customWidth="1"/>
+    <col min="103" max="103" width="18.33203125" style="69" customWidth="1"/>
+    <col min="104" max="104" width="10.44140625" style="69" customWidth="1"/>
+    <col min="105" max="105" width="9.6640625" style="69" customWidth="1"/>
+    <col min="106" max="106" width="12.6640625" style="69" customWidth="1"/>
+    <col min="107" max="107" width="11.6640625" style="69" customWidth="1"/>
     <col min="108" max="108" width="24" style="69" customWidth="1"/>
-    <col min="109" max="109" width="43.7109375" style="69" customWidth="1"/>
-    <col min="110" max="110" width="44.85546875" style="69" customWidth="1"/>
-    <col min="111" max="111" width="30.140625" style="69" customWidth="1"/>
-    <col min="112" max="112" width="29.42578125" style="69" customWidth="1"/>
-    <col min="113" max="113" width="25.28515625" style="69" customWidth="1"/>
-    <col min="114" max="114" width="9.5703125" style="69" customWidth="1"/>
-    <col min="115" max="115" width="25.7109375" style="69" customWidth="1"/>
-    <col min="116" max="116" width="19.7109375" style="69" customWidth="1"/>
-    <col min="117" max="117" width="28.5703125" style="69" customWidth="1"/>
-    <col min="118" max="118" width="21.140625" style="69" customWidth="1"/>
-    <col min="119" max="119" width="14.5703125" style="69" customWidth="1"/>
-    <col min="120" max="120" width="20.5703125" style="69" customWidth="1"/>
-    <col min="121" max="121" width="18.28515625" style="69" customWidth="1"/>
-    <col min="122" max="122" width="18.85546875" style="69" customWidth="1"/>
+    <col min="109" max="109" width="43.6640625" style="69" customWidth="1"/>
+    <col min="110" max="110" width="44.88671875" style="69" customWidth="1"/>
+    <col min="111" max="111" width="30.109375" style="69" customWidth="1"/>
+    <col min="112" max="112" width="29.44140625" style="69" customWidth="1"/>
+    <col min="113" max="113" width="25.33203125" style="69" customWidth="1"/>
+    <col min="114" max="114" width="9.5546875" style="69" customWidth="1"/>
+    <col min="115" max="115" width="25.6640625" style="69" customWidth="1"/>
+    <col min="116" max="116" width="19.6640625" style="69" customWidth="1"/>
+    <col min="117" max="117" width="28.5546875" style="69" customWidth="1"/>
+    <col min="118" max="118" width="21.109375" style="69" customWidth="1"/>
+    <col min="119" max="119" width="14.5546875" style="69" customWidth="1"/>
+    <col min="120" max="120" width="20.5546875" style="69" customWidth="1"/>
+    <col min="121" max="121" width="18.33203125" style="69" customWidth="1"/>
+    <col min="122" max="122" width="18.88671875" style="69" customWidth="1"/>
     <col min="123" max="123" width="35" style="69" customWidth="1"/>
     <col min="124" max="124" width="20" style="69" customWidth="1"/>
-    <col min="125" max="125" width="32.42578125" style="69" customWidth="1"/>
-    <col min="126" max="126" width="21.5703125" style="69" customWidth="1"/>
-    <col min="127" max="127" width="13.5703125" style="69" customWidth="1"/>
-    <col min="128" max="128" width="26.28515625" style="69" customWidth="1"/>
-    <col min="129" max="129" width="19.140625" style="69" customWidth="1"/>
+    <col min="125" max="125" width="32.44140625" style="69" customWidth="1"/>
+    <col min="126" max="126" width="21.5546875" style="69" customWidth="1"/>
+    <col min="127" max="127" width="13.5546875" style="69" customWidth="1"/>
+    <col min="128" max="128" width="26.33203125" style="69" customWidth="1"/>
+    <col min="129" max="129" width="19.109375" style="69" customWidth="1"/>
     <col min="130" max="130" width="44" style="69" customWidth="1"/>
-    <col min="131" max="131" width="23.5703125" style="69" customWidth="1"/>
-    <col min="132" max="132" width="26.28515625" style="69" customWidth="1"/>
-    <col min="133" max="133" width="34.85546875" style="69" customWidth="1"/>
-    <col min="134" max="134" width="9.140625" style="69" customWidth="1"/>
-    <col min="135" max="135" width="15.85546875" style="69" customWidth="1"/>
-    <col min="136" max="161" width="8.85546875" style="66" customWidth="1"/>
-    <col min="162" max="16384" width="8.85546875" style="66"/>
+    <col min="131" max="131" width="23.5546875" style="69" customWidth="1"/>
+    <col min="132" max="132" width="26.33203125" style="69" customWidth="1"/>
+    <col min="133" max="133" width="34.88671875" style="69" customWidth="1"/>
+    <col min="134" max="134" width="9.109375" style="69" customWidth="1"/>
+    <col min="135" max="135" width="15.88671875" style="69" customWidth="1"/>
+    <col min="136" max="161" width="8.88671875" style="66" customWidth="1"/>
+    <col min="162" max="16384" width="8.88671875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="50" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" s="50" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -11620,7 +11626,7 @@
       <c r="CV1" s="51"/>
       <c r="CW1" s="51"/>
     </row>
-    <row r="2" spans="1:101" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
@@ -11715,7 +11721,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -11723,7 +11729,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -11837,126 +11843,126 @@
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="77" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="77" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="77" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="77" customWidth="1"/>
-    <col min="11" max="12" width="16.85546875" style="77" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="77" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="77" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="77" customWidth="1"/>
+    <col min="11" max="12" width="16.88671875" style="77" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" style="77" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="77" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="77" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" style="77" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="77" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="77" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="77" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="77" customWidth="1"/>
+    <col min="16" max="16" width="26.88671875" style="77" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="77" customWidth="1"/>
+    <col min="18" max="18" width="22.88671875" style="77" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.44140625" style="77" customWidth="1"/>
     <col min="21" max="21" width="24" style="77" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.7109375" style="77" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="77" customWidth="1"/>
-    <col min="24" max="24" width="27.85546875" style="77" customWidth="1"/>
-    <col min="25" max="25" width="29.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.7109375" style="77" customWidth="1"/>
-    <col min="27" max="27" width="25.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="77" customWidth="1"/>
-    <col min="29" max="29" width="18.85546875" style="77" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" style="77" customWidth="1"/>
+    <col min="22" max="22" width="31.6640625" style="77" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" style="77" customWidth="1"/>
+    <col min="24" max="24" width="27.88671875" style="77" customWidth="1"/>
+    <col min="25" max="25" width="29.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" style="77" customWidth="1"/>
+    <col min="27" max="27" width="25.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5546875" style="77" customWidth="1"/>
+    <col min="29" max="29" width="18.88671875" style="77" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" style="77" customWidth="1"/>
     <col min="31" max="31" width="23" style="77" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="77" customWidth="1"/>
-    <col min="33" max="33" width="27.140625" style="77" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="77" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" style="77" customWidth="1"/>
-    <col min="36" max="36" width="23.42578125" style="77" customWidth="1"/>
-    <col min="37" max="38" width="44.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="19.85546875" style="77" customWidth="1"/>
+    <col min="32" max="32" width="20.44140625" style="77" customWidth="1"/>
+    <col min="33" max="33" width="27.109375" style="77" customWidth="1"/>
+    <col min="34" max="34" width="21.109375" style="77" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" style="77" customWidth="1"/>
+    <col min="36" max="36" width="23.44140625" style="77" customWidth="1"/>
+    <col min="37" max="38" width="44.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="19.88671875" style="77" customWidth="1"/>
     <col min="41" max="41" width="25" style="77" customWidth="1"/>
-    <col min="42" max="42" width="24.42578125" style="77" customWidth="1"/>
-    <col min="43" max="43" width="28.85546875" style="77" customWidth="1"/>
+    <col min="42" max="42" width="24.44140625" style="77" customWidth="1"/>
+    <col min="43" max="43" width="28.88671875" style="77" customWidth="1"/>
     <col min="44" max="44" width="36" style="77" customWidth="1"/>
-    <col min="45" max="45" width="34.42578125" style="77" customWidth="1"/>
-    <col min="46" max="46" width="26.7109375" style="77" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" style="77" customWidth="1"/>
-    <col min="48" max="48" width="27.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="35.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="29.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="25.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.85546875" style="77" customWidth="1"/>
-    <col min="53" max="53" width="31.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="34.44140625" style="77" customWidth="1"/>
+    <col min="46" max="46" width="26.6640625" style="77" customWidth="1"/>
+    <col min="47" max="47" width="17.33203125" style="77" customWidth="1"/>
+    <col min="48" max="48" width="27.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="35.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="29.44140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.88671875" style="77" customWidth="1"/>
+    <col min="53" max="53" width="31.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.109375" style="77" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" style="77" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="32.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.5703125" style="77" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="32.44140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="26.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.5546875" style="77" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="28" style="77" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="31.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="17.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="31.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="17.44140625" style="77" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="21" style="77" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="22" style="77" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="22" style="77" customWidth="1"/>
-    <col min="67" max="67" width="17.7109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="24.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="19.42578125" style="77" customWidth="1"/>
-    <col min="72" max="72" width="21.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="17.28515625" style="77" customWidth="1"/>
-    <col min="76" max="76" width="17.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="17.5703125" style="77" customWidth="1"/>
-    <col min="79" max="79" width="26.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="34.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="26.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="27.28515625" style="77" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.5546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="19.44140625" style="77" customWidth="1"/>
+    <col min="72" max="72" width="21.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="17.33203125" style="77" customWidth="1"/>
+    <col min="76" max="76" width="17.5546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="17.5546875" style="77" customWidth="1"/>
+    <col min="79" max="79" width="26.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="34.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="26.5546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="27.33203125" style="77" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="20" style="77" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="36.7109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="23.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="34.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="42.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="47.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="36.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="18.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.5546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.6640625" style="108" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="34.44140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.6640625" style="108" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.44140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.44140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="42.109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="47.88671875" style="108" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="29" style="77" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="28.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="24.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="28.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="24.5546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.88671875" style="108" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="25" style="108" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="19.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="28.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="20.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="19.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="28.44140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="21.109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="14.44140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="20.44140625" style="77" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="24" style="77" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="18.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="18.28515625" style="77" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="18.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.33203125" style="77" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="35" style="77" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="19.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="32.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="21.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="12.7109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="25.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="24.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="9.140625" style="106" customWidth="1"/>
-    <col min="123" max="16384" width="9.140625" style="106"/>
+    <col min="112" max="112" width="19.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="32.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="21.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="25.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="24.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="9.109375" style="106" customWidth="1"/>
+    <col min="123" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="99" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:120" s="99" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:120" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:120" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -12670,7 +12676,7 @@
       </c>
       <c r="DP2" s="100"/>
     </row>
-    <row r="3" spans="1:120" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:120" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -13022,7 +13028,7 @@
       </c>
       <c r="DP3" s="100"/>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -13378,7 +13384,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
         <v>34</v>
       </c>
@@ -13748,31 +13754,31 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.33203125" style="70" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="66" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="10.42578125" style="66" customWidth="1"/>
-    <col min="23" max="16384" width="10.42578125" style="66"/>
+    <col min="9" max="9" width="21.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" style="70" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="10.44140625" style="66" customWidth="1"/>
+    <col min="23" max="16384" width="10.44140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="72" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="72" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -13828,7 +13834,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>17</v>
       </c>
@@ -13859,7 +13865,7 @@
       <c r="Q2" s="76"/>
       <c r="R2" s="81"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>24</v>
       </c>
@@ -13890,7 +13896,7 @@
       <c r="Q3" s="76"/>
       <c r="R3" s="81"/>
     </row>
-    <row r="4" spans="1:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>29</v>
       </c>
@@ -13921,7 +13927,7 @@
       <c r="Q4" s="76"/>
       <c r="R4" s="81"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>34</v>
       </c>
@@ -13952,7 +13958,7 @@
       <c r="Q5" s="76"/>
       <c r="R5" s="81"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>38</v>
       </c>
@@ -13983,7 +13989,7 @@
       <c r="Q6" s="76"/>
       <c r="R6" s="81"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
         <v>42</v>
       </c>
@@ -14027,7 +14033,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>46</v>
       </c>
@@ -14045,7 +14051,7 @@
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
         <v>50</v>
       </c>
@@ -14087,7 +14093,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
@@ -14131,7 +14137,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>58</v>
       </c>
@@ -14173,7 +14179,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>62</v>
       </c>
@@ -14229,29 +14235,29 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="24.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="106" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="106"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="24.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.109375" style="106" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="150" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="150" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
@@ -14304,7 +14310,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -14355,7 +14361,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -14406,7 +14412,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -14457,7 +14463,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -14521,30 +14527,30 @@
       <selection activeCell="I1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" style="106" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="106" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="106"/>
+    <col min="18" max="19" width="9.109375" style="106" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -14598,7 +14604,7 @@
       </c>
       <c r="R1" s="112"/>
     </row>
-    <row r="2" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -14651,7 +14657,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -14704,7 +14710,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -14757,7 +14763,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -14823,35 +14829,35 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="106" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5546875" style="106" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="18" style="106" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="26.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="26.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" style="106" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="106" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="106"/>
+    <col min="25" max="26" width="9.109375" style="106" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="150" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="150" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -14926,7 +14932,7 @@
       </c>
       <c r="Y1" s="138"/>
     </row>
-    <row r="2" spans="1:25" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>17</v>
       </c>
@@ -15000,7 +15006,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -15074,7 +15080,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -15148,7 +15154,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -15236,39 +15242,39 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="21.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="21.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="21" style="106" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="22" style="106" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="20.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="23.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="44.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="26.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="44.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="20.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="23.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="44.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="26.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="44.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.44140625" style="106" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="16" style="106" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.140625" style="106" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="106"/>
+    <col min="37" max="38" width="9.109375" style="106" customWidth="1"/>
+    <col min="39" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -15378,7 +15384,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -15484,7 +15490,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -15590,7 +15596,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -15696,7 +15702,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -15816,65 +15822,65 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.7109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.6640625" style="106" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21" style="106" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="106" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="19.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="17.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="17.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.33203125" style="106" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20" style="106" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="34.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="34.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.33203125" style="106" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="20" style="106" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="36.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="35.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="9.140625" style="106" customWidth="1"/>
-    <col min="62" max="16384" width="9.140625" style="106"/>
+    <col min="52" max="52" width="11.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="36.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="35.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.109375" style="106" customWidth="1"/>
+    <col min="62" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="150" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" s="150" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
@@ -16053,7 +16059,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="140" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" s="140" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>17</v>
       </c>
@@ -16226,7 +16232,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="140" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" s="140" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -16399,7 +16405,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -16572,7 +16578,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -16758,61 +16764,61 @@
       <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="106" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="23.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="23.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="23.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="23.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18" style="106" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" style="106" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="45.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.7109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.88671875" style="106" customWidth="1"/>
+    <col min="39" max="39" width="16.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="45.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.6640625" style="106" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="28" style="106" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="24" style="106" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="9.140625" style="106" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="106"/>
+    <col min="47" max="47" width="18.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="9.109375" style="106" customWidth="1"/>
+    <col min="53" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="150" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="150" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -16964,7 +16970,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -17107,7 +17113,7 @@
       <c r="BB2" s="145"/>
       <c r="BC2" s="145"/>
     </row>
-    <row r="3" spans="1:55" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -17252,7 +17258,7 @@
       <c r="BB3" s="145"/>
       <c r="BC3" s="145"/>
     </row>
-    <row r="4" spans="1:55" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -17395,7 +17401,7 @@
       <c r="AZ4" s="145"/>
       <c r="BA4" s="145"/>
     </row>
-    <row r="5" spans="1:55" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -17541,56 +17547,56 @@
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="106" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="43.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21" style="106" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" style="106" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.33203125" style="106" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" style="106" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="4.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="36" max="39" width="3" style="106" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17" style="106" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.5546875" style="106" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="2" style="106" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="28" style="106" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="24" style="106" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="9.140625" style="106" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="106"/>
+    <col min="49" max="49" width="10.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="9.109375" style="106" customWidth="1"/>
+    <col min="54" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="150" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="150" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -17676,7 +17682,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -17760,7 +17766,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -17844,7 +17850,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -17924,7 +17930,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -18010,7 +18016,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" s="114"/>
     </row>
   </sheetData>
@@ -18026,79 +18032,79 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="106" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.109375" style="106" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="106" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="17.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="17.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" style="106" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19" style="106" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.44140625" style="106" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="18" style="106" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.5546875" style="106" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="23" style="106" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="24" style="106" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="20.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.7109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="29.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="20.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.6640625" style="106" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="29" style="106" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="20" style="106" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.7109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.6640625" style="106" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="21" style="106" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="36.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="21.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="23.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="36.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="21.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="23.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.109375" style="106" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="29" style="106" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="9.140625" style="106" customWidth="1"/>
-    <col min="78" max="16384" width="9.140625" style="106"/>
+    <col min="73" max="73" width="5.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="74" max="77" width="9.109375" style="106" customWidth="1"/>
+    <col min="78" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="99" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" s="99" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -18320,7 +18326,7 @@
       </c>
       <c r="BV1" s="112"/>
     </row>
-    <row r="2" spans="1:74" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:74" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -18535,7 +18541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -18750,7 +18756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" s="103">
         <v>3</v>
       </c>
@@ -18965,7 +18971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:74" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -19193,42 +19199,42 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="66" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="66" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="66" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" style="66" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" style="66" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="46.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="66" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="66" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="66"/>
+    <col min="19" max="19" width="19.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="46.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="66" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.109375" style="66" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="106" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -19317,7 +19323,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -19404,7 +19410,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="106" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -19491,7 +19497,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="106" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -19578,7 +19584,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="106" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -19681,54 +19687,54 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="66" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" style="66" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="66" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="21.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="21.88671875" style="66" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30" style="66" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="28.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="22.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="19.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="23.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="23.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="28.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="22.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="19.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="23.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="23.88671875" style="66" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14" style="66" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.33203125" style="66" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12" style="66" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="9.140625" style="66" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="66"/>
+    <col min="50" max="51" width="9.109375" style="66" customWidth="1"/>
+    <col min="52" max="16384" width="9.109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -19877,7 +19883,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -20020,7 +20026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -20163,7 +20169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -20306,7 +20312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -20449,7 +20455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C8" s="129"/>
     </row>
   </sheetData>
@@ -20467,20 +20473,20 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="66" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="66" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20519,7 +20525,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>17</v>
       </c>
@@ -20550,7 +20556,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
         <v>24</v>
       </c>
@@ -20570,7 +20576,7 @@
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>29</v>
       </c>
@@ -20590,7 +20596,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
         <v>34</v>
       </c>
@@ -20613,7 +20619,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>38</v>
       </c>
@@ -20642,60 +20648,60 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" style="106" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="106" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" style="106" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.88671875" style="106" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="106" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="43.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="43.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" style="106" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="106" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.44140625" style="106" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21" style="106" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.85546875" style="106" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.88671875" style="106" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.109375" style="106" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11" style="106" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.7109375" style="106" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.33203125" style="106" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12" style="106" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="9.140625" style="106" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="106"/>
+    <col min="50" max="51" width="9.109375" style="106" customWidth="1"/>
+    <col min="52" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="150" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -20838,7 +20844,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -20963,7 +20969,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -21088,7 +21094,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -21213,7 +21219,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -21338,7 +21344,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C8" s="114"/>
     </row>
   </sheetData>
@@ -21356,55 +21362,55 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="23.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="23.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="23.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="23.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" style="66" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" style="66" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="16.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="16.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" style="66" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17" style="66" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.5546875" style="66" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20" style="66" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="11.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="11.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.33203125" style="66" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="6" style="66" bestFit="1" customWidth="1"/>
-    <col min="50" max="60" width="9.140625" style="66" customWidth="1"/>
-    <col min="61" max="16384" width="9.140625" style="66"/>
+    <col min="50" max="60" width="9.109375" style="66" customWidth="1"/>
+    <col min="61" max="16384" width="9.109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="130" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" s="130" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
@@ -21538,7 +21544,7 @@
       <c r="AS1" s="96"/>
       <c r="AT1" s="96"/>
     </row>
-    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
@@ -21662,7 +21668,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
@@ -21786,7 +21792,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>29</v>
       </c>
@@ -21910,7 +21916,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>34</v>
       </c>
@@ -22066,31 +22072,31 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="66" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" style="66" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="66"/>
+    <col min="18" max="18" width="20.88671875" style="70" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.109375" style="66" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="72" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="72" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -22146,7 +22152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>17</v>
       </c>
@@ -22178,7 +22184,7 @@
       <c r="Q2" s="76"/>
       <c r="R2" s="81"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>24</v>
       </c>
@@ -22210,7 +22216,7 @@
       <c r="Q3" s="76"/>
       <c r="R3" s="81"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>29</v>
       </c>
@@ -22242,7 +22248,7 @@
       <c r="Q4" s="76"/>
       <c r="R4" s="81"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>34</v>
       </c>
@@ -22274,7 +22280,7 @@
       <c r="Q5" s="76"/>
       <c r="R5" s="81"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>38</v>
       </c>
@@ -22306,7 +22312,7 @@
       <c r="Q6" s="76"/>
       <c r="R6" s="81"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>42</v>
       </c>
@@ -22348,7 +22354,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>46</v>
       </c>
@@ -22394,7 +22400,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>50</v>
       </c>
@@ -22436,7 +22442,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
@@ -22480,7 +22486,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>58</v>
       </c>
@@ -22522,7 +22528,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>62</v>
       </c>
@@ -22577,21 +22583,21 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="66" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="66" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="66" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="8.85546875" style="66" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="66"/>
+    <col min="5" max="5" width="33.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="8.88671875" style="66" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22626,7 +22632,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>17</v>
       </c>
@@ -22650,7 +22656,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>24</v>
       </c>
@@ -22682,7 +22688,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>29</v>
       </c>
@@ -22696,7 +22702,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>34</v>
       </c>
@@ -22710,7 +22716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>38</v>
       </c>
@@ -22740,19 +22746,19 @@
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="68" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="68" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="70" customWidth="1"/>
     <col min="8" max="8" width="104" style="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="72" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="72" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -22778,7 +22784,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>17</v>
       </c>
@@ -22799,7 +22805,7 @@
       </c>
       <c r="H2" s="68"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>24</v>
       </c>
@@ -22820,7 +22826,7 @@
       </c>
       <c r="H3" s="68"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>29</v>
       </c>
@@ -22834,7 +22840,7 @@
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>34</v>
       </c>
@@ -22857,7 +22863,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>38</v>
       </c>
@@ -22877,7 +22883,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>42</v>
       </c>
@@ -22905,27 +22911,27 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="157" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="157" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" style="157" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="157" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="153" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="157" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="153" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" style="153" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="153" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="153" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="157" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="157" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="157" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="153" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="158" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.6640625" style="158" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="153" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" style="153" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="153" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="153" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="153" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="153" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="153" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="153"/>
+    <col min="15" max="16" width="9.109375" style="153" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
@@ -22969,7 +22975,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="154" t="s">
         <v>17</v>
       </c>
@@ -22999,7 +23005,7 @@
       <c r="M2" s="155"/>
       <c r="N2" s="155"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="154" t="s">
         <v>24</v>
       </c>
@@ -23033,7 +23039,7 @@
       <c r="M3" s="154"/>
       <c r="N3" s="154"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="154" t="s">
         <v>29</v>
       </c>
@@ -23063,7 +23069,7 @@
       <c r="M4" s="154"/>
       <c r="N4" s="154"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="154" t="s">
         <v>34</v>
       </c>
@@ -23105,7 +23111,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="154" t="s">
         <v>38</v>
       </c>
@@ -23144,31 +23150,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="66" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="50" style="66" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="66" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="66" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="66" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="66" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="66" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.33203125" style="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -23215,7 +23221,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -23238,7 +23244,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -23261,7 +23267,7 @@
         <v>297</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="68" t="s">
         <v>298</v>
@@ -23282,7 +23288,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -23304,8 +23310,8 @@
       <c r="G4" t="s">
         <v>303</v>
       </c>
-      <c r="H4">
-        <v>5</v>
+      <c r="H4" s="66">
+        <v>3</v>
       </c>
       <c r="I4" s="68" t="s">
         <v>298</v>
@@ -23327,7 +23333,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -23338,7 +23344,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>61</v>
+        <v>1374</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>179</v>
@@ -23349,8 +23355,8 @@
       <c r="G5" t="s">
         <v>303</v>
       </c>
-      <c r="H5">
-        <v>5</v>
+      <c r="H5" s="66">
+        <v>3</v>
       </c>
       <c r="I5" s="68" t="s">
         <v>298</v>
@@ -23360,15 +23366,17 @@
         <v>305</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>300</v>
+        <v>1375</v>
       </c>
       <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="N5" s="91" t="s">
+        <v>304</v>
+      </c>
       <c r="O5" s="68" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -23384,8 +23392,8 @@
       <c r="F6" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="H6">
-        <v>5</v>
+      <c r="H6" s="66">
+        <v>3</v>
       </c>
       <c r="I6" s="68" t="s">
         <v>298</v>
@@ -23416,20 +23424,20 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.28515625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="161.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="66" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="66"/>
+    <col min="1" max="1" width="6.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" style="66" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="161.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.109375" style="66" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
@@ -23455,7 +23463,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -23477,7 +23485,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -23499,7 +23507,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -23521,7 +23529,7 @@
       <c r="G4" s="88"/>
       <c r="H4" s="88"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -23543,7 +23551,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -23565,7 +23573,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -23587,7 +23595,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -23609,7 +23617,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -23633,7 +23641,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE93FBD1-A961-4BFE-A2E9-7EDE2F486906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F80D6-5678-4F29-A8A6-5C2D590A718E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -31,26 +31,27 @@
     <sheet name="SC1_PaymentFees" sheetId="16" r:id="rId16"/>
     <sheet name="SC1_Customer" sheetId="17" r:id="rId17"/>
     <sheet name="SC1_UnscheduledPayments" sheetId="18" r:id="rId18"/>
-    <sheet name="SC2_DealSetup" sheetId="19" r:id="rId19"/>
-    <sheet name="SC2_AdminFee" sheetId="20" r:id="rId20"/>
-    <sheet name="SC2_EventFee" sheetId="21" r:id="rId21"/>
-    <sheet name="SC2_FacilitySetup" sheetId="22" r:id="rId22"/>
-    <sheet name="SC2_OngoingFeeSetup" sheetId="23" r:id="rId23"/>
-    <sheet name="SC2_PrimaryAllocation" sheetId="24" r:id="rId24"/>
-    <sheet name="SC2_LoanDrawdown" sheetId="25" r:id="rId25"/>
-    <sheet name="SC2_LoanDrawdownNonAgent" sheetId="26" r:id="rId26"/>
-    <sheet name="SC2_PaymentFees" sheetId="27" r:id="rId27"/>
-    <sheet name="SC2_CycleShareAdjustment" sheetId="28" r:id="rId28"/>
-    <sheet name="SC2_LoanSplit" sheetId="29" r:id="rId29"/>
-    <sheet name="SC2_SecondarySale" sheetId="30" r:id="rId30"/>
-    <sheet name="SC2_ComprehensiveRepricing" sheetId="31" r:id="rId31"/>
+    <sheet name="SC1_ComprehensiveRepricing" sheetId="32" r:id="rId19"/>
+    <sheet name="SC2_DealSetup" sheetId="19" r:id="rId20"/>
+    <sheet name="SC2_AdminFee" sheetId="20" r:id="rId21"/>
+    <sheet name="SC2_EventFee" sheetId="21" r:id="rId22"/>
+    <sheet name="SC2_FacilitySetup" sheetId="22" r:id="rId23"/>
+    <sheet name="SC2_OngoingFeeSetup" sheetId="23" r:id="rId24"/>
+    <sheet name="SC2_PrimaryAllocation" sheetId="24" r:id="rId25"/>
+    <sheet name="SC2_LoanDrawdown" sheetId="25" r:id="rId26"/>
+    <sheet name="SC2_LoanDrawdownNonAgent" sheetId="26" r:id="rId27"/>
+    <sheet name="SC2_PaymentFees" sheetId="27" r:id="rId28"/>
+    <sheet name="SC2_CycleShareAdjustment" sheetId="28" r:id="rId29"/>
+    <sheet name="SC2_LoanSplit" sheetId="29" r:id="rId30"/>
+    <sheet name="SC2_SecondarySale" sheetId="30" r:id="rId31"/>
+    <sheet name="SC2_ComprehensiveRepricing" sheetId="31" r:id="rId32"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="1383">
   <si>
     <t>rowid</t>
   </si>
@@ -4199,6 +4200,9 @@
   </si>
   <si>
     <t>SC1_LoanDrawdown</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -6597,13 +6601,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6763,6 +6767,11 @@
       </c>
       <c r="N4" s="66" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="68" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -9089,10 +9098,10 @@
   <dimension ref="A1:BN7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH26" sqref="BH26"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11472,7 +11481,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11964,6 +11973,880 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B20A1F-8312-4A49-9205-F32B047F12BE}">
+  <dimension ref="A1:AY4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="23.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="23.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="66" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="16.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" style="66" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17" style="66" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20" style="66" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6" style="66" bestFit="1" customWidth="1"/>
+    <col min="50" max="61" width="9.140625" style="66" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" s="130" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>611</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>614</v>
+      </c>
+      <c r="K1" s="96" t="s">
+        <v>969</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M1" s="96" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N1" s="96" t="s">
+        <v>634</v>
+      </c>
+      <c r="O1" s="96" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P1" s="96" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>636</v>
+      </c>
+      <c r="R1" s="96" t="s">
+        <v>1356</v>
+      </c>
+      <c r="S1" s="96" t="s">
+        <v>1144</v>
+      </c>
+      <c r="T1" s="96" t="s">
+        <v>613</v>
+      </c>
+      <c r="U1" s="96" t="s">
+        <v>1257</v>
+      </c>
+      <c r="V1" s="96" t="s">
+        <v>1258</v>
+      </c>
+      <c r="W1" s="96" t="s">
+        <v>1259</v>
+      </c>
+      <c r="X1" s="96" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y1" s="95" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Z1" s="96" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA1" s="97" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AB1" s="97" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AC1" s="97" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AD1" s="97" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE1" s="96" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AF1" s="96" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AG1" s="94" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AH1" s="94" t="s">
+        <v>616</v>
+      </c>
+      <c r="AI1" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ1" s="94" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AK1" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL1" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM1" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN1" s="94" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AO1" s="96" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AP1" s="96" t="s">
+        <v>716</v>
+      </c>
+      <c r="AQ1" s="96" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AR1" s="97" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AS1" s="163" t="s">
+        <v>644</v>
+      </c>
+      <c r="AT1" s="44" t="s">
+        <v>645</v>
+      </c>
+      <c r="AU1" s="44" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV1" s="163" t="s">
+        <v>647</v>
+      </c>
+      <c r="AW1" s="44" t="s">
+        <v>648</v>
+      </c>
+      <c r="AX1" s="164" t="s">
+        <v>649</v>
+      </c>
+      <c r="AY1" s="44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>519</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>685</v>
+      </c>
+      <c r="G2" s="161" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" s="161" t="s">
+        <v>476</v>
+      </c>
+      <c r="I2" s="102" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J2" s="133" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="L2" s="100" t="s">
+        <v>1131</v>
+      </c>
+      <c r="M2" s="100" t="s">
+        <v>1132</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>431</v>
+      </c>
+      <c r="O2" s="100" t="s">
+        <v>431</v>
+      </c>
+      <c r="P2" s="100" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q2" s="101" t="s">
+        <v>1159</v>
+      </c>
+      <c r="R2" s="101" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>1159</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="U2" s="100" t="s">
+        <v>1366</v>
+      </c>
+      <c r="V2" s="100" t="s">
+        <v>1367</v>
+      </c>
+      <c r="W2" s="100" t="s">
+        <v>1372</v>
+      </c>
+      <c r="X2" s="102" t="s">
+        <v>1369</v>
+      </c>
+      <c r="Y2" s="101" t="s">
+        <v>725</v>
+      </c>
+      <c r="Z2" s="102" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA2" s="101">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="101">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="101">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="101" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AE2" s="132">
+        <v>2000000</v>
+      </c>
+      <c r="AF2" s="101" t="s">
+        <v>689</v>
+      </c>
+      <c r="AG2" s="101">
+        <v>60001820</v>
+      </c>
+      <c r="AH2" s="101" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI2" s="134" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AJ2" s="101">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="132" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL2" s="101" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AM2" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN2" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO2" s="101" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AP2" s="101">
+        <v>30</v>
+      </c>
+      <c r="AQ2" s="101" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AR2" s="105" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AS2" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT2" s="66" t="s">
+        <v>686</v>
+      </c>
+      <c r="AU2" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV2" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW2" s="66" t="s">
+        <v>688</v>
+      </c>
+      <c r="AX2" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="AY2" s="66" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="66" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="10.42578125" style="66" customWidth="1"/>
+    <col min="25" max="16384" width="10.42578125" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="72" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1" s="80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="81"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="81"/>
+    </row>
+    <row r="4" spans="1:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="81"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="81"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="81"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>207</v>
+      </c>
+      <c r="R7" s="70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>210</v>
+      </c>
+      <c r="R9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" t="s">
+        <v>212</v>
+      </c>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>210</v>
+      </c>
+      <c r="R10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" t="s">
+        <v>215</v>
+      </c>
+      <c r="N11" t="s">
+        <v>216</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>210</v>
+      </c>
+      <c r="R11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" t="s">
+        <v>215</v>
+      </c>
+      <c r="N12" t="s">
+        <v>216</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>210</v>
+      </c>
+      <c r="R12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13875,491 +14758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.28515625" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="66" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="10.42578125" style="66" customWidth="1"/>
-    <col min="25" max="16384" width="10.42578125" style="66"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="72" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q1" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="R1" s="80" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="81"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="81"/>
-    </row>
-    <row r="4" spans="1:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="81"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="81"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="81"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I7" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>207</v>
-      </c>
-      <c r="R7" s="70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="75"/>
-      <c r="H9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>210</v>
-      </c>
-      <c r="R9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="75"/>
-      <c r="H10" t="s">
-        <v>204</v>
-      </c>
-      <c r="I10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" t="s">
-        <v>212</v>
-      </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" t="s">
-        <v>215</v>
-      </c>
-      <c r="N11" t="s">
-        <v>216</v>
-      </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>210</v>
-      </c>
-      <c r="R11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" t="s">
-        <v>215</v>
-      </c>
-      <c r="N12" t="s">
-        <v>216</v>
-      </c>
-      <c r="O12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>210</v>
-      </c>
-      <c r="R12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -14651,7 +15050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
@@ -14953,7 +15352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
@@ -15366,7 +15765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
@@ -15946,7 +16345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:BG5"/>
   <sheetViews>
@@ -16888,7 +17287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
@@ -17671,7 +18070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
@@ -18156,7 +18555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:BV5"/>
   <sheetViews>
@@ -19323,7 +19722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
@@ -19808,7 +20207,179 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="8">
+        <v>600000</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -20597,179 +21168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="66" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="8">
-        <v>600000</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -21486,7 +21885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:AT5"/>
   <sheetViews>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723925\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723453\Desktop\My Dataset\AMS_Sprint37\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A01E7-BD8B-4FED-90BB-1F1999D7BBBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CCBCAC-170B-4E0A-BE3C-E40605D8A145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="709" firstSheet="28" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6590" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6616" uniqueCount="1476">
   <si>
     <t>rowid</t>
   </si>
@@ -4444,6 +4444,45 @@
   </si>
   <si>
     <t>20-Nov-2023</t>
+  </si>
+  <si>
+    <t>Payment_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Payment_ProcessingDate</t>
+  </si>
+  <si>
+    <t>504,109.59</t>
+  </si>
+  <si>
+    <t>12-Sep-2022</t>
+  </si>
+  <si>
+    <t>10-Dec-2020</t>
+  </si>
+  <si>
+    <t>18:55:25</t>
+  </si>
+  <si>
+    <t>SHMANAU0</t>
+  </si>
+  <si>
+    <t>Ongoing Fee Payment of 504,109.59 has been applied.</t>
+  </si>
+  <si>
+    <t>SHINPAU0</t>
+  </si>
+  <si>
+    <t>SC2_CycleShareAdjustment</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>TLEL6UKH</t>
+  </si>
+  <si>
+    <t>Reverse Fee</t>
   </si>
 </sst>
 </file>
@@ -4777,7 +4816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5219,6 +5258,12 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5534,37 +5579,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5546875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.5546875" style="25" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9.109375" style="25" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="25"/>
+    <col min="8" max="8" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5703125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="9.140625" style="25" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="31" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5617,7 +5662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>17</v>
       </c>
@@ -5649,7 +5694,7 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>24</v>
       </c>
@@ -5687,7 +5732,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>29</v>
       </c>
@@ -5725,7 +5770,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>34</v>
       </c>
@@ -5763,7 +5808,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>38</v>
       </c>
@@ -5801,7 +5846,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>42</v>
       </c>
@@ -5839,7 +5884,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -5877,7 +5922,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>50</v>
       </c>
@@ -5908,7 +5953,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>54</v>
       </c>
@@ -5939,7 +5984,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>58</v>
       </c>
@@ -5970,7 +6015,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>62</v>
       </c>
@@ -6001,7 +6046,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>66</v>
       </c>
@@ -6032,7 +6077,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>70</v>
       </c>
@@ -6063,7 +6108,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>74</v>
       </c>
@@ -6094,7 +6139,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>78</v>
       </c>
@@ -6125,7 +6170,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>82</v>
       </c>
@@ -6172,7 +6217,7 @@
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>92</v>
       </c>
@@ -6219,7 +6264,7 @@
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>96</v>
       </c>
@@ -6266,7 +6311,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>100</v>
       </c>
@@ -6313,7 +6358,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
         <v>104</v>
       </c>
@@ -6351,7 +6396,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>88</v>
       </c>
@@ -6389,7 +6434,7 @@
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>111</v>
       </c>
@@ -6427,7 +6472,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>21</v>
       </c>
@@ -6465,7 +6510,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>117</v>
       </c>
@@ -6494,7 +6539,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
         <v>121</v>
       </c>
@@ -6523,7 +6568,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>22</v>
       </c>
@@ -6562,7 +6607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>131</v>
       </c>
@@ -6601,27 +6646,30 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G29" s="27" t="s">
         <v>87</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
@@ -6630,59 +6678,64 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
-      <c r="P29" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>139</v>
+      <c r="P29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>1472</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="28" t="s">
-        <v>23</v>
-      </c>
+      <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="38"/>
+      <c r="P30" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>1421</v>
+      <c r="B31" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>1418</v>
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -6699,21 +6752,21 @@
       <c r="P31" s="35"/>
       <c r="Q31" s="38"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>147</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -6730,21 +6783,21 @@
       <c r="P32" s="35"/>
       <c r="Q32" s="38"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>144</v>
+      <c r="B33" s="9" t="s">
+        <v>1423</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" t="s">
-        <v>146</v>
+        <v>1424</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>1419</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -6761,21 +6814,21 @@
       <c r="P33" s="35"/>
       <c r="Q33" s="38"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>154</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -6792,21 +6845,21 @@
       <c r="P34" s="35"/>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>158</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -6820,24 +6873,24 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="38"/>
+      <c r="P35" s="35"/>
       <c r="Q35" s="38"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>163</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>157</v>
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -6854,64 +6907,62 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
         <v>1375</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" t="s">
-        <v>82</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
       <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+      <c r="L37" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
-      <c r="P37" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>162</v>
-      </c>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
         <v>1382</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
       <c r="K38" s="35"/>
@@ -6920,35 +6971,31 @@
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
       <c r="P38" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q38" s="35"/>
+        <v>138</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>1425</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1372</v>
+        <v>164</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>88</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
       <c r="K39" s="35"/>
@@ -6956,37 +7003,35 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="25" t="s">
-        <v>1377</v>
-      </c>
-      <c r="Q39" s="25" t="s">
-        <v>1378</v>
-      </c>
+      <c r="P39" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q39" s="35"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>1426</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>292</v>
+        <v>1372</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>1380</v>
+        <v>1376</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>1373</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="20" t="s">
         <v>87</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -6996,36 +7041,36 @@
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="25" t="s">
-        <v>138</v>
+        <v>1377</v>
       </c>
       <c r="Q40" s="25" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
         <v>1434</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>1427</v>
+        <v>1379</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>1380</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G41" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>87</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -7035,18 +7080,18 @@
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="25" t="s">
-        <v>1429</v>
+        <v>138</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>1430</v>
+        <v>1381</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
         <v>1435</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>1431</v>
+        <v>330</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>19</v>
@@ -7055,7 +7100,7 @@
         <v>1376</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>1428</v>
@@ -7074,32 +7119,32 @@
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="25" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="Q42" s="25" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
         <v>1450</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>298</v>
+        <v>1431</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>1448</v>
+        <v>1376</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>1432</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>1428</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="20" t="s">
         <v>87</v>
       </c>
       <c r="H43" s="25" t="s">
@@ -7113,44 +7158,83 @@
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="25" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="Q43" s="25" t="s">
+      <c r="Q44" s="25" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="42" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="42" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="41" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="41" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="41" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="41" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="41" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="41" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="41" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="41" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="41" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="41" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="41" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7172,21 +7256,21 @@
       <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="29" width="10.44140625" style="25" customWidth="1"/>
-    <col min="30" max="16384" width="10.44140625" style="25"/>
+    <col min="9" max="29" width="10.42578125" style="25" customWidth="1"/>
+    <col min="30" max="16384" width="10.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="31" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="31" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -7242,7 +7326,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -7289,7 +7373,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
@@ -7335,7 +7419,7 @@
       <c r="Q3" s="165"/>
       <c r="R3" s="165"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>29</v>
       </c>
@@ -7377,7 +7461,7 @@
       <c r="Q4" s="165"/>
       <c r="R4" s="165"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>34</v>
       </c>
@@ -7439,96 +7523,96 @@
       <selection pane="topRight" activeCell="CQ30" sqref="CQ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="135" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="135" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="135" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="135" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="135" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="135" customWidth="1"/>
-    <col min="10" max="11" width="16.88671875" style="135" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="135" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="135" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="135" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" style="135" customWidth="1"/>
     <col min="12" max="13" width="22" style="135" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" style="135" customWidth="1"/>
-    <col min="15" max="16" width="26.88671875" style="135" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="135" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="135" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="135" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="135" customWidth="1"/>
+    <col min="15" max="16" width="26.85546875" style="135" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="135" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="135" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="135" customWidth="1"/>
     <col min="21" max="21" width="24" style="135" customWidth="1"/>
-    <col min="22" max="22" width="32.44140625" style="135" customWidth="1"/>
-    <col min="23" max="23" width="27.88671875" style="135" customWidth="1"/>
-    <col min="24" max="24" width="29.6640625" style="135" customWidth="1"/>
-    <col min="25" max="25" width="25.109375" style="135" customWidth="1"/>
-    <col min="26" max="26" width="18.5546875" style="135" customWidth="1"/>
-    <col min="27" max="27" width="18.88671875" style="135" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="135" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" style="135" customWidth="1"/>
+    <col min="23" max="23" width="27.85546875" style="135" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" style="135" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" style="135" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="135" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" style="135" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="135" customWidth="1"/>
     <col min="29" max="29" width="32" style="135" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" style="135" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="135" customWidth="1"/>
     <col min="31" max="31" width="23" style="135" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="135" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="135" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="135" customWidth="1"/>
-    <col min="35" max="36" width="19.33203125" style="135" customWidth="1"/>
-    <col min="37" max="37" width="23.44140625" style="135" customWidth="1"/>
-    <col min="38" max="38" width="19.88671875" style="135" customWidth="1"/>
-    <col min="39" max="39" width="24.6640625" style="135" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="135" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="135" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="135" customWidth="1"/>
+    <col min="35" max="36" width="19.28515625" style="135" customWidth="1"/>
+    <col min="37" max="37" width="23.42578125" style="135" customWidth="1"/>
+    <col min="38" max="38" width="19.85546875" style="135" customWidth="1"/>
+    <col min="39" max="39" width="24.7109375" style="135" customWidth="1"/>
     <col min="40" max="40" width="25" style="135" customWidth="1"/>
-    <col min="41" max="41" width="24.44140625" style="135" customWidth="1"/>
-    <col min="42" max="42" width="20.33203125" style="135" customWidth="1"/>
+    <col min="41" max="41" width="24.42578125" style="135" customWidth="1"/>
+    <col min="42" max="42" width="20.28515625" style="135" customWidth="1"/>
     <col min="43" max="43" width="36" style="135" customWidth="1"/>
-    <col min="44" max="44" width="34.44140625" style="135" customWidth="1"/>
-    <col min="45" max="45" width="26.6640625" style="135" customWidth="1"/>
-    <col min="46" max="46" width="17.33203125" style="135" customWidth="1"/>
-    <col min="47" max="47" width="35.109375" style="135" customWidth="1"/>
-    <col min="48" max="48" width="29.44140625" style="135" customWidth="1"/>
-    <col min="49" max="49" width="25.88671875" style="135" customWidth="1"/>
-    <col min="50" max="50" width="31.33203125" style="135" customWidth="1"/>
-    <col min="51" max="51" width="17.5546875" style="135" customWidth="1"/>
-    <col min="52" max="52" width="20.33203125" style="135" customWidth="1"/>
-    <col min="53" max="53" width="21.44140625" style="135" customWidth="1"/>
-    <col min="54" max="54" width="24.109375" style="135" customWidth="1"/>
+    <col min="44" max="44" width="34.42578125" style="135" customWidth="1"/>
+    <col min="45" max="45" width="26.7109375" style="135" customWidth="1"/>
+    <col min="46" max="46" width="17.28515625" style="135" customWidth="1"/>
+    <col min="47" max="47" width="35.140625" style="135" customWidth="1"/>
+    <col min="48" max="48" width="29.42578125" style="135" customWidth="1"/>
+    <col min="49" max="49" width="25.85546875" style="135" customWidth="1"/>
+    <col min="50" max="50" width="31.28515625" style="135" customWidth="1"/>
+    <col min="51" max="51" width="17.5703125" style="135" customWidth="1"/>
+    <col min="52" max="52" width="20.28515625" style="135" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" style="135" customWidth="1"/>
+    <col min="54" max="54" width="24.140625" style="135" customWidth="1"/>
     <col min="55" max="55" width="14" style="135" customWidth="1"/>
-    <col min="56" max="56" width="16.6640625" style="135" customWidth="1"/>
-    <col min="57" max="57" width="36.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.109375" style="135" customWidth="1"/>
-    <col min="59" max="59" width="15.6640625" style="135" customWidth="1"/>
+    <col min="56" max="56" width="16.7109375" style="135" customWidth="1"/>
+    <col min="57" max="57" width="36.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.140625" style="135" customWidth="1"/>
+    <col min="59" max="59" width="15.7109375" style="135" customWidth="1"/>
     <col min="60" max="60" width="24" style="135" customWidth="1"/>
-    <col min="61" max="61" width="11.5546875" style="135" customWidth="1"/>
-    <col min="62" max="62" width="8.33203125" style="135" customWidth="1"/>
-    <col min="63" max="63" width="16.5546875" style="135" customWidth="1"/>
-    <col min="64" max="64" width="34.33203125" style="135" customWidth="1"/>
-    <col min="65" max="65" width="12.6640625" style="136" customWidth="1"/>
+    <col min="61" max="61" width="11.5703125" style="135" customWidth="1"/>
+    <col min="62" max="62" width="8.28515625" style="135" customWidth="1"/>
+    <col min="63" max="63" width="16.5703125" style="135" customWidth="1"/>
+    <col min="64" max="64" width="34.28515625" style="135" customWidth="1"/>
+    <col min="65" max="65" width="12.7109375" style="136" customWidth="1"/>
     <col min="66" max="66" width="11" style="136" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="23.33203125" style="137" customWidth="1"/>
-    <col min="68" max="68" width="41.88671875" style="137" customWidth="1"/>
-    <col min="69" max="69" width="47.88671875" style="137" customWidth="1"/>
-    <col min="70" max="70" width="30.109375" style="135" customWidth="1"/>
-    <col min="71" max="71" width="29.44140625" style="137" customWidth="1"/>
-    <col min="72" max="72" width="25.33203125" style="135" customWidth="1"/>
-    <col min="73" max="73" width="9.5546875" style="136" customWidth="1"/>
-    <col min="74" max="74" width="25.6640625" style="136" customWidth="1"/>
-    <col min="75" max="75" width="19.6640625" style="135" customWidth="1"/>
-    <col min="76" max="76" width="28.5546875" style="136" customWidth="1"/>
-    <col min="77" max="77" width="21.109375" style="136" customWidth="1"/>
-    <col min="78" max="78" width="14.5546875" style="136" customWidth="1"/>
-    <col min="79" max="79" width="20.5546875" style="136" customWidth="1"/>
-    <col min="80" max="80" width="24.44140625" style="136" customWidth="1"/>
-    <col min="81" max="81" width="18.33203125" style="136" customWidth="1"/>
-    <col min="82" max="82" width="18.88671875" style="136" customWidth="1"/>
-    <col min="83" max="83" width="26.33203125" style="135" customWidth="1"/>
-    <col min="84" max="85" width="31.109375" style="135" customWidth="1"/>
+    <col min="67" max="67" width="23.28515625" style="137" customWidth="1"/>
+    <col min="68" max="68" width="41.85546875" style="137" customWidth="1"/>
+    <col min="69" max="69" width="47.85546875" style="137" customWidth="1"/>
+    <col min="70" max="70" width="30.140625" style="135" customWidth="1"/>
+    <col min="71" max="71" width="29.42578125" style="137" customWidth="1"/>
+    <col min="72" max="72" width="25.28515625" style="135" customWidth="1"/>
+    <col min="73" max="73" width="9.5703125" style="136" customWidth="1"/>
+    <col min="74" max="74" width="25.7109375" style="136" customWidth="1"/>
+    <col min="75" max="75" width="19.7109375" style="135" customWidth="1"/>
+    <col min="76" max="76" width="28.5703125" style="136" customWidth="1"/>
+    <col min="77" max="77" width="21.140625" style="136" customWidth="1"/>
+    <col min="78" max="78" width="14.5703125" style="136" customWidth="1"/>
+    <col min="79" max="79" width="20.5703125" style="136" customWidth="1"/>
+    <col min="80" max="80" width="24.42578125" style="136" customWidth="1"/>
+    <col min="81" max="81" width="18.28515625" style="136" customWidth="1"/>
+    <col min="82" max="82" width="18.85546875" style="136" customWidth="1"/>
+    <col min="83" max="83" width="26.28515625" style="135" customWidth="1"/>
+    <col min="84" max="85" width="31.140625" style="135" customWidth="1"/>
     <col min="86" max="86" width="29" style="135" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="19.33203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.28515625" style="135" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="89" max="163" width="8.88671875" style="135" customWidth="1"/>
-    <col min="164" max="16384" width="8.88671875" style="135"/>
+    <col min="89" max="163" width="8.85546875" style="135" customWidth="1"/>
+    <col min="164" max="16384" width="8.85546875" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="129" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="129" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -7794,7 +7878,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2" s="134" t="s">
         <v>17</v>
       </c>
@@ -8054,7 +8138,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A3" s="134" t="s">
         <v>24</v>
       </c>
@@ -8314,7 +8398,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A4" s="134" t="s">
         <v>29</v>
       </c>
@@ -8574,7 +8658,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:88" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:88" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
         <v>34</v>
       </c>
@@ -8855,53 +8939,53 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="135" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="135" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="135" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="135" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="135" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" style="135" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" style="135" customWidth="1"/>
-    <col min="13" max="13" width="23.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="135" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="135" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" style="135" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" style="135" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="135" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="135" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="135" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="135" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="135" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="135" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="135" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="135" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="135" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="135" customWidth="1"/>
     <col min="18" max="18" width="24" style="135" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="135" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="18" style="135" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="135" customWidth="1"/>
-    <col min="23" max="23" width="25.5546875" style="135" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="135" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" style="135" customWidth="1"/>
     <col min="24" max="25" width="18" style="135" customWidth="1"/>
-    <col min="26" max="26" width="19.44140625" style="135" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="135" customWidth="1"/>
     <col min="27" max="27" width="32" style="135" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21" style="135" customWidth="1"/>
-    <col min="29" max="29" width="17.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.6640625" style="135" customWidth="1"/>
-    <col min="31" max="31" width="25.5546875" style="135" customWidth="1"/>
-    <col min="32" max="32" width="24.44140625" style="135" customWidth="1"/>
-    <col min="33" max="33" width="27.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.6640625" style="135" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.7109375" style="135" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" style="135" customWidth="1"/>
+    <col min="32" max="32" width="24.42578125" style="135" customWidth="1"/>
+    <col min="33" max="33" width="27.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.7109375" style="135" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18" style="135" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.5546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.5703125" style="135" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="19" style="135" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="32.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.140625" style="135" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="43" max="116" width="8.88671875" style="135" customWidth="1"/>
-    <col min="117" max="16384" width="8.88671875" style="135"/>
+    <col min="43" max="116" width="8.85546875" style="135" customWidth="1"/>
+    <col min="117" max="16384" width="8.85546875" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="129" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="129" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
@@ -9029,7 +9113,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="134" t="s">
         <v>17</v>
       </c>
@@ -9184,7 +9268,7 @@
       <c r="CG2" s="136"/>
       <c r="CH2" s="136"/>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" s="134" t="s">
         <v>24</v>
       </c>
@@ -9310,7 +9394,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" s="134" t="s">
         <v>29</v>
       </c>
@@ -9436,7 +9520,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -9577,33 +9661,33 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="135" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="135" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="135" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="135" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="135" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="135" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="135" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="135" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="135" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="135" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="135" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="21" style="135" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="135" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.6640625" style="135" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" style="135" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="23" max="92" width="8.88671875" style="135" customWidth="1"/>
-    <col min="93" max="16384" width="8.88671875" style="135"/>
+    <col min="23" max="92" width="8.85546875" style="135" customWidth="1"/>
+    <col min="93" max="16384" width="8.85546875" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="129" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="129" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
@@ -9671,7 +9755,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="134" t="s">
         <v>17</v>
       </c>
@@ -9739,7 +9823,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="134" t="s">
         <v>24</v>
       </c>
@@ -9807,7 +9891,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="134">
         <v>3</v>
       </c>
@@ -9875,7 +9959,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -9962,50 +10046,50 @@
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="135" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="135" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="135" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="135" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="135" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="135" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="135" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="135" customWidth="1"/>
-    <col min="12" max="12" width="24.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="135" customWidth="1"/>
-    <col min="14" max="14" width="52.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.88671875" style="135" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" style="135" customWidth="1"/>
-    <col min="17" max="17" width="26.44140625" style="135" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" style="135" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="135" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="135" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="135" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="135" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="135" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="135" customWidth="1"/>
+    <col min="14" max="14" width="52.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.85546875" style="135" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="135" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" style="135" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" style="135" customWidth="1"/>
     <col min="19" max="19" width="20" style="135" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="135" customWidth="1"/>
-    <col min="21" max="21" width="36.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.109375" style="135" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" style="136" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" style="136" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.6640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="135" customWidth="1"/>
+    <col min="21" max="21" width="36.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="135" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="136" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="136" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" style="135" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" style="135" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.5546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.5703125" style="135" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" style="135" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="31" style="135" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="38" max="106" width="8.88671875" style="135" customWidth="1"/>
-    <col min="107" max="16384" width="8.88671875" style="135"/>
+    <col min="38" max="106" width="8.85546875" style="135" customWidth="1"/>
+    <col min="107" max="16384" width="8.85546875" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="129" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="129" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -10118,7 +10202,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="130" t="s">
         <v>17</v>
       </c>
@@ -10229,7 +10313,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="134" t="s">
         <v>24</v>
       </c>
@@ -10340,7 +10424,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="134">
         <v>3</v>
       </c>
@@ -10451,7 +10535,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="130" t="s">
         <v>34</v>
       </c>
@@ -10581,78 +10665,78 @@
       <selection pane="bottomRight" activeCell="BM24" sqref="BM24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="137" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="137" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="137" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="137" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="137" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="137" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="137" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" style="137" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="137" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="137" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="137" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" style="137" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="137" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" style="137" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="137" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="137" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" style="137" customWidth="1"/>
-    <col min="19" max="19" width="18.44140625" style="137" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" style="137" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" style="137" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="137" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="137" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="137" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="137" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="137" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="137" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="137" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="137" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="137" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="137" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="137" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="137" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="137" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="137" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="137" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="137" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="137" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" style="137" customWidth="1"/>
     <col min="22" max="22" width="23" style="137" customWidth="1"/>
-    <col min="23" max="23" width="20.5546875" style="137" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" style="137" customWidth="1"/>
-    <col min="25" max="25" width="30.33203125" style="137" customWidth="1"/>
-    <col min="26" max="26" width="27.6640625" style="137" customWidth="1"/>
-    <col min="27" max="27" width="22.88671875" style="137" customWidth="1"/>
-    <col min="28" max="28" width="26.88671875" style="137" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" style="137" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" style="137" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="137" customWidth="1"/>
+    <col min="26" max="26" width="27.7109375" style="137" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" style="137" customWidth="1"/>
+    <col min="28" max="28" width="26.85546875" style="137" customWidth="1"/>
     <col min="29" max="29" width="21" style="137" customWidth="1"/>
     <col min="30" max="30" width="28" style="137" customWidth="1"/>
-    <col min="31" max="31" width="21.44140625" style="137" customWidth="1"/>
-    <col min="32" max="32" width="32.33203125" style="137" customWidth="1"/>
-    <col min="33" max="33" width="36.5546875" style="137" customWidth="1"/>
-    <col min="34" max="34" width="16.5546875" style="137" customWidth="1"/>
-    <col min="35" max="35" width="24.33203125" style="137" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" style="137" customWidth="1"/>
-    <col min="37" max="37" width="22.109375" style="137" customWidth="1"/>
-    <col min="38" max="38" width="18.109375" style="137" customWidth="1"/>
-    <col min="39" max="39" width="14.88671875" style="137" customWidth="1"/>
-    <col min="40" max="40" width="22.88671875" style="137" customWidth="1"/>
-    <col min="41" max="42" width="20.5546875" style="137" customWidth="1"/>
-    <col min="43" max="43" width="40.88671875" style="135" customWidth="1"/>
-    <col min="44" max="44" width="14.6640625" style="135" customWidth="1"/>
-    <col min="45" max="45" width="12.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.6640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.5546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.42578125" style="137" customWidth="1"/>
+    <col min="32" max="32" width="32.28515625" style="137" customWidth="1"/>
+    <col min="33" max="33" width="36.5703125" style="137" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" style="137" customWidth="1"/>
+    <col min="35" max="35" width="24.28515625" style="137" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" style="137" customWidth="1"/>
+    <col min="37" max="37" width="22.140625" style="137" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" style="137" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" style="137" customWidth="1"/>
+    <col min="40" max="40" width="22.85546875" style="137" customWidth="1"/>
+    <col min="41" max="42" width="20.5703125" style="137" customWidth="1"/>
+    <col min="43" max="43" width="40.85546875" style="135" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" style="135" customWidth="1"/>
+    <col min="45" max="45" width="12.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.7109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.5703125" style="135" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="19" style="135" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="32" style="135" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.6640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="36.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.6640625" style="135" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.7109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="36.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.7109375" style="135" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="31" style="135" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="27.5546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="25.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="67" max="107" width="8.88671875" style="135" customWidth="1"/>
-    <col min="108" max="16384" width="8.88671875" style="135"/>
+    <col min="59" max="59" width="16.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="27.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="25.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="67" max="107" width="8.85546875" style="135" customWidth="1"/>
+    <col min="108" max="16384" width="8.85546875" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="129" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" s="129" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
@@ -10858,7 +10942,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="130" t="s">
         <v>17</v>
       </c>
@@ -11044,7 +11128,7 @@
       <c r="BO2" s="11"/>
       <c r="BP2" s="11"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" s="134">
         <v>2</v>
       </c>
@@ -11224,7 +11308,7 @@
       <c r="BO3" s="11"/>
       <c r="BP3" s="11"/>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" s="134">
         <v>3</v>
       </c>
@@ -11404,7 +11488,7 @@
       <c r="BO4" s="11"/>
       <c r="BP4" s="11"/>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
         <v>34</v>
       </c>
@@ -11582,7 +11666,7 @@
       <c r="BO5" s="11"/>
       <c r="BP5" s="11"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="AQ7" s="148"/>
     </row>
   </sheetData>
@@ -11604,58 +11688,58 @@
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="11" customWidth="1"/>
     <col min="13" max="13" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.44140625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="40.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="11" customWidth="1"/>
     <col min="23" max="23" width="23" style="11" customWidth="1"/>
-    <col min="24" max="24" width="25.88671875" style="11" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="29.109375" style="11" customWidth="1"/>
-    <col min="27" max="27" width="17.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="11" customWidth="1"/>
+    <col min="24" max="24" width="25.85546875" style="11" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="11" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="11" customWidth="1"/>
     <col min="29" max="29" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.88671875" style="11" customWidth="1"/>
-    <col min="31" max="31" width="10.88671875" style="11" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" style="11" customWidth="1"/>
-    <col min="33" max="33" width="32.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" style="11" customWidth="1"/>
-    <col min="35" max="35" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" style="11" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" style="11" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="11" customWidth="1"/>
+    <col min="33" max="33" width="32.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" style="11" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="29" style="11" customWidth="1"/>
-    <col min="37" max="37" width="17.5546875" style="11" customWidth="1"/>
-    <col min="38" max="38" width="14.6640625" style="11" customWidth="1"/>
-    <col min="39" max="39" width="21.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5703125" style="11" customWidth="1"/>
+    <col min="38" max="38" width="14.7109375" style="11" customWidth="1"/>
+    <col min="39" max="39" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="80" width="8.88671875" style="11" customWidth="1"/>
-    <col min="81" max="16384" width="8.88671875" style="11"/>
+    <col min="46" max="80" width="8.85546875" style="11" customWidth="1"/>
+    <col min="81" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -11792,7 +11876,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="130" t="s">
         <v>17</v>
       </c>
@@ -11927,7 +12011,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="134">
         <v>2</v>
       </c>
@@ -12062,7 +12146,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="134">
         <v>3</v>
       </c>
@@ -12197,7 +12281,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="130" t="s">
         <v>34</v>
       </c>
@@ -12353,155 +12437,155 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="135" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="135" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="135" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="135" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="135" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="135" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" style="135" customWidth="1"/>
-    <col min="8" max="8" width="45.5546875" style="135" customWidth="1"/>
-    <col min="9" max="9" width="46.6640625" style="135" customWidth="1"/>
-    <col min="10" max="10" width="47.5546875" style="135" customWidth="1"/>
-    <col min="11" max="11" width="48.5546875" style="135" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="135" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" style="135" customWidth="1"/>
-    <col min="14" max="14" width="24.5546875" style="135" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="135" customWidth="1"/>
-    <col min="16" max="16" width="40.5546875" style="135" customWidth="1"/>
-    <col min="17" max="17" width="41.5546875" style="135" customWidth="1"/>
-    <col min="18" max="18" width="40.5546875" style="135" customWidth="1"/>
-    <col min="19" max="19" width="34.44140625" style="135" customWidth="1"/>
-    <col min="20" max="20" width="41.88671875" style="135" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="135" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="135" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="135" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" style="135" customWidth="1"/>
+    <col min="8" max="8" width="45.5703125" style="135" customWidth="1"/>
+    <col min="9" max="9" width="46.7109375" style="135" customWidth="1"/>
+    <col min="10" max="10" width="47.5703125" style="135" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" style="135" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="135" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="135" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="135" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="135" customWidth="1"/>
+    <col min="16" max="16" width="40.5703125" style="135" customWidth="1"/>
+    <col min="17" max="17" width="41.5703125" style="135" customWidth="1"/>
+    <col min="18" max="18" width="40.5703125" style="135" customWidth="1"/>
+    <col min="19" max="19" width="34.42578125" style="135" customWidth="1"/>
+    <col min="20" max="20" width="41.85546875" style="135" customWidth="1"/>
     <col min="21" max="21" width="43" style="135" customWidth="1"/>
-    <col min="22" max="22" width="39.88671875" style="135" customWidth="1"/>
-    <col min="23" max="24" width="41.33203125" style="135" customWidth="1"/>
-    <col min="25" max="26" width="14.33203125" style="135" customWidth="1"/>
-    <col min="27" max="27" width="12.5546875" style="135" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="135" customWidth="1"/>
-    <col min="29" max="29" width="12.88671875" style="135" customWidth="1"/>
-    <col min="30" max="30" width="21.88671875" style="135" customWidth="1"/>
+    <col min="22" max="22" width="39.85546875" style="135" customWidth="1"/>
+    <col min="23" max="24" width="41.28515625" style="135" customWidth="1"/>
+    <col min="25" max="26" width="14.28515625" style="135" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="135" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="135" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="135" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" style="135" customWidth="1"/>
     <col min="31" max="31" width="14" style="135" customWidth="1"/>
-    <col min="32" max="32" width="22.5546875" style="135" customWidth="1"/>
-    <col min="33" max="33" width="17.33203125" style="135" customWidth="1"/>
-    <col min="34" max="34" width="27.6640625" style="135" customWidth="1"/>
-    <col min="35" max="35" width="12.44140625" style="135" customWidth="1"/>
-    <col min="36" max="36" width="14.5546875" style="135" customWidth="1"/>
-    <col min="37" max="37" width="38.5546875" style="135" customWidth="1"/>
-    <col min="38" max="38" width="16.88671875" style="135" customWidth="1"/>
+    <col min="32" max="32" width="22.5703125" style="135" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" style="135" customWidth="1"/>
+    <col min="34" max="34" width="27.7109375" style="135" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" style="135" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" style="135" customWidth="1"/>
+    <col min="37" max="37" width="38.5703125" style="135" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" style="135" customWidth="1"/>
     <col min="39" max="39" width="28" style="135" customWidth="1"/>
     <col min="40" max="40" width="19" style="135" customWidth="1"/>
-    <col min="41" max="41" width="36.109375" style="135" customWidth="1"/>
-    <col min="42" max="42" width="36.6640625" style="135" customWidth="1"/>
-    <col min="43" max="43" width="18.5546875" style="135" customWidth="1"/>
+    <col min="41" max="41" width="36.140625" style="135" customWidth="1"/>
+    <col min="42" max="42" width="36.7109375" style="135" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" style="135" customWidth="1"/>
     <col min="44" max="44" width="22" style="135" customWidth="1"/>
     <col min="45" max="45" width="21" style="135" customWidth="1"/>
-    <col min="46" max="46" width="36.6640625" style="135" customWidth="1"/>
+    <col min="46" max="46" width="36.7109375" style="135" customWidth="1"/>
     <col min="47" max="47" width="20" style="135" customWidth="1"/>
     <col min="48" max="48" width="10" style="135" customWidth="1"/>
-    <col min="49" max="49" width="16.6640625" style="135" customWidth="1"/>
-    <col min="50" max="50" width="12.5546875" style="135" customWidth="1"/>
-    <col min="51" max="51" width="13.6640625" style="135" customWidth="1"/>
-    <col min="52" max="52" width="15.6640625" style="135" customWidth="1"/>
-    <col min="53" max="53" width="16.6640625" style="135" customWidth="1"/>
-    <col min="54" max="54" width="18.33203125" style="135" customWidth="1"/>
-    <col min="55" max="55" width="19.33203125" style="135" customWidth="1"/>
-    <col min="56" max="56" width="18.109375" style="135" customWidth="1"/>
-    <col min="57" max="57" width="19.109375" style="135" customWidth="1"/>
-    <col min="58" max="58" width="27.109375" style="135" customWidth="1"/>
-    <col min="59" max="59" width="22.33203125" style="135" customWidth="1"/>
-    <col min="60" max="60" width="23.33203125" style="135" customWidth="1"/>
-    <col min="61" max="61" width="24.33203125" style="135" customWidth="1"/>
-    <col min="62" max="62" width="29.33203125" style="135" customWidth="1"/>
+    <col min="49" max="49" width="16.7109375" style="135" customWidth="1"/>
+    <col min="50" max="50" width="12.5703125" style="135" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" style="135" customWidth="1"/>
+    <col min="52" max="52" width="15.7109375" style="135" customWidth="1"/>
+    <col min="53" max="53" width="16.7109375" style="135" customWidth="1"/>
+    <col min="54" max="54" width="18.28515625" style="135" customWidth="1"/>
+    <col min="55" max="55" width="19.28515625" style="135" customWidth="1"/>
+    <col min="56" max="56" width="18.140625" style="135" customWidth="1"/>
+    <col min="57" max="57" width="19.140625" style="135" customWidth="1"/>
+    <col min="58" max="58" width="27.140625" style="135" customWidth="1"/>
+    <col min="59" max="59" width="22.28515625" style="135" customWidth="1"/>
+    <col min="60" max="60" width="23.28515625" style="135" customWidth="1"/>
+    <col min="61" max="61" width="24.28515625" style="135" customWidth="1"/>
+    <col min="62" max="62" width="29.28515625" style="135" customWidth="1"/>
     <col min="63" max="63" width="21" style="135" customWidth="1"/>
-    <col min="64" max="64" width="25.5546875" style="135" customWidth="1"/>
+    <col min="64" max="64" width="25.5703125" style="135" customWidth="1"/>
     <col min="65" max="65" width="29" style="135" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.6640625" style="135" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" style="135" customWidth="1"/>
-    <col min="68" max="68" width="14.5546875" style="135" customWidth="1"/>
-    <col min="69" max="69" width="15.5546875" style="135" customWidth="1"/>
-    <col min="70" max="70" width="33.5546875" style="135" customWidth="1"/>
+    <col min="66" max="66" width="18.7109375" style="135" customWidth="1"/>
+    <col min="67" max="67" width="20.42578125" style="135" customWidth="1"/>
+    <col min="68" max="68" width="14.5703125" style="135" customWidth="1"/>
+    <col min="69" max="69" width="15.5703125" style="135" customWidth="1"/>
+    <col min="70" max="70" width="33.5703125" style="135" customWidth="1"/>
     <col min="71" max="71" width="33" style="135" customWidth="1"/>
-    <col min="72" max="72" width="39.109375" style="135" customWidth="1"/>
+    <col min="72" max="72" width="39.140625" style="135" customWidth="1"/>
     <col min="73" max="73" width="41" style="135" customWidth="1"/>
-    <col min="74" max="75" width="38.5546875" style="135" customWidth="1"/>
-    <col min="76" max="76" width="38.88671875" style="135" customWidth="1"/>
-    <col min="77" max="77" width="34.109375" style="135" customWidth="1"/>
-    <col min="78" max="78" width="38.44140625" style="135" customWidth="1"/>
-    <col min="79" max="79" width="32.44140625" style="135" customWidth="1"/>
+    <col min="74" max="75" width="38.5703125" style="135" customWidth="1"/>
+    <col min="76" max="76" width="38.85546875" style="135" customWidth="1"/>
+    <col min="77" max="77" width="34.140625" style="135" customWidth="1"/>
+    <col min="78" max="78" width="38.42578125" style="135" customWidth="1"/>
+    <col min="79" max="79" width="32.42578125" style="135" customWidth="1"/>
     <col min="80" max="80" width="40" style="135" customWidth="1"/>
     <col min="81" max="81" width="41" style="135" customWidth="1"/>
     <col min="82" max="82" width="38" style="135" customWidth="1"/>
-    <col min="83" max="83" width="18.109375" style="135" customWidth="1"/>
-    <col min="84" max="84" width="31.109375" style="135" customWidth="1"/>
-    <col min="85" max="86" width="39.33203125" style="135" customWidth="1"/>
-    <col min="87" max="87" width="33.44140625" style="135" customWidth="1"/>
-    <col min="88" max="88" width="46.44140625" style="135" customWidth="1"/>
-    <col min="89" max="89" width="43.88671875" style="135" customWidth="1"/>
-    <col min="90" max="90" width="48.88671875" style="135" customWidth="1"/>
-    <col min="91" max="91" width="34.88671875" style="135" customWidth="1"/>
+    <col min="83" max="83" width="18.140625" style="135" customWidth="1"/>
+    <col min="84" max="84" width="31.140625" style="135" customWidth="1"/>
+    <col min="85" max="86" width="39.28515625" style="135" customWidth="1"/>
+    <col min="87" max="87" width="33.42578125" style="135" customWidth="1"/>
+    <col min="88" max="88" width="46.42578125" style="135" customWidth="1"/>
+    <col min="89" max="89" width="43.85546875" style="135" customWidth="1"/>
+    <col min="90" max="90" width="48.85546875" style="135" customWidth="1"/>
+    <col min="91" max="91" width="34.85546875" style="135" customWidth="1"/>
     <col min="92" max="92" width="12" style="135" customWidth="1"/>
-    <col min="93" max="93" width="23.44140625" style="135" customWidth="1"/>
-    <col min="94" max="94" width="18.88671875" style="135" customWidth="1"/>
+    <col min="93" max="93" width="23.42578125" style="135" customWidth="1"/>
+    <col min="94" max="94" width="18.85546875" style="135" customWidth="1"/>
     <col min="95" max="95" width="20" style="135" customWidth="1"/>
     <col min="96" max="96" width="25" style="135" customWidth="1"/>
-    <col min="97" max="97" width="20.44140625" style="135" customWidth="1"/>
-    <col min="98" max="98" width="25.88671875" style="135" customWidth="1"/>
-    <col min="99" max="99" width="20.44140625" style="135" customWidth="1"/>
+    <col min="97" max="97" width="20.42578125" style="135" customWidth="1"/>
+    <col min="98" max="98" width="25.85546875" style="135" customWidth="1"/>
+    <col min="99" max="99" width="20.42578125" style="135" customWidth="1"/>
     <col min="100" max="100" width="25" style="135" customWidth="1"/>
-    <col min="101" max="101" width="20.44140625" style="135" customWidth="1"/>
-    <col min="102" max="102" width="20.88671875" style="135" customWidth="1"/>
-    <col min="103" max="104" width="21.109375" style="135" customWidth="1"/>
-    <col min="105" max="105" width="28.6640625" style="135" customWidth="1"/>
-    <col min="106" max="106" width="23.5546875" style="135" customWidth="1"/>
+    <col min="101" max="101" width="20.42578125" style="135" customWidth="1"/>
+    <col min="102" max="102" width="20.85546875" style="135" customWidth="1"/>
+    <col min="103" max="104" width="21.140625" style="135" customWidth="1"/>
+    <col min="105" max="105" width="28.7109375" style="135" customWidth="1"/>
+    <col min="106" max="106" width="23.5703125" style="135" customWidth="1"/>
     <col min="107" max="107" width="19" style="135" customWidth="1"/>
-    <col min="108" max="108" width="16.6640625" style="135" customWidth="1"/>
-    <col min="109" max="109" width="21.109375" style="135" customWidth="1"/>
-    <col min="110" max="110" width="12.109375" style="135" customWidth="1"/>
+    <col min="108" max="108" width="16.7109375" style="135" customWidth="1"/>
+    <col min="109" max="109" width="21.140625" style="135" customWidth="1"/>
+    <col min="110" max="110" width="12.140625" style="135" customWidth="1"/>
     <col min="111" max="111" width="16" style="135" customWidth="1"/>
-    <col min="112" max="112" width="20.44140625" style="135" customWidth="1"/>
+    <col min="112" max="112" width="20.42578125" style="135" customWidth="1"/>
     <col min="113" max="113" width="19" style="135" customWidth="1"/>
-    <col min="114" max="114" width="19.109375" style="135" customWidth="1"/>
+    <col min="114" max="114" width="19.140625" style="135" customWidth="1"/>
     <col min="115" max="115" width="19" style="135" customWidth="1"/>
-    <col min="116" max="116" width="14.88671875" style="135" customWidth="1"/>
-    <col min="117" max="117" width="19.33203125" style="135" customWidth="1"/>
-    <col min="118" max="118" width="19.6640625" style="135" customWidth="1"/>
-    <col min="119" max="119" width="19.44140625" style="135" customWidth="1"/>
-    <col min="120" max="120" width="31.109375" style="135" customWidth="1"/>
+    <col min="116" max="116" width="14.85546875" style="135" customWidth="1"/>
+    <col min="117" max="117" width="19.28515625" style="135" customWidth="1"/>
+    <col min="118" max="118" width="19.7109375" style="135" customWidth="1"/>
+    <col min="119" max="119" width="19.42578125" style="135" customWidth="1"/>
+    <col min="120" max="120" width="31.140625" style="135" customWidth="1"/>
     <col min="121" max="121" width="29" style="135" customWidth="1"/>
-    <col min="122" max="122" width="28.109375" style="135" customWidth="1"/>
-    <col min="123" max="123" width="23.44140625" style="135" customWidth="1"/>
+    <col min="122" max="122" width="28.140625" style="135" customWidth="1"/>
+    <col min="123" max="123" width="23.42578125" style="135" customWidth="1"/>
     <col min="124" max="124" width="23" style="135" customWidth="1"/>
-    <col min="125" max="125" width="32.6640625" style="135" customWidth="1"/>
-    <col min="126" max="126" width="31.33203125" style="135" customWidth="1"/>
-    <col min="127" max="127" width="28.6640625" style="135" customWidth="1"/>
+    <col min="125" max="125" width="32.7109375" style="135" customWidth="1"/>
+    <col min="126" max="126" width="31.28515625" style="135" customWidth="1"/>
+    <col min="127" max="127" width="28.7109375" style="135" customWidth="1"/>
     <col min="128" max="128" width="26" style="135" customWidth="1"/>
-    <col min="129" max="129" width="26.44140625" style="135" customWidth="1"/>
-    <col min="130" max="130" width="22.88671875" style="135" customWidth="1"/>
-    <col min="131" max="131" width="20.33203125" style="135" customWidth="1"/>
-    <col min="132" max="132" width="35.6640625" style="135" customWidth="1"/>
-    <col min="133" max="133" width="34.33203125" style="135" customWidth="1"/>
-    <col min="134" max="134" width="31.6640625" style="135" customWidth="1"/>
+    <col min="129" max="129" width="26.42578125" style="135" customWidth="1"/>
+    <col min="130" max="130" width="22.85546875" style="135" customWidth="1"/>
+    <col min="131" max="131" width="20.28515625" style="135" customWidth="1"/>
+    <col min="132" max="132" width="35.7109375" style="135" customWidth="1"/>
+    <col min="133" max="133" width="34.28515625" style="135" customWidth="1"/>
+    <col min="134" max="134" width="31.7109375" style="135" customWidth="1"/>
     <col min="135" max="135" width="22" style="135" customWidth="1"/>
-    <col min="136" max="136" width="35.44140625" style="135" customWidth="1"/>
+    <col min="136" max="136" width="35.42578125" style="135" customWidth="1"/>
     <col min="137" max="137" width="28" style="135" customWidth="1"/>
-    <col min="138" max="138" width="22.5546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="22.5703125" style="135" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="19" style="135" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="32.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="26.44140625" style="135" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="18.6640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="17.33203125" style="135" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="36.33203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="32.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="26.42578125" style="135" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.7109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="17.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="36.28515625" style="135" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="11" style="135" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="31" style="135" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="19.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="149" max="16384" width="8.88671875" style="135"/>
+    <col min="148" max="148" width="19.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="149" max="16384" width="8.85546875" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
@@ -12947,7 +13031,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A2" s="146" t="s">
         <v>17</v>
       </c>
@@ -13389,7 +13473,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A3" s="134">
         <v>2</v>
       </c>
@@ -13831,7 +13915,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A4" s="134">
         <v>3</v>
       </c>
@@ -14273,7 +14357,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A5" s="130" t="s">
         <v>34</v>
       </c>
@@ -14734,143 +14818,143 @@
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="95" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="95" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="95" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="95" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="95" customWidth="1"/>
     <col min="7" max="7" width="22" style="95" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="95" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="95" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" style="95" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" style="95" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="95" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="95" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" style="95" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="20.5546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" style="95" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="95" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="95" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="95" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" style="95" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="20.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="95" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21" style="95" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" style="95" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" style="95" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18" style="95" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="40.88671875" style="95" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.6640625" style="95" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.44140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="35.5546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.109375" style="95" customWidth="1"/>
-    <col min="37" max="38" width="24.109375" style="95" customWidth="1"/>
-    <col min="39" max="39" width="9.44140625" style="95" customWidth="1"/>
-    <col min="40" max="41" width="17.6640625" style="95" customWidth="1"/>
-    <col min="42" max="42" width="20.44140625" style="95" customWidth="1"/>
-    <col min="43" max="43" width="17.5546875" style="95" customWidth="1"/>
-    <col min="44" max="44" width="21.109375" style="95" customWidth="1"/>
-    <col min="45" max="46" width="19.33203125" style="95" customWidth="1"/>
-    <col min="47" max="47" width="19.6640625" style="95" customWidth="1"/>
+    <col min="30" max="30" width="40.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.140625" style="95" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" style="95" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.140625" style="95" customWidth="1"/>
+    <col min="37" max="38" width="24.140625" style="95" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" style="95" customWidth="1"/>
+    <col min="40" max="41" width="17.7109375" style="95" customWidth="1"/>
+    <col min="42" max="42" width="20.42578125" style="95" customWidth="1"/>
+    <col min="43" max="43" width="17.5703125" style="95" customWidth="1"/>
+    <col min="44" max="44" width="21.140625" style="95" customWidth="1"/>
+    <col min="45" max="46" width="19.28515625" style="95" customWidth="1"/>
+    <col min="47" max="47" width="19.7109375" style="95" customWidth="1"/>
     <col min="48" max="48" width="35" style="95" customWidth="1"/>
-    <col min="49" max="49" width="18.109375" style="95" customWidth="1"/>
+    <col min="49" max="49" width="18.140625" style="95" customWidth="1"/>
     <col min="50" max="50" width="19" style="95" customWidth="1"/>
-    <col min="51" max="51" width="32.44140625" style="95" customWidth="1"/>
-    <col min="52" max="52" width="17.33203125" style="95" customWidth="1"/>
-    <col min="53" max="53" width="28.6640625" style="95" customWidth="1"/>
-    <col min="54" max="54" width="23.5546875" style="95" customWidth="1"/>
-    <col min="55" max="55" width="45.33203125" style="95" customWidth="1"/>
-    <col min="56" max="56" width="29.88671875" style="95" customWidth="1"/>
-    <col min="57" max="57" width="23.88671875" style="95" customWidth="1"/>
-    <col min="58" max="59" width="20.5546875" style="164" customWidth="1"/>
-    <col min="60" max="60" width="18.5546875" style="164" customWidth="1"/>
+    <col min="51" max="51" width="32.42578125" style="95" customWidth="1"/>
+    <col min="52" max="52" width="17.28515625" style="95" customWidth="1"/>
+    <col min="53" max="53" width="28.7109375" style="95" customWidth="1"/>
+    <col min="54" max="54" width="23.5703125" style="95" customWidth="1"/>
+    <col min="55" max="55" width="45.28515625" style="95" customWidth="1"/>
+    <col min="56" max="56" width="29.85546875" style="95" customWidth="1"/>
+    <col min="57" max="57" width="23.85546875" style="95" customWidth="1"/>
+    <col min="58" max="59" width="20.5703125" style="164" customWidth="1"/>
+    <col min="60" max="60" width="18.5703125" style="164" customWidth="1"/>
     <col min="61" max="61" width="18" style="164" customWidth="1"/>
-    <col min="62" max="62" width="18.5546875" style="164" customWidth="1"/>
-    <col min="63" max="63" width="17.6640625" style="95" customWidth="1"/>
-    <col min="64" max="64" width="18.5546875" style="164" customWidth="1"/>
-    <col min="65" max="65" width="18.33203125" style="95" customWidth="1"/>
-    <col min="66" max="66" width="24.44140625" style="95" customWidth="1"/>
-    <col min="67" max="67" width="30.44140625" style="95" customWidth="1"/>
+    <col min="62" max="62" width="18.5703125" style="164" customWidth="1"/>
+    <col min="63" max="63" width="17.7109375" style="95" customWidth="1"/>
+    <col min="64" max="64" width="18.5703125" style="164" customWidth="1"/>
+    <col min="65" max="65" width="18.28515625" style="95" customWidth="1"/>
+    <col min="66" max="66" width="24.42578125" style="95" customWidth="1"/>
+    <col min="67" max="67" width="30.42578125" style="95" customWidth="1"/>
     <col min="68" max="68" width="36" style="95" customWidth="1"/>
-    <col min="69" max="69" width="34.44140625" style="95" customWidth="1"/>
-    <col min="70" max="70" width="26.6640625" style="95" customWidth="1"/>
-    <col min="71" max="72" width="17.33203125" style="95" customWidth="1"/>
-    <col min="73" max="73" width="34.109375" style="95" customWidth="1"/>
-    <col min="74" max="74" width="28.44140625" style="95" customWidth="1"/>
-    <col min="75" max="75" width="24.6640625" style="95" customWidth="1"/>
-    <col min="76" max="76" width="30.33203125" style="95" customWidth="1"/>
-    <col min="77" max="77" width="17.5546875" style="95" customWidth="1"/>
-    <col min="78" max="78" width="20.33203125" style="95" customWidth="1"/>
-    <col min="79" max="79" width="12.109375" style="95" customWidth="1"/>
-    <col min="80" max="80" width="21.44140625" style="95" customWidth="1"/>
-    <col min="81" max="81" width="24.109375" style="95" customWidth="1"/>
+    <col min="69" max="69" width="34.42578125" style="95" customWidth="1"/>
+    <col min="70" max="70" width="26.7109375" style="95" customWidth="1"/>
+    <col min="71" max="72" width="17.28515625" style="95" customWidth="1"/>
+    <col min="73" max="73" width="34.140625" style="95" customWidth="1"/>
+    <col min="74" max="74" width="28.42578125" style="95" customWidth="1"/>
+    <col min="75" max="75" width="24.7109375" style="95" customWidth="1"/>
+    <col min="76" max="76" width="30.28515625" style="95" customWidth="1"/>
+    <col min="77" max="77" width="17.5703125" style="95" customWidth="1"/>
+    <col min="78" max="78" width="20.28515625" style="95" customWidth="1"/>
+    <col min="79" max="79" width="12.140625" style="95" customWidth="1"/>
+    <col min="80" max="80" width="21.42578125" style="95" customWidth="1"/>
+    <col min="81" max="81" width="24.140625" style="95" customWidth="1"/>
     <col min="82" max="82" width="16" style="95" customWidth="1"/>
     <col min="83" max="83" width="14" style="95" customWidth="1"/>
-    <col min="84" max="84" width="16.6640625" style="95" customWidth="1"/>
+    <col min="84" max="84" width="16.7109375" style="95" customWidth="1"/>
     <col min="85" max="85" width="10" style="95" customWidth="1"/>
-    <col min="86" max="86" width="8.5546875" style="95" customWidth="1"/>
-    <col min="87" max="87" width="19.109375" style="95" customWidth="1"/>
-    <col min="88" max="88" width="37.6640625" style="95" customWidth="1"/>
-    <col min="89" max="89" width="15.88671875" style="95" customWidth="1"/>
-    <col min="90" max="90" width="9.33203125" style="95" customWidth="1"/>
-    <col min="91" max="92" width="16.6640625" style="95" customWidth="1"/>
-    <col min="93" max="93" width="12.88671875" style="95" customWidth="1"/>
-    <col min="94" max="94" width="32.44140625" style="95" customWidth="1"/>
-    <col min="95" max="95" width="11.6640625" style="95" customWidth="1"/>
+    <col min="86" max="86" width="8.5703125" style="95" customWidth="1"/>
+    <col min="87" max="87" width="19.140625" style="95" customWidth="1"/>
+    <col min="88" max="88" width="37.7109375" style="95" customWidth="1"/>
+    <col min="89" max="89" width="15.85546875" style="95" customWidth="1"/>
+    <col min="90" max="90" width="9.28515625" style="95" customWidth="1"/>
+    <col min="91" max="92" width="16.7109375" style="95" customWidth="1"/>
+    <col min="93" max="93" width="12.85546875" style="95" customWidth="1"/>
+    <col min="94" max="94" width="32.42578125" style="95" customWidth="1"/>
+    <col min="95" max="95" width="11.7109375" style="95" customWidth="1"/>
     <col min="96" max="96" width="35" style="95" customWidth="1"/>
-    <col min="97" max="97" width="18.109375" style="95" customWidth="1"/>
-    <col min="98" max="98" width="15.6640625" style="95" customWidth="1"/>
+    <col min="97" max="97" width="18.140625" style="95" customWidth="1"/>
+    <col min="98" max="98" width="15.7109375" style="95" customWidth="1"/>
     <col min="99" max="99" width="24" style="95" customWidth="1"/>
-    <col min="100" max="100" width="11.5546875" style="95" customWidth="1"/>
-    <col min="101" max="101" width="8.33203125" style="95" customWidth="1"/>
-    <col min="102" max="102" width="16.5546875" style="95" customWidth="1"/>
-    <col min="103" max="103" width="32.88671875" style="95" customWidth="1"/>
-    <col min="104" max="104" width="18.6640625" style="95" customWidth="1"/>
-    <col min="105" max="105" width="18.33203125" style="95" customWidth="1"/>
-    <col min="106" max="106" width="10.44140625" style="95" customWidth="1"/>
-    <col min="107" max="107" width="9.6640625" style="95" customWidth="1"/>
-    <col min="108" max="108" width="12.6640625" style="95" customWidth="1"/>
-    <col min="109" max="109" width="11.6640625" style="95" customWidth="1"/>
+    <col min="100" max="100" width="11.5703125" style="95" customWidth="1"/>
+    <col min="101" max="101" width="8.28515625" style="95" customWidth="1"/>
+    <col min="102" max="102" width="16.5703125" style="95" customWidth="1"/>
+    <col min="103" max="103" width="32.85546875" style="95" customWidth="1"/>
+    <col min="104" max="104" width="18.7109375" style="95" customWidth="1"/>
+    <col min="105" max="105" width="18.28515625" style="95" customWidth="1"/>
+    <col min="106" max="106" width="10.42578125" style="95" customWidth="1"/>
+    <col min="107" max="107" width="9.7109375" style="95" customWidth="1"/>
+    <col min="108" max="108" width="12.7109375" style="95" customWidth="1"/>
+    <col min="109" max="109" width="11.7109375" style="95" customWidth="1"/>
     <col min="110" max="110" width="24" style="95" customWidth="1"/>
-    <col min="111" max="111" width="43.6640625" style="95" customWidth="1"/>
-    <col min="112" max="112" width="44.88671875" style="95" customWidth="1"/>
-    <col min="113" max="113" width="30.109375" style="95" customWidth="1"/>
-    <col min="114" max="114" width="29.44140625" style="95" customWidth="1"/>
-    <col min="115" max="115" width="25.33203125" style="95" customWidth="1"/>
-    <col min="116" max="116" width="9.5546875" style="95" customWidth="1"/>
-    <col min="117" max="117" width="25.6640625" style="95" customWidth="1"/>
-    <col min="118" max="118" width="19.6640625" style="95" customWidth="1"/>
-    <col min="119" max="119" width="28.5546875" style="95" customWidth="1"/>
-    <col min="120" max="120" width="21.109375" style="95" customWidth="1"/>
-    <col min="121" max="121" width="14.5546875" style="95" customWidth="1"/>
-    <col min="122" max="122" width="20.5546875" style="95" customWidth="1"/>
-    <col min="123" max="123" width="18.33203125" style="95" customWidth="1"/>
-    <col min="124" max="124" width="18.88671875" style="95" customWidth="1"/>
+    <col min="111" max="111" width="43.7109375" style="95" customWidth="1"/>
+    <col min="112" max="112" width="44.85546875" style="95" customWidth="1"/>
+    <col min="113" max="113" width="30.140625" style="95" customWidth="1"/>
+    <col min="114" max="114" width="29.42578125" style="95" customWidth="1"/>
+    <col min="115" max="115" width="25.28515625" style="95" customWidth="1"/>
+    <col min="116" max="116" width="9.5703125" style="95" customWidth="1"/>
+    <col min="117" max="117" width="25.7109375" style="95" customWidth="1"/>
+    <col min="118" max="118" width="19.7109375" style="95" customWidth="1"/>
+    <col min="119" max="119" width="28.5703125" style="95" customWidth="1"/>
+    <col min="120" max="120" width="21.140625" style="95" customWidth="1"/>
+    <col min="121" max="121" width="14.5703125" style="95" customWidth="1"/>
+    <col min="122" max="122" width="20.5703125" style="95" customWidth="1"/>
+    <col min="123" max="123" width="18.28515625" style="95" customWidth="1"/>
+    <col min="124" max="124" width="18.85546875" style="95" customWidth="1"/>
     <col min="125" max="125" width="35" style="95" customWidth="1"/>
     <col min="126" max="126" width="20" style="95" customWidth="1"/>
-    <col min="127" max="127" width="32.44140625" style="95" customWidth="1"/>
-    <col min="128" max="128" width="21.5546875" style="95" customWidth="1"/>
-    <col min="129" max="129" width="13.5546875" style="95" customWidth="1"/>
-    <col min="130" max="130" width="26.33203125" style="95" customWidth="1"/>
-    <col min="131" max="131" width="19.109375" style="95" customWidth="1"/>
+    <col min="127" max="127" width="32.42578125" style="95" customWidth="1"/>
+    <col min="128" max="128" width="21.5703125" style="95" customWidth="1"/>
+    <col min="129" max="129" width="13.5703125" style="95" customWidth="1"/>
+    <col min="130" max="130" width="26.28515625" style="95" customWidth="1"/>
+    <col min="131" max="131" width="19.140625" style="95" customWidth="1"/>
     <col min="132" max="132" width="44" style="95" customWidth="1"/>
-    <col min="133" max="133" width="23.5546875" style="95" customWidth="1"/>
-    <col min="134" max="134" width="26.33203125" style="95" customWidth="1"/>
-    <col min="135" max="135" width="34.88671875" style="95" customWidth="1"/>
-    <col min="136" max="136" width="9.109375" style="95" customWidth="1"/>
-    <col min="137" max="137" width="15.88671875" style="95" customWidth="1"/>
-    <col min="138" max="162" width="8.88671875" style="61" customWidth="1"/>
-    <col min="163" max="16384" width="8.88671875" style="61"/>
+    <col min="133" max="133" width="23.5703125" style="95" customWidth="1"/>
+    <col min="134" max="134" width="26.28515625" style="95" customWidth="1"/>
+    <col min="135" max="135" width="34.85546875" style="95" customWidth="1"/>
+    <col min="136" max="136" width="9.140625" style="95" customWidth="1"/>
+    <col min="137" max="137" width="15.85546875" style="95" customWidth="1"/>
+    <col min="138" max="162" width="8.85546875" style="61" customWidth="1"/>
+    <col min="163" max="16384" width="8.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="105" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="105" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -15029,7 +15113,7 @@
       <c r="CX1" s="158"/>
       <c r="CY1" s="158"/>
     </row>
-    <row r="2" spans="1:103" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="130" t="s">
         <v>17</v>
       </c>
@@ -15132,7 +15216,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A3" s="134">
         <v>2</v>
       </c>
@@ -15235,7 +15319,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A4" s="134">
         <v>3</v>
       </c>
@@ -15340,7 +15424,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A5" s="130" t="s">
         <v>34</v>
       </c>
@@ -15458,57 +15542,57 @@
       <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="25" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="23.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="23.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="23.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="23.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="34.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="16.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17" style="25" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="20" style="25" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="51" max="73" width="9.109375" style="25" customWidth="1"/>
-    <col min="74" max="16384" width="9.109375" style="25"/>
+    <col min="51" max="73" width="9.140625" style="25" customWidth="1"/>
+    <col min="74" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="85" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="85" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -15672,7 +15756,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>34</v>
       </c>
@@ -15833,7 +15917,7 @@
         <v>41.46</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -15845,7 +15929,7 @@
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="170">
         <v>2</v>
       </c>
@@ -15857,7 +15941,7 @@
       <c r="AY4" s="11"/>
       <c r="AZ4" s="11"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="170">
         <v>3</v>
       </c>
@@ -15878,31 +15962,31 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="25" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="10.44140625" style="25" customWidth="1"/>
-    <col min="25" max="16384" width="10.44140625" style="25"/>
+    <col min="9" max="9" width="21.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="25" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="10.42578125" style="25" customWidth="1"/>
+    <col min="25" max="16384" width="10.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="31" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="31" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -15958,7 +16042,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -15989,7 +16073,7 @@
       <c r="Q2" s="35"/>
       <c r="R2" s="40"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
@@ -16020,7 +16104,7 @@
       <c r="Q3" s="35"/>
       <c r="R3" s="40"/>
     </row>
-    <row r="4" spans="1:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>29</v>
       </c>
@@ -16051,7 +16135,7 @@
       <c r="Q4" s="35"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>34</v>
       </c>
@@ -16082,7 +16166,7 @@
       <c r="Q5" s="35"/>
       <c r="R5" s="40"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
@@ -16113,7 +16197,7 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="40"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>42</v>
       </c>
@@ -16157,7 +16241,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>46</v>
       </c>
@@ -16175,7 +16259,7 @@
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>50</v>
       </c>
@@ -16217,7 +16301,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>54</v>
       </c>
@@ -16261,7 +16345,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>58</v>
       </c>
@@ -16303,7 +16387,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>62</v>
       </c>
@@ -16363,126 +16447,126 @@
       <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="36" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="36" customWidth="1"/>
-    <col min="11" max="12" width="16.88671875" style="36" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="36" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" style="36" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="36" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="36" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" style="36" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="36" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" style="36" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="36" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" style="36" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="36" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="36" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="36" customWidth="1"/>
     <col min="21" max="21" width="24" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="36" customWidth="1"/>
-    <col min="23" max="23" width="26.5546875" style="36" customWidth="1"/>
-    <col min="24" max="24" width="27.88671875" style="36" customWidth="1"/>
-    <col min="25" max="25" width="29.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.6640625" style="36" customWidth="1"/>
-    <col min="27" max="27" width="25.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5546875" style="36" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" style="36" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="36" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" style="36" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" style="36" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" style="36" customWidth="1"/>
+    <col min="25" max="25" width="29.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.7109375" style="36" customWidth="1"/>
+    <col min="27" max="27" width="25.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="36" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="36" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="36" customWidth="1"/>
     <col min="31" max="31" width="23" style="36" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="36" customWidth="1"/>
-    <col min="33" max="33" width="27.109375" style="36" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" style="36" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" style="36" customWidth="1"/>
-    <col min="36" max="36" width="23.44140625" style="36" customWidth="1"/>
-    <col min="37" max="38" width="44.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="19.88671875" style="36" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="36" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="36" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="36" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="36" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="36" customWidth="1"/>
+    <col min="37" max="38" width="44.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="19.85546875" style="36" customWidth="1"/>
     <col min="41" max="41" width="25" style="36" customWidth="1"/>
-    <col min="42" max="42" width="24.44140625" style="36" customWidth="1"/>
-    <col min="43" max="43" width="28.88671875" style="36" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="36" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" style="36" customWidth="1"/>
     <col min="44" max="44" width="36" style="36" customWidth="1"/>
-    <col min="45" max="45" width="34.44140625" style="36" customWidth="1"/>
-    <col min="46" max="46" width="26.6640625" style="36" customWidth="1"/>
-    <col min="47" max="47" width="17.33203125" style="36" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="35.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="29.44140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="25.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.88671875" style="36" customWidth="1"/>
-    <col min="53" max="53" width="31.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="34.42578125" style="36" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" style="36" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="36" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="35.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="29.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.85546875" style="36" customWidth="1"/>
+    <col min="53" max="53" width="31.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" style="36" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="32.44140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="26.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="28" style="36" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="31.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="17.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="31.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="17.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="21" style="36" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="22" style="36" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="22" style="36" customWidth="1"/>
-    <col min="67" max="67" width="17.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="24.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.44140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="19.44140625" style="36" customWidth="1"/>
-    <col min="72" max="72" width="21.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="17.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="17.33203125" style="36" customWidth="1"/>
-    <col min="76" max="76" width="17.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="17.5546875" style="36" customWidth="1"/>
-    <col min="79" max="79" width="26.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="34.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="27.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="19.42578125" style="36" customWidth="1"/>
+    <col min="72" max="72" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="17.28515625" style="36" customWidth="1"/>
+    <col min="76" max="76" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="17.5703125" style="36" customWidth="1"/>
+    <col min="79" max="79" width="26.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="34.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="27.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="20" style="36" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="36.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="23.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="34.44140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.44140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.44140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="42.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="47.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="36.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="18.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="34.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="42.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="47.85546875" style="63" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="29" style="36" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="28.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="24.5546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="28.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="24.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.85546875" style="63" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="25" style="63" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="19.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="28.44140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="21.109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14.44140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="20.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="19.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="28.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="21.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="20.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="24" style="36" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="18.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="18.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="18.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="35" style="36" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="19.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="32.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="21.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="25.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="34.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="24.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="121" max="124" width="9.109375" style="61" customWidth="1"/>
-    <col min="125" max="16384" width="9.109375" style="61"/>
+    <col min="112" max="112" width="19.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="32.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="25.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="24.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="121" max="124" width="9.140625" style="61" customWidth="1"/>
+    <col min="125" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:120" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -16844,7 +16928,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="2" spans="1:120" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:120" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -17196,7 +17280,7 @@
       </c>
       <c r="DP2" s="55"/>
     </row>
-    <row r="3" spans="1:120" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:120" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -17548,7 +17632,7 @@
       </c>
       <c r="DP3" s="55"/>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -17904,7 +17988,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
         <v>34</v>
       </c>
@@ -18256,7 +18340,7 @@
       </c>
       <c r="DP5" s="58"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
         <v>38</v>
       </c>
@@ -18624,29 +18708,29 @@
       <selection pane="topRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="24.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="9.109375" style="61" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="61"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="24.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.140625" style="61" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="105" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="105" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -18699,7 +18783,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -18750,7 +18834,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -18801,7 +18885,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -18852,7 +18936,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -18903,7 +18987,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -18967,30 +19051,30 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="61" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="9.109375" style="61" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="61"/>
+    <col min="18" max="21" width="9.140625" style="61" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -19044,7 +19128,7 @@
       </c>
       <c r="R1" s="67"/>
     </row>
-    <row r="2" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -19097,7 +19181,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -19150,7 +19234,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -19203,7 +19287,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -19256,7 +19340,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -19322,35 +19406,35 @@
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="61" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" style="61" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="18" style="61" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="26.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="26.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="9.109375" style="61" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="61"/>
+    <col min="25" max="28" width="9.140625" style="61" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="105" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="105" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -19425,7 +19509,7 @@
       </c>
       <c r="Y1" s="93"/>
     </row>
-    <row r="2" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>17</v>
       </c>
@@ -19499,7 +19583,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -19573,7 +19657,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -19647,7 +19731,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -19721,7 +19805,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -19809,39 +19893,39 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="21.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="21.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="21" style="61" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="22" style="61" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="20.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="23.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="44.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="26.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="44.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="20.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="23.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="44.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="26.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="44.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" style="61" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="9.109375" style="61" customWidth="1"/>
-    <col min="41" max="16384" width="9.109375" style="61"/>
+    <col min="37" max="40" width="9.140625" style="61" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -19951,7 +20035,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -20057,7 +20141,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -20163,7 +20247,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -20269,7 +20353,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -20375,7 +20459,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -20495,67 +20579,67 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21" style="61" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="19.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="17.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="17.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" style="61" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20" style="61" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="34.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="34.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.28515625" style="61" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="20" style="61" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="36.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="35.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="9.109375" style="61" customWidth="1"/>
-    <col min="64" max="16384" width="9.109375" style="61"/>
+    <col min="52" max="52" width="11.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="36.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="35.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="9.140625" style="61" customWidth="1"/>
+    <col min="64" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -20740,7 +20824,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="2" spans="1:61" s="95" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>17</v>
       </c>
@@ -20915,7 +20999,7 @@
       <c r="BH2" s="58"/>
       <c r="BI2" s="58"/>
     </row>
-    <row r="3" spans="1:61" s="95" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -21090,7 +21174,7 @@
       <c r="BH3" s="58"/>
       <c r="BI3" s="58"/>
     </row>
-    <row r="4" spans="1:61" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -21265,7 +21349,7 @@
       <c r="BH4" s="58"/>
       <c r="BI4" s="58"/>
     </row>
-    <row r="5" spans="1:61" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -21440,7 +21524,7 @@
       <c r="BH5" s="58"/>
       <c r="BI5" s="58"/>
     </row>
-    <row r="6" spans="1:61" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -21632,61 +21716,61 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="43.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="23.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="23.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="23.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="23.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18" style="61" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.88671875" style="61" customWidth="1"/>
-    <col min="39" max="39" width="16.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="45.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" style="61" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="45.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.7109375" style="61" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="28" style="61" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="24" style="61" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="51" max="54" width="9.109375" style="61" customWidth="1"/>
-    <col min="55" max="16384" width="9.109375" style="61"/>
+    <col min="47" max="47" width="18.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="9.140625" style="61" customWidth="1"/>
+    <col min="55" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="105" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="105" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -21838,7 +21922,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -21981,7 +22065,7 @@
       <c r="BB2" s="100"/>
       <c r="BC2" s="100"/>
     </row>
-    <row r="3" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -22126,7 +22210,7 @@
       <c r="BB3" s="100"/>
       <c r="BC3" s="100"/>
     </row>
-    <row r="4" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -22269,7 +22353,7 @@
       <c r="AZ4" s="100"/>
       <c r="BA4" s="100"/>
     </row>
-    <row r="5" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -22402,7 +22486,7 @@
       <c r="AZ5" s="100"/>
       <c r="BA5" s="100"/>
     </row>
-    <row r="6" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -22480,56 +22564,56 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="43.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21" style="61" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" style="61" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.28515625" style="61" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" style="61" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="4.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="36" max="39" width="3" style="61" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17" style="61" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.5703125" style="61" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="2" style="61" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="28" style="61" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="24" style="61" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="9.109375" style="61" customWidth="1"/>
-    <col min="56" max="16384" width="9.109375" style="61"/>
+    <col min="49" max="49" width="10.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="9.140625" style="61" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="105" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="105" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -22615,7 +22699,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -22699,7 +22783,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -22783,7 +22867,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -22863,7 +22947,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -22949,7 +23033,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -23035,7 +23119,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="69"/>
     </row>
   </sheetData>
@@ -23051,80 +23135,80 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" style="61" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="61" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="17.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="17.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" style="61" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19" style="61" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.42578125" style="61" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="18" style="61" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.5703125" style="61" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="23" style="61" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="24" style="61" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="18.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="20.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="29.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="20.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.7109375" style="61" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="29" style="61" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="20" style="61" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.7109375" style="61" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="21" style="61" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="36.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="21.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="23.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="36.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="21.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="23.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.140625" style="61" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="29" style="61" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="15.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="75" max="79" width="9.109375" style="61" customWidth="1"/>
-    <col min="80" max="16384" width="9.109375" style="61"/>
+    <col min="73" max="73" width="5.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="75" max="79" width="9.140625" style="61" customWidth="1"/>
+    <col min="80" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="54" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" s="54" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -23348,7 +23432,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -23564,7 +23648,7 @@
       </c>
       <c r="BV2" s="55"/>
     </row>
-    <row r="3" spans="1:74" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -23780,7 +23864,7 @@
       </c>
       <c r="BV3" s="55"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A4" s="58">
         <v>3</v>
       </c>
@@ -23996,7 +24080,7 @@
       </c>
       <c r="BV4" s="55"/>
     </row>
-    <row r="5" spans="1:74" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -24212,7 +24296,7 @@
       </c>
       <c r="BV5" s="55"/>
     </row>
-    <row r="6" spans="1:74" s="36" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" s="36" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -24437,48 +24521,51 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="46.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.109375" style="25" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="9.109375" style="25" customWidth="1"/>
-    <col min="34" max="16384" width="9.109375" style="25"/>
+    <col min="19" max="19" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="47.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="25" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -24566,13 +24653,22 @@
       <c r="AC1" s="81" t="s">
         <v>637</v>
       </c>
+      <c r="AD1" s="81" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AE1" s="81" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AF1" s="78" t="s">
+        <v>1147</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>1002</v>
@@ -24608,10 +24704,10 @@
         <v>660</v>
       </c>
       <c r="N2" s="82" t="s">
-        <v>1240</v>
+        <v>1465</v>
       </c>
       <c r="O2" s="62" t="s">
-        <v>1241</v>
+        <v>1466</v>
       </c>
       <c r="P2" s="55" t="s">
         <v>1242</v>
@@ -24629,17 +24725,17 @@
       <c r="U2" s="55" t="s">
         <v>1246</v>
       </c>
-      <c r="V2" s="56" t="s">
-        <v>1247</v>
+      <c r="V2" s="179" t="s">
+        <v>1467</v>
       </c>
       <c r="W2" s="83" t="s">
-        <v>1248</v>
+        <v>1468</v>
       </c>
       <c r="X2" s="56" t="s">
-        <v>1249</v>
+        <v>1469</v>
       </c>
       <c r="Y2" s="56" t="s">
-        <v>1250</v>
+        <v>1470</v>
       </c>
       <c r="Z2" s="56" t="s">
         <v>647</v>
@@ -24648,13 +24744,22 @@
         <v>722</v>
       </c>
       <c r="AB2" s="55" t="s">
-        <v>1251</v>
+        <v>1471</v>
       </c>
       <c r="AC2" s="55" t="s">
         <v>665</v>
       </c>
+      <c r="AD2" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE2" s="55" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AF2" s="89" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -24740,8 +24845,11 @@
       <c r="AC3" s="55" t="s">
         <v>665</v>
       </c>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="56"/>
     </row>
-    <row r="4" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -24827,8 +24935,11 @@
       <c r="AC4" s="55" t="s">
         <v>665</v>
       </c>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="56"/>
     </row>
-    <row r="5" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -24914,8 +25025,11 @@
       <c r="AC5" s="55" t="s">
         <v>665</v>
       </c>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="56"/>
     </row>
-    <row r="6" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -25001,6 +25115,9 @@
       <c r="AC6" s="55" t="s">
         <v>665</v>
       </c>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25009,26 +25126,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25056,9 +25177,15 @@
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -25067,7 +25194,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
@@ -25081,7 +25208,7 @@
         <v>600000</v>
       </c>
       <c r="E2" s="27"/>
-      <c r="F2" t="s">
+      <c r="F2" s="25" t="s">
         <v>228</v>
       </c>
       <c r="G2" s="44"/>
@@ -25098,7 +25225,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
@@ -25112,13 +25239,13 @@
       <c r="E3" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>29</v>
       </c>
@@ -25134,11 +25261,11 @@
       <c r="H4" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>34</v>
       </c>
@@ -25148,7 +25275,7 @@
       <c r="C5" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="25" t="s">
         <v>228</v>
       </c>
       <c r="G5" s="44" t="s">
@@ -25157,11 +25284,11 @@
       <c r="H5" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>38</v>
       </c>
@@ -25171,8 +25298,30 @@
       <c r="C6" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="25" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25190,54 +25339,54 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="21.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="21.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30" style="25" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="28.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="22.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="19.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="23.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="23.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="28.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="19.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="23.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="23.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="9.109375" style="25" customWidth="1"/>
-    <col min="54" max="16384" width="9.109375" style="25"/>
+    <col min="50" max="53" width="9.140625" style="25" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -25386,7 +25535,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -25529,7 +25678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -25672,7 +25821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -25815,7 +25964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -25958,7 +26107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -26101,7 +26250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C8" s="84"/>
     </row>
   </sheetData>
@@ -26122,60 +26271,60 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" style="61" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="61" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="43.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="43.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" style="61" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="61" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" style="61" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21" style="61" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.140625" style="61" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11" style="61" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.28515625" style="61" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12" style="61" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="9.109375" style="61" customWidth="1"/>
-    <col min="54" max="16384" width="9.109375" style="61"/>
+    <col min="50" max="53" width="9.140625" style="61" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="105" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -26318,7 +26467,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -26443,7 +26592,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -26568,7 +26717,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -26693,7 +26842,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -26818,7 +26967,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -26943,7 +27092,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C8" s="69"/>
     </row>
   </sheetData>
@@ -26961,55 +27110,55 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="23.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="23.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="23.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="23.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="16.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17" style="25" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20" style="25" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="62" width="9.109375" style="25" customWidth="1"/>
-    <col min="63" max="16384" width="9.109375" style="25"/>
+    <col min="50" max="62" width="9.140625" style="25" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -27143,7 +27292,7 @@
       <c r="AS1" s="51"/>
       <c r="AT1" s="51"/>
     </row>
-    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -27267,7 +27416,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
@@ -27391,7 +27540,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>29</v>
       </c>
@@ -27515,7 +27664,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>34</v>
       </c>
@@ -27655,7 +27804,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
@@ -27804,35 +27953,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D10AC09-0499-4DA8-8C33-AF1F3438A864}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="25"/>
-    <col min="2" max="2" width="27.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="25"/>
-    <col min="13" max="13" width="27.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="8.85546875" style="25"/>
+    <col min="2" max="2" width="27.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="25"/>
+    <col min="13" max="13" width="27.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="15" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="15" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
@@ -27897,7 +28046,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56">
         <v>1</v>
       </c>
@@ -27962,7 +28111,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56">
         <v>2</v>
       </c>
@@ -28027,7 +28176,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="56">
         <v>3</v>
       </c>
@@ -28092,7 +28241,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>4</v>
       </c>
@@ -28157,7 +28306,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>38</v>
       </c>
@@ -28238,31 +28387,31 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="9.109375" style="25" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="25"/>
+    <col min="18" max="18" width="20.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="9.140625" style="25" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="31" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="31" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -28318,7 +28467,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -28350,7 +28499,7 @@
       <c r="Q2" s="35"/>
       <c r="R2" s="40"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
@@ -28382,7 +28531,7 @@
       <c r="Q3" s="35"/>
       <c r="R3" s="40"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>29</v>
       </c>
@@ -28414,7 +28563,7 @@
       <c r="Q4" s="35"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
@@ -28446,7 +28595,7 @@
       <c r="Q5" s="35"/>
       <c r="R5" s="40"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
@@ -28478,7 +28627,7 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="40"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -28520,7 +28669,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>46</v>
       </c>
@@ -28566,7 +28715,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>50</v>
       </c>
@@ -28608,7 +28757,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>54</v>
       </c>
@@ -28652,7 +28801,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>58</v>
       </c>
@@ -28694,7 +28843,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>62</v>
       </c>
@@ -28749,21 +28898,21 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="20" width="8.88671875" style="25" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="25"/>
+    <col min="5" max="5" width="33.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="8.85546875" style="25" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28798,7 +28947,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -28822,7 +28971,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
@@ -28854,7 +29003,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>29</v>
       </c>
@@ -28868,7 +29017,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
@@ -28882,7 +29031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
@@ -28912,21 +29061,21 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="126.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="1" width="6.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="126.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -28955,7 +29104,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
@@ -28979,7 +29128,7 @@
       </c>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
@@ -29003,7 +29152,7 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>29</v>
       </c>
@@ -29025,7 +29174,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
@@ -29054,7 +29203,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
@@ -29080,7 +29229,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -29122,29 +29271,29 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="112" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" style="112" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="112" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" style="112" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="112" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="108" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.109375" style="108" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="108"/>
+    <col min="15" max="15" width="15.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="108" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
@@ -29194,7 +29343,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="109" t="s">
         <v>17</v>
       </c>
@@ -29226,7 +29375,7 @@
       <c r="O2" s="109"/>
       <c r="P2" s="109"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="109" t="s">
         <v>24</v>
       </c>
@@ -29262,7 +29411,7 @@
       <c r="O3" s="109"/>
       <c r="P3" s="109"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="109" t="s">
         <v>29</v>
       </c>
@@ -29300,7 +29449,7 @@
       </c>
       <c r="P4" s="109"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="109" t="s">
         <v>34</v>
       </c>
@@ -29344,7 +29493,7 @@
       <c r="O5" s="109"/>
       <c r="P5" s="109"/>
     </row>
-    <row r="6" spans="1:16" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
         <v>38</v>
       </c>
@@ -29400,24 +29549,24 @@
       <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="50" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -29464,7 +29613,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -29487,7 +29636,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -29531,7 +29680,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -29576,7 +29725,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -29619,7 +29768,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -29667,20 +29816,20 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="161.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.109375" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="161.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
@@ -29706,7 +29855,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -29728,7 +29877,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -29750,7 +29899,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -29772,7 +29921,7 @@
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -29796,7 +29945,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -29820,7 +29969,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -29842,7 +29991,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -29864,7 +30013,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -29888,7 +30037,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Dataset_AU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723453\Desktop\My Dataset\AMS_Sprint37\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CCBCAC-170B-4E0A-BE3C-E40605D8A145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD02618C-80EE-4176-9847-4CAC47CD2224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6616" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6616" uniqueCount="1475">
   <si>
     <t>rowid</t>
   </si>
@@ -4363,9 +4363,6 @@
   </si>
   <si>
     <t>41</t>
-  </si>
-  <si>
-    <t>Page2</t>
   </si>
   <si>
     <t>21-Oct-2022</t>
@@ -5581,7 +5578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6682,7 +6679,7 @@
         <v>129</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -7127,7 +7124,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>1431</v>
@@ -7166,7 +7163,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>298</v>
@@ -7178,7 +7175,7 @@
         <v>298</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>1428</v>
@@ -7200,7 +7197,7 @@
         <v>138</v>
       </c>
       <c r="Q44" s="25" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -7249,11 +7246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7314,16 +7311,16 @@
         <v>223</v>
       </c>
       <c r="O1" s="14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>1443</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>1444</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -7349,7 +7346,7 @@
         <v>289</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>230</v>
@@ -7358,19 +7355,19 @@
         <v>685</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>1438</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>1439</v>
       </c>
       <c r="P2" s="25">
         <v>41.46</v>
       </c>
       <c r="Q2" s="25" t="s">
+        <v>1439</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>1440</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -7475,13 +7472,13 @@
         <v>1432</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>1436</v>
+        <v>331</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>289</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>230</v>
@@ -7490,19 +7487,19 @@
         <v>685</v>
       </c>
       <c r="N5" s="25" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>1438</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>1439</v>
       </c>
       <c r="P5" s="25">
         <v>41.46</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>1439</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>1440</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -10936,10 +10933,10 @@
         <v>223</v>
       </c>
       <c r="BO1" s="14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BP1" s="14" t="s">
         <v>1442</v>
-      </c>
-      <c r="BP1" s="14" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.2">
@@ -15735,7 +15732,7 @@
         <v>642</v>
       </c>
       <c r="AV1" s="14" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="AW1" s="116" t="s">
         <v>644</v>
@@ -15750,7 +15747,7 @@
         <v>223</v>
       </c>
       <c r="BA1" s="14" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="BB1" s="14" t="s">
         <v>643</v>
@@ -15788,7 +15785,7 @@
         <v>1500</v>
       </c>
       <c r="K2" s="175" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>425</v>
@@ -15857,7 +15854,7 @@
         <v>686</v>
       </c>
       <c r="AH2" s="56" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="AI2" s="56" t="s">
         <v>231</v>
@@ -15893,13 +15890,13 @@
         <v>1284</v>
       </c>
       <c r="AT2" s="25" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AU2" s="25" t="s">
         <v>683</v>
       </c>
       <c r="AV2" s="25" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="AW2" s="25" t="s">
         <v>230</v>
@@ -15911,7 +15908,7 @@
         <v>567</v>
       </c>
       <c r="AZ2" s="25" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="BA2" s="25">
         <v>41.46</v>
@@ -18345,7 +18342,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>1031</v>
@@ -18357,13 +18354,13 @@
         <v>30</v>
       </c>
       <c r="F6" s="56" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>1456</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="H6" s="56" t="s">
         <v>1457</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>1458</v>
       </c>
       <c r="I6" s="57" t="s">
         <v>421</v>
@@ -18583,10 +18580,10 @@
         <v>1022</v>
       </c>
       <c r="CD6" s="56" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="CE6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="CF6" s="55"/>
       <c r="CG6" s="60" t="s">
@@ -18614,10 +18611,10 @@
         <v>1026</v>
       </c>
       <c r="CO6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="CP6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="CQ6" s="60" t="s">
         <v>1027</v>
@@ -18656,7 +18653,7 @@
         <v>1029</v>
       </c>
       <c r="DC6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="DD6" s="55"/>
       <c r="DE6" s="55"/>
@@ -18992,10 +18989,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>1455</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>1456</v>
       </c>
       <c r="D6" s="57" t="s">
         <v>1063</v>
@@ -19005,13 +19002,13 @@
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H6" s="57" t="s">
         <v>1065</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J6" s="57" t="s">
         <v>1007</v>
@@ -19035,7 +19032,7 @@
         <v>100</v>
       </c>
       <c r="Q6" s="56" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
   </sheetData>
@@ -19345,13 +19342,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>1455</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>1456</v>
-      </c>
       <c r="D6" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>297</v>
@@ -19369,7 +19366,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="K6" s="57">
         <v>2</v>
@@ -19378,7 +19375,7 @@
         <v>1092</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="N6" s="57" t="s">
         <v>1093</v>
@@ -19810,7 +19807,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C6" s="56">
         <v>365</v>
@@ -19819,10 +19816,10 @@
         <v>1098</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>421</v>
@@ -19837,10 +19834,10 @@
         <v>421</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>1099</v>
@@ -20464,10 +20461,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D6" s="57" t="s">
         <v>557</v>
@@ -21529,13 +21526,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>1455</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>1456</v>
-      </c>
       <c r="D6" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>432</v>
@@ -21613,10 +21610,10 @@
         <v>1022</v>
       </c>
       <c r="AD6" s="56" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AE6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AF6" s="55"/>
       <c r="AG6" s="60" t="s">
@@ -21682,10 +21679,10 @@
         <v>456</v>
       </c>
       <c r="BC6" s="59" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="BD6" s="59" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="BE6" s="60" t="s">
         <v>432</v>
@@ -22491,13 +22488,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>1455</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>1456</v>
-      </c>
       <c r="D6" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E6" s="60"/>
       <c r="F6" s="55"/>
@@ -22509,7 +22506,7 @@
       <c r="L6" s="56"/>
       <c r="M6" s="60"/>
       <c r="N6" s="56" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="O6" s="60"/>
       <c r="P6" s="60"/>
@@ -24301,7 +24298,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>1389</v>
@@ -24316,7 +24313,7 @@
         <v>89</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H6" s="55"/>
       <c r="I6" s="56" t="s">
@@ -24401,7 +24398,7 @@
         <v>1204</v>
       </c>
       <c r="AJ6" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AK6" s="55" t="s">
         <v>1207</v>
@@ -24654,10 +24651,10 @@
         <v>637</v>
       </c>
       <c r="AD1" s="81" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AE1" s="81" t="s">
         <v>1463</v>
-      </c>
-      <c r="AE1" s="81" t="s">
-        <v>1464</v>
       </c>
       <c r="AF1" s="78" t="s">
         <v>1147</v>
@@ -24704,10 +24701,10 @@
         <v>660</v>
       </c>
       <c r="N2" s="82" t="s">
+        <v>1464</v>
+      </c>
+      <c r="O2" s="62" t="s">
         <v>1465</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>1466</v>
       </c>
       <c r="P2" s="55" t="s">
         <v>1242</v>
@@ -24726,16 +24723,16 @@
         <v>1246</v>
       </c>
       <c r="V2" s="179" t="s">
+        <v>1466</v>
+      </c>
+      <c r="W2" s="83" t="s">
         <v>1467</v>
       </c>
-      <c r="W2" s="83" t="s">
+      <c r="X2" s="56" t="s">
         <v>1468</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="Y2" s="56" t="s">
         <v>1469</v>
-      </c>
-      <c r="Y2" s="56" t="s">
-        <v>1470</v>
       </c>
       <c r="Z2" s="56" t="s">
         <v>647</v>
@@ -24744,7 +24741,7 @@
         <v>722</v>
       </c>
       <c r="AB2" s="55" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AC2" s="55" t="s">
         <v>665</v>
@@ -24753,7 +24750,7 @@
         <v>232</v>
       </c>
       <c r="AE2" s="55" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AF2" s="89" t="s">
         <v>38</v>
@@ -25034,13 +25031,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>1455</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>1456</v>
-      </c>
       <c r="D6" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>297</v>
@@ -25299,19 +25296,19 @@
         <v>227</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>232</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>1102</v>
@@ -26112,7 +26109,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>1169</v>
@@ -26972,7 +26969,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>1169</v>
@@ -27809,16 +27806,16 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>1455</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>1456</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>516</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F6" s="56" t="s">
         <v>1170</v>
@@ -28311,13 +28308,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="56" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>1455</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>1456</v>
-      </c>
       <c r="D6" s="56" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>1374</v>
@@ -28326,10 +28323,10 @@
         <v>1374</v>
       </c>
       <c r="G6" s="177" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I6" s="56" t="s">
         <v>297</v>
@@ -28353,7 +28350,7 @@
         <v>647</v>
       </c>
       <c r="P6" s="56" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="Q6" s="56">
         <v>30</v>
@@ -29340,7 +29337,7 @@
         <v>224</v>
       </c>
       <c r="P1" s="107" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -29518,11 +29515,11 @@
         <v>289</v>
       </c>
       <c r="J6" s="109" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="K6" s="109"/>
       <c r="L6" s="176" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M6" s="109"/>
       <c r="N6" s="109"/>
@@ -29530,7 +29527,7 @@
         <v>44855</v>
       </c>
       <c r="P6" s="109" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
   </sheetData>
